--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC459"/>
+  <dimension ref="A1:AC460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30785,380 +30785,348 @@
       <c r="AC417" s="5" t="inlineStr"/>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
+      <c r="A418" s="5" t="inlineStr"/>
+      <c r="B418" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C418" s="5" t="inlineStr">
+        <is>
+          <t>Test Test</t>
+        </is>
+      </c>
+      <c r="D418" s="5" t="inlineStr"/>
+      <c r="E418" s="5" t="inlineStr"/>
+      <c r="F418" s="5" t="inlineStr"/>
+      <c r="G418" s="5" t="inlineStr"/>
+      <c r="H418" s="5" t="inlineStr"/>
+      <c r="I418" s="5" t="inlineStr"/>
+      <c r="J418" s="5" t="inlineStr"/>
+      <c r="K418" s="5" t="inlineStr"/>
+      <c r="L418" s="5" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="M418" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N418" s="5" t="inlineStr"/>
+      <c r="O418" s="5" t="inlineStr"/>
+      <c r="P418" s="5" t="inlineStr"/>
+      <c r="Q418" s="5" t="inlineStr"/>
+      <c r="R418" s="5" t="inlineStr"/>
+      <c r="S418" s="5" t="inlineStr"/>
+      <c r="T418" s="5" t="inlineStr"/>
+      <c r="U418" s="5" t="inlineStr"/>
+      <c r="V418" s="5" t="inlineStr"/>
+      <c r="W418" s="5" t="inlineStr"/>
+      <c r="X418" s="5" t="inlineStr"/>
+      <c r="Y418" s="5" t="inlineStr"/>
+      <c r="Z418" s="5" t="inlineStr"/>
+      <c r="AA418" s="5" t="inlineStr"/>
+      <c r="AB418" s="5" t="inlineStr"/>
+      <c r="AC418" s="5" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
         <is>
           <t>CHEBI:66964</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
+      <c r="B419" t="inlineStr">
         <is>
           <t>tetrahydrocannabinol</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
+      <c r="C419" t="inlineStr">
         <is>
           <t xml:space="preserve">A diterpenoid that is 6a,7,8,10a-tetrahydro-6H-benzo[c]chromene substituted at position 1 by a hydroxy group, positions 6, 6 and 9 by methyl groups and at position 3 by a pentyl group. </t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
+      <c r="D419" t="inlineStr">
         <is>
           <t>cannabinoid</t>
         </is>
       </c>
-      <c r="E418" t="inlineStr">
+      <c r="E419" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G418" t="inlineStr">
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
         <is>
           <t>ChEBI definition does not highlight use for recreational purposes. Sold illicitly. Users seek out for its psychoactive properties. CHEBI: The principal psychoactive constituent of the cannabis plant, it is used for treatment of anorexia associated with AIDS as well as nausea and vomiting associated with cancer chemotherapy.</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr"/>
-      <c r="I418" t="n">
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="n">
         <v>1</v>
       </c>
-      <c r="J418" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M418" t="inlineStr">
+      <c r="M419" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N418" t="inlineStr"/>
-      <c r="O418" t="inlineStr"/>
-      <c r="P418" t="inlineStr"/>
-      <c r="Q418" t="inlineStr"/>
-      <c r="R418" t="inlineStr">
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
+      <c r="R419" t="inlineStr">
         <is>
           <t>CHEBI:66964</t>
         </is>
       </c>
-      <c r="S418" t="inlineStr"/>
-      <c r="T418" t="inlineStr"/>
-      <c r="U418" t="inlineStr"/>
-      <c r="V418" t="inlineStr"/>
-      <c r="W418" t="inlineStr"/>
-      <c r="X418" t="inlineStr"/>
-      <c r="Y418" t="inlineStr"/>
-      <c r="Z418" t="inlineStr"/>
-      <c r="AA418" t="inlineStr"/>
-      <c r="AB418" t="inlineStr">
+      <c r="S419" t="inlineStr"/>
+      <c r="T419" t="inlineStr"/>
+      <c r="U419" t="inlineStr"/>
+      <c r="V419" t="inlineStr"/>
+      <c r="W419" t="inlineStr"/>
+      <c r="X419" t="inlineStr"/>
+      <c r="Y419" t="inlineStr"/>
+      <c r="Z419" t="inlineStr"/>
+      <c r="AA419" t="inlineStr"/>
+      <c r="AB419" t="inlineStr">
         <is>
           <t>THC</t>
         </is>
       </c>
-      <c r="AC418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="5" t="inlineStr"/>
-      <c r="B419" s="5" t="inlineStr">
+      <c r="AC419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="5" t="inlineStr"/>
+      <c r="B420" s="5" t="inlineStr">
         <is>
           <t>thinso</t>
         </is>
       </c>
-      <c r="C419" s="5" t="inlineStr"/>
-      <c r="D419" s="5" t="inlineStr">
+      <c r="C420" s="5" t="inlineStr"/>
+      <c r="D420" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E419" s="5" t="inlineStr"/>
-      <c r="F419" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G419" s="5" t="inlineStr"/>
-      <c r="H419" s="5" t="inlineStr"/>
-      <c r="I419" s="5" t="inlineStr">
+      <c r="E420" s="5" t="inlineStr"/>
+      <c r="F420" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G420" s="5" t="inlineStr"/>
+      <c r="H420" s="5" t="inlineStr"/>
+      <c r="I420" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J419" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K419" s="5" t="inlineStr"/>
-      <c r="L419" s="5" t="inlineStr">
+      <c r="J420" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K420" s="5" t="inlineStr"/>
+      <c r="L420" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M419" s="5" t="inlineStr">
+      <c r="M420" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N419" s="5" t="inlineStr"/>
-      <c r="O419" s="5" t="inlineStr"/>
-      <c r="P419" s="5" t="inlineStr"/>
-      <c r="Q419" s="5" t="inlineStr"/>
-      <c r="R419" s="5" t="inlineStr"/>
-      <c r="S419" s="5" t="inlineStr"/>
-      <c r="T419" s="5" t="inlineStr"/>
-      <c r="U419" s="5" t="inlineStr"/>
-      <c r="V419" s="5" t="inlineStr"/>
-      <c r="W419" s="5" t="inlineStr"/>
-      <c r="X419" s="5" t="inlineStr"/>
-      <c r="Y419" s="5" t="inlineStr"/>
-      <c r="Z419" s="5" t="inlineStr"/>
-      <c r="AA419" s="5" t="inlineStr"/>
-      <c r="AB419" s="5" t="inlineStr"/>
-      <c r="AC419" s="5" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="4" t="inlineStr">
+      <c r="N420" s="5" t="inlineStr"/>
+      <c r="O420" s="5" t="inlineStr"/>
+      <c r="P420" s="5" t="inlineStr"/>
+      <c r="Q420" s="5" t="inlineStr"/>
+      <c r="R420" s="5" t="inlineStr"/>
+      <c r="S420" s="5" t="inlineStr"/>
+      <c r="T420" s="5" t="inlineStr"/>
+      <c r="U420" s="5" t="inlineStr"/>
+      <c r="V420" s="5" t="inlineStr"/>
+      <c r="W420" s="5" t="inlineStr"/>
+      <c r="X420" s="5" t="inlineStr"/>
+      <c r="Y420" s="5" t="inlineStr"/>
+      <c r="Z420" s="5" t="inlineStr"/>
+      <c r="AA420" s="5" t="inlineStr"/>
+      <c r="AB420" s="5" t="inlineStr"/>
+      <c r="AC420" s="5" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000303</t>
         </is>
       </c>
-      <c r="B420" s="4" t="inlineStr">
+      <c r="B421" s="4" t="inlineStr">
         <is>
           <t>tobacco</t>
         </is>
       </c>
-      <c r="C420" s="4" t="inlineStr">
+      <c r="C421" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A commodity that is formed from parts of the tobacco plant. </t>
         </is>
       </c>
-      <c r="D420" s="4" t="inlineStr">
+      <c r="D421" s="4" t="inlineStr">
         <is>
           <t>commodity</t>
         </is>
       </c>
-      <c r="E420" s="4" t="inlineStr">
+      <c r="E421" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F420" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G420" s="4" t="inlineStr"/>
-      <c r="H420" s="4" t="inlineStr"/>
-      <c r="I420" s="4" t="n">
+      <c r="F421" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G421" s="4" t="inlineStr"/>
+      <c r="H421" s="4" t="inlineStr"/>
+      <c r="I421" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J420" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K420" s="4" t="inlineStr"/>
-      <c r="L420" s="4" t="inlineStr">
+      <c r="J421" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K421" s="4" t="inlineStr"/>
+      <c r="L421" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M420" s="4" t="inlineStr">
+      <c r="M421" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N420" s="4" t="inlineStr"/>
-      <c r="O420" s="4" t="inlineStr"/>
-      <c r="P420" s="4" t="inlineStr"/>
-      <c r="Q420" s="4" t="inlineStr"/>
-      <c r="R420" s="4" t="inlineStr"/>
-      <c r="S420" s="4" t="inlineStr"/>
-      <c r="T420" s="4" t="inlineStr">
+      <c r="N421" s="4" t="inlineStr"/>
+      <c r="O421" s="4" t="inlineStr"/>
+      <c r="P421" s="4" t="inlineStr"/>
+      <c r="Q421" s="4" t="inlineStr"/>
+      <c r="R421" s="4" t="inlineStr"/>
+      <c r="S421" s="4" t="inlineStr"/>
+      <c r="T421" s="4" t="inlineStr">
         <is>
           <t>tobacco plant</t>
         </is>
       </c>
-      <c r="U420" s="4" t="inlineStr"/>
-      <c r="V420" s="4" t="inlineStr"/>
-      <c r="W420" s="4" t="inlineStr"/>
-      <c r="X420" s="4" t="inlineStr"/>
-      <c r="Y420" s="4" t="inlineStr"/>
-      <c r="Z420" s="4" t="inlineStr"/>
-      <c r="AA420" s="4" t="inlineStr"/>
-      <c r="AB420" s="4" t="inlineStr"/>
-      <c r="AC420" s="4" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="3" t="inlineStr">
+      <c r="U421" s="4" t="inlineStr"/>
+      <c r="V421" s="4" t="inlineStr"/>
+      <c r="W421" s="4" t="inlineStr"/>
+      <c r="X421" s="4" t="inlineStr"/>
+      <c r="Y421" s="4" t="inlineStr"/>
+      <c r="Z421" s="4" t="inlineStr"/>
+      <c r="AA421" s="4" t="inlineStr"/>
+      <c r="AB421" s="4" t="inlineStr"/>
+      <c r="AC421" s="4" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000306</t>
         </is>
       </c>
-      <c r="B421" s="3" t="inlineStr">
+      <c r="B422" s="3" t="inlineStr">
         <is>
           <t>tobacco advertising</t>
         </is>
       </c>
-      <c r="C421" s="3" t="inlineStr">
+      <c r="C422" s="3" t="inlineStr">
         <is>
           <t>Advertising of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D421" s="3" t="inlineStr">
+      <c r="D422" s="3" t="inlineStr">
         <is>
           <t>advertising</t>
         </is>
       </c>
-      <c r="E421" s="3" t="inlineStr">
+      <c r="E422" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F421" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G421" s="3" t="inlineStr"/>
-      <c r="H421" s="3" t="inlineStr"/>
-      <c r="I421" s="3" t="n">
+      <c r="F422" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G422" s="3" t="inlineStr"/>
+      <c r="H422" s="3" t="inlineStr"/>
+      <c r="I422" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J421" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K421" s="3" t="inlineStr"/>
-      <c r="L421" s="3" t="inlineStr">
+      <c r="J422" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K422" s="3" t="inlineStr"/>
+      <c r="L422" s="3" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M421" s="3" t="inlineStr">
+      <c r="M422" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N421" s="3" t="inlineStr"/>
-      <c r="O421" s="3" t="inlineStr"/>
-      <c r="P421" s="3" t="inlineStr"/>
-      <c r="Q421" s="3" t="inlineStr"/>
-      <c r="R421" s="3" t="inlineStr"/>
-      <c r="S421" s="3" t="inlineStr"/>
-      <c r="T421" s="3" t="inlineStr"/>
-      <c r="U421" s="3" t="inlineStr"/>
-      <c r="V421" s="3" t="inlineStr"/>
-      <c r="W421" s="3" t="inlineStr"/>
-      <c r="X421" s="3" t="inlineStr"/>
-      <c r="Y421" s="3" t="inlineStr"/>
-      <c r="Z421" s="3" t="inlineStr"/>
-      <c r="AA421" s="3" t="inlineStr"/>
-      <c r="AB421" s="3" t="inlineStr"/>
-      <c r="AC421" s="3" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001008</t>
-        </is>
-      </c>
-      <c r="B422" s="5" t="inlineStr">
-        <is>
-          <t>tobacco chewing gum</t>
-        </is>
-      </c>
-      <c r="C422" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, which is composed of finely ground tobacco , chewing gum base and xylitol. </t>
-        </is>
-      </c>
-      <c r="D422" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E422" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F422" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G422" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> It is commercially manufactured and used as a chewing gum. </t>
-        </is>
-      </c>
-      <c r="H422" s="5" t="inlineStr">
-        <is>
-          <t>https://publications.iarc.fr/Book-And-Report-Series/Iarc-Monographs-On-The-Identification-Of-Carcinogenic-Hazards-To-Humans/Smokeless-Tobacco-And-Some-Tobacco-specific-Em-N-Em--Nitrosamines-2007</t>
-        </is>
-      </c>
-      <c r="I422" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J422" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K422" s="5" t="inlineStr"/>
-      <c r="L422" s="5" t="inlineStr">
-        <is>
-          <t>KS; UoY; RW</t>
-        </is>
-      </c>
-      <c r="M422" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N422" s="5" t="inlineStr"/>
-      <c r="O422" s="5" t="inlineStr"/>
-      <c r="P422" s="5" t="inlineStr"/>
-      <c r="Q422" s="5" t="inlineStr"/>
-      <c r="R422" s="5" t="inlineStr"/>
-      <c r="S422" s="5" t="inlineStr"/>
-      <c r="T422" s="5" t="inlineStr"/>
-      <c r="U422" s="5" t="inlineStr"/>
-      <c r="V422" s="5" t="inlineStr"/>
-      <c r="W422" s="5" t="inlineStr"/>
-      <c r="X422" s="5" t="inlineStr"/>
-      <c r="Y422" s="5" t="inlineStr"/>
-      <c r="Z422" s="5" t="inlineStr"/>
-      <c r="AA422" s="5" t="inlineStr"/>
-      <c r="AB422" s="5" t="inlineStr"/>
-      <c r="AC422" s="5" t="inlineStr"/>
+      <c r="N422" s="3" t="inlineStr"/>
+      <c r="O422" s="3" t="inlineStr"/>
+      <c r="P422" s="3" t="inlineStr"/>
+      <c r="Q422" s="3" t="inlineStr"/>
+      <c r="R422" s="3" t="inlineStr"/>
+      <c r="S422" s="3" t="inlineStr"/>
+      <c r="T422" s="3" t="inlineStr"/>
+      <c r="U422" s="3" t="inlineStr"/>
+      <c r="V422" s="3" t="inlineStr"/>
+      <c r="W422" s="3" t="inlineStr"/>
+      <c r="X422" s="3" t="inlineStr"/>
+      <c r="Y422" s="3" t="inlineStr"/>
+      <c r="Z422" s="3" t="inlineStr"/>
+      <c r="AA422" s="3" t="inlineStr"/>
+      <c r="AB422" s="3" t="inlineStr"/>
+      <c r="AC422" s="3" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001009</t>
+          <t>ADDICTO:0001008</t>
         </is>
       </c>
       <c r="B423" s="5" t="inlineStr">
         <is>
-          <t>tobacco coated toothpick</t>
+          <t>tobacco chewing gum</t>
         </is>
       </c>
       <c r="C423" s="5" t="inlineStr">
         <is>
-          <t>A smokeless tobacco-containing product that is designed for oral use,  which is composed of nicotine with flavours like strawberry, peppermint, spearmint, coffee, cinnamon etc and is placed in the mouth like a toothpick.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, which is composed of finely ground tobacco , chewing gum base and xylitol. </t>
         </is>
       </c>
       <c r="D423" s="5" t="inlineStr">
@@ -31178,12 +31146,14 @@
       </c>
       <c r="G423" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- It is commercially prepared and is sucked or sometimes chewed to increase the speed of nicotine release.
-</t>
-        </is>
-      </c>
-      <c r="H423" s="5" t="inlineStr"/>
+          <t xml:space="preserve"> It is commercially manufactured and used as a chewing gum. </t>
+        </is>
+      </c>
+      <c r="H423" s="5" t="inlineStr">
+        <is>
+          <t>https://publications.iarc.fr/Book-And-Report-Series/Iarc-Monographs-On-The-Identification-Of-Carcinogenic-Hazards-To-Humans/Smokeless-Tobacco-And-Some-Tobacco-specific-Em-N-Em--Nitrosamines-2007</t>
+        </is>
+      </c>
       <c r="I423" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -31223,21 +31193,47 @@
       <c r="AC423" s="5" t="inlineStr"/>
     </row>
     <row r="424">
-      <c r="A424" s="5" t="inlineStr"/>
+      <c r="A424" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001009</t>
+        </is>
+      </c>
       <c r="B424" s="5" t="inlineStr">
         <is>
-          <t>tobacco constituent</t>
-        </is>
-      </c>
-      <c r="C424" s="5" t="inlineStr"/>
-      <c r="D424" s="5" t="inlineStr"/>
-      <c r="E424" s="5" t="inlineStr"/>
-      <c r="F424" s="5" t="inlineStr"/>
-      <c r="G424" s="5" t="inlineStr"/>
+          <t>tobacco coated toothpick</t>
+        </is>
+      </c>
+      <c r="C424" s="5" t="inlineStr">
+        <is>
+          <t>A smokeless tobacco-containing product that is designed for oral use,  which is composed of nicotine with flavours like strawberry, peppermint, spearmint, coffee, cinnamon etc and is placed in the mouth like a toothpick.</t>
+        </is>
+      </c>
+      <c r="D424" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E424" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F424" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G424" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ It is commercially prepared and is sucked or sometimes chewed to increase the speed of nicotine release.
+</t>
+        </is>
+      </c>
       <c r="H424" s="5" t="inlineStr"/>
       <c r="I424" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J424" s="5" t="inlineStr">
@@ -31246,7 +31242,11 @@
         </is>
       </c>
       <c r="K424" s="5" t="inlineStr"/>
-      <c r="L424" s="5" t="inlineStr"/>
+      <c r="L424" s="5" t="inlineStr">
+        <is>
+          <t>KS; UoY; RW</t>
+        </is>
+      </c>
       <c r="M424" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -31270,42 +31270,21 @@
       <c r="AC424" s="5" t="inlineStr"/>
     </row>
     <row r="425">
-      <c r="A425" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000922</t>
-        </is>
-      </c>
+      <c r="A425" s="5" t="inlineStr"/>
       <c r="B425" s="5" t="inlineStr">
         <is>
-          <t>tobacco leaf product</t>
-        </is>
-      </c>
-      <c r="C425" s="5" t="inlineStr">
-        <is>
-          <t>A tobacco-containing product that consists of chopped unprocessed tobacco leaves.</t>
-        </is>
-      </c>
-      <c r="D425" s="5" t="inlineStr">
-        <is>
-          <t>tobacco-containing product</t>
-        </is>
-      </c>
+          <t>tobacco constituent</t>
+        </is>
+      </c>
+      <c r="C425" s="5" t="inlineStr"/>
+      <c r="D425" s="5" t="inlineStr"/>
       <c r="E425" s="5" t="inlineStr"/>
-      <c r="F425" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="F425" s="5" t="inlineStr"/>
       <c r="G425" s="5" t="inlineStr"/>
-      <c r="H425" s="5" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="H425" s="5" t="inlineStr"/>
       <c r="I425" s="5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J425" s="5" t="inlineStr">
@@ -31314,11 +31293,7 @@
         </is>
       </c>
       <c r="K425" s="5" t="inlineStr"/>
-      <c r="L425" s="5" t="inlineStr">
-        <is>
-          <t>JH; KS; RW</t>
-        </is>
-      </c>
+      <c r="L425" s="5" t="inlineStr"/>
       <c r="M425" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -31344,42 +31319,35 @@
     <row r="426">
       <c r="A426" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001010</t>
+          <t>ADDICTO:0000922</t>
         </is>
       </c>
       <c r="B426" s="5" t="inlineStr">
         <is>
-          <t>tobacco lozenges</t>
+          <t>tobacco leaf product</t>
         </is>
       </c>
       <c r="C426" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use, that in which ground tobacco is mixed with various flavouring agents like cinnamon, fruit and mint to form a sugar-free tablet. </t>
+          <t>A tobacco-containing product that consists of chopped unprocessed tobacco leaves.</t>
         </is>
       </c>
       <c r="D426" s="5" t="inlineStr">
         <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E426" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+          <t>tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E426" s="5" t="inlineStr"/>
       <c r="F426" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G426" s="5" t="inlineStr">
-        <is>
-          <t>It is commercially packaged and is consumed by placing in the mouth and allowing to dissolve over the course of 20 to 30 mins.</t>
-        </is>
-      </c>
+      <c r="G426" s="5" t="inlineStr"/>
       <c r="H426" s="5" t="inlineStr">
         <is>
-          <t>verywellmind.com/the-pros-and-cons-of-nicotine-lozenges-2825034</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="I426" s="5" t="inlineStr">
@@ -31395,7 +31363,7 @@
       <c r="K426" s="5" t="inlineStr"/>
       <c r="L426" s="5" t="inlineStr">
         <is>
-          <t>KS: UoY</t>
+          <t>JH; KS; RW</t>
         </is>
       </c>
       <c r="M426" s="5" t="inlineStr">
@@ -31421,250 +31389,260 @@
       <c r="AC426" s="5" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" s="3" t="inlineStr">
+      <c r="A427" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001010</t>
+        </is>
+      </c>
+      <c r="B427" s="5" t="inlineStr">
+        <is>
+          <t>tobacco lozenges</t>
+        </is>
+      </c>
+      <c r="C427" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use, that in which ground tobacco is mixed with various flavouring agents like cinnamon, fruit and mint to form a sugar-free tablet. </t>
+        </is>
+      </c>
+      <c r="D427" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E427" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F427" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G427" s="5" t="inlineStr">
+        <is>
+          <t>It is commercially packaged and is consumed by placing in the mouth and allowing to dissolve over the course of 20 to 30 mins.</t>
+        </is>
+      </c>
+      <c r="H427" s="5" t="inlineStr">
+        <is>
+          <t>verywellmind.com/the-pros-and-cons-of-nicotine-lozenges-2825034</t>
+        </is>
+      </c>
+      <c r="I427" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J427" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K427" s="5" t="inlineStr"/>
+      <c r="L427" s="5" t="inlineStr">
+        <is>
+          <t>KS: UoY</t>
+        </is>
+      </c>
+      <c r="M427" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N427" s="5" t="inlineStr"/>
+      <c r="O427" s="5" t="inlineStr"/>
+      <c r="P427" s="5" t="inlineStr"/>
+      <c r="Q427" s="5" t="inlineStr"/>
+      <c r="R427" s="5" t="inlineStr"/>
+      <c r="S427" s="5" t="inlineStr"/>
+      <c r="T427" s="5" t="inlineStr"/>
+      <c r="U427" s="5" t="inlineStr"/>
+      <c r="V427" s="5" t="inlineStr"/>
+      <c r="W427" s="5" t="inlineStr"/>
+      <c r="X427" s="5" t="inlineStr"/>
+      <c r="Y427" s="5" t="inlineStr"/>
+      <c r="Z427" s="5" t="inlineStr"/>
+      <c r="AA427" s="5" t="inlineStr"/>
+      <c r="AB427" s="5" t="inlineStr"/>
+      <c r="AC427" s="5" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001246</t>
         </is>
       </c>
-      <c r="B427" s="3" t="inlineStr">
+      <c r="B428" s="3" t="inlineStr">
         <is>
           <t>tobacco marketing</t>
         </is>
       </c>
-      <c r="C427" s="3" t="inlineStr">
+      <c r="C428" s="3" t="inlineStr">
         <is>
           <t>Marketing of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D427" s="3" t="inlineStr">
+      <c r="D428" s="3" t="inlineStr">
         <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E427" s="3" t="inlineStr">
+      <c r="E428" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F427" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G427" s="3" t="inlineStr"/>
-      <c r="H427" s="3" t="inlineStr"/>
-      <c r="I427" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J427" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K427" s="3" t="inlineStr"/>
-      <c r="L427" s="3" t="inlineStr">
+      <c r="F428" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G428" s="3" t="inlineStr"/>
+      <c r="H428" s="3" t="inlineStr"/>
+      <c r="I428" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J428" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K428" s="3" t="inlineStr"/>
+      <c r="L428" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="M427" s="3" t="inlineStr">
+      <c r="M428" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N427" s="3" t="inlineStr"/>
-      <c r="O427" s="3" t="inlineStr"/>
-      <c r="P427" s="3" t="inlineStr"/>
-      <c r="Q427" s="3" t="inlineStr"/>
-      <c r="R427" s="3" t="inlineStr"/>
-      <c r="S427" s="3" t="inlineStr"/>
-      <c r="T427" s="3" t="inlineStr"/>
-      <c r="U427" s="3" t="inlineStr"/>
-      <c r="V427" s="3" t="inlineStr"/>
-      <c r="W427" s="3" t="inlineStr"/>
-      <c r="X427" s="3" t="inlineStr"/>
-      <c r="Y427" s="3" t="inlineStr"/>
-      <c r="Z427" s="3" t="inlineStr"/>
-      <c r="AA427" s="3" t="inlineStr"/>
-      <c r="AB427" s="3" t="inlineStr"/>
-      <c r="AC427" s="3" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="4" t="inlineStr">
+      <c r="N428" s="3" t="inlineStr"/>
+      <c r="O428" s="3" t="inlineStr"/>
+      <c r="P428" s="3" t="inlineStr"/>
+      <c r="Q428" s="3" t="inlineStr"/>
+      <c r="R428" s="3" t="inlineStr"/>
+      <c r="S428" s="3" t="inlineStr"/>
+      <c r="T428" s="3" t="inlineStr"/>
+      <c r="U428" s="3" t="inlineStr"/>
+      <c r="V428" s="3" t="inlineStr"/>
+      <c r="W428" s="3" t="inlineStr"/>
+      <c r="X428" s="3" t="inlineStr"/>
+      <c r="Y428" s="3" t="inlineStr"/>
+      <c r="Z428" s="3" t="inlineStr"/>
+      <c r="AA428" s="3" t="inlineStr"/>
+      <c r="AB428" s="3" t="inlineStr"/>
+      <c r="AC428" s="3" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000305</t>
         </is>
       </c>
-      <c r="B428" s="4" t="inlineStr">
+      <c r="B429" s="4" t="inlineStr">
         <is>
           <t>tobacco plant</t>
         </is>
       </c>
-      <c r="C428" s="4" t="inlineStr">
+      <c r="C429" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A plant of the species that belongs to the Nicotiana genus of herbaceous plants. </t>
         </is>
       </c>
-      <c r="D428" s="4" t="inlineStr">
+      <c r="D429" s="4" t="inlineStr">
         <is>
           <t>whole plant</t>
         </is>
       </c>
-      <c r="E428" s="4" t="inlineStr">
+      <c r="E429" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F428" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G428" s="4" t="inlineStr">
+      <c r="F429" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G429" s="4" t="inlineStr">
         <is>
           <t>Nicotiana species include many varieties. These are commonly referred to as tobacco plants, and are cultivated as ornamental garden plants. N. tabacum is grown worldwide for production tobacco-containing products.</t>
         </is>
       </c>
-      <c r="H428" s="4" t="inlineStr"/>
-      <c r="I428" s="4" t="n">
+      <c r="H429" s="4" t="inlineStr"/>
+      <c r="I429" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J428" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K428" s="4" t="inlineStr"/>
-      <c r="L428" s="4" t="inlineStr">
+      <c r="J429" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K429" s="4" t="inlineStr"/>
+      <c r="L429" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M428" s="4" t="inlineStr">
+      <c r="M429" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N428" s="4" t="inlineStr"/>
-      <c r="O428" s="4" t="inlineStr"/>
-      <c r="P428" s="4" t="inlineStr"/>
-      <c r="Q428" s="4" t="inlineStr"/>
-      <c r="R428" s="4" t="inlineStr"/>
-      <c r="S428" s="4" t="inlineStr"/>
-      <c r="T428" s="4" t="inlineStr"/>
-      <c r="U428" s="4" t="inlineStr"/>
-      <c r="V428" s="4" t="inlineStr"/>
-      <c r="W428" s="4" t="inlineStr"/>
-      <c r="X428" s="4" t="inlineStr"/>
-      <c r="Y428" s="4" t="inlineStr"/>
-      <c r="Z428" s="4" t="inlineStr"/>
-      <c r="AA428" s="4" t="inlineStr">
+      <c r="N429" s="4" t="inlineStr"/>
+      <c r="O429" s="4" t="inlineStr"/>
+      <c r="P429" s="4" t="inlineStr"/>
+      <c r="Q429" s="4" t="inlineStr"/>
+      <c r="R429" s="4" t="inlineStr"/>
+      <c r="S429" s="4" t="inlineStr"/>
+      <c r="T429" s="4" t="inlineStr"/>
+      <c r="U429" s="4" t="inlineStr"/>
+      <c r="V429" s="4" t="inlineStr"/>
+      <c r="W429" s="4" t="inlineStr"/>
+      <c r="X429" s="4" t="inlineStr"/>
+      <c r="Y429" s="4" t="inlineStr"/>
+      <c r="Z429" s="4" t="inlineStr"/>
+      <c r="AA429" s="4" t="inlineStr">
         <is>
           <t>Although there are definitions of tobacco plant in other ontologies, these were not quite suitable for the purposes of AddictO.</t>
         </is>
       </c>
-      <c r="AB428" s="4" t="inlineStr">
+      <c r="AB429" s="4" t="inlineStr">
         <is>
           <t>Nicotiana</t>
         </is>
       </c>
-      <c r="AC428" s="4" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000309</t>
-        </is>
-      </c>
-      <c r="B429" s="5" t="inlineStr">
-        <is>
-          <t>tobacco product packaging</t>
-        </is>
-      </c>
-      <c r="C429" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The packaging that is specifically used for tobacco-containing products. </t>
-        </is>
-      </c>
-      <c r="D429" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">packaging </t>
-        </is>
-      </c>
-      <c r="E429" s="5" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
-      <c r="F429" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G429" s="5" t="inlineStr"/>
-      <c r="H429" s="5" t="inlineStr"/>
-      <c r="I429" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J429" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K429" s="5" t="inlineStr"/>
-      <c r="L429" s="5" t="inlineStr">
-        <is>
-          <t>SC;JH</t>
-        </is>
-      </c>
-      <c r="M429" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N429" s="5" t="inlineStr"/>
-      <c r="O429" s="5" t="inlineStr"/>
-      <c r="P429" s="5" t="inlineStr"/>
-      <c r="Q429" s="5" t="inlineStr"/>
-      <c r="R429" s="5" t="inlineStr"/>
-      <c r="S429" s="5" t="inlineStr"/>
-      <c r="T429" s="5" t="inlineStr"/>
-      <c r="U429" s="5" t="inlineStr"/>
-      <c r="V429" s="5" t="inlineStr"/>
-      <c r="W429" s="5" t="inlineStr"/>
-      <c r="X429" s="5" t="inlineStr"/>
-      <c r="Y429" s="5" t="inlineStr"/>
-      <c r="Z429" s="5" t="inlineStr"/>
-      <c r="AA429" s="5" t="inlineStr"/>
-      <c r="AB429" s="5" t="inlineStr"/>
-      <c r="AC429" s="5" t="inlineStr"/>
+      <c r="AC429" s="4" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000310</t>
+          <t>ADDICTO:0000309</t>
         </is>
       </c>
       <c r="B430" s="5" t="inlineStr">
         <is>
-          <t>tobacco product price</t>
+          <t>tobacco product packaging</t>
         </is>
       </c>
       <c r="C430" s="5" t="inlineStr">
         <is>
-          <t>The designated price of a unit of a tobacco product.</t>
+          <t xml:space="preserve">The packaging that is specifically used for tobacco-containing products. </t>
         </is>
       </c>
       <c r="D430" s="5" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t xml:space="preserve">packaging </t>
         </is>
       </c>
       <c r="E430" s="5" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Independent continuant</t>
         </is>
       </c>
       <c r="F430" s="5" t="inlineStr">
@@ -31711,477 +31689,481 @@
       <c r="AC430" s="5" t="inlineStr"/>
     </row>
     <row r="431">
-      <c r="A431" s="4" t="inlineStr">
+      <c r="A431" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000310</t>
+        </is>
+      </c>
+      <c r="B431" s="5" t="inlineStr">
+        <is>
+          <t>tobacco product price</t>
+        </is>
+      </c>
+      <c r="C431" s="5" t="inlineStr">
+        <is>
+          <t>The designated price of a unit of a tobacco product.</t>
+        </is>
+      </c>
+      <c r="D431" s="5" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="E431" s="5" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="F431" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G431" s="5" t="inlineStr"/>
+      <c r="H431" s="5" t="inlineStr"/>
+      <c r="I431" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J431" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K431" s="5" t="inlineStr"/>
+      <c r="L431" s="5" t="inlineStr">
+        <is>
+          <t>SC;JH</t>
+        </is>
+      </c>
+      <c r="M431" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N431" s="5" t="inlineStr"/>
+      <c r="O431" s="5" t="inlineStr"/>
+      <c r="P431" s="5" t="inlineStr"/>
+      <c r="Q431" s="5" t="inlineStr"/>
+      <c r="R431" s="5" t="inlineStr"/>
+      <c r="S431" s="5" t="inlineStr"/>
+      <c r="T431" s="5" t="inlineStr"/>
+      <c r="U431" s="5" t="inlineStr"/>
+      <c r="V431" s="5" t="inlineStr"/>
+      <c r="W431" s="5" t="inlineStr"/>
+      <c r="X431" s="5" t="inlineStr"/>
+      <c r="Y431" s="5" t="inlineStr"/>
+      <c r="Z431" s="5" t="inlineStr"/>
+      <c r="AA431" s="5" t="inlineStr"/>
+      <c r="AB431" s="5" t="inlineStr"/>
+      <c r="AC431" s="5" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000314</t>
         </is>
       </c>
-      <c r="B431" s="4" t="inlineStr">
+      <c r="B432" s="4" t="inlineStr">
         <is>
           <t>tobacco smoke</t>
         </is>
       </c>
-      <c r="C431" s="4" t="inlineStr">
+      <c r="C432" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Smoke that is produced through the burning of tobacco. </t>
         </is>
       </c>
-      <c r="D431" s="4" t="inlineStr">
+      <c r="D432" s="4" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
       </c>
-      <c r="E431" s="4" t="inlineStr">
+      <c r="E432" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F431" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G431" s="4" t="inlineStr"/>
-      <c r="H431" s="4" t="inlineStr"/>
-      <c r="I431" s="4" t="n">
+      <c r="F432" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G432" s="4" t="inlineStr"/>
+      <c r="H432" s="4" t="inlineStr"/>
+      <c r="I432" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J431" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K431" s="4" t="inlineStr"/>
-      <c r="L431" s="4" t="inlineStr">
+      <c r="J432" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K432" s="4" t="inlineStr"/>
+      <c r="L432" s="4" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M431" s="4" t="inlineStr">
+      <c r="M432" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N431" s="4" t="inlineStr"/>
-      <c r="O431" s="4" t="inlineStr"/>
-      <c r="P431" s="4" t="inlineStr"/>
-      <c r="Q431" s="4" t="inlineStr"/>
-      <c r="R431" s="4" t="inlineStr"/>
-      <c r="S431" s="4" t="inlineStr"/>
-      <c r="T431" s="4" t="inlineStr"/>
-      <c r="U431" s="4" t="inlineStr">
+      <c r="N432" s="4" t="inlineStr"/>
+      <c r="O432" s="4" t="inlineStr"/>
+      <c r="P432" s="4" t="inlineStr"/>
+      <c r="Q432" s="4" t="inlineStr"/>
+      <c r="R432" s="4" t="inlineStr"/>
+      <c r="S432" s="4" t="inlineStr"/>
+      <c r="T432" s="4" t="inlineStr"/>
+      <c r="U432" s="4" t="inlineStr">
         <is>
           <t>tobacco-specific nitrosamine</t>
         </is>
       </c>
-      <c r="V431" s="4" t="inlineStr"/>
-      <c r="W431" s="4" t="inlineStr"/>
-      <c r="X431" s="4" t="inlineStr"/>
-      <c r="Y431" s="4" t="inlineStr"/>
-      <c r="Z431" s="4" t="inlineStr"/>
-      <c r="AA431" s="4" t="inlineStr"/>
-      <c r="AB431" s="4" t="inlineStr"/>
-      <c r="AC431" s="4" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="5" t="inlineStr">
+      <c r="V432" s="4" t="inlineStr"/>
+      <c r="W432" s="4" t="inlineStr"/>
+      <c r="X432" s="4" t="inlineStr"/>
+      <c r="Y432" s="4" t="inlineStr"/>
+      <c r="Z432" s="4" t="inlineStr"/>
+      <c r="AA432" s="4" t="inlineStr"/>
+      <c r="AB432" s="4" t="inlineStr"/>
+      <c r="AC432" s="4" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001011</t>
         </is>
       </c>
-      <c r="B432" s="5" t="inlineStr">
+      <c r="B433" s="5" t="inlineStr">
         <is>
           <t>tobacco tablets</t>
         </is>
       </c>
-      <c r="C432" s="5" t="inlineStr">
+      <c r="C433" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use,  in which ground tobacco, humectants, preservatives and flavours are compressed to form tablets. </t>
         </is>
       </c>
-      <c r="D432" s="5" t="inlineStr">
+      <c r="D433" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E432" s="5" t="inlineStr">
+      <c r="E433" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F432" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G432" s="5" t="inlineStr">
+      <c r="F433" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G433" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> It is commercially prepared and is consumed by sucking, holding or dissolving in the mouth.</t>
         </is>
       </c>
-      <c r="H432" s="5" t="inlineStr">
+      <c r="H433" s="5" t="inlineStr">
         <is>
           <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#dissovable</t>
         </is>
       </c>
-      <c r="I432" s="5" t="inlineStr">
+      <c r="I433" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J432" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K432" s="5" t="inlineStr"/>
-      <c r="L432" s="5" t="inlineStr">
+      <c r="J433" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K433" s="5" t="inlineStr"/>
+      <c r="L433" s="5" t="inlineStr">
         <is>
           <t>KS; UoY</t>
         </is>
       </c>
-      <c r="M432" s="5" t="inlineStr">
+      <c r="M433" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N432" s="5" t="inlineStr"/>
-      <c r="O432" s="5" t="inlineStr"/>
-      <c r="P432" s="5" t="inlineStr"/>
-      <c r="Q432" s="5" t="inlineStr"/>
-      <c r="R432" s="5" t="inlineStr"/>
-      <c r="S432" s="5" t="inlineStr"/>
-      <c r="T432" s="5" t="inlineStr"/>
-      <c r="U432" s="5" t="inlineStr"/>
-      <c r="V432" s="5" t="inlineStr"/>
-      <c r="W432" s="5" t="inlineStr"/>
-      <c r="X432" s="5" t="inlineStr"/>
-      <c r="Y432" s="5" t="inlineStr"/>
-      <c r="Z432" s="5" t="inlineStr"/>
-      <c r="AA432" s="5" t="inlineStr"/>
-      <c r="AB432" s="5" t="inlineStr">
+      <c r="N433" s="5" t="inlineStr"/>
+      <c r="O433" s="5" t="inlineStr"/>
+      <c r="P433" s="5" t="inlineStr"/>
+      <c r="Q433" s="5" t="inlineStr"/>
+      <c r="R433" s="5" t="inlineStr"/>
+      <c r="S433" s="5" t="inlineStr"/>
+      <c r="T433" s="5" t="inlineStr"/>
+      <c r="U433" s="5" t="inlineStr"/>
+      <c r="V433" s="5" t="inlineStr"/>
+      <c r="W433" s="5" t="inlineStr"/>
+      <c r="X433" s="5" t="inlineStr"/>
+      <c r="Y433" s="5" t="inlineStr"/>
+      <c r="Z433" s="5" t="inlineStr"/>
+      <c r="AA433" s="5" t="inlineStr"/>
+      <c r="AB433" s="5" t="inlineStr">
         <is>
           <t>cigalet; ariva</t>
         </is>
       </c>
-      <c r="AC432" s="5" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="4" t="inlineStr">
+      <c r="AC433" s="5" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000311</t>
         </is>
       </c>
-      <c r="B433" s="4" t="inlineStr">
+      <c r="B434" s="4" t="inlineStr">
         <is>
           <t>tobacco-containing product</t>
         </is>
       </c>
-      <c r="C433" s="4" t="inlineStr">
+      <c r="C434" s="4" t="inlineStr">
         <is>
           <t>A product that is made of tobacco or has tobacco as a part and is used by people to ingest some tobacco constituent.</t>
         </is>
       </c>
-      <c r="D433" s="4" t="inlineStr">
+      <c r="D434" s="4" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="E433" s="4" t="inlineStr">
+      <c r="E434" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F433" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G433" s="4" t="inlineStr">
+      <c r="F434" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G434" s="4" t="inlineStr">
         <is>
           <t>This class includes products that contain or consist of parts of the tobacco plant that have been subject to some form of processing. This class does not contain products that only contain nicotine. These are dealt with separately as 'nicotine-containing products'.</t>
         </is>
       </c>
-      <c r="H433" s="4" t="inlineStr"/>
-      <c r="I433" s="4" t="n">
+      <c r="H434" s="4" t="inlineStr"/>
+      <c r="I434" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J433" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K433" s="4" t="inlineStr"/>
-      <c r="L433" s="4" t="inlineStr">
+      <c r="J434" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K434" s="4" t="inlineStr"/>
+      <c r="L434" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M433" s="4" t="inlineStr">
+      <c r="M434" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N433" s="4" t="inlineStr"/>
-      <c r="O433" s="4" t="inlineStr"/>
-      <c r="P433" s="4" t="inlineStr"/>
-      <c r="Q433" s="4" t="inlineStr"/>
-      <c r="R433" s="4" t="inlineStr"/>
-      <c r="S433" s="4" t="inlineStr"/>
-      <c r="T433" s="4" t="inlineStr"/>
-      <c r="U433" s="4" t="inlineStr">
+      <c r="N434" s="4" t="inlineStr"/>
+      <c r="O434" s="4" t="inlineStr"/>
+      <c r="P434" s="4" t="inlineStr"/>
+      <c r="Q434" s="4" t="inlineStr"/>
+      <c r="R434" s="4" t="inlineStr"/>
+      <c r="S434" s="4" t="inlineStr"/>
+      <c r="T434" s="4" t="inlineStr"/>
+      <c r="U434" s="4" t="inlineStr">
         <is>
           <t>tobacco</t>
         </is>
       </c>
-      <c r="V433" s="4" t="inlineStr"/>
-      <c r="W433" s="4" t="inlineStr"/>
-      <c r="X433" s="4" t="inlineStr"/>
-      <c r="Y433" s="4" t="inlineStr"/>
-      <c r="Z433" s="4" t="inlineStr"/>
-      <c r="AA433" s="4" t="inlineStr"/>
-      <c r="AB433" s="4" t="inlineStr">
+      <c r="V434" s="4" t="inlineStr"/>
+      <c r="W434" s="4" t="inlineStr"/>
+      <c r="X434" s="4" t="inlineStr"/>
+      <c r="Y434" s="4" t="inlineStr"/>
+      <c r="Z434" s="4" t="inlineStr"/>
+      <c r="AA434" s="4" t="inlineStr"/>
+      <c r="AB434" s="4" t="inlineStr">
         <is>
           <t>tobacco; tobacco product</t>
         </is>
       </c>
-      <c r="AC433" s="4" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="2" t="inlineStr">
+      <c r="AC434" s="4" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000538</t>
         </is>
       </c>
-      <c r="B434" s="2" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>tobacco-containing product part</t>
         </is>
       </c>
-      <c r="C434" s="2" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>A product part that is a component of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D434" s="2" t="inlineStr">
+      <c r="D435" s="2" t="inlineStr">
         <is>
           <t>product part</t>
         </is>
       </c>
-      <c r="E434" s="2" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F434" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G434" s="2" t="inlineStr"/>
-      <c r="H434" s="2" t="inlineStr"/>
-      <c r="I434" s="2" t="inlineStr">
+      <c r="F435" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G435" s="2" t="inlineStr"/>
+      <c r="H435" s="2" t="inlineStr"/>
+      <c r="I435" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J434" s="2" t="inlineStr">
+      <c r="J435" s="2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K434" s="2" t="inlineStr"/>
-      <c r="L434" s="2" t="inlineStr">
+      <c r="K435" s="2" t="inlineStr"/>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>SC; RW; JH; KS; CN</t>
         </is>
       </c>
-      <c r="M434" s="2" t="inlineStr">
+      <c r="M435" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="N434" s="2" t="inlineStr"/>
-      <c r="O434" s="2" t="inlineStr">
+      <c r="N435" s="2" t="inlineStr"/>
+      <c r="O435" s="2" t="inlineStr">
         <is>
           <t>Used 'component' instead of 'proper part'</t>
         </is>
       </c>
-      <c r="P434" s="2" t="inlineStr"/>
-      <c r="Q434" s="2" t="inlineStr"/>
-      <c r="R434" s="2" t="inlineStr"/>
-      <c r="S434" s="2" t="inlineStr"/>
-      <c r="T434" s="2" t="inlineStr"/>
-      <c r="U434" s="2" t="inlineStr"/>
-      <c r="V434" s="2" t="inlineStr"/>
-      <c r="W434" s="2" t="inlineStr"/>
-      <c r="X434" s="2" t="inlineStr"/>
-      <c r="Y434" s="2" t="inlineStr"/>
-      <c r="Z434" s="2" t="inlineStr"/>
-      <c r="AA434" s="2" t="inlineStr"/>
-      <c r="AB434" s="2" t="inlineStr"/>
-      <c r="AC434" s="2" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="4" t="inlineStr">
+      <c r="P435" s="2" t="inlineStr"/>
+      <c r="Q435" s="2" t="inlineStr"/>
+      <c r="R435" s="2" t="inlineStr"/>
+      <c r="S435" s="2" t="inlineStr"/>
+      <c r="T435" s="2" t="inlineStr"/>
+      <c r="U435" s="2" t="inlineStr"/>
+      <c r="V435" s="2" t="inlineStr"/>
+      <c r="W435" s="2" t="inlineStr"/>
+      <c r="X435" s="2" t="inlineStr"/>
+      <c r="Y435" s="2" t="inlineStr"/>
+      <c r="Z435" s="2" t="inlineStr"/>
+      <c r="AA435" s="2" t="inlineStr"/>
+      <c r="AB435" s="2" t="inlineStr"/>
+      <c r="AC435" s="2" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000312</t>
         </is>
       </c>
-      <c r="B435" s="4" t="inlineStr">
+      <c r="B436" s="4" t="inlineStr">
         <is>
           <t>tobacco-flavoured e-liquid</t>
         </is>
       </c>
-      <c r="C435" s="4" t="inlineStr">
+      <c r="C436" s="4" t="inlineStr">
         <is>
           <t>A flavoured e-liquid in which the e-liquid flavouring is designed to have a tobacco flavour.</t>
         </is>
       </c>
-      <c r="D435" s="4" t="inlineStr">
+      <c r="D436" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">flavoured e-liquid </t>
         </is>
       </c>
-      <c r="E435" s="4" t="inlineStr">
+      <c r="E436" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F435" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G435" s="4" t="inlineStr"/>
-      <c r="H435" s="4" t="inlineStr"/>
-      <c r="I435" s="4" t="n">
+      <c r="F436" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G436" s="4" t="inlineStr"/>
+      <c r="H436" s="4" t="inlineStr"/>
+      <c r="I436" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J435" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K435" s="4" t="inlineStr"/>
-      <c r="L435" s="4" t="inlineStr">
+      <c r="J436" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K436" s="4" t="inlineStr"/>
+      <c r="L436" s="4" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M435" s="4" t="inlineStr">
+      <c r="M436" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N435" s="4" t="inlineStr"/>
-      <c r="O435" s="4" t="inlineStr"/>
-      <c r="P435" s="4" t="inlineStr"/>
-      <c r="Q435" s="4" t="inlineStr"/>
-      <c r="R435" s="4" t="inlineStr"/>
-      <c r="S435" s="4" t="inlineStr"/>
-      <c r="T435" s="4" t="inlineStr"/>
-      <c r="U435" s="4" t="inlineStr"/>
-      <c r="V435" s="4" t="inlineStr"/>
-      <c r="W435" s="4" t="inlineStr"/>
-      <c r="X435" s="4" t="inlineStr"/>
-      <c r="Y435" s="4" t="inlineStr"/>
-      <c r="Z435" s="4" t="inlineStr"/>
-      <c r="AA435" s="4" t="inlineStr"/>
-      <c r="AB435" s="4" t="inlineStr"/>
-      <c r="AC435" s="4" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="5" t="inlineStr">
+      <c r="N436" s="4" t="inlineStr"/>
+      <c r="O436" s="4" t="inlineStr"/>
+      <c r="P436" s="4" t="inlineStr"/>
+      <c r="Q436" s="4" t="inlineStr"/>
+      <c r="R436" s="4" t="inlineStr"/>
+      <c r="S436" s="4" t="inlineStr"/>
+      <c r="T436" s="4" t="inlineStr"/>
+      <c r="U436" s="4" t="inlineStr"/>
+      <c r="V436" s="4" t="inlineStr"/>
+      <c r="W436" s="4" t="inlineStr"/>
+      <c r="X436" s="4" t="inlineStr"/>
+      <c r="Y436" s="4" t="inlineStr"/>
+      <c r="Z436" s="4" t="inlineStr"/>
+      <c r="AA436" s="4" t="inlineStr"/>
+      <c r="AB436" s="4" t="inlineStr"/>
+      <c r="AC436" s="4" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000313</t>
         </is>
       </c>
-      <c r="B436" s="5" t="inlineStr">
+      <c r="B437" s="5" t="inlineStr">
         <is>
           <t>tobacco-specific nitrosamine</t>
         </is>
       </c>
-      <c r="C436" s="5" t="inlineStr">
+      <c r="C437" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A nitrosamine which derives from tobacco products and tobacco smoke. </t>
         </is>
       </c>
-      <c r="D436" s="5" t="inlineStr">
+      <c r="D437" s="5" t="inlineStr">
         <is>
           <t>nitrosamine</t>
         </is>
       </c>
-      <c r="E436" s="5" t="inlineStr">
+      <c r="E437" s="5" t="inlineStr">
         <is>
           <t>Independent continuant</t>
         </is>
       </c>
-      <c r="F436" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G436" s="5" t="inlineStr"/>
-      <c r="H436" s="5" t="inlineStr"/>
-      <c r="I436" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J436" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K436" s="5" t="inlineStr"/>
-      <c r="L436" s="5" t="inlineStr">
-        <is>
-          <t>SC;JH</t>
-        </is>
-      </c>
-      <c r="M436" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N436" s="5" t="inlineStr"/>
-      <c r="O436" s="5" t="inlineStr"/>
-      <c r="P436" s="5" t="inlineStr"/>
-      <c r="Q436" s="5" t="inlineStr"/>
-      <c r="R436" s="5" t="inlineStr"/>
-      <c r="S436" s="5" t="inlineStr">
-        <is>
-          <t>carcinogenic agent</t>
-        </is>
-      </c>
-      <c r="T436" s="5" t="inlineStr"/>
-      <c r="U436" s="5" t="inlineStr"/>
-      <c r="V436" s="5" t="inlineStr"/>
-      <c r="W436" s="5" t="inlineStr"/>
-      <c r="X436" s="5" t="inlineStr"/>
-      <c r="Y436" s="5" t="inlineStr"/>
-      <c r="Z436" s="5" t="inlineStr"/>
-      <c r="AA436" s="5" t="inlineStr"/>
-      <c r="AB436" s="5" t="inlineStr">
-        <is>
-          <t>TSNA</t>
-        </is>
-      </c>
-      <c r="AC436" s="5" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="5" t="inlineStr"/>
-      <c r="B437" s="5" t="inlineStr">
-        <is>
-          <t>tombol with khat</t>
-        </is>
-      </c>
-      <c r="C437" s="5" t="inlineStr"/>
-      <c r="D437" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E437" s="5" t="inlineStr"/>
       <c r="F437" s="5" t="inlineStr">
         <is>
           <t>Product</t>
@@ -32189,10 +32171,8 @@
       </c>
       <c r="G437" s="5" t="inlineStr"/>
       <c r="H437" s="5" t="inlineStr"/>
-      <c r="I437" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="I437" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="J437" s="5" t="inlineStr">
         <is>
@@ -32202,7 +32182,7 @@
       <c r="K437" s="5" t="inlineStr"/>
       <c r="L437" s="5" t="inlineStr">
         <is>
-          <t>KS: UoY</t>
+          <t>SC;JH</t>
         </is>
       </c>
       <c r="M437" s="5" t="inlineStr">
@@ -32215,7 +32195,11 @@
       <c r="P437" s="5" t="inlineStr"/>
       <c r="Q437" s="5" t="inlineStr"/>
       <c r="R437" s="5" t="inlineStr"/>
-      <c r="S437" s="5" t="inlineStr"/>
+      <c r="S437" s="5" t="inlineStr">
+        <is>
+          <t>carcinogenic agent</t>
+        </is>
+      </c>
       <c r="T437" s="5" t="inlineStr"/>
       <c r="U437" s="5" t="inlineStr"/>
       <c r="V437" s="5" t="inlineStr"/>
@@ -32224,25 +32208,21 @@
       <c r="Y437" s="5" t="inlineStr"/>
       <c r="Z437" s="5" t="inlineStr"/>
       <c r="AA437" s="5" t="inlineStr"/>
-      <c r="AB437" s="5" t="inlineStr"/>
+      <c r="AB437" s="5" t="inlineStr">
+        <is>
+          <t>TSNA</t>
+        </is>
+      </c>
       <c r="AC437" s="5" t="inlineStr"/>
     </row>
     <row r="438">
-      <c r="A438" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001012</t>
-        </is>
-      </c>
+      <c r="A438" s="5" t="inlineStr"/>
       <c r="B438" s="5" t="inlineStr">
         <is>
-          <t>toombak</t>
-        </is>
-      </c>
-      <c r="C438" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product, in which sun-dried, fermented, then ground and aged tobacco leaves are mixed with a solution of baking soda and water to create a moist form that can be rolled into a ball (called a saffa). </t>
-        </is>
-      </c>
+          <t>tombol with khat</t>
+        </is>
+      </c>
+      <c r="C438" s="5" t="inlineStr"/>
       <c r="D438" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
@@ -32254,16 +32234,8 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G438" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Toombak may be premade in cottage industry or custom-made by vendor/individual, and used by holding a small portion (saffa) is the mouth and sucking slowly for 10 to 15 minutes.</t>
-        </is>
-      </c>
-      <c r="H438" s="5" t="inlineStr">
-        <is>
-          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
-        </is>
-      </c>
+      <c r="G438" s="5" t="inlineStr"/>
+      <c r="H438" s="5" t="inlineStr"/>
       <c r="I438" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -32271,13 +32243,13 @@
       </c>
       <c r="J438" s="5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K438" s="5" t="inlineStr"/>
       <c r="L438" s="5" t="inlineStr">
         <is>
-          <t>KS; UoY</t>
+          <t>KS: UoY</t>
         </is>
       </c>
       <c r="M438" s="5" t="inlineStr">
@@ -32298,37 +32270,29 @@
       <c r="X438" s="5" t="inlineStr"/>
       <c r="Y438" s="5" t="inlineStr"/>
       <c r="Z438" s="5" t="inlineStr"/>
-      <c r="AA438" s="5" t="inlineStr">
-        <is>
-          <t>query over whether the same product is used nasally - nasal use is not described</t>
-        </is>
-      </c>
-      <c r="AB438" s="5" t="inlineStr">
-        <is>
-          <t>sauté; sute; ammari; saood; saffa</t>
-        </is>
-      </c>
+      <c r="AA438" s="5" t="inlineStr"/>
+      <c r="AB438" s="5" t="inlineStr"/>
       <c r="AC438" s="5" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000823</t>
+          <t>ADDICTO:0001012</t>
         </is>
       </c>
       <c r="B439" s="5" t="inlineStr">
         <is>
-          <t>toxic effect</t>
+          <t>toombak</t>
         </is>
       </c>
       <c r="C439" s="5" t="inlineStr">
         <is>
-          <t>The effect produced by a substance which contains toxins.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product, in which sun-dried, fermented, then ground and aged tobacco leaves are mixed with a solution of baking soda and water to create a moist form that can be rolled into a ball (called a saffa). </t>
         </is>
       </c>
       <c r="D439" s="5" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>smokeless tobacco-containing product</t>
         </is>
       </c>
       <c r="E439" s="5" t="inlineStr"/>
@@ -32337,20 +32301,30 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G439" s="5" t="inlineStr"/>
-      <c r="H439" s="5" t="inlineStr"/>
-      <c r="I439" s="5" t="n">
-        <v>1</v>
+      <c r="G439" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toombak may be premade in cottage industry or custom-made by vendor/individual, and used by holding a small portion (saffa) is the mouth and sucking slowly for 10 to 15 minutes.</t>
+        </is>
+      </c>
+      <c r="H439" s="5" t="inlineStr">
+        <is>
+          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
+        </is>
+      </c>
+      <c r="I439" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="J439" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>false</t>
         </is>
       </c>
       <c r="K439" s="5" t="inlineStr"/>
       <c r="L439" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M439" s="5" t="inlineStr">
@@ -32371,33 +32345,37 @@
       <c r="X439" s="5" t="inlineStr"/>
       <c r="Y439" s="5" t="inlineStr"/>
       <c r="Z439" s="5" t="inlineStr"/>
-      <c r="AA439" s="5" t="inlineStr"/>
-      <c r="AB439" s="5" t="inlineStr"/>
-      <c r="AC439" s="5" t="inlineStr">
-        <is>
-          <t>UMLS CUI:C0600688</t>
-        </is>
-      </c>
+      <c r="AA439" s="5" t="inlineStr">
+        <is>
+          <t>query over whether the same product is used nasally - nasal use is not described</t>
+        </is>
+      </c>
+      <c r="AB439" s="5" t="inlineStr">
+        <is>
+          <t>sauté; sute; ammari; saood; saffa</t>
+        </is>
+      </c>
+      <c r="AC439" s="5" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000908</t>
+          <t>ADDICTO:0000823</t>
         </is>
       </c>
       <c r="B440" s="5" t="inlineStr">
         <is>
-          <t>toxic exposure from a product</t>
+          <t>toxic effect</t>
         </is>
       </c>
       <c r="C440" s="5" t="inlineStr">
         <is>
-          <t>The state of being exposed to the toxic effects of a product.</t>
+          <t>The effect produced by a substance which contains toxins.</t>
         </is>
       </c>
       <c r="D440" s="5" t="inlineStr">
         <is>
-          <t>exposure</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E440" s="5" t="inlineStr"/>
@@ -32442,103 +32420,101 @@
       <c r="Z440" s="5" t="inlineStr"/>
       <c r="AA440" s="5" t="inlineStr"/>
       <c r="AB440" s="5" t="inlineStr"/>
-      <c r="AC440" s="5" t="inlineStr"/>
+      <c r="AC440" s="5" t="inlineStr">
+        <is>
+          <t>UMLS CUI:C0600688</t>
+        </is>
+      </c>
     </row>
     <row r="441">
-      <c r="A441" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000824</t>
-        </is>
-      </c>
-      <c r="B441" s="3" t="inlineStr">
-        <is>
-          <t>toxicant</t>
-        </is>
-      </c>
-      <c r="C441" s="3" t="inlineStr">
-        <is>
-          <t>A substance that has a disposition to cause harm to an organism that is in contact with it.</t>
-        </is>
-      </c>
-      <c r="D441" s="3" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="E441" s="3" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F441" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G441" s="3" t="inlineStr"/>
-      <c r="H441" s="3" t="inlineStr"/>
-      <c r="I441" s="3" t="n">
+      <c r="A441" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000908</t>
+        </is>
+      </c>
+      <c r="B441" s="5" t="inlineStr">
+        <is>
+          <t>toxic exposure from a product</t>
+        </is>
+      </c>
+      <c r="C441" s="5" t="inlineStr">
+        <is>
+          <t>The state of being exposed to the toxic effects of a product.</t>
+        </is>
+      </c>
+      <c r="D441" s="5" t="inlineStr">
+        <is>
+          <t>exposure</t>
+        </is>
+      </c>
+      <c r="E441" s="5" t="inlineStr"/>
+      <c r="F441" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G441" s="5" t="inlineStr"/>
+      <c r="H441" s="5" t="inlineStr"/>
+      <c r="I441" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J441" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K441" s="3" t="inlineStr">
-        <is>
-          <t>Because the extent and nature of the harm and the degree of exposure required is not specified.</t>
-        </is>
-      </c>
-      <c r="L441" s="3" t="inlineStr">
-        <is>
-          <t>KS; RW</t>
-        </is>
-      </c>
-      <c r="M441" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N441" s="3" t="inlineStr"/>
-      <c r="O441" s="3" t="inlineStr"/>
-      <c r="P441" s="3" t="inlineStr"/>
-      <c r="Q441" s="3" t="inlineStr"/>
-      <c r="R441" s="3" t="inlineStr"/>
-      <c r="S441" s="3" t="inlineStr"/>
-      <c r="T441" s="3" t="inlineStr"/>
-      <c r="U441" s="3" t="inlineStr"/>
-      <c r="V441" s="3" t="inlineStr"/>
-      <c r="W441" s="3" t="inlineStr"/>
-      <c r="X441" s="3" t="inlineStr"/>
-      <c r="Y441" s="3" t="inlineStr"/>
-      <c r="Z441" s="3" t="inlineStr"/>
-      <c r="AA441" s="3" t="inlineStr"/>
-      <c r="AB441" s="3" t="inlineStr"/>
-      <c r="AC441" s="3" t="inlineStr"/>
+      <c r="J441" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K441" s="5" t="inlineStr"/>
+      <c r="L441" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M441" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N441" s="5" t="inlineStr"/>
+      <c r="O441" s="5" t="inlineStr"/>
+      <c r="P441" s="5" t="inlineStr"/>
+      <c r="Q441" s="5" t="inlineStr"/>
+      <c r="R441" s="5" t="inlineStr"/>
+      <c r="S441" s="5" t="inlineStr"/>
+      <c r="T441" s="5" t="inlineStr"/>
+      <c r="U441" s="5" t="inlineStr"/>
+      <c r="V441" s="5" t="inlineStr"/>
+      <c r="W441" s="5" t="inlineStr"/>
+      <c r="X441" s="5" t="inlineStr"/>
+      <c r="Y441" s="5" t="inlineStr"/>
+      <c r="Z441" s="5" t="inlineStr"/>
+      <c r="AA441" s="5" t="inlineStr"/>
+      <c r="AB441" s="5" t="inlineStr"/>
+      <c r="AC441" s="5" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000867</t>
+          <t>ADDICTO:0000824</t>
         </is>
       </c>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>toxicity of a substance</t>
+          <t>toxicant</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>A disposition of a substance to cause harm to an organism that is exposed to it.</t>
+          <t>A substance that has a disposition to cause harm to an organism that is in contact with it.</t>
         </is>
       </c>
       <c r="D442" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>substance</t>
         </is>
       </c>
       <c r="E442" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="F442" s="3" t="inlineStr">
@@ -32546,11 +32522,7 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G442" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The substance can be a chemical such as nicotine or ethanol, or a product such as tobacco. </t>
-        </is>
-      </c>
+      <c r="G442" s="3" t="inlineStr"/>
       <c r="H442" s="3" t="inlineStr"/>
       <c r="I442" s="3" t="n">
         <v>1</v>
@@ -32560,7 +32532,7 @@
       </c>
       <c r="K442" s="3" t="inlineStr">
         <is>
-          <t>Because it depends on the amount and formulation of the substance, the nature of the exposure and duration of exposure, the organism and what is considered to be harmful.</t>
+          <t>Because the extent and nature of the harm and the degree of exposure required is not specified.</t>
         </is>
       </c>
       <c r="L442" s="3" t="inlineStr">
@@ -32575,11 +32547,7 @@
       </c>
       <c r="N442" s="3" t="inlineStr"/>
       <c r="O442" s="3" t="inlineStr"/>
-      <c r="P442" s="3" t="inlineStr">
-        <is>
-          <t>A tendency of a substance to be harmful to organisms exposed to it.</t>
-        </is>
-      </c>
+      <c r="P442" s="3" t="inlineStr"/>
       <c r="Q442" s="3" t="inlineStr"/>
       <c r="R442" s="3" t="inlineStr"/>
       <c r="S442" s="3" t="inlineStr"/>
@@ -32595,323 +32563,319 @@
       <c r="AC442" s="3" t="inlineStr"/>
     </row>
     <row r="443">
-      <c r="A443" s="5" t="inlineStr">
+      <c r="A443" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000867</t>
+        </is>
+      </c>
+      <c r="B443" s="3" t="inlineStr">
+        <is>
+          <t>toxicity of a substance</t>
+        </is>
+      </c>
+      <c r="C443" s="3" t="inlineStr">
+        <is>
+          <t>A disposition of a substance to cause harm to an organism that is exposed to it.</t>
+        </is>
+      </c>
+      <c r="D443" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E443" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="F443" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G443" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The substance can be a chemical such as nicotine or ethanol, or a product such as tobacco. </t>
+        </is>
+      </c>
+      <c r="H443" s="3" t="inlineStr"/>
+      <c r="I443" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J443" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K443" s="3" t="inlineStr">
+        <is>
+          <t>Because it depends on the amount and formulation of the substance, the nature of the exposure and duration of exposure, the organism and what is considered to be harmful.</t>
+        </is>
+      </c>
+      <c r="L443" s="3" t="inlineStr">
+        <is>
+          <t>KS; RW</t>
+        </is>
+      </c>
+      <c r="M443" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="N443" s="3" t="inlineStr"/>
+      <c r="O443" s="3" t="inlineStr"/>
+      <c r="P443" s="3" t="inlineStr">
+        <is>
+          <t>A tendency of a substance to be harmful to organisms exposed to it.</t>
+        </is>
+      </c>
+      <c r="Q443" s="3" t="inlineStr"/>
+      <c r="R443" s="3" t="inlineStr"/>
+      <c r="S443" s="3" t="inlineStr"/>
+      <c r="T443" s="3" t="inlineStr"/>
+      <c r="U443" s="3" t="inlineStr"/>
+      <c r="V443" s="3" t="inlineStr"/>
+      <c r="W443" s="3" t="inlineStr"/>
+      <c r="X443" s="3" t="inlineStr"/>
+      <c r="Y443" s="3" t="inlineStr"/>
+      <c r="Z443" s="3" t="inlineStr"/>
+      <c r="AA443" s="3" t="inlineStr"/>
+      <c r="AB443" s="3" t="inlineStr"/>
+      <c r="AC443" s="3" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000793</t>
         </is>
       </c>
-      <c r="B443" s="5" t="inlineStr">
+      <c r="B444" s="5" t="inlineStr">
         <is>
           <t>toxin</t>
         </is>
       </c>
-      <c r="C443" s="5" t="inlineStr">
+      <c r="C444" s="5" t="inlineStr">
         <is>
           <t>A substance that is produced by a living organsism and is toxic, noxious or poisonous</t>
         </is>
       </c>
-      <c r="D443" s="5" t="inlineStr">
+      <c r="D444" s="5" t="inlineStr">
         <is>
           <t>substance</t>
         </is>
       </c>
-      <c r="E443" s="5" t="inlineStr"/>
-      <c r="F443" s="5" t="inlineStr"/>
-      <c r="G443" s="5" t="inlineStr"/>
-      <c r="H443" s="5" t="inlineStr"/>
-      <c r="I443" s="5" t="n">
+      <c r="E444" s="5" t="inlineStr"/>
+      <c r="F444" s="5" t="inlineStr"/>
+      <c r="G444" s="5" t="inlineStr"/>
+      <c r="H444" s="5" t="inlineStr"/>
+      <c r="I444" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J443" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K443" s="5" t="inlineStr"/>
-      <c r="L443" s="5" t="inlineStr">
+      <c r="J444" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K444" s="5" t="inlineStr"/>
+      <c r="L444" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M443" s="5" t="inlineStr">
+      <c r="M444" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N443" s="5" t="inlineStr"/>
-      <c r="O443" s="5" t="inlineStr"/>
-      <c r="P443" s="5" t="inlineStr"/>
-      <c r="Q443" s="5" t="inlineStr"/>
-      <c r="R443" s="5" t="inlineStr">
+      <c r="N444" s="5" t="inlineStr"/>
+      <c r="O444" s="5" t="inlineStr"/>
+      <c r="P444" s="5" t="inlineStr"/>
+      <c r="Q444" s="5" t="inlineStr"/>
+      <c r="R444" s="5" t="inlineStr">
         <is>
           <t>UMLS Metathesaurus Browser (nih.gov)</t>
         </is>
       </c>
-      <c r="S443" s="5" t="inlineStr"/>
-      <c r="T443" s="5" t="inlineStr"/>
-      <c r="U443" s="5" t="inlineStr"/>
-      <c r="V443" s="5" t="inlineStr"/>
-      <c r="W443" s="5" t="inlineStr"/>
-      <c r="X443" s="5" t="inlineStr"/>
-      <c r="Y443" s="5" t="inlineStr"/>
-      <c r="Z443" s="5" t="inlineStr"/>
-      <c r="AA443" s="5" t="inlineStr"/>
-      <c r="AB443" s="5" t="inlineStr"/>
-      <c r="AC443" s="5" t="inlineStr">
+      <c r="S444" s="5" t="inlineStr"/>
+      <c r="T444" s="5" t="inlineStr"/>
+      <c r="U444" s="5" t="inlineStr"/>
+      <c r="V444" s="5" t="inlineStr"/>
+      <c r="W444" s="5" t="inlineStr"/>
+      <c r="X444" s="5" t="inlineStr"/>
+      <c r="Y444" s="5" t="inlineStr"/>
+      <c r="Z444" s="5" t="inlineStr"/>
+      <c r="AA444" s="5" t="inlineStr"/>
+      <c r="AB444" s="5" t="inlineStr"/>
+      <c r="AC444" s="5" t="inlineStr">
         <is>
           <t>UMLS CUI:C4522020</t>
         </is>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
+    <row r="445">
+      <c r="A445" t="inlineStr">
         <is>
           <t>CHEBI:35473</t>
         </is>
       </c>
-      <c r="B444" t="inlineStr">
+      <c r="B445" t="inlineStr">
         <is>
           <t xml:space="preserve">tranquilizing drug </t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
+      <c r="C445" t="inlineStr">
         <is>
           <t>A traditional grouping of drugs said to have a soothing or calming effect on mood, thought or behaviour.</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr">
+      <c r="D445" t="inlineStr">
         <is>
           <t>central nervous system depressant</t>
         </is>
       </c>
-      <c r="E444" t="inlineStr">
+      <c r="E445" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr"/>
-      <c r="H444" t="inlineStr"/>
-      <c r="I444" t="n">
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="n">
         <v>1</v>
       </c>
-      <c r="J444" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M444" t="inlineStr">
+      <c r="M445" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N444" t="inlineStr"/>
-      <c r="O444" t="inlineStr"/>
-      <c r="P444" t="inlineStr"/>
-      <c r="Q444" t="inlineStr"/>
-      <c r="R444" t="inlineStr"/>
-      <c r="S444" t="inlineStr">
+      <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr"/>
+      <c r="R445" t="inlineStr"/>
+      <c r="S445" t="inlineStr">
         <is>
           <t xml:space="preserve">psychoactive drug </t>
         </is>
       </c>
-      <c r="T444" t="inlineStr"/>
-      <c r="U444" t="inlineStr"/>
-      <c r="V444" t="inlineStr"/>
-      <c r="W444" t="inlineStr"/>
-      <c r="X444" t="inlineStr"/>
-      <c r="Y444" t="inlineStr"/>
-      <c r="Z444" t="inlineStr"/>
-      <c r="AA444" t="inlineStr"/>
-      <c r="AB444" t="inlineStr">
+      <c r="T445" t="inlineStr"/>
+      <c r="U445" t="inlineStr"/>
+      <c r="V445" t="inlineStr"/>
+      <c r="W445" t="inlineStr"/>
+      <c r="X445" t="inlineStr"/>
+      <c r="Y445" t="inlineStr"/>
+      <c r="Z445" t="inlineStr"/>
+      <c r="AA445" t="inlineStr"/>
+      <c r="AB445" t="inlineStr">
         <is>
           <t>sedative drug</t>
         </is>
       </c>
-      <c r="AC444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="4" t="inlineStr">
+      <c r="AC445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001206</t>
         </is>
       </c>
-      <c r="B445" s="4" t="inlineStr">
+      <c r="B446" s="4" t="inlineStr">
         <is>
           <t>transdermal nicotine-containing product</t>
         </is>
       </c>
-      <c r="C445" s="4" t="inlineStr">
+      <c r="C446" s="4" t="inlineStr">
         <is>
           <t>A nicotine-containing product that is manufactured to be attached to the skin so that nicotine can be absorbed through the skin.</t>
         </is>
       </c>
-      <c r="D445" s="4" t="inlineStr">
+      <c r="D446" s="4" t="inlineStr">
         <is>
           <t>nicotine-containing product</t>
         </is>
       </c>
-      <c r="E445" s="4" t="inlineStr">
+      <c r="E446" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F445" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G445" s="4" t="inlineStr"/>
-      <c r="H445" s="4" t="inlineStr"/>
-      <c r="I445" s="4" t="inlineStr">
+      <c r="F446" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G446" s="4" t="inlineStr"/>
+      <c r="H446" s="4" t="inlineStr"/>
+      <c r="I446" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J445" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K445" s="4" t="inlineStr"/>
-      <c r="L445" s="4" t="inlineStr">
+      <c r="J446" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K446" s="4" t="inlineStr"/>
+      <c r="L446" s="4" t="inlineStr">
         <is>
           <t>RW; SC; JH</t>
         </is>
       </c>
-      <c r="M445" s="4" t="inlineStr">
+      <c r="M446" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N445" s="4" t="inlineStr"/>
-      <c r="O445" s="4" t="inlineStr"/>
-      <c r="P445" s="4" t="inlineStr"/>
-      <c r="Q445" s="4" t="inlineStr"/>
-      <c r="R445" s="4" t="inlineStr"/>
-      <c r="S445" s="4" t="inlineStr"/>
-      <c r="T445" s="4" t="inlineStr"/>
-      <c r="U445" s="4" t="inlineStr"/>
-      <c r="V445" s="4" t="inlineStr"/>
-      <c r="W445" s="4" t="inlineStr"/>
-      <c r="X445" s="4" t="inlineStr"/>
-      <c r="Y445" s="4" t="inlineStr"/>
-      <c r="Z445" s="4" t="inlineStr">
+      <c r="N446" s="4" t="inlineStr"/>
+      <c r="O446" s="4" t="inlineStr"/>
+      <c r="P446" s="4" t="inlineStr"/>
+      <c r="Q446" s="4" t="inlineStr"/>
+      <c r="R446" s="4" t="inlineStr"/>
+      <c r="S446" s="4" t="inlineStr"/>
+      <c r="T446" s="4" t="inlineStr"/>
+      <c r="U446" s="4" t="inlineStr"/>
+      <c r="V446" s="4" t="inlineStr"/>
+      <c r="W446" s="4" t="inlineStr"/>
+      <c r="X446" s="4" t="inlineStr"/>
+      <c r="Y446" s="4" t="inlineStr"/>
+      <c r="Z446" s="4" t="inlineStr">
         <is>
           <t>nicotine</t>
         </is>
       </c>
-      <c r="AA445" s="4" t="inlineStr"/>
-      <c r="AB445" s="4" t="inlineStr"/>
-      <c r="AC445" s="4" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001013</t>
-        </is>
-      </c>
-      <c r="B446" s="5" t="inlineStr">
-        <is>
-          <t>tuibur</t>
-        </is>
-      </c>
-      <c r="C446" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which tobacco smoke is passed through water and the resulting tobacco water is sold in glass bottles. </t>
-        </is>
-      </c>
-      <c r="D446" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E446" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F446" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G446" s="5" t="inlineStr">
-        <is>
-          <t>Tuibur is premade in cottage industry, and the product is either sipped from a bottle or through cotton soaked with tobacco water. It is retained in the mouth or gargled for 5 to 10 minutes before it is spit out.</t>
-        </is>
-      </c>
-      <c r="H446" s="5" t="inlineStr">
-        <is>
-          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
-        </is>
-      </c>
-      <c r="I446" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J446" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K446" s="5" t="inlineStr"/>
-      <c r="L446" s="5" t="inlineStr">
-        <is>
-          <t>KS: UoY</t>
-        </is>
-      </c>
-      <c r="M446" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N446" s="5" t="inlineStr"/>
-      <c r="O446" s="5" t="inlineStr"/>
-      <c r="P446" s="5" t="inlineStr"/>
-      <c r="Q446" s="5" t="inlineStr"/>
-      <c r="R446" s="5" t="inlineStr"/>
-      <c r="S446" s="5" t="inlineStr"/>
-      <c r="T446" s="5" t="inlineStr"/>
-      <c r="U446" s="5" t="inlineStr"/>
-      <c r="V446" s="5" t="inlineStr"/>
-      <c r="W446" s="5" t="inlineStr"/>
-      <c r="X446" s="5" t="inlineStr"/>
-      <c r="Y446" s="5" t="inlineStr"/>
-      <c r="Z446" s="5" t="inlineStr"/>
-      <c r="AA446" s="5" t="inlineStr"/>
-      <c r="AB446" s="5" t="inlineStr">
-        <is>
-          <t>tuiber; tobacco water; hidakphu</t>
-        </is>
-      </c>
-      <c r="AC446" s="5" t="inlineStr"/>
+      <c r="AA446" s="4" t="inlineStr"/>
+      <c r="AB446" s="4" t="inlineStr"/>
+      <c r="AC446" s="4" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001014</t>
+          <t>ADDICTO:0001013</t>
         </is>
       </c>
       <c r="B447" s="5" t="inlineStr">
         <is>
-          <t>twist</t>
+          <t>tuibur</t>
         </is>
       </c>
       <c r="C447" s="5" t="inlineStr">
         <is>
-          <t>A smokeless tobacco-containing product that is designed for oral use, in which air- or fire-cured burley tobacco leaf is treated with a tar-like tobacco leaf extract and sometimes sweeteners and other flavourings, then twisted into rope-like strands that are dried and braided.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which tobacco smoke is passed through water and the resulting tobacco water is sold in glass bottles. </t>
         </is>
       </c>
       <c r="D447" s="5" t="inlineStr">
@@ -32931,7 +32895,7 @@
       </c>
       <c r="G447" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Twist is handmade by commercial manufacturers, and users typically cut off a piece, place it in the mouth, and chew. </t>
+          <t>Tuibur is premade in cottage industry, and the product is either sipped from a bottle or through cotton soaked with tobacco water. It is retained in the mouth or gargled for 5 to 10 minutes before it is spit out.</t>
         </is>
       </c>
       <c r="H447" s="5" t="inlineStr">
@@ -32952,7 +32916,7 @@
       <c r="K447" s="5" t="inlineStr"/>
       <c r="L447" s="5" t="inlineStr">
         <is>
-          <t>KS; UoY</t>
+          <t>KS: UoY</t>
         </is>
       </c>
       <c r="M447" s="5" t="inlineStr">
@@ -32976,32 +32940,52 @@
       <c r="AA447" s="5" t="inlineStr"/>
       <c r="AB447" s="5" t="inlineStr">
         <is>
-          <t>twist chewing tobacco; chew; chaw; roll</t>
+          <t>tuiber; tobacco water; hidakphu</t>
         </is>
       </c>
       <c r="AC447" s="5" t="inlineStr"/>
     </row>
     <row r="448">
-      <c r="A448" s="5" t="inlineStr"/>
+      <c r="A448" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001014</t>
+        </is>
+      </c>
       <c r="B448" s="5" t="inlineStr">
         <is>
-          <t>ugoro</t>
-        </is>
-      </c>
-      <c r="C448" s="5" t="inlineStr"/>
+          <t>twist</t>
+        </is>
+      </c>
+      <c r="C448" s="5" t="inlineStr">
+        <is>
+          <t>A smokeless tobacco-containing product that is designed for oral use, in which air- or fire-cured burley tobacco leaf is treated with a tar-like tobacco leaf extract and sometimes sweeteners and other flavourings, then twisted into rope-like strands that are dried and braided.</t>
+        </is>
+      </c>
       <c r="D448" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E448" s="5" t="inlineStr"/>
+      <c r="E448" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="F448" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G448" s="5" t="inlineStr"/>
-      <c r="H448" s="5" t="inlineStr"/>
+      <c r="G448" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Twist is handmade by commercial manufacturers, and users typically cut off a piece, place it in the mouth, and chew. </t>
+        </is>
+      </c>
+      <c r="H448" s="5" t="inlineStr">
+        <is>
+          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
+        </is>
+      </c>
       <c r="I448" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -33015,7 +32999,7 @@
       <c r="K448" s="5" t="inlineStr"/>
       <c r="L448" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M448" s="5" t="inlineStr">
@@ -33037,549 +33021,539 @@
       <c r="Y448" s="5" t="inlineStr"/>
       <c r="Z448" s="5" t="inlineStr"/>
       <c r="AA448" s="5" t="inlineStr"/>
-      <c r="AB448" s="5" t="inlineStr"/>
+      <c r="AB448" s="5" t="inlineStr">
+        <is>
+          <t>twist chewing tobacco; chew; chaw; roll</t>
+        </is>
+      </c>
       <c r="AC448" s="5" t="inlineStr"/>
     </row>
     <row r="449">
-      <c r="A449" s="4" t="inlineStr">
+      <c r="A449" s="5" t="inlineStr"/>
+      <c r="B449" s="5" t="inlineStr">
+        <is>
+          <t>ugoro</t>
+        </is>
+      </c>
+      <c r="C449" s="5" t="inlineStr"/>
+      <c r="D449" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E449" s="5" t="inlineStr"/>
+      <c r="F449" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G449" s="5" t="inlineStr"/>
+      <c r="H449" s="5" t="inlineStr"/>
+      <c r="I449" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J449" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K449" s="5" t="inlineStr"/>
+      <c r="L449" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M449" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N449" s="5" t="inlineStr"/>
+      <c r="O449" s="5" t="inlineStr"/>
+      <c r="P449" s="5" t="inlineStr"/>
+      <c r="Q449" s="5" t="inlineStr"/>
+      <c r="R449" s="5" t="inlineStr"/>
+      <c r="S449" s="5" t="inlineStr"/>
+      <c r="T449" s="5" t="inlineStr"/>
+      <c r="U449" s="5" t="inlineStr"/>
+      <c r="V449" s="5" t="inlineStr"/>
+      <c r="W449" s="5" t="inlineStr"/>
+      <c r="X449" s="5" t="inlineStr"/>
+      <c r="Y449" s="5" t="inlineStr"/>
+      <c r="Z449" s="5" t="inlineStr"/>
+      <c r="AA449" s="5" t="inlineStr"/>
+      <c r="AB449" s="5" t="inlineStr"/>
+      <c r="AC449" s="5" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000266</t>
         </is>
       </c>
-      <c r="B449" s="4" t="inlineStr">
+      <c r="B450" s="4" t="inlineStr">
         <is>
           <t>unflavoured e-liquid</t>
         </is>
       </c>
-      <c r="C449" s="4" t="inlineStr">
+      <c r="C450" s="4" t="inlineStr">
         <is>
           <t>An e-liquid that does not contain any e-liquid flavouring.</t>
         </is>
       </c>
-      <c r="D449" s="4" t="inlineStr">
+      <c r="D450" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">e-liquid </t>
         </is>
       </c>
-      <c r="E449" s="4" t="inlineStr">
+      <c r="E450" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F449" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G449" s="4" t="inlineStr"/>
-      <c r="H449" s="4" t="inlineStr"/>
-      <c r="I449" s="4" t="n">
+      <c r="F450" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G450" s="4" t="inlineStr"/>
+      <c r="H450" s="4" t="inlineStr"/>
+      <c r="I450" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J449" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K449" s="4" t="inlineStr"/>
-      <c r="L449" s="4" t="inlineStr">
+      <c r="J450" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K450" s="4" t="inlineStr"/>
+      <c r="L450" s="4" t="inlineStr">
         <is>
           <t>SC; KS; RW</t>
         </is>
       </c>
-      <c r="M449" s="4" t="inlineStr">
+      <c r="M450" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N449" s="4" t="inlineStr"/>
-      <c r="O449" s="4" t="inlineStr"/>
-      <c r="P449" s="4" t="inlineStr"/>
-      <c r="Q449" s="4" t="inlineStr"/>
-      <c r="R449" s="4" t="inlineStr"/>
-      <c r="S449" s="4" t="inlineStr"/>
-      <c r="T449" s="4" t="inlineStr"/>
-      <c r="U449" s="4" t="inlineStr"/>
-      <c r="V449" s="4" t="inlineStr"/>
-      <c r="W449" s="4" t="inlineStr"/>
-      <c r="X449" s="4" t="inlineStr"/>
-      <c r="Y449" s="4" t="inlineStr"/>
-      <c r="Z449" s="4" t="inlineStr"/>
-      <c r="AA449" s="4" t="inlineStr"/>
-      <c r="AB449" s="4" t="inlineStr"/>
-      <c r="AC449" s="4" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="5" t="inlineStr">
+      <c r="N450" s="4" t="inlineStr"/>
+      <c r="O450" s="4" t="inlineStr"/>
+      <c r="P450" s="4" t="inlineStr"/>
+      <c r="Q450" s="4" t="inlineStr"/>
+      <c r="R450" s="4" t="inlineStr"/>
+      <c r="S450" s="4" t="inlineStr"/>
+      <c r="T450" s="4" t="inlineStr"/>
+      <c r="U450" s="4" t="inlineStr"/>
+      <c r="V450" s="4" t="inlineStr"/>
+      <c r="W450" s="4" t="inlineStr"/>
+      <c r="X450" s="4" t="inlineStr"/>
+      <c r="Y450" s="4" t="inlineStr"/>
+      <c r="Z450" s="4" t="inlineStr"/>
+      <c r="AA450" s="4" t="inlineStr"/>
+      <c r="AB450" s="4" t="inlineStr"/>
+      <c r="AC450" s="4" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000315</t>
         </is>
       </c>
-      <c r="B450" s="5" t="inlineStr">
+      <c r="B451" s="5" t="inlineStr">
         <is>
           <t>vape pen</t>
         </is>
       </c>
-      <c r="C450" s="5" t="inlineStr">
+      <c r="C451" s="5" t="inlineStr">
         <is>
           <t>An e-cigarette that is pen shaped.</t>
         </is>
       </c>
-      <c r="D450" s="5" t="inlineStr">
+      <c r="D451" s="5" t="inlineStr">
         <is>
           <t>e-cigarette</t>
         </is>
       </c>
-      <c r="E450" s="5" t="inlineStr">
+      <c r="E451" s="5" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F450" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G450" s="5" t="inlineStr"/>
-      <c r="H450" s="5" t="inlineStr"/>
-      <c r="I450" s="5" t="n">
+      <c r="F451" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G451" s="5" t="inlineStr"/>
+      <c r="H451" s="5" t="inlineStr"/>
+      <c r="I451" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J450" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K450" s="5" t="inlineStr"/>
-      <c r="L450" s="5" t="inlineStr">
+      <c r="J451" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K451" s="5" t="inlineStr"/>
+      <c r="L451" s="5" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M450" s="5" t="inlineStr">
+      <c r="M451" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N450" s="5" t="inlineStr"/>
-      <c r="O450" s="5" t="inlineStr"/>
-      <c r="P450" s="5" t="inlineStr"/>
-      <c r="Q450" s="5" t="inlineStr"/>
-      <c r="R450" s="5" t="inlineStr"/>
-      <c r="S450" s="5" t="inlineStr"/>
-      <c r="T450" s="5" t="inlineStr"/>
-      <c r="U450" s="5" t="inlineStr"/>
-      <c r="V450" s="5" t="inlineStr"/>
-      <c r="W450" s="5" t="inlineStr"/>
-      <c r="X450" s="5" t="inlineStr"/>
-      <c r="Y450" s="5" t="inlineStr"/>
-      <c r="Z450" s="5" t="inlineStr"/>
-      <c r="AA450" s="5" t="inlineStr"/>
-      <c r="AB450" s="5" t="inlineStr">
+      <c r="N451" s="5" t="inlineStr"/>
+      <c r="O451" s="5" t="inlineStr"/>
+      <c r="P451" s="5" t="inlineStr"/>
+      <c r="Q451" s="5" t="inlineStr"/>
+      <c r="R451" s="5" t="inlineStr"/>
+      <c r="S451" s="5" t="inlineStr"/>
+      <c r="T451" s="5" t="inlineStr"/>
+      <c r="U451" s="5" t="inlineStr"/>
+      <c r="V451" s="5" t="inlineStr"/>
+      <c r="W451" s="5" t="inlineStr"/>
+      <c r="X451" s="5" t="inlineStr"/>
+      <c r="Y451" s="5" t="inlineStr"/>
+      <c r="Z451" s="5" t="inlineStr"/>
+      <c r="AA451" s="5" t="inlineStr"/>
+      <c r="AB451" s="5" t="inlineStr">
         <is>
           <t>pen-like e-cigarette</t>
         </is>
       </c>
-      <c r="AC450" s="5" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="4" t="inlineStr">
+      <c r="AC451" s="5" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000316</t>
         </is>
       </c>
-      <c r="B451" s="4" t="inlineStr">
+      <c r="B452" s="4" t="inlineStr">
         <is>
           <t>vaping device</t>
         </is>
       </c>
-      <c r="C451" s="4" t="inlineStr">
+      <c r="C452" s="4" t="inlineStr">
         <is>
           <t>A product that produces a vapour for inhalation by a person.</t>
         </is>
       </c>
-      <c r="D451" s="4" t="inlineStr">
+      <c r="D452" s="4" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="E451" s="4" t="inlineStr">
+      <c r="E452" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F451" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G451" s="4" t="inlineStr">
+      <c r="F452" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G452" s="4" t="inlineStr">
         <is>
           <t>This class includes any device that produces vapour or aerosol for inhalation for any purpose. There are many different ways in which the vapour is created and many different substances that are inhaled. It is essential when using this term make clear what type of vaporiser is being referred to and what substance or substances are being inhaled.</t>
         </is>
       </c>
-      <c r="H451" s="4" t="inlineStr"/>
-      <c r="I451" s="4" t="n">
+      <c r="H452" s="4" t="inlineStr"/>
+      <c r="I452" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J451" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K451" s="4" t="inlineStr"/>
-      <c r="L451" s="4" t="inlineStr">
+      <c r="J452" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K452" s="4" t="inlineStr"/>
+      <c r="L452" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW, CN</t>
         </is>
       </c>
-      <c r="M451" s="4" t="inlineStr">
+      <c r="M452" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N451" s="4" t="inlineStr">
+      <c r="N452" s="4" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="O451" s="4" t="inlineStr"/>
-      <c r="P451" s="4" t="inlineStr"/>
-      <c r="Q451" s="4" t="inlineStr"/>
-      <c r="R451" s="4" t="inlineStr">
+      <c r="O452" s="4" t="inlineStr"/>
+      <c r="P452" s="4" t="inlineStr"/>
+      <c r="Q452" s="4" t="inlineStr"/>
+      <c r="R452" s="4" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Vaporizer_(inhalation_device)</t>
         </is>
       </c>
-      <c r="S451" s="4" t="inlineStr"/>
-      <c r="T451" s="4" t="inlineStr"/>
-      <c r="U451" s="4" t="inlineStr">
+      <c r="S452" s="4" t="inlineStr"/>
+      <c r="T452" s="4" t="inlineStr"/>
+      <c r="U452" s="4" t="inlineStr">
         <is>
           <t>vaping device part</t>
         </is>
       </c>
-      <c r="V451" s="4" t="inlineStr"/>
-      <c r="W451" s="4" t="inlineStr"/>
-      <c r="X451" s="4" t="inlineStr"/>
-      <c r="Y451" s="4" t="inlineStr"/>
-      <c r="Z451" s="4" t="inlineStr"/>
-      <c r="AA451" s="4" t="inlineStr"/>
-      <c r="AB451" s="4" t="inlineStr">
+      <c r="V452" s="4" t="inlineStr"/>
+      <c r="W452" s="4" t="inlineStr"/>
+      <c r="X452" s="4" t="inlineStr"/>
+      <c r="Y452" s="4" t="inlineStr"/>
+      <c r="Z452" s="4" t="inlineStr"/>
+      <c r="AA452" s="4" t="inlineStr"/>
+      <c r="AB452" s="4" t="inlineStr">
         <is>
           <t>vapouriser; vaporiser; vapourizer; vaporizer</t>
         </is>
       </c>
-      <c r="AC451" s="4" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="2" t="inlineStr">
+      <c r="AC452" s="4" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000317</t>
         </is>
       </c>
-      <c r="B452" s="2" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>vaping device part</t>
         </is>
       </c>
-      <c r="C452" s="2" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>A product part that is a component of a vaping device.</t>
         </is>
       </c>
-      <c r="D452" s="2" t="inlineStr">
+      <c r="D453" s="2" t="inlineStr">
         <is>
           <t>product part</t>
         </is>
       </c>
-      <c r="E452" s="2" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F452" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G452" s="2" t="inlineStr"/>
-      <c r="H452" s="2" t="inlineStr"/>
-      <c r="I452" s="2" t="n">
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="inlineStr"/>
+      <c r="H453" s="2" t="inlineStr"/>
+      <c r="I453" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J452" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K452" s="2" t="inlineStr"/>
-      <c r="L452" s="2" t="inlineStr">
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="inlineStr"/>
+      <c r="L453" s="2" t="inlineStr">
         <is>
           <t>SC;JH;RW; CN</t>
         </is>
       </c>
-      <c r="M452" s="2" t="inlineStr">
+      <c r="M453" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="N452" s="2" t="inlineStr">
+      <c r="N453" s="2" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="O452" s="2" t="inlineStr"/>
-      <c r="P452" s="2" t="inlineStr">
+      <c r="O453" s="2" t="inlineStr"/>
+      <c r="P453" s="2" t="inlineStr">
         <is>
           <t>A part of a vaping device.</t>
         </is>
       </c>
-      <c r="Q452" s="2" t="inlineStr">
+      <c r="Q453" s="2" t="inlineStr">
         <is>
           <t>(product and 'part of' some 'vaping device')</t>
         </is>
       </c>
-      <c r="R452" s="2" t="inlineStr"/>
-      <c r="S452" s="2" t="inlineStr"/>
-      <c r="T452" s="2" t="inlineStr"/>
-      <c r="U452" s="2" t="inlineStr"/>
-      <c r="V452" s="2" t="inlineStr"/>
-      <c r="W452" s="2" t="inlineStr"/>
-      <c r="X452" s="2" t="inlineStr"/>
-      <c r="Y452" s="2" t="inlineStr"/>
-      <c r="Z452" s="2" t="inlineStr"/>
-      <c r="AA452" s="2" t="inlineStr"/>
-      <c r="AB452" s="2" t="inlineStr"/>
-      <c r="AC452" s="2" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
+      <c r="R453" s="2" t="inlineStr"/>
+      <c r="S453" s="2" t="inlineStr"/>
+      <c r="T453" s="2" t="inlineStr"/>
+      <c r="U453" s="2" t="inlineStr"/>
+      <c r="V453" s="2" t="inlineStr"/>
+      <c r="W453" s="2" t="inlineStr"/>
+      <c r="X453" s="2" t="inlineStr"/>
+      <c r="Y453" s="2" t="inlineStr"/>
+      <c r="Z453" s="2" t="inlineStr"/>
+      <c r="AA453" s="2" t="inlineStr"/>
+      <c r="AB453" s="2" t="inlineStr"/>
+      <c r="AC453" s="2" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
         <is>
           <t>CHEBI:84500</t>
         </is>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>varenicline</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>An organic heterotetracyclic compound that acts as a partial agonist for nicotinic cholinergic receptors and is used (in the form of its tartate salt) as an aid to giving up smoking.</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr">
+      <c r="D454" t="inlineStr">
         <is>
           <t>organic heterotetracyclic compound</t>
         </is>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E454" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr"/>
-      <c r="I453" t="n">
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr"/>
+      <c r="I454" t="n">
         <v>1</v>
       </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M453" t="inlineStr">
+      <c r="M454" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N453" t="inlineStr"/>
-      <c r="O453" t="inlineStr"/>
-      <c r="P453" t="inlineStr"/>
-      <c r="Q453" t="inlineStr"/>
-      <c r="R453" t="inlineStr">
+      <c r="N454" t="inlineStr"/>
+      <c r="O454" t="inlineStr"/>
+      <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr"/>
+      <c r="R454" t="inlineStr">
         <is>
           <t>CHEBI:84500</t>
         </is>
       </c>
-      <c r="S453" t="inlineStr"/>
-      <c r="T453" t="inlineStr"/>
-      <c r="U453" t="inlineStr"/>
-      <c r="V453" t="inlineStr"/>
-      <c r="W453" t="inlineStr"/>
-      <c r="X453" t="inlineStr"/>
-      <c r="Y453" t="inlineStr"/>
-      <c r="Z453" t="inlineStr"/>
-      <c r="AA453" t="inlineStr">
+      <c r="S454" t="inlineStr"/>
+      <c r="T454" t="inlineStr"/>
+      <c r="U454" t="inlineStr"/>
+      <c r="V454" t="inlineStr"/>
+      <c r="W454" t="inlineStr"/>
+      <c r="X454" t="inlineStr"/>
+      <c r="Y454" t="inlineStr"/>
+      <c r="Z454" t="inlineStr"/>
+      <c r="AA454" t="inlineStr">
         <is>
           <t xml:space="preserve">NB: ChEBI has two parents for Varenicline </t>
         </is>
       </c>
-      <c r="AB453" t="inlineStr"/>
-      <c r="AC453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="5" t="inlineStr"/>
-      <c r="B454" s="5" t="inlineStr">
+      <c r="AB454" t="inlineStr"/>
+      <c r="AC454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="5" t="inlineStr"/>
+      <c r="B455" s="5" t="inlineStr">
         <is>
           <t>watery tobacco</t>
         </is>
       </c>
-      <c r="C454" s="5" t="inlineStr"/>
-      <c r="D454" s="5" t="inlineStr">
+      <c r="C455" s="5" t="inlineStr"/>
+      <c r="D455" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E454" s="5" t="inlineStr"/>
-      <c r="F454" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G454" s="5" t="inlineStr"/>
-      <c r="H454" s="5" t="inlineStr">
+      <c r="E455" s="5" t="inlineStr"/>
+      <c r="F455" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G455" s="5" t="inlineStr"/>
+      <c r="H455" s="5" t="inlineStr">
         <is>
           <t>https://www.indianjcancer.com/article.asp?issn=0019-509X;year=2014;volume=51;issue=5;spage=3;epage=7;aulast=Sein
 https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I454" s="5" t="inlineStr">
+      <c r="I455" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J454" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K454" s="5" t="inlineStr"/>
-      <c r="L454" s="5" t="inlineStr">
+      <c r="J455" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K455" s="5" t="inlineStr"/>
+      <c r="L455" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M454" s="5" t="inlineStr">
+      <c r="M455" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N454" s="5" t="inlineStr"/>
-      <c r="O454" s="5" t="inlineStr"/>
-      <c r="P454" s="5" t="inlineStr"/>
-      <c r="Q454" s="5" t="inlineStr"/>
-      <c r="R454" s="5" t="inlineStr"/>
-      <c r="S454" s="5" t="inlineStr"/>
-      <c r="T454" s="5" t="inlineStr"/>
-      <c r="U454" s="5" t="inlineStr"/>
-      <c r="V454" s="5" t="inlineStr"/>
-      <c r="W454" s="5" t="inlineStr"/>
-      <c r="X454" s="5" t="inlineStr"/>
-      <c r="Y454" s="5" t="inlineStr"/>
-      <c r="Z454" s="5" t="inlineStr"/>
-      <c r="AA454" s="5" t="inlineStr"/>
-      <c r="AB454" s="5" t="inlineStr"/>
-      <c r="AC454" s="5" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000745</t>
-        </is>
-      </c>
-      <c r="B455" s="3" t="inlineStr">
-        <is>
-          <t>weekly cost of e-cigarette use</t>
-        </is>
-      </c>
-      <c r="C455" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item which is about the amount of money spent per week on e-cigarettes. </t>
-        </is>
-      </c>
-      <c r="D455" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E455" s="3" t="inlineStr"/>
-      <c r="F455" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G455" s="3" t="inlineStr">
-        <is>
-          <t>Cost relates to currency and period of time, both must be defined.</t>
-        </is>
-      </c>
-      <c r="H455" s="3" t="inlineStr"/>
-      <c r="I455" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J455" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K455" s="3" t="inlineStr"/>
-      <c r="L455" s="3" t="inlineStr">
-        <is>
-          <t>SC;KS; JH; RW</t>
-        </is>
-      </c>
-      <c r="M455" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N455" s="3" t="inlineStr"/>
-      <c r="O455" s="3" t="inlineStr"/>
-      <c r="P455" s="3" t="inlineStr"/>
-      <c r="Q455" s="3" t="inlineStr"/>
-      <c r="R455" s="3" t="inlineStr"/>
-      <c r="S455" s="3" t="inlineStr"/>
-      <c r="T455" s="3" t="inlineStr"/>
-      <c r="U455" s="3" t="inlineStr"/>
-      <c r="V455" s="3" t="inlineStr"/>
-      <c r="W455" s="3" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
-      <c r="X455" s="3" t="inlineStr"/>
-      <c r="Y455" s="3" t="inlineStr"/>
-      <c r="Z455" s="3" t="inlineStr"/>
-      <c r="AA455" s="3" t="inlineStr"/>
-      <c r="AB455" s="3" t="inlineStr"/>
-      <c r="AC455" s="3" t="inlineStr"/>
+      <c r="N455" s="5" t="inlineStr"/>
+      <c r="O455" s="5" t="inlineStr"/>
+      <c r="P455" s="5" t="inlineStr"/>
+      <c r="Q455" s="5" t="inlineStr"/>
+      <c r="R455" s="5" t="inlineStr"/>
+      <c r="S455" s="5" t="inlineStr"/>
+      <c r="T455" s="5" t="inlineStr"/>
+      <c r="U455" s="5" t="inlineStr"/>
+      <c r="V455" s="5" t="inlineStr"/>
+      <c r="W455" s="5" t="inlineStr"/>
+      <c r="X455" s="5" t="inlineStr"/>
+      <c r="Y455" s="5" t="inlineStr"/>
+      <c r="Z455" s="5" t="inlineStr"/>
+      <c r="AA455" s="5" t="inlineStr"/>
+      <c r="AB455" s="5" t="inlineStr"/>
+      <c r="AC455" s="5" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000751</t>
+          <t>ADDICTO:0000745</t>
         </is>
       </c>
       <c r="B456" s="3" t="inlineStr">
         <is>
-          <t>weekly financial cost of cigarette smoking</t>
+          <t>weekly cost of e-cigarette use</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the amount of money a person who smokes cigarettes spends on cigarettes.</t>
+          <t xml:space="preserve">A data item which is about the amount of money spent per week on e-cigarettes. </t>
         </is>
       </c>
       <c r="D456" s="3" t="inlineStr">
@@ -33587,11 +33561,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E456" s="3" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E456" s="3" t="inlineStr"/>
       <c r="F456" s="3" t="inlineStr">
         <is>
           <t>Product</t>
@@ -33599,7 +33569,7 @@
       </c>
       <c r="G456" s="3" t="inlineStr">
         <is>
-          <t>This includes own-roll cigarettes but not cigars.</t>
+          <t>Cost relates to currency and period of time, both must be defined.</t>
         </is>
       </c>
       <c r="H456" s="3" t="inlineStr"/>
@@ -33614,7 +33584,7 @@
       <c r="K456" s="3" t="inlineStr"/>
       <c r="L456" s="3" t="inlineStr">
         <is>
-          <t>KS; JH; RW</t>
+          <t>SC;KS; JH; RW</t>
         </is>
       </c>
       <c r="M456" s="3" t="inlineStr">
@@ -33631,7 +33601,11 @@
       <c r="T456" s="3" t="inlineStr"/>
       <c r="U456" s="3" t="inlineStr"/>
       <c r="V456" s="3" t="inlineStr"/>
-      <c r="W456" s="3" t="inlineStr"/>
+      <c r="W456" s="3" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="X456" s="3" t="inlineStr"/>
       <c r="Y456" s="3" t="inlineStr"/>
       <c r="Z456" s="3" t="inlineStr"/>
@@ -33640,240 +33614,313 @@
       <c r="AC456" s="3" t="inlineStr"/>
     </row>
     <row r="457">
-      <c r="A457" s="5" t="inlineStr">
+      <c r="A457" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000751</t>
+        </is>
+      </c>
+      <c r="B457" s="3" t="inlineStr">
+        <is>
+          <t>weekly financial cost of cigarette smoking</t>
+        </is>
+      </c>
+      <c r="C457" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the amount of money a person who smokes cigarettes spends on cigarettes.</t>
+        </is>
+      </c>
+      <c r="D457" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E457" s="3" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F457" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G457" s="3" t="inlineStr">
+        <is>
+          <t>This includes own-roll cigarettes but not cigars.</t>
+        </is>
+      </c>
+      <c r="H457" s="3" t="inlineStr"/>
+      <c r="I457" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J457" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K457" s="3" t="inlineStr"/>
+      <c r="L457" s="3" t="inlineStr">
+        <is>
+          <t>KS; JH; RW</t>
+        </is>
+      </c>
+      <c r="M457" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="N457" s="3" t="inlineStr"/>
+      <c r="O457" s="3" t="inlineStr"/>
+      <c r="P457" s="3" t="inlineStr"/>
+      <c r="Q457" s="3" t="inlineStr"/>
+      <c r="R457" s="3" t="inlineStr"/>
+      <c r="S457" s="3" t="inlineStr"/>
+      <c r="T457" s="3" t="inlineStr"/>
+      <c r="U457" s="3" t="inlineStr"/>
+      <c r="V457" s="3" t="inlineStr"/>
+      <c r="W457" s="3" t="inlineStr"/>
+      <c r="X457" s="3" t="inlineStr"/>
+      <c r="Y457" s="3" t="inlineStr"/>
+      <c r="Z457" s="3" t="inlineStr"/>
+      <c r="AA457" s="3" t="inlineStr"/>
+      <c r="AB457" s="3" t="inlineStr"/>
+      <c r="AC457" s="3" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001020</t>
         </is>
       </c>
-      <c r="B457" s="5" t="inlineStr">
+      <c r="B458" s="5" t="inlineStr">
         <is>
           <t>white shammah</t>
         </is>
       </c>
-      <c r="C457" s="5" t="inlineStr">
+      <c r="C458" s="5" t="inlineStr">
         <is>
           <t>A smokeless tobacco containing product that is designed for oral use, in which tobacco, slaked lime, ash, black pepper, oil, flavourings, bombosa (sodium carbonate) are mixed to form a dry product.</t>
         </is>
       </c>
-      <c r="D457" s="5" t="inlineStr">
+      <c r="D458" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E457" s="5" t="inlineStr">
+      <c r="E458" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F457" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G457" s="5" t="inlineStr">
+      <c r="F458" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G458" s="5" t="inlineStr">
         <is>
           <t>It is custom made by vendor or individual and is consumed by sucking or holding between the gum and lower lip or cheek.  In Algeria, users may wrap shammah in paper before putting it in the mouth. Orally chewed or held in the mouth</t>
         </is>
       </c>
-      <c r="H457" s="5" t="inlineStr">
+      <c r="H458" s="5" t="inlineStr">
         <is>
           <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I457" s="5" t="inlineStr">
+      <c r="I458" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J457" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K457" s="5" t="inlineStr"/>
-      <c r="L457" s="5" t="inlineStr">
+      <c r="J458" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K458" s="5" t="inlineStr"/>
+      <c r="L458" s="5" t="inlineStr">
         <is>
           <t>KS: UoY</t>
         </is>
       </c>
-      <c r="M457" s="5" t="inlineStr">
+      <c r="M458" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N457" s="5" t="inlineStr"/>
-      <c r="O457" s="5" t="inlineStr"/>
-      <c r="P457" s="5" t="inlineStr"/>
-      <c r="Q457" s="5" t="inlineStr"/>
-      <c r="R457" s="5" t="inlineStr"/>
-      <c r="S457" s="5" t="inlineStr"/>
-      <c r="T457" s="5" t="inlineStr"/>
-      <c r="U457" s="5" t="inlineStr"/>
-      <c r="V457" s="5" t="inlineStr"/>
-      <c r="W457" s="5" t="inlineStr"/>
-      <c r="X457" s="5" t="inlineStr"/>
-      <c r="Y457" s="5" t="inlineStr"/>
-      <c r="Z457" s="5" t="inlineStr"/>
-      <c r="AA457" s="5" t="inlineStr"/>
-      <c r="AB457" s="5" t="inlineStr">
+      <c r="N458" s="5" t="inlineStr"/>
+      <c r="O458" s="5" t="inlineStr"/>
+      <c r="P458" s="5" t="inlineStr"/>
+      <c r="Q458" s="5" t="inlineStr"/>
+      <c r="R458" s="5" t="inlineStr"/>
+      <c r="S458" s="5" t="inlineStr"/>
+      <c r="T458" s="5" t="inlineStr"/>
+      <c r="U458" s="5" t="inlineStr"/>
+      <c r="V458" s="5" t="inlineStr"/>
+      <c r="W458" s="5" t="inlineStr"/>
+      <c r="X458" s="5" t="inlineStr"/>
+      <c r="Y458" s="5" t="inlineStr"/>
+      <c r="Z458" s="5" t="inlineStr"/>
+      <c r="AA458" s="5" t="inlineStr"/>
+      <c r="AB458" s="5" t="inlineStr">
         <is>
           <t>el-shamma; bajeli; haradi; sharaci, al-shammah (Saudi Arabia); chemma (Algeria; shamma;  alqat; yemeni snuff</t>
         </is>
       </c>
-      <c r="AC457" s="5" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
+      <c r="AC458" s="5" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
         <is>
           <t>PO:0000003</t>
         </is>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>whole plant</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>A plant structure which is a whole organism.</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr">
+      <c r="D459" t="inlineStr">
         <is>
           <t>organism</t>
         </is>
       </c>
-      <c r="E458" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr"/>
-      <c r="I458" t="n">
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
+      <c r="I459" t="n">
         <v>1</v>
       </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr">
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
         <is>
           <t>SC/JH; RW</t>
         </is>
       </c>
-      <c r="M458" t="inlineStr">
+      <c r="M459" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N458" t="inlineStr"/>
-      <c r="O458" t="inlineStr"/>
-      <c r="P458" t="inlineStr"/>
-      <c r="Q458" t="inlineStr"/>
-      <c r="R458" t="inlineStr"/>
-      <c r="S458" t="inlineStr"/>
-      <c r="T458" t="inlineStr"/>
-      <c r="U458" t="inlineStr"/>
-      <c r="V458" t="inlineStr"/>
-      <c r="W458" t="inlineStr"/>
-      <c r="X458" t="inlineStr"/>
-      <c r="Y458" t="inlineStr"/>
-      <c r="Z458" t="inlineStr"/>
-      <c r="AA458" t="inlineStr"/>
-      <c r="AB458" t="inlineStr"/>
-      <c r="AC458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="3" t="inlineStr">
+      <c r="N459" t="inlineStr"/>
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="inlineStr"/>
+      <c r="Q459" t="inlineStr"/>
+      <c r="R459" t="inlineStr"/>
+      <c r="S459" t="inlineStr"/>
+      <c r="T459" t="inlineStr"/>
+      <c r="U459" t="inlineStr"/>
+      <c r="V459" t="inlineStr"/>
+      <c r="W459" t="inlineStr"/>
+      <c r="X459" t="inlineStr"/>
+      <c r="Y459" t="inlineStr"/>
+      <c r="Z459" t="inlineStr"/>
+      <c r="AA459" t="inlineStr"/>
+      <c r="AB459" t="inlineStr"/>
+      <c r="AC459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001015</t>
         </is>
       </c>
-      <c r="B459" s="3" t="inlineStr">
+      <c r="B460" s="3" t="inlineStr">
         <is>
           <t>zarda</t>
         </is>
       </c>
-      <c r="C459" s="3" t="inlineStr">
+      <c r="C460" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which boiled and dried tobacco leaves are mixed with lime, spices and vegetable dyes (sometimes areca nut and/or silver flecks) to make a flaky product. </t>
         </is>
       </c>
-      <c r="D459" s="3" t="inlineStr">
+      <c r="D460" s="3" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E459" s="3" t="inlineStr">
+      <c r="E460" s="3" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F459" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G459" s="3" t="inlineStr">
+      <c r="F460" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G460" s="3" t="inlineStr">
         <is>
           <t>An oral smokeless tobacco-containing poduct, in which boiled and dried tobacco leaves are mixed with lime, spices and vegetable dyes (sometimes areca nut and/or silver flecks) to make a flaky product. Zarda is commercially manufactured, and it may be chewed by itself, or with chopped areca nuts and spices, or added as an ingredient in betel quid.</t>
         </is>
       </c>
-      <c r="H459" s="3" t="inlineStr">
+      <c r="H460" s="3" t="inlineStr">
         <is>
           <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#zarda
 https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I459" s="3" t="inlineStr">
+      <c r="I460" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J459" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K459" s="3" t="inlineStr"/>
-      <c r="L459" s="3" t="inlineStr">
+      <c r="J460" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K460" s="3" t="inlineStr"/>
+      <c r="L460" s="3" t="inlineStr">
         <is>
           <t>KS; UoY; RW</t>
         </is>
       </c>
-      <c r="M459" s="3" t="inlineStr">
+      <c r="M460" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N459" s="3" t="inlineStr"/>
-      <c r="O459" s="3" t="inlineStr"/>
-      <c r="P459" s="3" t="inlineStr"/>
-      <c r="Q459" s="3" t="inlineStr"/>
-      <c r="R459" s="3" t="inlineStr"/>
-      <c r="S459" s="3" t="inlineStr"/>
-      <c r="T459" s="3" t="inlineStr"/>
-      <c r="U459" s="3" t="inlineStr"/>
-      <c r="V459" s="3" t="inlineStr"/>
-      <c r="W459" s="3" t="inlineStr"/>
-      <c r="X459" s="3" t="inlineStr"/>
-      <c r="Y459" s="3" t="inlineStr"/>
-      <c r="Z459" s="3" t="inlineStr"/>
-      <c r="AA459" s="3" t="inlineStr"/>
-      <c r="AB459" s="3" t="inlineStr">
+      <c r="N460" s="3" t="inlineStr"/>
+      <c r="O460" s="3" t="inlineStr"/>
+      <c r="P460" s="3" t="inlineStr"/>
+      <c r="Q460" s="3" t="inlineStr"/>
+      <c r="R460" s="3" t="inlineStr"/>
+      <c r="S460" s="3" t="inlineStr"/>
+      <c r="T460" s="3" t="inlineStr"/>
+      <c r="U460" s="3" t="inlineStr"/>
+      <c r="V460" s="3" t="inlineStr"/>
+      <c r="W460" s="3" t="inlineStr"/>
+      <c r="X460" s="3" t="inlineStr"/>
+      <c r="Y460" s="3" t="inlineStr"/>
+      <c r="Z460" s="3" t="inlineStr"/>
+      <c r="AA460" s="3" t="inlineStr"/>
+      <c r="AB460" s="3" t="inlineStr">
         <is>
           <t>dokta; vizapatta</t>
         </is>
       </c>
-      <c r="AC459" s="3" t="inlineStr"/>
+      <c r="AC460" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC460"/>
+  <dimension ref="A1:AC461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29084,34 +29084,38 @@
       <c r="AC392" s="5" t="inlineStr"/>
     </row>
     <row r="393">
-      <c r="A393" s="5" t="inlineStr"/>
+      <c r="A393" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001249</t>
+        </is>
+      </c>
       <c r="B393" s="5" t="inlineStr">
         <is>
-          <t>standard serving size</t>
-        </is>
-      </c>
-      <c r="C393" s="5" t="inlineStr"/>
-      <c r="D393" s="5" t="inlineStr"/>
+          <t>standard alcohol serving size</t>
+        </is>
+      </c>
+      <c r="C393" s="5" t="inlineStr">
+        <is>
+          <t>A product lorem ipsum</t>
+        </is>
+      </c>
+      <c r="D393" s="5" t="inlineStr">
+        <is>
+          <t>product standard</t>
+        </is>
+      </c>
       <c r="E393" s="5" t="inlineStr"/>
-      <c r="F393" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="F393" s="5" t="inlineStr"/>
       <c r="G393" s="5" t="inlineStr"/>
       <c r="H393" s="5" t="inlineStr"/>
-      <c r="I393" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J393" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="I393" s="5" t="inlineStr"/>
+      <c r="J393" s="5" t="inlineStr"/>
       <c r="K393" s="5" t="inlineStr"/>
-      <c r="L393" s="5" t="inlineStr"/>
+      <c r="L393" s="5" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="M393" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -29138,7 +29142,7 @@
       <c r="A394" s="5" t="inlineStr"/>
       <c r="B394" s="5" t="inlineStr">
         <is>
-          <t>sterile needle</t>
+          <t>standard serving size</t>
         </is>
       </c>
       <c r="C394" s="5" t="inlineStr"/>
@@ -29186,62 +29190,34 @@
       <c r="AC394" s="5" t="inlineStr"/>
     </row>
     <row r="395">
-      <c r="A395" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001003</t>
-        </is>
-      </c>
+      <c r="A395" s="5" t="inlineStr"/>
       <c r="B395" s="5" t="inlineStr">
         <is>
-          <t>sticks</t>
-        </is>
-      </c>
-      <c r="C395" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use,  in which ground tobacco, humectants, preservatives and flavours are compressed to form sticks. </t>
-        </is>
-      </c>
-      <c r="D395" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E395" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+          <t>sterile needle</t>
+        </is>
+      </c>
+      <c r="C395" s="5" t="inlineStr"/>
+      <c r="D395" s="5" t="inlineStr"/>
+      <c r="E395" s="5" t="inlineStr"/>
       <c r="F395" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G395" s="5" t="inlineStr">
-        <is>
-          <t>It is commercially prepared and is consumed by sucking, holding or dissolving in the mouth.</t>
-        </is>
-      </c>
-      <c r="H395" s="5" t="inlineStr">
-        <is>
-          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#dissovable</t>
-        </is>
-      </c>
+      <c r="G395" s="5" t="inlineStr"/>
+      <c r="H395" s="5" t="inlineStr"/>
       <c r="I395" s="5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J395" s="5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K395" s="5" t="inlineStr"/>
-      <c r="L395" s="5" t="inlineStr">
-        <is>
-          <t>KS; UoY</t>
-        </is>
-      </c>
+      <c r="L395" s="5" t="inlineStr"/>
       <c r="M395" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -29265,34 +29241,62 @@
       <c r="AC395" s="5" t="inlineStr"/>
     </row>
     <row r="396">
-      <c r="A396" s="5" t="inlineStr"/>
+      <c r="A396" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001003</t>
+        </is>
+      </c>
       <c r="B396" s="5" t="inlineStr">
         <is>
-          <t>stimulation dose</t>
-        </is>
-      </c>
-      <c r="C396" s="5" t="inlineStr"/>
-      <c r="D396" s="5" t="inlineStr"/>
-      <c r="E396" s="5" t="inlineStr"/>
+          <t>sticks</t>
+        </is>
+      </c>
+      <c r="C396" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use,  in which ground tobacco, humectants, preservatives and flavours are compressed to form sticks. </t>
+        </is>
+      </c>
+      <c r="D396" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E396" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="F396" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G396" s="5" t="inlineStr"/>
-      <c r="H396" s="5" t="inlineStr"/>
+      <c r="G396" s="5" t="inlineStr">
+        <is>
+          <t>It is commercially prepared and is consumed by sucking, holding or dissolving in the mouth.</t>
+        </is>
+      </c>
+      <c r="H396" s="5" t="inlineStr">
+        <is>
+          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#dissovable</t>
+        </is>
+      </c>
       <c r="I396" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J396" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>false</t>
         </is>
       </c>
       <c r="K396" s="5" t="inlineStr"/>
-      <c r="L396" s="5" t="inlineStr"/>
+      <c r="L396" s="5" t="inlineStr">
+        <is>
+          <t>KS; UoY</t>
+        </is>
+      </c>
       <c r="M396" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -29316,41 +29320,21 @@
       <c r="AC396" s="5" t="inlineStr"/>
     </row>
     <row r="397">
-      <c r="A397" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000297</t>
-        </is>
-      </c>
+      <c r="A397" s="5" t="inlineStr"/>
       <c r="B397" s="5" t="inlineStr">
         <is>
-          <t>street drug</t>
-        </is>
-      </c>
-      <c r="C397" s="5" t="inlineStr">
-        <is>
-          <t>A psychoactive drug that is sold illicitly.</t>
-        </is>
-      </c>
-      <c r="D397" s="5" t="inlineStr">
-        <is>
-          <t>illicit drug</t>
-        </is>
-      </c>
-      <c r="E397" s="5" t="inlineStr">
-        <is>
-          <t>Object</t>
-        </is>
-      </c>
+          <t>stimulation dose</t>
+        </is>
+      </c>
+      <c r="C397" s="5" t="inlineStr"/>
+      <c r="D397" s="5" t="inlineStr"/>
+      <c r="E397" s="5" t="inlineStr"/>
       <c r="F397" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G397" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Street drug are sold or exchanged illicitly but not all drugs that are exchanged are controlled substances. </t>
-        </is>
-      </c>
+      <c r="G397" s="5" t="inlineStr"/>
       <c r="H397" s="5" t="inlineStr"/>
       <c r="I397" s="5" t="inlineStr">
         <is>
@@ -29363,11 +29347,7 @@
         </is>
       </c>
       <c r="K397" s="5" t="inlineStr"/>
-      <c r="L397" s="5" t="inlineStr">
-        <is>
-          <t>SC;JH</t>
-        </is>
-      </c>
+      <c r="L397" s="5" t="inlineStr"/>
       <c r="M397" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -29393,27 +29373,27 @@
     <row r="398">
       <c r="A398" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001004</t>
+          <t>ADDICTO:0000297</t>
         </is>
       </c>
       <c r="B398" s="5" t="inlineStr">
         <is>
-          <t>strips</t>
+          <t>street drug</t>
         </is>
       </c>
       <c r="C398" s="5" t="inlineStr">
         <is>
-          <t>A smokeless tobacco containing product  that is designed for oral use, in which ground tobacco, humectants, preservatives and flavours are compressed into strips.</t>
+          <t>A psychoactive drug that is sold illicitly.</t>
         </is>
       </c>
       <c r="D398" s="5" t="inlineStr">
         <is>
-          <t>smokeless tobacco-containing product</t>
+          <t>illicit drug</t>
         </is>
       </c>
       <c r="E398" s="5" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>Object</t>
         </is>
       </c>
       <c r="F398" s="5" t="inlineStr">
@@ -29423,17 +29403,13 @@
       </c>
       <c r="G398" s="5" t="inlineStr">
         <is>
-          <t>It is commercially prepared and is consumed by sucking, holding or dissolving in the mouth.</t>
-        </is>
-      </c>
-      <c r="H398" s="5" t="inlineStr">
-        <is>
-          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#dissovable</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Street drug are sold or exchanged illicitly but not all drugs that are exchanged are controlled substances. </t>
+        </is>
+      </c>
+      <c r="H398" s="5" t="inlineStr"/>
       <c r="I398" s="5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J398" s="5" t="inlineStr">
@@ -29444,7 +29420,7 @@
       <c r="K398" s="5" t="inlineStr"/>
       <c r="L398" s="5" t="inlineStr">
         <is>
-          <t>KS; UoY</t>
+          <t>SC;JH</t>
         </is>
       </c>
       <c r="M398" s="5" t="inlineStr">
@@ -29470,91 +29446,103 @@
       <c r="AC398" s="5" t="inlineStr"/>
     </row>
     <row r="399">
-      <c r="A399" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001115</t>
-        </is>
-      </c>
-      <c r="B399" s="3" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="C399" s="3" t="inlineStr">
-        <is>
-          <t>A material entity that is not an object.</t>
-        </is>
-      </c>
-      <c r="D399" s="3" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="E399" s="3" t="inlineStr"/>
-      <c r="F399" s="3" t="inlineStr"/>
-      <c r="G399" s="3" t="inlineStr"/>
-      <c r="H399" s="3" t="inlineStr"/>
-      <c r="I399" s="3" t="inlineStr">
+      <c r="A399" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001004</t>
+        </is>
+      </c>
+      <c r="B399" s="5" t="inlineStr">
+        <is>
+          <t>strips</t>
+        </is>
+      </c>
+      <c r="C399" s="5" t="inlineStr">
+        <is>
+          <t>A smokeless tobacco containing product  that is designed for oral use, in which ground tobacco, humectants, preservatives and flavours are compressed into strips.</t>
+        </is>
+      </c>
+      <c r="D399" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E399" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F399" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G399" s="5" t="inlineStr">
+        <is>
+          <t>It is commercially prepared and is consumed by sucking, holding or dissolving in the mouth.</t>
+        </is>
+      </c>
+      <c r="H399" s="5" t="inlineStr">
+        <is>
+          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#dissovable</t>
+        </is>
+      </c>
+      <c r="I399" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J399" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K399" s="3" t="inlineStr"/>
-      <c r="L399" s="3" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="M399" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N399" s="3" t="inlineStr"/>
-      <c r="O399" s="3" t="inlineStr"/>
-      <c r="P399" s="3" t="inlineStr"/>
-      <c r="Q399" s="3" t="inlineStr">
-        <is>
-          <t>('material entity' and not object)</t>
-        </is>
-      </c>
-      <c r="R399" s="3" t="inlineStr"/>
-      <c r="S399" s="3" t="inlineStr"/>
-      <c r="T399" s="3" t="inlineStr"/>
-      <c r="U399" s="3" t="inlineStr"/>
-      <c r="V399" s="3" t="inlineStr"/>
-      <c r="W399" s="3" t="inlineStr"/>
-      <c r="X399" s="3" t="inlineStr"/>
-      <c r="Y399" s="3" t="inlineStr"/>
-      <c r="Z399" s="3" t="inlineStr"/>
-      <c r="AA399" s="3" t="inlineStr"/>
-      <c r="AB399" s="3" t="inlineStr"/>
-      <c r="AC399" s="3" t="inlineStr"/>
+      <c r="J399" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K399" s="5" t="inlineStr"/>
+      <c r="L399" s="5" t="inlineStr">
+        <is>
+          <t>KS; UoY</t>
+        </is>
+      </c>
+      <c r="M399" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N399" s="5" t="inlineStr"/>
+      <c r="O399" s="5" t="inlineStr"/>
+      <c r="P399" s="5" t="inlineStr"/>
+      <c r="Q399" s="5" t="inlineStr"/>
+      <c r="R399" s="5" t="inlineStr"/>
+      <c r="S399" s="5" t="inlineStr"/>
+      <c r="T399" s="5" t="inlineStr"/>
+      <c r="U399" s="5" t="inlineStr"/>
+      <c r="V399" s="5" t="inlineStr"/>
+      <c r="W399" s="5" t="inlineStr"/>
+      <c r="X399" s="5" t="inlineStr"/>
+      <c r="Y399" s="5" t="inlineStr"/>
+      <c r="Z399" s="5" t="inlineStr"/>
+      <c r="AA399" s="5" t="inlineStr"/>
+      <c r="AB399" s="5" t="inlineStr"/>
+      <c r="AC399" s="5" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001245</t>
+          <t>ADDICTO:0001115</t>
         </is>
       </c>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>substance dependence potential</t>
+          <t>substance</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t>A disposition of a psychoactive substance to result in substance dependence in people who ingest it.</t>
+          <t>A material entity that is not an object.</t>
         </is>
       </c>
       <c r="D400" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="E400" s="3" t="inlineStr"/>
@@ -29563,7 +29551,7 @@
       <c r="H400" s="3" t="inlineStr"/>
       <c r="I400" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J400" s="3" t="inlineStr">
@@ -29574,7 +29562,7 @@
       <c r="K400" s="3" t="inlineStr"/>
       <c r="L400" s="3" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="M400" s="3" t="inlineStr">
@@ -29585,7 +29573,11 @@
       <c r="N400" s="3" t="inlineStr"/>
       <c r="O400" s="3" t="inlineStr"/>
       <c r="P400" s="3" t="inlineStr"/>
-      <c r="Q400" s="3" t="inlineStr"/>
+      <c r="Q400" s="3" t="inlineStr">
+        <is>
+          <t>('material entity' and not object)</t>
+        </is>
+      </c>
       <c r="R400" s="3" t="inlineStr"/>
       <c r="S400" s="3" t="inlineStr"/>
       <c r="T400" s="3" t="inlineStr"/>
@@ -29600,73 +29592,81 @@
       <c r="AC400" s="3" t="inlineStr"/>
     </row>
     <row r="401">
-      <c r="A401" s="5" t="inlineStr"/>
-      <c r="B401" s="5" t="inlineStr">
-        <is>
-          <t>sudanese saute</t>
-        </is>
-      </c>
-      <c r="C401" s="5" t="inlineStr"/>
-      <c r="D401" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E401" s="5" t="inlineStr"/>
-      <c r="F401" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G401" s="5" t="inlineStr"/>
-      <c r="H401" s="5" t="inlineStr"/>
-      <c r="I401" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J401" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K401" s="5" t="inlineStr"/>
-      <c r="L401" s="5" t="inlineStr">
-        <is>
-          <t>KS; UoY</t>
-        </is>
-      </c>
-      <c r="M401" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N401" s="5" t="inlineStr"/>
-      <c r="O401" s="5" t="inlineStr"/>
-      <c r="P401" s="5" t="inlineStr"/>
-      <c r="Q401" s="5" t="inlineStr"/>
-      <c r="R401" s="5" t="inlineStr"/>
-      <c r="S401" s="5" t="inlineStr"/>
-      <c r="T401" s="5" t="inlineStr"/>
-      <c r="U401" s="5" t="inlineStr"/>
-      <c r="V401" s="5" t="inlineStr"/>
-      <c r="W401" s="5" t="inlineStr"/>
-      <c r="X401" s="5" t="inlineStr"/>
-      <c r="Y401" s="5" t="inlineStr"/>
-      <c r="Z401" s="5" t="inlineStr"/>
-      <c r="AA401" s="5" t="inlineStr"/>
-      <c r="AB401" s="5" t="inlineStr"/>
-      <c r="AC401" s="5" t="inlineStr"/>
+      <c r="A401" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001245</t>
+        </is>
+      </c>
+      <c r="B401" s="3" t="inlineStr">
+        <is>
+          <t>substance dependence potential</t>
+        </is>
+      </c>
+      <c r="C401" s="3" t="inlineStr">
+        <is>
+          <t>A disposition of a psychoactive substance to result in substance dependence in people who ingest it.</t>
+        </is>
+      </c>
+      <c r="D401" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E401" s="3" t="inlineStr"/>
+      <c r="F401" s="3" t="inlineStr"/>
+      <c r="G401" s="3" t="inlineStr"/>
+      <c r="H401" s="3" t="inlineStr"/>
+      <c r="I401" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J401" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K401" s="3" t="inlineStr"/>
+      <c r="L401" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="M401" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="N401" s="3" t="inlineStr"/>
+      <c r="O401" s="3" t="inlineStr"/>
+      <c r="P401" s="3" t="inlineStr"/>
+      <c r="Q401" s="3" t="inlineStr"/>
+      <c r="R401" s="3" t="inlineStr"/>
+      <c r="S401" s="3" t="inlineStr"/>
+      <c r="T401" s="3" t="inlineStr"/>
+      <c r="U401" s="3" t="inlineStr"/>
+      <c r="V401" s="3" t="inlineStr"/>
+      <c r="W401" s="3" t="inlineStr"/>
+      <c r="X401" s="3" t="inlineStr"/>
+      <c r="Y401" s="3" t="inlineStr"/>
+      <c r="Z401" s="3" t="inlineStr"/>
+      <c r="AA401" s="3" t="inlineStr"/>
+      <c r="AB401" s="3" t="inlineStr"/>
+      <c r="AC401" s="3" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="5" t="inlineStr"/>
       <c r="B402" s="5" t="inlineStr">
         <is>
-          <t>supermarket density</t>
+          <t>sudanese saute</t>
         </is>
       </c>
       <c r="C402" s="5" t="inlineStr"/>
-      <c r="D402" s="5" t="inlineStr"/>
+      <c r="D402" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
       <c r="E402" s="5" t="inlineStr"/>
       <c r="F402" s="5" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
       <c r="H402" s="5" t="inlineStr"/>
       <c r="I402" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J402" s="5" t="inlineStr">
@@ -29686,7 +29686,11 @@
         </is>
       </c>
       <c r="K402" s="5" t="inlineStr"/>
-      <c r="L402" s="5" t="inlineStr"/>
+      <c r="L402" s="5" t="inlineStr">
+        <is>
+          <t>KS; UoY</t>
+        </is>
+      </c>
       <c r="M402" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -29710,31 +29714,15 @@
       <c r="AC402" s="5" t="inlineStr"/>
     </row>
     <row r="403">
-      <c r="A403" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000298</t>
-        </is>
-      </c>
+      <c r="A403" s="5" t="inlineStr"/>
       <c r="B403" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">sustained release drug </t>
-        </is>
-      </c>
-      <c r="C403" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A drug attribute which describes the process by which a drug is released into the blood stream at a predetermined rate to maintain a specific drug concentration over a period of time. </t>
-        </is>
-      </c>
-      <c r="D403" s="5" t="inlineStr">
-        <is>
-          <t>product attribute</t>
-        </is>
-      </c>
-      <c r="E403" s="5" t="inlineStr">
-        <is>
-          <t>Dependent continuant</t>
-        </is>
-      </c>
+          <t>supermarket density</t>
+        </is>
+      </c>
+      <c r="C403" s="5" t="inlineStr"/>
+      <c r="D403" s="5" t="inlineStr"/>
+      <c r="E403" s="5" t="inlineStr"/>
       <c r="F403" s="5" t="inlineStr">
         <is>
           <t>Product</t>
@@ -29753,11 +29741,7 @@
         </is>
       </c>
       <c r="K403" s="5" t="inlineStr"/>
-      <c r="L403" s="5" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="L403" s="5" t="inlineStr"/>
       <c r="M403" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -29777,312 +29761,318 @@
       <c r="Y403" s="5" t="inlineStr"/>
       <c r="Z403" s="5" t="inlineStr"/>
       <c r="AA403" s="5" t="inlineStr"/>
-      <c r="AB403" s="5" t="inlineStr">
+      <c r="AB403" s="5" t="inlineStr"/>
+      <c r="AC403" s="5" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000298</t>
+        </is>
+      </c>
+      <c r="B404" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sustained release drug </t>
+        </is>
+      </c>
+      <c r="C404" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A drug attribute which describes the process by which a drug is released into the blood stream at a predetermined rate to maintain a specific drug concentration over a period of time. </t>
+        </is>
+      </c>
+      <c r="D404" s="5" t="inlineStr">
+        <is>
+          <t>product attribute</t>
+        </is>
+      </c>
+      <c r="E404" s="5" t="inlineStr">
+        <is>
+          <t>Dependent continuant</t>
+        </is>
+      </c>
+      <c r="F404" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G404" s="5" t="inlineStr"/>
+      <c r="H404" s="5" t="inlineStr"/>
+      <c r="I404" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J404" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K404" s="5" t="inlineStr"/>
+      <c r="L404" s="5" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="M404" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N404" s="5" t="inlineStr"/>
+      <c r="O404" s="5" t="inlineStr"/>
+      <c r="P404" s="5" t="inlineStr"/>
+      <c r="Q404" s="5" t="inlineStr"/>
+      <c r="R404" s="5" t="inlineStr"/>
+      <c r="S404" s="5" t="inlineStr"/>
+      <c r="T404" s="5" t="inlineStr"/>
+      <c r="U404" s="5" t="inlineStr"/>
+      <c r="V404" s="5" t="inlineStr"/>
+      <c r="W404" s="5" t="inlineStr"/>
+      <c r="X404" s="5" t="inlineStr"/>
+      <c r="Y404" s="5" t="inlineStr"/>
+      <c r="Z404" s="5" t="inlineStr"/>
+      <c r="AA404" s="5" t="inlineStr"/>
+      <c r="AB404" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">slow release </t>
         </is>
       </c>
-      <c r="AC403" s="5" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="4" t="inlineStr">
+      <c r="AC404" s="5" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000626</t>
         </is>
       </c>
-      <c r="B404" s="4" t="inlineStr">
+      <c r="B405" s="4" t="inlineStr">
         <is>
           <t>sweet flavoured e-liquid</t>
         </is>
       </c>
-      <c r="C404" s="4" t="inlineStr">
+      <c r="C405" s="4" t="inlineStr">
         <is>
           <t>A flavoured e-liquid in which the e-liquid flavouring is designed to have a sweet flavour.</t>
         </is>
       </c>
-      <c r="D404" s="4" t="inlineStr">
+      <c r="D405" s="4" t="inlineStr">
         <is>
           <t>flavoured e-liquid</t>
         </is>
       </c>
-      <c r="E404" s="4" t="inlineStr">
+      <c r="E405" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F404" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G404" s="4" t="inlineStr">
+      <c r="F405" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G405" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sweet flavours include a broad range of flavour choices but they are distinct from fruit flavours and therefore  need to described. </t>
         </is>
       </c>
-      <c r="H404" s="4" t="inlineStr">
+      <c r="H405" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">13% of e-cigarette users report having tried a sweet flavoured e-liquid, e.g., candy floss. </t>
         </is>
       </c>
-      <c r="I404" s="4" t="n">
+      <c r="I405" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J404" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K404" s="4" t="inlineStr"/>
-      <c r="L404" s="4" t="inlineStr">
+      <c r="J405" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K405" s="4" t="inlineStr"/>
+      <c r="L405" s="4" t="inlineStr">
         <is>
           <t>SC; RW</t>
         </is>
       </c>
-      <c r="M404" s="4" t="inlineStr">
+      <c r="M405" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N404" s="4" t="inlineStr"/>
-      <c r="O404" s="4" t="inlineStr"/>
-      <c r="P404" s="4" t="inlineStr"/>
-      <c r="Q404" s="4" t="inlineStr"/>
-      <c r="R404" s="4" t="inlineStr"/>
-      <c r="S404" s="4" t="inlineStr"/>
-      <c r="T404" s="4" t="inlineStr"/>
-      <c r="U404" s="4" t="inlineStr"/>
-      <c r="V404" s="4" t="inlineStr"/>
-      <c r="W404" s="4" t="inlineStr"/>
-      <c r="X404" s="4" t="inlineStr"/>
-      <c r="Y404" s="4" t="inlineStr"/>
-      <c r="Z404" s="4" t="inlineStr"/>
-      <c r="AA404" s="4" t="inlineStr"/>
-      <c r="AB404" s="4" t="inlineStr"/>
-      <c r="AC404" s="4" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="5" t="inlineStr"/>
-      <c r="B405" s="5" t="inlineStr">
+      <c r="N405" s="4" t="inlineStr"/>
+      <c r="O405" s="4" t="inlineStr"/>
+      <c r="P405" s="4" t="inlineStr"/>
+      <c r="Q405" s="4" t="inlineStr"/>
+      <c r="R405" s="4" t="inlineStr"/>
+      <c r="S405" s="4" t="inlineStr"/>
+      <c r="T405" s="4" t="inlineStr"/>
+      <c r="U405" s="4" t="inlineStr"/>
+      <c r="V405" s="4" t="inlineStr"/>
+      <c r="W405" s="4" t="inlineStr"/>
+      <c r="X405" s="4" t="inlineStr"/>
+      <c r="Y405" s="4" t="inlineStr"/>
+      <c r="Z405" s="4" t="inlineStr"/>
+      <c r="AA405" s="4" t="inlineStr"/>
+      <c r="AB405" s="4" t="inlineStr"/>
+      <c r="AC405" s="4" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="5" t="inlineStr"/>
+      <c r="B406" s="5" t="inlineStr">
         <is>
           <t>sweet tombol</t>
         </is>
       </c>
-      <c r="C405" s="5" t="inlineStr"/>
-      <c r="D405" s="5" t="inlineStr">
+      <c r="C406" s="5" t="inlineStr"/>
+      <c r="D406" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E405" s="5" t="inlineStr"/>
-      <c r="F405" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G405" s="5" t="inlineStr"/>
-      <c r="H405" s="5" t="inlineStr">
+      <c r="E406" s="5" t="inlineStr"/>
+      <c r="F406" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G406" s="5" t="inlineStr"/>
+      <c r="H406" s="5" t="inlineStr">
         <is>
           <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I405" s="5" t="inlineStr">
+      <c r="I406" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J405" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K405" s="5" t="inlineStr"/>
-      <c r="L405" s="5" t="inlineStr">
+      <c r="J406" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K406" s="5" t="inlineStr"/>
+      <c r="L406" s="5" t="inlineStr">
         <is>
           <t>KS: UoY</t>
         </is>
       </c>
-      <c r="M405" s="5" t="inlineStr">
+      <c r="M406" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N405" s="5" t="inlineStr"/>
-      <c r="O405" s="5" t="inlineStr"/>
-      <c r="P405" s="5" t="inlineStr"/>
-      <c r="Q405" s="5" t="inlineStr"/>
-      <c r="R405" s="5" t="inlineStr"/>
-      <c r="S405" s="5" t="inlineStr"/>
-      <c r="T405" s="5" t="inlineStr"/>
-      <c r="U405" s="5" t="inlineStr"/>
-      <c r="V405" s="5" t="inlineStr"/>
-      <c r="W405" s="5" t="inlineStr"/>
-      <c r="X405" s="5" t="inlineStr"/>
-      <c r="Y405" s="5" t="inlineStr"/>
-      <c r="Z405" s="5" t="inlineStr"/>
-      <c r="AA405" s="5" t="inlineStr"/>
-      <c r="AB405" s="5" t="inlineStr"/>
-      <c r="AC405" s="5" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
+      <c r="N406" s="5" t="inlineStr"/>
+      <c r="O406" s="5" t="inlineStr"/>
+      <c r="P406" s="5" t="inlineStr"/>
+      <c r="Q406" s="5" t="inlineStr"/>
+      <c r="R406" s="5" t="inlineStr"/>
+      <c r="S406" s="5" t="inlineStr"/>
+      <c r="T406" s="5" t="inlineStr"/>
+      <c r="U406" s="5" t="inlineStr"/>
+      <c r="V406" s="5" t="inlineStr"/>
+      <c r="W406" s="5" t="inlineStr"/>
+      <c r="X406" s="5" t="inlineStr"/>
+      <c r="Y406" s="5" t="inlineStr"/>
+      <c r="Z406" s="5" t="inlineStr"/>
+      <c r="AA406" s="5" t="inlineStr"/>
+      <c r="AB406" s="5" t="inlineStr"/>
+      <c r="AC406" s="5" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
         <is>
           <t>CHEBI:67201</t>
         </is>
       </c>
-      <c r="B406" t="inlineStr">
+      <c r="B407" t="inlineStr">
         <is>
           <t>synthetic cannabinoid</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr">
+      <c r="C407" t="inlineStr">
         <is>
           <t>A class of cannabinoid that consists of synthetic analogs of the naturally occurring cannabinoids.</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr">
+      <c r="D407" t="inlineStr">
         <is>
           <t>cannabinoid</t>
         </is>
       </c>
-      <c r="E406" t="inlineStr">
+      <c r="E407" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr"/>
-      <c r="I406" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J406" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M406" t="inlineStr">
+      <c r="M407" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N406" t="inlineStr"/>
-      <c r="O406" t="inlineStr"/>
-      <c r="P406" t="inlineStr"/>
-      <c r="Q406" t="inlineStr"/>
-      <c r="R406" t="inlineStr">
+      <c r="N407" t="inlineStr"/>
+      <c r="O407" t="inlineStr"/>
+      <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr">
         <is>
           <t>CHEBI:67201</t>
         </is>
       </c>
-      <c r="S406" t="inlineStr"/>
-      <c r="T406" t="inlineStr"/>
-      <c r="U406" t="inlineStr"/>
-      <c r="V406" t="inlineStr"/>
-      <c r="W406" t="inlineStr"/>
-      <c r="X406" t="inlineStr"/>
-      <c r="Y406" t="inlineStr"/>
-      <c r="Z406" t="inlineStr"/>
-      <c r="AA406" t="inlineStr"/>
-      <c r="AB406" t="inlineStr"/>
-      <c r="AC406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000765</t>
-        </is>
-      </c>
-      <c r="B407" s="5" t="inlineStr">
-        <is>
-          <t>synthetic cannabinoid receptor agonist</t>
-        </is>
-      </c>
-      <c r="C407" s="5" t="inlineStr">
-        <is>
-          <t>A cannabinoid receptor agonist which consists of synthetic analogs of the naturally occurring cannabinoids.</t>
-        </is>
-      </c>
-      <c r="D407" s="5" t="inlineStr">
-        <is>
-          <t>cannabinoid receptor agonist</t>
-        </is>
-      </c>
-      <c r="E407" s="5" t="inlineStr"/>
-      <c r="F407" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G407" s="5" t="inlineStr"/>
-      <c r="H407" s="5" t="inlineStr"/>
-      <c r="I407" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J407" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K407" s="5" t="inlineStr"/>
-      <c r="L407" s="5" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
-      <c r="M407" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N407" s="5" t="inlineStr"/>
-      <c r="O407" s="5" t="inlineStr"/>
-      <c r="P407" s="5" t="inlineStr"/>
-      <c r="Q407" s="5" t="inlineStr"/>
-      <c r="R407" s="5" t="inlineStr"/>
-      <c r="S407" s="5" t="inlineStr"/>
-      <c r="T407" s="5" t="inlineStr"/>
-      <c r="U407" s="5" t="inlineStr"/>
-      <c r="V407" s="5" t="inlineStr"/>
-      <c r="W407" s="5" t="inlineStr"/>
-      <c r="X407" s="5" t="inlineStr"/>
-      <c r="Y407" s="5" t="inlineStr"/>
-      <c r="Z407" s="5" t="inlineStr"/>
-      <c r="AA407" s="5" t="inlineStr"/>
-      <c r="AB407" s="5" t="inlineStr"/>
-      <c r="AC407" s="5" t="inlineStr"/>
+      <c r="S407" t="inlineStr"/>
+      <c r="T407" t="inlineStr"/>
+      <c r="U407" t="inlineStr"/>
+      <c r="V407" t="inlineStr"/>
+      <c r="W407" t="inlineStr"/>
+      <c r="X407" t="inlineStr"/>
+      <c r="Y407" t="inlineStr"/>
+      <c r="Z407" t="inlineStr"/>
+      <c r="AA407" t="inlineStr"/>
+      <c r="AB407" t="inlineStr"/>
+      <c r="AC407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000766</t>
+          <t>ADDICTO:0000765</t>
         </is>
       </c>
       <c r="B408" s="5" t="inlineStr">
         <is>
-          <t>syringe</t>
+          <t>synthetic cannabinoid receptor agonist</t>
         </is>
       </c>
       <c r="C408" s="5" t="inlineStr">
         <is>
-          <t>A medical device for introducing or withdrawing fluids from an organism by puncturing the skin, designed for single use.</t>
+          <t>A cannabinoid receptor agonist which consists of synthetic analogs of the naturally occurring cannabinoids.</t>
         </is>
       </c>
       <c r="D408" s="5" t="inlineStr">
         <is>
-          <t>medical device</t>
+          <t>cannabinoid receptor agonist</t>
         </is>
       </c>
       <c r="E408" s="5" t="inlineStr"/>
@@ -30093,10 +30083,8 @@
       </c>
       <c r="G408" s="5" t="inlineStr"/>
       <c r="H408" s="5" t="inlineStr"/>
-      <c r="I408" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I408" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="J408" s="5" t="inlineStr">
         <is>
@@ -30106,7 +30094,7 @@
       <c r="K408" s="5" t="inlineStr"/>
       <c r="L408" s="5" t="inlineStr">
         <is>
-          <t>KS; RW</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="M408" s="5" t="inlineStr">
@@ -30134,22 +30122,22 @@
     <row r="409">
       <c r="A409" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000767</t>
+          <t>ADDICTO:0000766</t>
         </is>
       </c>
       <c r="B409" s="5" t="inlineStr">
         <is>
-          <t>systemic bioavailability</t>
+          <t>syringe</t>
         </is>
       </c>
       <c r="C409" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">The extent and rate at which a substance is absorbed in order to have a physiological affect on the whole body. </t>
+          <t>A medical device for introducing or withdrawing fluids from an organism by puncturing the skin, designed for single use.</t>
         </is>
       </c>
       <c r="D409" s="5" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>medical device</t>
         </is>
       </c>
       <c r="E409" s="5" t="inlineStr"/>
@@ -30201,47 +30189,35 @@
     <row r="410">
       <c r="A410" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001005</t>
+          <t>ADDICTO:0000767</t>
         </is>
       </c>
       <c r="B410" s="5" t="inlineStr">
         <is>
-          <t>taaba</t>
+          <t>systemic bioavailability</t>
         </is>
       </c>
       <c r="C410" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A smokeless tobacco containing product that is designed for either oral or nasal use,  in which dry fermented tobacco is mixed with natron (a mixture of sodium bicarbonate and sodium chloride) and ground into a fine powder. It can be consumed both nasally or orally. </t>
+          <t xml:space="preserve">The extent and rate at which a substance is absorbed in order to have a physiological affect on the whole body. </t>
         </is>
       </c>
       <c r="D410" s="5" t="inlineStr">
         <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E410" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E410" s="5" t="inlineStr"/>
       <c r="F410" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G410" s="5" t="inlineStr">
-        <is>
-          <t>The product is custom made or packaged in cottage industries and is used by holding in the mouth or sniffing nasally.</t>
-        </is>
-      </c>
-      <c r="H410" s="5" t="inlineStr">
-        <is>
-          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#ghana</t>
-        </is>
-      </c>
+      <c r="G410" s="5" t="inlineStr"/>
+      <c r="H410" s="5" t="inlineStr"/>
       <c r="I410" s="5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J410" s="5" t="inlineStr">
@@ -30252,7 +30228,7 @@
       <c r="K410" s="5" t="inlineStr"/>
       <c r="L410" s="5" t="inlineStr">
         <is>
-          <t>KS: UoY</t>
+          <t>KS; RW</t>
         </is>
       </c>
       <c r="M410" s="5" t="inlineStr">
@@ -30274,21 +30250,25 @@
       <c r="Y410" s="5" t="inlineStr"/>
       <c r="Z410" s="5" t="inlineStr"/>
       <c r="AA410" s="5" t="inlineStr"/>
-      <c r="AB410" s="5" t="inlineStr">
-        <is>
-          <t>Nigerian traditional snuff</t>
-        </is>
-      </c>
+      <c r="AB410" s="5" t="inlineStr"/>
       <c r="AC410" s="5" t="inlineStr"/>
     </row>
     <row r="411">
-      <c r="A411" s="5" t="inlineStr"/>
+      <c r="A411" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001005</t>
+        </is>
+      </c>
       <c r="B411" s="5" t="inlineStr">
         <is>
-          <t>tabaco en cureda</t>
-        </is>
-      </c>
-      <c r="C411" s="5" t="inlineStr"/>
+          <t>taaba</t>
+        </is>
+      </c>
+      <c r="C411" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A smokeless tobacco containing product that is designed for either oral or nasal use,  in which dry fermented tobacco is mixed with natron (a mixture of sodium bicarbonate and sodium chloride) and ground into a fine powder. It can be consumed both nasally or orally. </t>
+        </is>
+      </c>
       <c r="D411" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
@@ -30306,13 +30286,17 @@
       </c>
       <c r="G411" s="5" t="inlineStr">
         <is>
-          <t>Comes from the North of Argentina.</t>
-        </is>
-      </c>
-      <c r="H411" s="5" t="inlineStr"/>
+          <t>The product is custom made or packaged in cottage industries and is used by holding in the mouth or sniffing nasally.</t>
+        </is>
+      </c>
+      <c r="H411" s="5" t="inlineStr">
+        <is>
+          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#ghana</t>
+        </is>
+      </c>
       <c r="I411" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J411" s="5" t="inlineStr">
@@ -30323,7 +30307,7 @@
       <c r="K411" s="5" t="inlineStr"/>
       <c r="L411" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS: UoY</t>
         </is>
       </c>
       <c r="M411" s="5" t="inlineStr">
@@ -30345,185 +30329,197 @@
       <c r="Y411" s="5" t="inlineStr"/>
       <c r="Z411" s="5" t="inlineStr"/>
       <c r="AA411" s="5" t="inlineStr"/>
-      <c r="AB411" s="5" t="inlineStr"/>
+      <c r="AB411" s="5" t="inlineStr">
+        <is>
+          <t>Nigerian traditional snuff</t>
+        </is>
+      </c>
       <c r="AC411" s="5" t="inlineStr"/>
     </row>
     <row r="412">
-      <c r="A412" s="3" t="inlineStr">
+      <c r="A412" s="5" t="inlineStr"/>
+      <c r="B412" s="5" t="inlineStr">
+        <is>
+          <t>tabaco en cureda</t>
+        </is>
+      </c>
+      <c r="C412" s="5" t="inlineStr"/>
+      <c r="D412" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E412" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F412" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G412" s="5" t="inlineStr">
+        <is>
+          <t>Comes from the North of Argentina.</t>
+        </is>
+      </c>
+      <c r="H412" s="5" t="inlineStr"/>
+      <c r="I412" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J412" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K412" s="5" t="inlineStr"/>
+      <c r="L412" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M412" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N412" s="5" t="inlineStr"/>
+      <c r="O412" s="5" t="inlineStr"/>
+      <c r="P412" s="5" t="inlineStr"/>
+      <c r="Q412" s="5" t="inlineStr"/>
+      <c r="R412" s="5" t="inlineStr"/>
+      <c r="S412" s="5" t="inlineStr"/>
+      <c r="T412" s="5" t="inlineStr"/>
+      <c r="U412" s="5" t="inlineStr"/>
+      <c r="V412" s="5" t="inlineStr"/>
+      <c r="W412" s="5" t="inlineStr"/>
+      <c r="X412" s="5" t="inlineStr"/>
+      <c r="Y412" s="5" t="inlineStr"/>
+      <c r="Z412" s="5" t="inlineStr"/>
+      <c r="AA412" s="5" t="inlineStr"/>
+      <c r="AB412" s="5" t="inlineStr"/>
+      <c r="AC412" s="5" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000866</t>
         </is>
       </c>
-      <c r="B412" s="3" t="inlineStr">
+      <c r="B413" s="3" t="inlineStr">
         <is>
           <t>tabletop vaporiser</t>
         </is>
       </c>
-      <c r="C412" s="3" t="inlineStr">
+      <c r="C413" s="3" t="inlineStr">
         <is>
           <t>A cannabis vaping device which is large, usually mains powered and intended for use in one location.</t>
         </is>
       </c>
-      <c r="D412" s="3" t="inlineStr">
+      <c r="D413" s="3" t="inlineStr">
         <is>
           <t>cannabis vaping device</t>
         </is>
       </c>
-      <c r="E412" s="3" t="inlineStr">
+      <c r="E413" s="3" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F412" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G412" s="3" t="inlineStr"/>
-      <c r="H412" s="3" t="inlineStr"/>
-      <c r="I412" s="3" t="n">
+      <c r="F413" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G413" s="3" t="inlineStr"/>
+      <c r="H413" s="3" t="inlineStr"/>
+      <c r="I413" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J412" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K412" s="3" t="inlineStr"/>
-      <c r="L412" s="3" t="inlineStr">
+      <c r="J413" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K413" s="3" t="inlineStr"/>
+      <c r="L413" s="3" t="inlineStr">
         <is>
           <t>KS; JH; RW</t>
         </is>
       </c>
-      <c r="M412" s="3" t="inlineStr">
+      <c r="M413" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N412" s="3" t="inlineStr"/>
-      <c r="O412" s="3" t="inlineStr"/>
-      <c r="P412" s="3" t="inlineStr"/>
-      <c r="Q412" s="3" t="inlineStr"/>
-      <c r="R412" s="3" t="inlineStr"/>
-      <c r="S412" s="3" t="inlineStr"/>
-      <c r="T412" s="3" t="inlineStr"/>
-      <c r="U412" s="3" t="inlineStr"/>
-      <c r="V412" s="3" t="inlineStr"/>
-      <c r="W412" s="3" t="inlineStr"/>
-      <c r="X412" s="3" t="inlineStr"/>
-      <c r="Y412" s="3" t="inlineStr"/>
-      <c r="Z412" s="3" t="inlineStr"/>
-      <c r="AA412" s="3" t="inlineStr"/>
-      <c r="AB412" s="3" t="inlineStr">
+      <c r="N413" s="3" t="inlineStr"/>
+      <c r="O413" s="3" t="inlineStr"/>
+      <c r="P413" s="3" t="inlineStr"/>
+      <c r="Q413" s="3" t="inlineStr"/>
+      <c r="R413" s="3" t="inlineStr"/>
+      <c r="S413" s="3" t="inlineStr"/>
+      <c r="T413" s="3" t="inlineStr"/>
+      <c r="U413" s="3" t="inlineStr"/>
+      <c r="V413" s="3" t="inlineStr"/>
+      <c r="W413" s="3" t="inlineStr"/>
+      <c r="X413" s="3" t="inlineStr"/>
+      <c r="Y413" s="3" t="inlineStr"/>
+      <c r="Z413" s="3" t="inlineStr"/>
+      <c r="AA413" s="3" t="inlineStr"/>
+      <c r="AB413" s="3" t="inlineStr">
         <is>
           <t>desktop vaporiser</t>
         </is>
       </c>
-      <c r="AC412" s="3" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="5" t="inlineStr">
+      <c r="AC413" s="3" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001006</t>
         </is>
       </c>
-      <c r="B413" s="5" t="inlineStr">
+      <c r="B414" s="5" t="inlineStr">
         <is>
           <t>taboka</t>
         </is>
       </c>
-      <c r="C413" s="5" t="inlineStr">
+      <c r="C414" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use, which is composed of tobacco which is sometimes flavoured with menthol and sold as small teabag like pouches. </t>
         </is>
       </c>
-      <c r="D413" s="5" t="inlineStr">
+      <c r="D414" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E413" s="5" t="inlineStr">
+      <c r="E414" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F413" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G413" s="5" t="inlineStr">
+      <c r="F414" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G414" s="5" t="inlineStr">
         <is>
           <t>The product is commercially prepared and consumed by placing the single-serve pouch between the cheek and gums, and disposing of when finished.</t>
         </is>
       </c>
-      <c r="H413" s="5" t="inlineStr">
+      <c r="H414" s="5" t="inlineStr">
         <is>
           <t>ncbi.nlm.nih.gov/pmc/articles/PMC2746834/</t>
         </is>
       </c>
-      <c r="I413" s="5" t="inlineStr">
+      <c r="I414" s="5" t="inlineStr">
         <is>
           <t>true</t>
-        </is>
-      </c>
-      <c r="J413" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K413" s="5" t="inlineStr"/>
-      <c r="L413" s="5" t="inlineStr">
-        <is>
-          <t>KS; UoY</t>
-        </is>
-      </c>
-      <c r="M413" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N413" s="5" t="inlineStr"/>
-      <c r="O413" s="5" t="inlineStr"/>
-      <c r="P413" s="5" t="inlineStr"/>
-      <c r="Q413" s="5" t="inlineStr"/>
-      <c r="R413" s="5" t="inlineStr"/>
-      <c r="S413" s="5" t="inlineStr"/>
-      <c r="T413" s="5" t="inlineStr"/>
-      <c r="U413" s="5" t="inlineStr"/>
-      <c r="V413" s="5" t="inlineStr"/>
-      <c r="W413" s="5" t="inlineStr"/>
-      <c r="X413" s="5" t="inlineStr"/>
-      <c r="Y413" s="5" t="inlineStr"/>
-      <c r="Z413" s="5" t="inlineStr"/>
-      <c r="AA413" s="5" t="inlineStr"/>
-      <c r="AB413" s="5" t="inlineStr"/>
-      <c r="AC413" s="5" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="5" t="inlineStr"/>
-      <c r="B414" s="5" t="inlineStr">
-        <is>
-          <t>tambakoo</t>
-        </is>
-      </c>
-      <c r="C414" s="5" t="inlineStr"/>
-      <c r="D414" s="5" t="inlineStr"/>
-      <c r="E414" s="5" t="inlineStr"/>
-      <c r="F414" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G414" s="5" t="inlineStr"/>
-      <c r="H414" s="5" t="inlineStr">
-        <is>
-          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#chewing</t>
-        </is>
-      </c>
-      <c r="I414" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="J414" s="5" t="inlineStr">
@@ -30534,7 +30530,7 @@
       <c r="K414" s="5" t="inlineStr"/>
       <c r="L414" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M414" s="5" t="inlineStr">
@@ -30556,257 +30552,265 @@
       <c r="Y414" s="5" t="inlineStr"/>
       <c r="Z414" s="5" t="inlineStr"/>
       <c r="AA414" s="5" t="inlineStr"/>
-      <c r="AB414" s="5" t="inlineStr">
+      <c r="AB414" s="5" t="inlineStr"/>
+      <c r="AC414" s="5" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="5" t="inlineStr"/>
+      <c r="B415" s="5" t="inlineStr">
+        <is>
+          <t>tambakoo</t>
+        </is>
+      </c>
+      <c r="C415" s="5" t="inlineStr"/>
+      <c r="D415" s="5" t="inlineStr"/>
+      <c r="E415" s="5" t="inlineStr"/>
+      <c r="F415" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G415" s="5" t="inlineStr"/>
+      <c r="H415" s="5" t="inlineStr">
+        <is>
+          <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#chewing</t>
+        </is>
+      </c>
+      <c r="I415" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J415" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K415" s="5" t="inlineStr"/>
+      <c r="L415" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M415" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N415" s="5" t="inlineStr"/>
+      <c r="O415" s="5" t="inlineStr"/>
+      <c r="P415" s="5" t="inlineStr"/>
+      <c r="Q415" s="5" t="inlineStr"/>
+      <c r="R415" s="5" t="inlineStr"/>
+      <c r="S415" s="5" t="inlineStr"/>
+      <c r="T415" s="5" t="inlineStr"/>
+      <c r="U415" s="5" t="inlineStr"/>
+      <c r="V415" s="5" t="inlineStr"/>
+      <c r="W415" s="5" t="inlineStr"/>
+      <c r="X415" s="5" t="inlineStr"/>
+      <c r="Y415" s="5" t="inlineStr"/>
+      <c r="Z415" s="5" t="inlineStr"/>
+      <c r="AA415" s="5" t="inlineStr"/>
+      <c r="AB415" s="5" t="inlineStr">
         <is>
           <t>chewing tobacco plain</t>
         </is>
       </c>
-      <c r="AC414" s="5" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="2" t="inlineStr">
+      <c r="AC415" s="5" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000299</t>
         </is>
       </c>
-      <c r="B415" s="2" t="inlineStr">
+      <c r="B416" s="2" t="inlineStr">
         <is>
           <t>tank type e-cigarette</t>
         </is>
       </c>
-      <c r="C415" s="2" t="inlineStr">
+      <c r="C416" s="2" t="inlineStr">
         <is>
           <t>An e-cigarette with a refillable tank.</t>
         </is>
       </c>
-      <c r="D415" s="2" t="inlineStr">
+      <c r="D416" s="2" t="inlineStr">
         <is>
           <t>e-cigarette</t>
         </is>
       </c>
-      <c r="E415" s="2" t="inlineStr">
+      <c r="E416" s="2" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F415" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G415" s="2" t="inlineStr"/>
-      <c r="H415" s="2" t="inlineStr"/>
-      <c r="I415" s="2" t="n">
+      <c r="F416" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G416" s="2" t="inlineStr"/>
+      <c r="H416" s="2" t="inlineStr"/>
+      <c r="I416" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J415" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K415" s="2" t="inlineStr"/>
-      <c r="L415" s="2" t="inlineStr">
+      <c r="J416" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K416" s="2" t="inlineStr"/>
+      <c r="L416" s="2" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M415" s="2" t="inlineStr">
+      <c r="M416" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="N415" s="2" t="inlineStr"/>
-      <c r="O415" s="2" t="inlineStr"/>
-      <c r="P415" s="2" t="inlineStr"/>
-      <c r="Q415" s="2" t="inlineStr"/>
-      <c r="R415" s="2" t="inlineStr"/>
-      <c r="S415" s="2" t="inlineStr"/>
-      <c r="T415" s="2" t="inlineStr"/>
-      <c r="U415" s="2" t="inlineStr"/>
-      <c r="V415" s="2" t="inlineStr"/>
-      <c r="W415" s="2" t="inlineStr"/>
-      <c r="X415" s="2" t="inlineStr"/>
-      <c r="Y415" s="2" t="inlineStr"/>
-      <c r="Z415" s="2" t="inlineStr"/>
-      <c r="AA415" s="2" t="inlineStr"/>
-      <c r="AB415" s="2" t="inlineStr"/>
-      <c r="AC415" s="2" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="4" t="inlineStr">
+      <c r="N416" s="2" t="inlineStr"/>
+      <c r="O416" s="2" t="inlineStr"/>
+      <c r="P416" s="2" t="inlineStr"/>
+      <c r="Q416" s="2" t="inlineStr"/>
+      <c r="R416" s="2" t="inlineStr"/>
+      <c r="S416" s="2" t="inlineStr"/>
+      <c r="T416" s="2" t="inlineStr"/>
+      <c r="U416" s="2" t="inlineStr"/>
+      <c r="V416" s="2" t="inlineStr"/>
+      <c r="W416" s="2" t="inlineStr"/>
+      <c r="X416" s="2" t="inlineStr"/>
+      <c r="Y416" s="2" t="inlineStr"/>
+      <c r="Z416" s="2" t="inlineStr"/>
+      <c r="AA416" s="2" t="inlineStr"/>
+      <c r="AB416" s="2" t="inlineStr"/>
+      <c r="AC416" s="2" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000925</t>
         </is>
       </c>
-      <c r="B416" s="4" t="inlineStr">
+      <c r="B417" s="4" t="inlineStr">
         <is>
           <t>tank-type e-cigarette</t>
         </is>
       </c>
-      <c r="C416" s="4" t="inlineStr">
+      <c r="C417" s="4" t="inlineStr">
         <is>
           <t>An e-cigarette in which the e-liquid container can be filled by the user.</t>
         </is>
       </c>
-      <c r="D416" s="4" t="inlineStr">
+      <c r="D417" s="4" t="inlineStr">
         <is>
           <t>e-cigarette</t>
         </is>
       </c>
-      <c r="E416" s="4" t="inlineStr">
+      <c r="E417" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F416" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G416" s="4" t="inlineStr"/>
-      <c r="H416" s="4" t="inlineStr"/>
-      <c r="I416" s="4" t="n">
+      <c r="F417" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G417" s="4" t="inlineStr"/>
+      <c r="H417" s="4" t="inlineStr"/>
+      <c r="I417" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J416" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K416" s="4" t="inlineStr"/>
-      <c r="L416" s="4" t="inlineStr">
+      <c r="J417" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K417" s="4" t="inlineStr"/>
+      <c r="L417" s="4" t="inlineStr">
         <is>
           <t>RW; JH; SC, CN</t>
         </is>
       </c>
-      <c r="M416" s="4" t="inlineStr">
+      <c r="M417" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N416" s="4" t="inlineStr"/>
-      <c r="O416" s="4" t="inlineStr"/>
-      <c r="P416" s="4" t="inlineStr"/>
-      <c r="Q416" s="4" t="inlineStr"/>
-      <c r="R416" s="4" t="inlineStr"/>
-      <c r="S416" s="4" t="inlineStr"/>
-      <c r="T416" s="4" t="inlineStr"/>
-      <c r="U416" s="4" t="inlineStr"/>
-      <c r="V416" s="4" t="inlineStr"/>
-      <c r="W416" s="4" t="inlineStr"/>
-      <c r="X416" s="4" t="inlineStr"/>
-      <c r="Y416" s="4" t="inlineStr"/>
-      <c r="Z416" s="4" t="inlineStr"/>
-      <c r="AA416" s="4" t="inlineStr"/>
-      <c r="AB416" s="4" t="inlineStr"/>
-      <c r="AC416" s="4" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="5" t="inlineStr">
+      <c r="N417" s="4" t="inlineStr"/>
+      <c r="O417" s="4" t="inlineStr"/>
+      <c r="P417" s="4" t="inlineStr"/>
+      <c r="Q417" s="4" t="inlineStr"/>
+      <c r="R417" s="4" t="inlineStr"/>
+      <c r="S417" s="4" t="inlineStr"/>
+      <c r="T417" s="4" t="inlineStr"/>
+      <c r="U417" s="4" t="inlineStr"/>
+      <c r="V417" s="4" t="inlineStr"/>
+      <c r="W417" s="4" t="inlineStr"/>
+      <c r="X417" s="4" t="inlineStr"/>
+      <c r="Y417" s="4" t="inlineStr"/>
+      <c r="Z417" s="4" t="inlineStr"/>
+      <c r="AA417" s="4" t="inlineStr"/>
+      <c r="AB417" s="4" t="inlineStr"/>
+      <c r="AC417" s="4" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001007</t>
         </is>
       </c>
-      <c r="B417" s="5" t="inlineStr">
+      <c r="B418" s="5" t="inlineStr">
         <is>
           <t>tawa</t>
         </is>
       </c>
-      <c r="C417" s="5" t="inlineStr">
+      <c r="C418" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco containing product that is designed for either oral or nasal use, which is composed of dried tobacco leaf with, saltpeter (potassium nitrate) and ashes which are ground into a fine powder. </t>
         </is>
       </c>
-      <c r="D417" s="5" t="inlineStr">
+      <c r="D418" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E417" s="5" t="inlineStr">
+      <c r="E418" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F417" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G417" s="5" t="inlineStr">
+      <c r="F418" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G418" s="5" t="inlineStr">
         <is>
           <t>It is premade in cottage industry or custom made by vendor/individuals and is consumed by holding in the mouth or sniffing nasally.</t>
         </is>
       </c>
-      <c r="H417" s="5" t="inlineStr">
+      <c r="H418" s="5" t="inlineStr">
         <is>
           <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#ghana</t>
         </is>
       </c>
-      <c r="I417" s="5" t="inlineStr">
+      <c r="I418" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J417" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K417" s="5" t="inlineStr"/>
-      <c r="L417" s="5" t="inlineStr">
-        <is>
-          <t>KS; UoY</t>
-        </is>
-      </c>
-      <c r="M417" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N417" s="5" t="inlineStr"/>
-      <c r="O417" s="5" t="inlineStr"/>
-      <c r="P417" s="5" t="inlineStr"/>
-      <c r="Q417" s="5" t="inlineStr"/>
-      <c r="R417" s="5" t="inlineStr"/>
-      <c r="S417" s="5" t="inlineStr"/>
-      <c r="T417" s="5" t="inlineStr"/>
-      <c r="U417" s="5" t="inlineStr"/>
-      <c r="V417" s="5" t="inlineStr"/>
-      <c r="W417" s="5" t="inlineStr"/>
-      <c r="X417" s="5" t="inlineStr"/>
-      <c r="Y417" s="5" t="inlineStr"/>
-      <c r="Z417" s="5" t="inlineStr"/>
-      <c r="AA417" s="5" t="inlineStr"/>
-      <c r="AB417" s="5" t="inlineStr">
-        <is>
-          <t>Ghana traditional snuff</t>
-        </is>
-      </c>
-      <c r="AC417" s="5" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="5" t="inlineStr"/>
-      <c r="B418" s="5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C418" s="5" t="inlineStr">
-        <is>
-          <t>Test Test</t>
-        </is>
-      </c>
-      <c r="D418" s="5" t="inlineStr"/>
-      <c r="E418" s="5" t="inlineStr"/>
-      <c r="F418" s="5" t="inlineStr"/>
-      <c r="G418" s="5" t="inlineStr"/>
-      <c r="H418" s="5" t="inlineStr"/>
-      <c r="I418" s="5" t="inlineStr"/>
-      <c r="J418" s="5" t="inlineStr"/>
+      <c r="J418" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="K418" s="5" t="inlineStr"/>
       <c r="L418" s="5" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M418" s="5" t="inlineStr">
@@ -30828,384 +30832,356 @@
       <c r="Y418" s="5" t="inlineStr"/>
       <c r="Z418" s="5" t="inlineStr"/>
       <c r="AA418" s="5" t="inlineStr"/>
-      <c r="AB418" s="5" t="inlineStr"/>
+      <c r="AB418" s="5" t="inlineStr">
+        <is>
+          <t>Ghana traditional snuff</t>
+        </is>
+      </c>
       <c r="AC418" s="5" t="inlineStr"/>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
+      <c r="A419" s="5" t="inlineStr"/>
+      <c r="B419" s="5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C419" s="5" t="inlineStr">
+        <is>
+          <t>Test Test</t>
+        </is>
+      </c>
+      <c r="D419" s="5" t="inlineStr"/>
+      <c r="E419" s="5" t="inlineStr"/>
+      <c r="F419" s="5" t="inlineStr"/>
+      <c r="G419" s="5" t="inlineStr"/>
+      <c r="H419" s="5" t="inlineStr"/>
+      <c r="I419" s="5" t="inlineStr"/>
+      <c r="J419" s="5" t="inlineStr"/>
+      <c r="K419" s="5" t="inlineStr"/>
+      <c r="L419" s="5" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="M419" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N419" s="5" t="inlineStr"/>
+      <c r="O419" s="5" t="inlineStr"/>
+      <c r="P419" s="5" t="inlineStr"/>
+      <c r="Q419" s="5" t="inlineStr"/>
+      <c r="R419" s="5" t="inlineStr"/>
+      <c r="S419" s="5" t="inlineStr"/>
+      <c r="T419" s="5" t="inlineStr"/>
+      <c r="U419" s="5" t="inlineStr"/>
+      <c r="V419" s="5" t="inlineStr"/>
+      <c r="W419" s="5" t="inlineStr"/>
+      <c r="X419" s="5" t="inlineStr"/>
+      <c r="Y419" s="5" t="inlineStr"/>
+      <c r="Z419" s="5" t="inlineStr"/>
+      <c r="AA419" s="5" t="inlineStr"/>
+      <c r="AB419" s="5" t="inlineStr"/>
+      <c r="AC419" s="5" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
         <is>
           <t>CHEBI:66964</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr">
+      <c r="B420" t="inlineStr">
         <is>
           <t>tetrahydrocannabinol</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr">
+      <c r="C420" t="inlineStr">
         <is>
           <t xml:space="preserve">A diterpenoid that is 6a,7,8,10a-tetrahydro-6H-benzo[c]chromene substituted at position 1 by a hydroxy group, positions 6, 6 and 9 by methyl groups and at position 3 by a pentyl group. </t>
         </is>
       </c>
-      <c r="D419" t="inlineStr">
+      <c r="D420" t="inlineStr">
         <is>
           <t>cannabinoid</t>
         </is>
       </c>
-      <c r="E419" t="inlineStr">
+      <c r="E420" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G419" t="inlineStr">
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
         <is>
           <t>ChEBI definition does not highlight use for recreational purposes. Sold illicitly. Users seek out for its psychoactive properties. CHEBI: The principal psychoactive constituent of the cannabis plant, it is used for treatment of anorexia associated with AIDS as well as nausea and vomiting associated with cancer chemotherapy.</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr"/>
-      <c r="I419" t="n">
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="n">
         <v>1</v>
       </c>
-      <c r="J419" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M419" t="inlineStr">
+      <c r="M420" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N419" t="inlineStr"/>
-      <c r="O419" t="inlineStr"/>
-      <c r="P419" t="inlineStr"/>
-      <c r="Q419" t="inlineStr"/>
-      <c r="R419" t="inlineStr">
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr">
         <is>
           <t>CHEBI:66964</t>
         </is>
       </c>
-      <c r="S419" t="inlineStr"/>
-      <c r="T419" t="inlineStr"/>
-      <c r="U419" t="inlineStr"/>
-      <c r="V419" t="inlineStr"/>
-      <c r="W419" t="inlineStr"/>
-      <c r="X419" t="inlineStr"/>
-      <c r="Y419" t="inlineStr"/>
-      <c r="Z419" t="inlineStr"/>
-      <c r="AA419" t="inlineStr"/>
-      <c r="AB419" t="inlineStr">
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr"/>
+      <c r="U420" t="inlineStr"/>
+      <c r="V420" t="inlineStr"/>
+      <c r="W420" t="inlineStr"/>
+      <c r="X420" t="inlineStr"/>
+      <c r="Y420" t="inlineStr"/>
+      <c r="Z420" t="inlineStr"/>
+      <c r="AA420" t="inlineStr"/>
+      <c r="AB420" t="inlineStr">
         <is>
           <t>THC</t>
         </is>
       </c>
-      <c r="AC419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="5" t="inlineStr"/>
-      <c r="B420" s="5" t="inlineStr">
+      <c r="AC420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="5" t="inlineStr"/>
+      <c r="B421" s="5" t="inlineStr">
         <is>
           <t>thinso</t>
         </is>
       </c>
-      <c r="C420" s="5" t="inlineStr"/>
-      <c r="D420" s="5" t="inlineStr">
+      <c r="C421" s="5" t="inlineStr"/>
+      <c r="D421" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E420" s="5" t="inlineStr"/>
-      <c r="F420" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G420" s="5" t="inlineStr"/>
-      <c r="H420" s="5" t="inlineStr"/>
-      <c r="I420" s="5" t="inlineStr">
+      <c r="E421" s="5" t="inlineStr"/>
+      <c r="F421" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G421" s="5" t="inlineStr"/>
+      <c r="H421" s="5" t="inlineStr"/>
+      <c r="I421" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J420" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K420" s="5" t="inlineStr"/>
-      <c r="L420" s="5" t="inlineStr">
+      <c r="J421" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K421" s="5" t="inlineStr"/>
+      <c r="L421" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M420" s="5" t="inlineStr">
+      <c r="M421" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N420" s="5" t="inlineStr"/>
-      <c r="O420" s="5" t="inlineStr"/>
-      <c r="P420" s="5" t="inlineStr"/>
-      <c r="Q420" s="5" t="inlineStr"/>
-      <c r="R420" s="5" t="inlineStr"/>
-      <c r="S420" s="5" t="inlineStr"/>
-      <c r="T420" s="5" t="inlineStr"/>
-      <c r="U420" s="5" t="inlineStr"/>
-      <c r="V420" s="5" t="inlineStr"/>
-      <c r="W420" s="5" t="inlineStr"/>
-      <c r="X420" s="5" t="inlineStr"/>
-      <c r="Y420" s="5" t="inlineStr"/>
-      <c r="Z420" s="5" t="inlineStr"/>
-      <c r="AA420" s="5" t="inlineStr"/>
-      <c r="AB420" s="5" t="inlineStr"/>
-      <c r="AC420" s="5" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="4" t="inlineStr">
+      <c r="N421" s="5" t="inlineStr"/>
+      <c r="O421" s="5" t="inlineStr"/>
+      <c r="P421" s="5" t="inlineStr"/>
+      <c r="Q421" s="5" t="inlineStr"/>
+      <c r="R421" s="5" t="inlineStr"/>
+      <c r="S421" s="5" t="inlineStr"/>
+      <c r="T421" s="5" t="inlineStr"/>
+      <c r="U421" s="5" t="inlineStr"/>
+      <c r="V421" s="5" t="inlineStr"/>
+      <c r="W421" s="5" t="inlineStr"/>
+      <c r="X421" s="5" t="inlineStr"/>
+      <c r="Y421" s="5" t="inlineStr"/>
+      <c r="Z421" s="5" t="inlineStr"/>
+      <c r="AA421" s="5" t="inlineStr"/>
+      <c r="AB421" s="5" t="inlineStr"/>
+      <c r="AC421" s="5" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000303</t>
         </is>
       </c>
-      <c r="B421" s="4" t="inlineStr">
+      <c r="B422" s="4" t="inlineStr">
         <is>
           <t>tobacco</t>
         </is>
       </c>
-      <c r="C421" s="4" t="inlineStr">
+      <c r="C422" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A commodity that is formed from parts of the tobacco plant. </t>
         </is>
       </c>
-      <c r="D421" s="4" t="inlineStr">
+      <c r="D422" s="4" t="inlineStr">
         <is>
           <t>commodity</t>
         </is>
       </c>
-      <c r="E421" s="4" t="inlineStr">
+      <c r="E422" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F421" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G421" s="4" t="inlineStr"/>
-      <c r="H421" s="4" t="inlineStr"/>
-      <c r="I421" s="4" t="n">
+      <c r="F422" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G422" s="4" t="inlineStr"/>
+      <c r="H422" s="4" t="inlineStr"/>
+      <c r="I422" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J421" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K421" s="4" t="inlineStr"/>
-      <c r="L421" s="4" t="inlineStr">
+      <c r="J422" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K422" s="4" t="inlineStr"/>
+      <c r="L422" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M421" s="4" t="inlineStr">
+      <c r="M422" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N421" s="4" t="inlineStr"/>
-      <c r="O421" s="4" t="inlineStr"/>
-      <c r="P421" s="4" t="inlineStr"/>
-      <c r="Q421" s="4" t="inlineStr"/>
-      <c r="R421" s="4" t="inlineStr"/>
-      <c r="S421" s="4" t="inlineStr"/>
-      <c r="T421" s="4" t="inlineStr">
+      <c r="N422" s="4" t="inlineStr"/>
+      <c r="O422" s="4" t="inlineStr"/>
+      <c r="P422" s="4" t="inlineStr"/>
+      <c r="Q422" s="4" t="inlineStr"/>
+      <c r="R422" s="4" t="inlineStr"/>
+      <c r="S422" s="4" t="inlineStr"/>
+      <c r="T422" s="4" t="inlineStr">
         <is>
           <t>tobacco plant</t>
         </is>
       </c>
-      <c r="U421" s="4" t="inlineStr"/>
-      <c r="V421" s="4" t="inlineStr"/>
-      <c r="W421" s="4" t="inlineStr"/>
-      <c r="X421" s="4" t="inlineStr"/>
-      <c r="Y421" s="4" t="inlineStr"/>
-      <c r="Z421" s="4" t="inlineStr"/>
-      <c r="AA421" s="4" t="inlineStr"/>
-      <c r="AB421" s="4" t="inlineStr"/>
-      <c r="AC421" s="4" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="3" t="inlineStr">
+      <c r="U422" s="4" t="inlineStr"/>
+      <c r="V422" s="4" t="inlineStr"/>
+      <c r="W422" s="4" t="inlineStr"/>
+      <c r="X422" s="4" t="inlineStr"/>
+      <c r="Y422" s="4" t="inlineStr"/>
+      <c r="Z422" s="4" t="inlineStr"/>
+      <c r="AA422" s="4" t="inlineStr"/>
+      <c r="AB422" s="4" t="inlineStr"/>
+      <c r="AC422" s="4" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000306</t>
         </is>
       </c>
-      <c r="B422" s="3" t="inlineStr">
+      <c r="B423" s="3" t="inlineStr">
         <is>
           <t>tobacco advertising</t>
         </is>
       </c>
-      <c r="C422" s="3" t="inlineStr">
+      <c r="C423" s="3" t="inlineStr">
         <is>
           <t>Advertising of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D422" s="3" t="inlineStr">
+      <c r="D423" s="3" t="inlineStr">
         <is>
           <t>advertising</t>
         </is>
       </c>
-      <c r="E422" s="3" t="inlineStr">
+      <c r="E423" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F422" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G422" s="3" t="inlineStr"/>
-      <c r="H422" s="3" t="inlineStr"/>
-      <c r="I422" s="3" t="n">
+      <c r="F423" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G423" s="3" t="inlineStr"/>
+      <c r="H423" s="3" t="inlineStr"/>
+      <c r="I423" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J422" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K422" s="3" t="inlineStr"/>
-      <c r="L422" s="3" t="inlineStr">
+      <c r="J423" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K423" s="3" t="inlineStr"/>
+      <c r="L423" s="3" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M422" s="3" t="inlineStr">
+      <c r="M423" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N422" s="3" t="inlineStr"/>
-      <c r="O422" s="3" t="inlineStr"/>
-      <c r="P422" s="3" t="inlineStr"/>
-      <c r="Q422" s="3" t="inlineStr"/>
-      <c r="R422" s="3" t="inlineStr"/>
-      <c r="S422" s="3" t="inlineStr"/>
-      <c r="T422" s="3" t="inlineStr"/>
-      <c r="U422" s="3" t="inlineStr"/>
-      <c r="V422" s="3" t="inlineStr"/>
-      <c r="W422" s="3" t="inlineStr"/>
-      <c r="X422" s="3" t="inlineStr"/>
-      <c r="Y422" s="3" t="inlineStr"/>
-      <c r="Z422" s="3" t="inlineStr"/>
-      <c r="AA422" s="3" t="inlineStr"/>
-      <c r="AB422" s="3" t="inlineStr"/>
-      <c r="AC422" s="3" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001008</t>
-        </is>
-      </c>
-      <c r="B423" s="5" t="inlineStr">
-        <is>
-          <t>tobacco chewing gum</t>
-        </is>
-      </c>
-      <c r="C423" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, which is composed of finely ground tobacco , chewing gum base and xylitol. </t>
-        </is>
-      </c>
-      <c r="D423" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E423" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F423" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G423" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> It is commercially manufactured and used as a chewing gum. </t>
-        </is>
-      </c>
-      <c r="H423" s="5" t="inlineStr">
-        <is>
-          <t>https://publications.iarc.fr/Book-And-Report-Series/Iarc-Monographs-On-The-Identification-Of-Carcinogenic-Hazards-To-Humans/Smokeless-Tobacco-And-Some-Tobacco-specific-Em-N-Em--Nitrosamines-2007</t>
-        </is>
-      </c>
-      <c r="I423" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J423" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K423" s="5" t="inlineStr"/>
-      <c r="L423" s="5" t="inlineStr">
-        <is>
-          <t>KS; UoY; RW</t>
-        </is>
-      </c>
-      <c r="M423" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N423" s="5" t="inlineStr"/>
-      <c r="O423" s="5" t="inlineStr"/>
-      <c r="P423" s="5" t="inlineStr"/>
-      <c r="Q423" s="5" t="inlineStr"/>
-      <c r="R423" s="5" t="inlineStr"/>
-      <c r="S423" s="5" t="inlineStr"/>
-      <c r="T423" s="5" t="inlineStr"/>
-      <c r="U423" s="5" t="inlineStr"/>
-      <c r="V423" s="5" t="inlineStr"/>
-      <c r="W423" s="5" t="inlineStr"/>
-      <c r="X423" s="5" t="inlineStr"/>
-      <c r="Y423" s="5" t="inlineStr"/>
-      <c r="Z423" s="5" t="inlineStr"/>
-      <c r="AA423" s="5" t="inlineStr"/>
-      <c r="AB423" s="5" t="inlineStr"/>
-      <c r="AC423" s="5" t="inlineStr"/>
+      <c r="N423" s="3" t="inlineStr"/>
+      <c r="O423" s="3" t="inlineStr"/>
+      <c r="P423" s="3" t="inlineStr"/>
+      <c r="Q423" s="3" t="inlineStr"/>
+      <c r="R423" s="3" t="inlineStr"/>
+      <c r="S423" s="3" t="inlineStr"/>
+      <c r="T423" s="3" t="inlineStr"/>
+      <c r="U423" s="3" t="inlineStr"/>
+      <c r="V423" s="3" t="inlineStr"/>
+      <c r="W423" s="3" t="inlineStr"/>
+      <c r="X423" s="3" t="inlineStr"/>
+      <c r="Y423" s="3" t="inlineStr"/>
+      <c r="Z423" s="3" t="inlineStr"/>
+      <c r="AA423" s="3" t="inlineStr"/>
+      <c r="AB423" s="3" t="inlineStr"/>
+      <c r="AC423" s="3" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001009</t>
+          <t>ADDICTO:0001008</t>
         </is>
       </c>
       <c r="B424" s="5" t="inlineStr">
         <is>
-          <t>tobacco coated toothpick</t>
+          <t>tobacco chewing gum</t>
         </is>
       </c>
       <c r="C424" s="5" t="inlineStr">
         <is>
-          <t>A smokeless tobacco-containing product that is designed for oral use,  which is composed of nicotine with flavours like strawberry, peppermint, spearmint, coffee, cinnamon etc and is placed in the mouth like a toothpick.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, which is composed of finely ground tobacco , chewing gum base and xylitol. </t>
         </is>
       </c>
       <c r="D424" s="5" t="inlineStr">
@@ -31225,12 +31201,14 @@
       </c>
       <c r="G424" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- It is commercially prepared and is sucked or sometimes chewed to increase the speed of nicotine release.
-</t>
-        </is>
-      </c>
-      <c r="H424" s="5" t="inlineStr"/>
+          <t xml:space="preserve"> It is commercially manufactured and used as a chewing gum. </t>
+        </is>
+      </c>
+      <c r="H424" s="5" t="inlineStr">
+        <is>
+          <t>https://publications.iarc.fr/Book-And-Report-Series/Iarc-Monographs-On-The-Identification-Of-Carcinogenic-Hazards-To-Humans/Smokeless-Tobacco-And-Some-Tobacco-specific-Em-N-Em--Nitrosamines-2007</t>
+        </is>
+      </c>
       <c r="I424" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -31270,21 +31248,47 @@
       <c r="AC424" s="5" t="inlineStr"/>
     </row>
     <row r="425">
-      <c r="A425" s="5" t="inlineStr"/>
+      <c r="A425" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001009</t>
+        </is>
+      </c>
       <c r="B425" s="5" t="inlineStr">
         <is>
-          <t>tobacco constituent</t>
-        </is>
-      </c>
-      <c r="C425" s="5" t="inlineStr"/>
-      <c r="D425" s="5" t="inlineStr"/>
-      <c r="E425" s="5" t="inlineStr"/>
-      <c r="F425" s="5" t="inlineStr"/>
-      <c r="G425" s="5" t="inlineStr"/>
+          <t>tobacco coated toothpick</t>
+        </is>
+      </c>
+      <c r="C425" s="5" t="inlineStr">
+        <is>
+          <t>A smokeless tobacco-containing product that is designed for oral use,  which is composed of nicotine with flavours like strawberry, peppermint, spearmint, coffee, cinnamon etc and is placed in the mouth like a toothpick.</t>
+        </is>
+      </c>
+      <c r="D425" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E425" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F425" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G425" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ It is commercially prepared and is sucked or sometimes chewed to increase the speed of nicotine release.
+</t>
+        </is>
+      </c>
       <c r="H425" s="5" t="inlineStr"/>
       <c r="I425" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J425" s="5" t="inlineStr">
@@ -31293,7 +31297,11 @@
         </is>
       </c>
       <c r="K425" s="5" t="inlineStr"/>
-      <c r="L425" s="5" t="inlineStr"/>
+      <c r="L425" s="5" t="inlineStr">
+        <is>
+          <t>KS; UoY; RW</t>
+        </is>
+      </c>
       <c r="M425" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -31317,42 +31325,21 @@
       <c r="AC425" s="5" t="inlineStr"/>
     </row>
     <row r="426">
-      <c r="A426" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000922</t>
-        </is>
-      </c>
+      <c r="A426" s="5" t="inlineStr"/>
       <c r="B426" s="5" t="inlineStr">
         <is>
-          <t>tobacco leaf product</t>
-        </is>
-      </c>
-      <c r="C426" s="5" t="inlineStr">
-        <is>
-          <t>A tobacco-containing product that consists of chopped unprocessed tobacco leaves.</t>
-        </is>
-      </c>
-      <c r="D426" s="5" t="inlineStr">
-        <is>
-          <t>tobacco-containing product</t>
-        </is>
-      </c>
+          <t>tobacco constituent</t>
+        </is>
+      </c>
+      <c r="C426" s="5" t="inlineStr"/>
+      <c r="D426" s="5" t="inlineStr"/>
       <c r="E426" s="5" t="inlineStr"/>
-      <c r="F426" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="F426" s="5" t="inlineStr"/>
       <c r="G426" s="5" t="inlineStr"/>
-      <c r="H426" s="5" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="H426" s="5" t="inlineStr"/>
       <c r="I426" s="5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J426" s="5" t="inlineStr">
@@ -31361,11 +31348,7 @@
         </is>
       </c>
       <c r="K426" s="5" t="inlineStr"/>
-      <c r="L426" s="5" t="inlineStr">
-        <is>
-          <t>JH; KS; RW</t>
-        </is>
-      </c>
+      <c r="L426" s="5" t="inlineStr"/>
       <c r="M426" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -31391,42 +31374,35 @@
     <row r="427">
       <c r="A427" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001010</t>
+          <t>ADDICTO:0000922</t>
         </is>
       </c>
       <c r="B427" s="5" t="inlineStr">
         <is>
-          <t>tobacco lozenges</t>
+          <t>tobacco leaf product</t>
         </is>
       </c>
       <c r="C427" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use, that in which ground tobacco is mixed with various flavouring agents like cinnamon, fruit and mint to form a sugar-free tablet. </t>
+          <t>A tobacco-containing product that consists of chopped unprocessed tobacco leaves.</t>
         </is>
       </c>
       <c r="D427" s="5" t="inlineStr">
         <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E427" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+          <t>tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E427" s="5" t="inlineStr"/>
       <c r="F427" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G427" s="5" t="inlineStr">
-        <is>
-          <t>It is commercially packaged and is consumed by placing in the mouth and allowing to dissolve over the course of 20 to 30 mins.</t>
-        </is>
-      </c>
+      <c r="G427" s="5" t="inlineStr"/>
       <c r="H427" s="5" t="inlineStr">
         <is>
-          <t>verywellmind.com/the-pros-and-cons-of-nicotine-lozenges-2825034</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="I427" s="5" t="inlineStr">
@@ -31442,7 +31418,7 @@
       <c r="K427" s="5" t="inlineStr"/>
       <c r="L427" s="5" t="inlineStr">
         <is>
-          <t>KS: UoY</t>
+          <t>JH; KS; RW</t>
         </is>
       </c>
       <c r="M427" s="5" t="inlineStr">
@@ -31468,250 +31444,260 @@
       <c r="AC427" s="5" t="inlineStr"/>
     </row>
     <row r="428">
-      <c r="A428" s="3" t="inlineStr">
+      <c r="A428" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001010</t>
+        </is>
+      </c>
+      <c r="B428" s="5" t="inlineStr">
+        <is>
+          <t>tobacco lozenges</t>
+        </is>
+      </c>
+      <c r="C428" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use, that in which ground tobacco is mixed with various flavouring agents like cinnamon, fruit and mint to form a sugar-free tablet. </t>
+        </is>
+      </c>
+      <c r="D428" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E428" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F428" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G428" s="5" t="inlineStr">
+        <is>
+          <t>It is commercially packaged and is consumed by placing in the mouth and allowing to dissolve over the course of 20 to 30 mins.</t>
+        </is>
+      </c>
+      <c r="H428" s="5" t="inlineStr">
+        <is>
+          <t>verywellmind.com/the-pros-and-cons-of-nicotine-lozenges-2825034</t>
+        </is>
+      </c>
+      <c r="I428" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J428" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K428" s="5" t="inlineStr"/>
+      <c r="L428" s="5" t="inlineStr">
+        <is>
+          <t>KS: UoY</t>
+        </is>
+      </c>
+      <c r="M428" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N428" s="5" t="inlineStr"/>
+      <c r="O428" s="5" t="inlineStr"/>
+      <c r="P428" s="5" t="inlineStr"/>
+      <c r="Q428" s="5" t="inlineStr"/>
+      <c r="R428" s="5" t="inlineStr"/>
+      <c r="S428" s="5" t="inlineStr"/>
+      <c r="T428" s="5" t="inlineStr"/>
+      <c r="U428" s="5" t="inlineStr"/>
+      <c r="V428" s="5" t="inlineStr"/>
+      <c r="W428" s="5" t="inlineStr"/>
+      <c r="X428" s="5" t="inlineStr"/>
+      <c r="Y428" s="5" t="inlineStr"/>
+      <c r="Z428" s="5" t="inlineStr"/>
+      <c r="AA428" s="5" t="inlineStr"/>
+      <c r="AB428" s="5" t="inlineStr"/>
+      <c r="AC428" s="5" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001246</t>
         </is>
       </c>
-      <c r="B428" s="3" t="inlineStr">
+      <c r="B429" s="3" t="inlineStr">
         <is>
           <t>tobacco marketing</t>
         </is>
       </c>
-      <c r="C428" s="3" t="inlineStr">
+      <c r="C429" s="3" t="inlineStr">
         <is>
           <t>Marketing of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D428" s="3" t="inlineStr">
+      <c r="D429" s="3" t="inlineStr">
         <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E428" s="3" t="inlineStr">
+      <c r="E429" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F428" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G428" s="3" t="inlineStr"/>
-      <c r="H428" s="3" t="inlineStr"/>
-      <c r="I428" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J428" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K428" s="3" t="inlineStr"/>
-      <c r="L428" s="3" t="inlineStr">
+      <c r="F429" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G429" s="3" t="inlineStr"/>
+      <c r="H429" s="3" t="inlineStr"/>
+      <c r="I429" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J429" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K429" s="3" t="inlineStr"/>
+      <c r="L429" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="M428" s="3" t="inlineStr">
+      <c r="M429" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N428" s="3" t="inlineStr"/>
-      <c r="O428" s="3" t="inlineStr"/>
-      <c r="P428" s="3" t="inlineStr"/>
-      <c r="Q428" s="3" t="inlineStr"/>
-      <c r="R428" s="3" t="inlineStr"/>
-      <c r="S428" s="3" t="inlineStr"/>
-      <c r="T428" s="3" t="inlineStr"/>
-      <c r="U428" s="3" t="inlineStr"/>
-      <c r="V428" s="3" t="inlineStr"/>
-      <c r="W428" s="3" t="inlineStr"/>
-      <c r="X428" s="3" t="inlineStr"/>
-      <c r="Y428" s="3" t="inlineStr"/>
-      <c r="Z428" s="3" t="inlineStr"/>
-      <c r="AA428" s="3" t="inlineStr"/>
-      <c r="AB428" s="3" t="inlineStr"/>
-      <c r="AC428" s="3" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="4" t="inlineStr">
+      <c r="N429" s="3" t="inlineStr"/>
+      <c r="O429" s="3" t="inlineStr"/>
+      <c r="P429" s="3" t="inlineStr"/>
+      <c r="Q429" s="3" t="inlineStr"/>
+      <c r="R429" s="3" t="inlineStr"/>
+      <c r="S429" s="3" t="inlineStr"/>
+      <c r="T429" s="3" t="inlineStr"/>
+      <c r="U429" s="3" t="inlineStr"/>
+      <c r="V429" s="3" t="inlineStr"/>
+      <c r="W429" s="3" t="inlineStr"/>
+      <c r="X429" s="3" t="inlineStr"/>
+      <c r="Y429" s="3" t="inlineStr"/>
+      <c r="Z429" s="3" t="inlineStr"/>
+      <c r="AA429" s="3" t="inlineStr"/>
+      <c r="AB429" s="3" t="inlineStr"/>
+      <c r="AC429" s="3" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000305</t>
         </is>
       </c>
-      <c r="B429" s="4" t="inlineStr">
+      <c r="B430" s="4" t="inlineStr">
         <is>
           <t>tobacco plant</t>
         </is>
       </c>
-      <c r="C429" s="4" t="inlineStr">
+      <c r="C430" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A plant of the species that belongs to the Nicotiana genus of herbaceous plants. </t>
         </is>
       </c>
-      <c r="D429" s="4" t="inlineStr">
+      <c r="D430" s="4" t="inlineStr">
         <is>
           <t>whole plant</t>
         </is>
       </c>
-      <c r="E429" s="4" t="inlineStr">
+      <c r="E430" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F429" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G429" s="4" t="inlineStr">
+      <c r="F430" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G430" s="4" t="inlineStr">
         <is>
           <t>Nicotiana species include many varieties. These are commonly referred to as tobacco plants, and are cultivated as ornamental garden plants. N. tabacum is grown worldwide for production tobacco-containing products.</t>
         </is>
       </c>
-      <c r="H429" s="4" t="inlineStr"/>
-      <c r="I429" s="4" t="n">
+      <c r="H430" s="4" t="inlineStr"/>
+      <c r="I430" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J429" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K429" s="4" t="inlineStr"/>
-      <c r="L429" s="4" t="inlineStr">
+      <c r="J430" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K430" s="4" t="inlineStr"/>
+      <c r="L430" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M429" s="4" t="inlineStr">
+      <c r="M430" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N429" s="4" t="inlineStr"/>
-      <c r="O429" s="4" t="inlineStr"/>
-      <c r="P429" s="4" t="inlineStr"/>
-      <c r="Q429" s="4" t="inlineStr"/>
-      <c r="R429" s="4" t="inlineStr"/>
-      <c r="S429" s="4" t="inlineStr"/>
-      <c r="T429" s="4" t="inlineStr"/>
-      <c r="U429" s="4" t="inlineStr"/>
-      <c r="V429" s="4" t="inlineStr"/>
-      <c r="W429" s="4" t="inlineStr"/>
-      <c r="X429" s="4" t="inlineStr"/>
-      <c r="Y429" s="4" t="inlineStr"/>
-      <c r="Z429" s="4" t="inlineStr"/>
-      <c r="AA429" s="4" t="inlineStr">
+      <c r="N430" s="4" t="inlineStr"/>
+      <c r="O430" s="4" t="inlineStr"/>
+      <c r="P430" s="4" t="inlineStr"/>
+      <c r="Q430" s="4" t="inlineStr"/>
+      <c r="R430" s="4" t="inlineStr"/>
+      <c r="S430" s="4" t="inlineStr"/>
+      <c r="T430" s="4" t="inlineStr"/>
+      <c r="U430" s="4" t="inlineStr"/>
+      <c r="V430" s="4" t="inlineStr"/>
+      <c r="W430" s="4" t="inlineStr"/>
+      <c r="X430" s="4" t="inlineStr"/>
+      <c r="Y430" s="4" t="inlineStr"/>
+      <c r="Z430" s="4" t="inlineStr"/>
+      <c r="AA430" s="4" t="inlineStr">
         <is>
           <t>Although there are definitions of tobacco plant in other ontologies, these were not quite suitable for the purposes of AddictO.</t>
         </is>
       </c>
-      <c r="AB429" s="4" t="inlineStr">
+      <c r="AB430" s="4" t="inlineStr">
         <is>
           <t>Nicotiana</t>
         </is>
       </c>
-      <c r="AC429" s="4" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000309</t>
-        </is>
-      </c>
-      <c r="B430" s="5" t="inlineStr">
-        <is>
-          <t>tobacco product packaging</t>
-        </is>
-      </c>
-      <c r="C430" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The packaging that is specifically used for tobacco-containing products. </t>
-        </is>
-      </c>
-      <c r="D430" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">packaging </t>
-        </is>
-      </c>
-      <c r="E430" s="5" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
-      <c r="F430" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G430" s="5" t="inlineStr"/>
-      <c r="H430" s="5" t="inlineStr"/>
-      <c r="I430" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J430" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K430" s="5" t="inlineStr"/>
-      <c r="L430" s="5" t="inlineStr">
-        <is>
-          <t>SC;JH</t>
-        </is>
-      </c>
-      <c r="M430" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N430" s="5" t="inlineStr"/>
-      <c r="O430" s="5" t="inlineStr"/>
-      <c r="P430" s="5" t="inlineStr"/>
-      <c r="Q430" s="5" t="inlineStr"/>
-      <c r="R430" s="5" t="inlineStr"/>
-      <c r="S430" s="5" t="inlineStr"/>
-      <c r="T430" s="5" t="inlineStr"/>
-      <c r="U430" s="5" t="inlineStr"/>
-      <c r="V430" s="5" t="inlineStr"/>
-      <c r="W430" s="5" t="inlineStr"/>
-      <c r="X430" s="5" t="inlineStr"/>
-      <c r="Y430" s="5" t="inlineStr"/>
-      <c r="Z430" s="5" t="inlineStr"/>
-      <c r="AA430" s="5" t="inlineStr"/>
-      <c r="AB430" s="5" t="inlineStr"/>
-      <c r="AC430" s="5" t="inlineStr"/>
+      <c r="AC430" s="4" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000310</t>
+          <t>ADDICTO:0000309</t>
         </is>
       </c>
       <c r="B431" s="5" t="inlineStr">
         <is>
-          <t>tobacco product price</t>
+          <t>tobacco product packaging</t>
         </is>
       </c>
       <c r="C431" s="5" t="inlineStr">
         <is>
-          <t>The designated price of a unit of a tobacco product.</t>
+          <t xml:space="preserve">The packaging that is specifically used for tobacco-containing products. </t>
         </is>
       </c>
       <c r="D431" s="5" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t xml:space="preserve">packaging </t>
         </is>
       </c>
       <c r="E431" s="5" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Independent continuant</t>
         </is>
       </c>
       <c r="F431" s="5" t="inlineStr">
@@ -31758,477 +31744,481 @@
       <c r="AC431" s="5" t="inlineStr"/>
     </row>
     <row r="432">
-      <c r="A432" s="4" t="inlineStr">
+      <c r="A432" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000310</t>
+        </is>
+      </c>
+      <c r="B432" s="5" t="inlineStr">
+        <is>
+          <t>tobacco product price</t>
+        </is>
+      </c>
+      <c r="C432" s="5" t="inlineStr">
+        <is>
+          <t>The designated price of a unit of a tobacco product.</t>
+        </is>
+      </c>
+      <c r="D432" s="5" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="E432" s="5" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="F432" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G432" s="5" t="inlineStr"/>
+      <c r="H432" s="5" t="inlineStr"/>
+      <c r="I432" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J432" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K432" s="5" t="inlineStr"/>
+      <c r="L432" s="5" t="inlineStr">
+        <is>
+          <t>SC;JH</t>
+        </is>
+      </c>
+      <c r="M432" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N432" s="5" t="inlineStr"/>
+      <c r="O432" s="5" t="inlineStr"/>
+      <c r="P432" s="5" t="inlineStr"/>
+      <c r="Q432" s="5" t="inlineStr"/>
+      <c r="R432" s="5" t="inlineStr"/>
+      <c r="S432" s="5" t="inlineStr"/>
+      <c r="T432" s="5" t="inlineStr"/>
+      <c r="U432" s="5" t="inlineStr"/>
+      <c r="V432" s="5" t="inlineStr"/>
+      <c r="W432" s="5" t="inlineStr"/>
+      <c r="X432" s="5" t="inlineStr"/>
+      <c r="Y432" s="5" t="inlineStr"/>
+      <c r="Z432" s="5" t="inlineStr"/>
+      <c r="AA432" s="5" t="inlineStr"/>
+      <c r="AB432" s="5" t="inlineStr"/>
+      <c r="AC432" s="5" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000314</t>
         </is>
       </c>
-      <c r="B432" s="4" t="inlineStr">
+      <c r="B433" s="4" t="inlineStr">
         <is>
           <t>tobacco smoke</t>
         </is>
       </c>
-      <c r="C432" s="4" t="inlineStr">
+      <c r="C433" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Smoke that is produced through the burning of tobacco. </t>
         </is>
       </c>
-      <c r="D432" s="4" t="inlineStr">
+      <c r="D433" s="4" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
       </c>
-      <c r="E432" s="4" t="inlineStr">
+      <c r="E433" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F432" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G432" s="4" t="inlineStr"/>
-      <c r="H432" s="4" t="inlineStr"/>
-      <c r="I432" s="4" t="n">
+      <c r="F433" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G433" s="4" t="inlineStr"/>
+      <c r="H433" s="4" t="inlineStr"/>
+      <c r="I433" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J432" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K432" s="4" t="inlineStr"/>
-      <c r="L432" s="4" t="inlineStr">
+      <c r="J433" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K433" s="4" t="inlineStr"/>
+      <c r="L433" s="4" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M432" s="4" t="inlineStr">
+      <c r="M433" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N432" s="4" t="inlineStr"/>
-      <c r="O432" s="4" t="inlineStr"/>
-      <c r="P432" s="4" t="inlineStr"/>
-      <c r="Q432" s="4" t="inlineStr"/>
-      <c r="R432" s="4" t="inlineStr"/>
-      <c r="S432" s="4" t="inlineStr"/>
-      <c r="T432" s="4" t="inlineStr"/>
-      <c r="U432" s="4" t="inlineStr">
+      <c r="N433" s="4" t="inlineStr"/>
+      <c r="O433" s="4" t="inlineStr"/>
+      <c r="P433" s="4" t="inlineStr"/>
+      <c r="Q433" s="4" t="inlineStr"/>
+      <c r="R433" s="4" t="inlineStr"/>
+      <c r="S433" s="4" t="inlineStr"/>
+      <c r="T433" s="4" t="inlineStr"/>
+      <c r="U433" s="4" t="inlineStr">
         <is>
           <t>tobacco-specific nitrosamine</t>
         </is>
       </c>
-      <c r="V432" s="4" t="inlineStr"/>
-      <c r="W432" s="4" t="inlineStr"/>
-      <c r="X432" s="4" t="inlineStr"/>
-      <c r="Y432" s="4" t="inlineStr"/>
-      <c r="Z432" s="4" t="inlineStr"/>
-      <c r="AA432" s="4" t="inlineStr"/>
-      <c r="AB432" s="4" t="inlineStr"/>
-      <c r="AC432" s="4" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="5" t="inlineStr">
+      <c r="V433" s="4" t="inlineStr"/>
+      <c r="W433" s="4" t="inlineStr"/>
+      <c r="X433" s="4" t="inlineStr"/>
+      <c r="Y433" s="4" t="inlineStr"/>
+      <c r="Z433" s="4" t="inlineStr"/>
+      <c r="AA433" s="4" t="inlineStr"/>
+      <c r="AB433" s="4" t="inlineStr"/>
+      <c r="AC433" s="4" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001011</t>
         </is>
       </c>
-      <c r="B433" s="5" t="inlineStr">
+      <c r="B434" s="5" t="inlineStr">
         <is>
           <t>tobacco tablets</t>
         </is>
       </c>
-      <c r="C433" s="5" t="inlineStr">
+      <c r="C434" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use,  in which ground tobacco, humectants, preservatives and flavours are compressed to form tablets. </t>
         </is>
       </c>
-      <c r="D433" s="5" t="inlineStr">
+      <c r="D434" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E433" s="5" t="inlineStr">
+      <c r="E434" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F433" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G433" s="5" t="inlineStr">
+      <c r="F434" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G434" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> It is commercially prepared and is consumed by sucking, holding or dissolving in the mouth.</t>
         </is>
       </c>
-      <c r="H433" s="5" t="inlineStr">
+      <c r="H434" s="5" t="inlineStr">
         <is>
           <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#dissovable</t>
         </is>
       </c>
-      <c r="I433" s="5" t="inlineStr">
+      <c r="I434" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J433" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K433" s="5" t="inlineStr"/>
-      <c r="L433" s="5" t="inlineStr">
+      <c r="J434" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K434" s="5" t="inlineStr"/>
+      <c r="L434" s="5" t="inlineStr">
         <is>
           <t>KS; UoY</t>
         </is>
       </c>
-      <c r="M433" s="5" t="inlineStr">
+      <c r="M434" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N433" s="5" t="inlineStr"/>
-      <c r="O433" s="5" t="inlineStr"/>
-      <c r="P433" s="5" t="inlineStr"/>
-      <c r="Q433" s="5" t="inlineStr"/>
-      <c r="R433" s="5" t="inlineStr"/>
-      <c r="S433" s="5" t="inlineStr"/>
-      <c r="T433" s="5" t="inlineStr"/>
-      <c r="U433" s="5" t="inlineStr"/>
-      <c r="V433" s="5" t="inlineStr"/>
-      <c r="W433" s="5" t="inlineStr"/>
-      <c r="X433" s="5" t="inlineStr"/>
-      <c r="Y433" s="5" t="inlineStr"/>
-      <c r="Z433" s="5" t="inlineStr"/>
-      <c r="AA433" s="5" t="inlineStr"/>
-      <c r="AB433" s="5" t="inlineStr">
+      <c r="N434" s="5" t="inlineStr"/>
+      <c r="O434" s="5" t="inlineStr"/>
+      <c r="P434" s="5" t="inlineStr"/>
+      <c r="Q434" s="5" t="inlineStr"/>
+      <c r="R434" s="5" t="inlineStr"/>
+      <c r="S434" s="5" t="inlineStr"/>
+      <c r="T434" s="5" t="inlineStr"/>
+      <c r="U434" s="5" t="inlineStr"/>
+      <c r="V434" s="5" t="inlineStr"/>
+      <c r="W434" s="5" t="inlineStr"/>
+      <c r="X434" s="5" t="inlineStr"/>
+      <c r="Y434" s="5" t="inlineStr"/>
+      <c r="Z434" s="5" t="inlineStr"/>
+      <c r="AA434" s="5" t="inlineStr"/>
+      <c r="AB434" s="5" t="inlineStr">
         <is>
           <t>cigalet; ariva</t>
         </is>
       </c>
-      <c r="AC433" s="5" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="4" t="inlineStr">
+      <c r="AC434" s="5" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000311</t>
         </is>
       </c>
-      <c r="B434" s="4" t="inlineStr">
+      <c r="B435" s="4" t="inlineStr">
         <is>
           <t>tobacco-containing product</t>
         </is>
       </c>
-      <c r="C434" s="4" t="inlineStr">
+      <c r="C435" s="4" t="inlineStr">
         <is>
           <t>A product that is made of tobacco or has tobacco as a part and is used by people to ingest some tobacco constituent.</t>
         </is>
       </c>
-      <c r="D434" s="4" t="inlineStr">
+      <c r="D435" s="4" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="E434" s="4" t="inlineStr">
+      <c r="E435" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F434" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G434" s="4" t="inlineStr">
+      <c r="F435" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G435" s="4" t="inlineStr">
         <is>
           <t>This class includes products that contain or consist of parts of the tobacco plant that have been subject to some form of processing. This class does not contain products that only contain nicotine. These are dealt with separately as 'nicotine-containing products'.</t>
         </is>
       </c>
-      <c r="H434" s="4" t="inlineStr"/>
-      <c r="I434" s="4" t="n">
+      <c r="H435" s="4" t="inlineStr"/>
+      <c r="I435" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J434" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K434" s="4" t="inlineStr"/>
-      <c r="L434" s="4" t="inlineStr">
+      <c r="J435" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K435" s="4" t="inlineStr"/>
+      <c r="L435" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M434" s="4" t="inlineStr">
+      <c r="M435" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N434" s="4" t="inlineStr"/>
-      <c r="O434" s="4" t="inlineStr"/>
-      <c r="P434" s="4" t="inlineStr"/>
-      <c r="Q434" s="4" t="inlineStr"/>
-      <c r="R434" s="4" t="inlineStr"/>
-      <c r="S434" s="4" t="inlineStr"/>
-      <c r="T434" s="4" t="inlineStr"/>
-      <c r="U434" s="4" t="inlineStr">
+      <c r="N435" s="4" t="inlineStr"/>
+      <c r="O435" s="4" t="inlineStr"/>
+      <c r="P435" s="4" t="inlineStr"/>
+      <c r="Q435" s="4" t="inlineStr"/>
+      <c r="R435" s="4" t="inlineStr"/>
+      <c r="S435" s="4" t="inlineStr"/>
+      <c r="T435" s="4" t="inlineStr"/>
+      <c r="U435" s="4" t="inlineStr">
         <is>
           <t>tobacco</t>
         </is>
       </c>
-      <c r="V434" s="4" t="inlineStr"/>
-      <c r="W434" s="4" t="inlineStr"/>
-      <c r="X434" s="4" t="inlineStr"/>
-      <c r="Y434" s="4" t="inlineStr"/>
-      <c r="Z434" s="4" t="inlineStr"/>
-      <c r="AA434" s="4" t="inlineStr"/>
-      <c r="AB434" s="4" t="inlineStr">
+      <c r="V435" s="4" t="inlineStr"/>
+      <c r="W435" s="4" t="inlineStr"/>
+      <c r="X435" s="4" t="inlineStr"/>
+      <c r="Y435" s="4" t="inlineStr"/>
+      <c r="Z435" s="4" t="inlineStr"/>
+      <c r="AA435" s="4" t="inlineStr"/>
+      <c r="AB435" s="4" t="inlineStr">
         <is>
           <t>tobacco; tobacco product</t>
         </is>
       </c>
-      <c r="AC434" s="4" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="inlineStr">
+      <c r="AC435" s="4" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000538</t>
         </is>
       </c>
-      <c r="B435" s="2" t="inlineStr">
+      <c r="B436" s="2" t="inlineStr">
         <is>
           <t>tobacco-containing product part</t>
         </is>
       </c>
-      <c r="C435" s="2" t="inlineStr">
+      <c r="C436" s="2" t="inlineStr">
         <is>
           <t>A product part that is a component of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D435" s="2" t="inlineStr">
+      <c r="D436" s="2" t="inlineStr">
         <is>
           <t>product part</t>
         </is>
       </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="E436" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="inlineStr"/>
-      <c r="H435" s="2" t="inlineStr"/>
-      <c r="I435" s="2" t="inlineStr">
+      <c r="F436" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G436" s="2" t="inlineStr"/>
+      <c r="H436" s="2" t="inlineStr"/>
+      <c r="I436" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J435" s="2" t="inlineStr">
+      <c r="J436" s="2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K435" s="2" t="inlineStr"/>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="K436" s="2" t="inlineStr"/>
+      <c r="L436" s="2" t="inlineStr">
         <is>
           <t>SC; RW; JH; KS; CN</t>
         </is>
       </c>
-      <c r="M435" s="2" t="inlineStr">
+      <c r="M436" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="N435" s="2" t="inlineStr"/>
-      <c r="O435" s="2" t="inlineStr">
+      <c r="N436" s="2" t="inlineStr"/>
+      <c r="O436" s="2" t="inlineStr">
         <is>
           <t>Used 'component' instead of 'proper part'</t>
         </is>
       </c>
-      <c r="P435" s="2" t="inlineStr"/>
-      <c r="Q435" s="2" t="inlineStr"/>
-      <c r="R435" s="2" t="inlineStr"/>
-      <c r="S435" s="2" t="inlineStr"/>
-      <c r="T435" s="2" t="inlineStr"/>
-      <c r="U435" s="2" t="inlineStr"/>
-      <c r="V435" s="2" t="inlineStr"/>
-      <c r="W435" s="2" t="inlineStr"/>
-      <c r="X435" s="2" t="inlineStr"/>
-      <c r="Y435" s="2" t="inlineStr"/>
-      <c r="Z435" s="2" t="inlineStr"/>
-      <c r="AA435" s="2" t="inlineStr"/>
-      <c r="AB435" s="2" t="inlineStr"/>
-      <c r="AC435" s="2" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="4" t="inlineStr">
+      <c r="P436" s="2" t="inlineStr"/>
+      <c r="Q436" s="2" t="inlineStr"/>
+      <c r="R436" s="2" t="inlineStr"/>
+      <c r="S436" s="2" t="inlineStr"/>
+      <c r="T436" s="2" t="inlineStr"/>
+      <c r="U436" s="2" t="inlineStr"/>
+      <c r="V436" s="2" t="inlineStr"/>
+      <c r="W436" s="2" t="inlineStr"/>
+      <c r="X436" s="2" t="inlineStr"/>
+      <c r="Y436" s="2" t="inlineStr"/>
+      <c r="Z436" s="2" t="inlineStr"/>
+      <c r="AA436" s="2" t="inlineStr"/>
+      <c r="AB436" s="2" t="inlineStr"/>
+      <c r="AC436" s="2" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000312</t>
         </is>
       </c>
-      <c r="B436" s="4" t="inlineStr">
+      <c r="B437" s="4" t="inlineStr">
         <is>
           <t>tobacco-flavoured e-liquid</t>
         </is>
       </c>
-      <c r="C436" s="4" t="inlineStr">
+      <c r="C437" s="4" t="inlineStr">
         <is>
           <t>A flavoured e-liquid in which the e-liquid flavouring is designed to have a tobacco flavour.</t>
         </is>
       </c>
-      <c r="D436" s="4" t="inlineStr">
+      <c r="D437" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">flavoured e-liquid </t>
         </is>
       </c>
-      <c r="E436" s="4" t="inlineStr">
+      <c r="E437" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F436" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G436" s="4" t="inlineStr"/>
-      <c r="H436" s="4" t="inlineStr"/>
-      <c r="I436" s="4" t="n">
+      <c r="F437" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G437" s="4" t="inlineStr"/>
+      <c r="H437" s="4" t="inlineStr"/>
+      <c r="I437" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J436" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K436" s="4" t="inlineStr"/>
-      <c r="L436" s="4" t="inlineStr">
+      <c r="J437" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K437" s="4" t="inlineStr"/>
+      <c r="L437" s="4" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M436" s="4" t="inlineStr">
+      <c r="M437" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N436" s="4" t="inlineStr"/>
-      <c r="O436" s="4" t="inlineStr"/>
-      <c r="P436" s="4" t="inlineStr"/>
-      <c r="Q436" s="4" t="inlineStr"/>
-      <c r="R436" s="4" t="inlineStr"/>
-      <c r="S436" s="4" t="inlineStr"/>
-      <c r="T436" s="4" t="inlineStr"/>
-      <c r="U436" s="4" t="inlineStr"/>
-      <c r="V436" s="4" t="inlineStr"/>
-      <c r="W436" s="4" t="inlineStr"/>
-      <c r="X436" s="4" t="inlineStr"/>
-      <c r="Y436" s="4" t="inlineStr"/>
-      <c r="Z436" s="4" t="inlineStr"/>
-      <c r="AA436" s="4" t="inlineStr"/>
-      <c r="AB436" s="4" t="inlineStr"/>
-      <c r="AC436" s="4" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="5" t="inlineStr">
+      <c r="N437" s="4" t="inlineStr"/>
+      <c r="O437" s="4" t="inlineStr"/>
+      <c r="P437" s="4" t="inlineStr"/>
+      <c r="Q437" s="4" t="inlineStr"/>
+      <c r="R437" s="4" t="inlineStr"/>
+      <c r="S437" s="4" t="inlineStr"/>
+      <c r="T437" s="4" t="inlineStr"/>
+      <c r="U437" s="4" t="inlineStr"/>
+      <c r="V437" s="4" t="inlineStr"/>
+      <c r="W437" s="4" t="inlineStr"/>
+      <c r="X437" s="4" t="inlineStr"/>
+      <c r="Y437" s="4" t="inlineStr"/>
+      <c r="Z437" s="4" t="inlineStr"/>
+      <c r="AA437" s="4" t="inlineStr"/>
+      <c r="AB437" s="4" t="inlineStr"/>
+      <c r="AC437" s="4" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000313</t>
         </is>
       </c>
-      <c r="B437" s="5" t="inlineStr">
+      <c r="B438" s="5" t="inlineStr">
         <is>
           <t>tobacco-specific nitrosamine</t>
         </is>
       </c>
-      <c r="C437" s="5" t="inlineStr">
+      <c r="C438" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A nitrosamine which derives from tobacco products and tobacco smoke. </t>
         </is>
       </c>
-      <c r="D437" s="5" t="inlineStr">
+      <c r="D438" s="5" t="inlineStr">
         <is>
           <t>nitrosamine</t>
         </is>
       </c>
-      <c r="E437" s="5" t="inlineStr">
+      <c r="E438" s="5" t="inlineStr">
         <is>
           <t>Independent continuant</t>
         </is>
       </c>
-      <c r="F437" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G437" s="5" t="inlineStr"/>
-      <c r="H437" s="5" t="inlineStr"/>
-      <c r="I437" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J437" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K437" s="5" t="inlineStr"/>
-      <c r="L437" s="5" t="inlineStr">
-        <is>
-          <t>SC;JH</t>
-        </is>
-      </c>
-      <c r="M437" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N437" s="5" t="inlineStr"/>
-      <c r="O437" s="5" t="inlineStr"/>
-      <c r="P437" s="5" t="inlineStr"/>
-      <c r="Q437" s="5" t="inlineStr"/>
-      <c r="R437" s="5" t="inlineStr"/>
-      <c r="S437" s="5" t="inlineStr">
-        <is>
-          <t>carcinogenic agent</t>
-        </is>
-      </c>
-      <c r="T437" s="5" t="inlineStr"/>
-      <c r="U437" s="5" t="inlineStr"/>
-      <c r="V437" s="5" t="inlineStr"/>
-      <c r="W437" s="5" t="inlineStr"/>
-      <c r="X437" s="5" t="inlineStr"/>
-      <c r="Y437" s="5" t="inlineStr"/>
-      <c r="Z437" s="5" t="inlineStr"/>
-      <c r="AA437" s="5" t="inlineStr"/>
-      <c r="AB437" s="5" t="inlineStr">
-        <is>
-          <t>TSNA</t>
-        </is>
-      </c>
-      <c r="AC437" s="5" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="5" t="inlineStr"/>
-      <c r="B438" s="5" t="inlineStr">
-        <is>
-          <t>tombol with khat</t>
-        </is>
-      </c>
-      <c r="C438" s="5" t="inlineStr"/>
-      <c r="D438" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E438" s="5" t="inlineStr"/>
       <c r="F438" s="5" t="inlineStr">
         <is>
           <t>Product</t>
@@ -32236,10 +32226,8 @@
       </c>
       <c r="G438" s="5" t="inlineStr"/>
       <c r="H438" s="5" t="inlineStr"/>
-      <c r="I438" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="I438" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="J438" s="5" t="inlineStr">
         <is>
@@ -32249,7 +32237,7 @@
       <c r="K438" s="5" t="inlineStr"/>
       <c r="L438" s="5" t="inlineStr">
         <is>
-          <t>KS: UoY</t>
+          <t>SC;JH</t>
         </is>
       </c>
       <c r="M438" s="5" t="inlineStr">
@@ -32262,7 +32250,11 @@
       <c r="P438" s="5" t="inlineStr"/>
       <c r="Q438" s="5" t="inlineStr"/>
       <c r="R438" s="5" t="inlineStr"/>
-      <c r="S438" s="5" t="inlineStr"/>
+      <c r="S438" s="5" t="inlineStr">
+        <is>
+          <t>carcinogenic agent</t>
+        </is>
+      </c>
       <c r="T438" s="5" t="inlineStr"/>
       <c r="U438" s="5" t="inlineStr"/>
       <c r="V438" s="5" t="inlineStr"/>
@@ -32271,25 +32263,21 @@
       <c r="Y438" s="5" t="inlineStr"/>
       <c r="Z438" s="5" t="inlineStr"/>
       <c r="AA438" s="5" t="inlineStr"/>
-      <c r="AB438" s="5" t="inlineStr"/>
+      <c r="AB438" s="5" t="inlineStr">
+        <is>
+          <t>TSNA</t>
+        </is>
+      </c>
       <c r="AC438" s="5" t="inlineStr"/>
     </row>
     <row r="439">
-      <c r="A439" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001012</t>
-        </is>
-      </c>
+      <c r="A439" s="5" t="inlineStr"/>
       <c r="B439" s="5" t="inlineStr">
         <is>
-          <t>toombak</t>
-        </is>
-      </c>
-      <c r="C439" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product, in which sun-dried, fermented, then ground and aged tobacco leaves are mixed with a solution of baking soda and water to create a moist form that can be rolled into a ball (called a saffa). </t>
-        </is>
-      </c>
+          <t>tombol with khat</t>
+        </is>
+      </c>
+      <c r="C439" s="5" t="inlineStr"/>
       <c r="D439" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
@@ -32301,16 +32289,8 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G439" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Toombak may be premade in cottage industry or custom-made by vendor/individual, and used by holding a small portion (saffa) is the mouth and sucking slowly for 10 to 15 minutes.</t>
-        </is>
-      </c>
-      <c r="H439" s="5" t="inlineStr">
-        <is>
-          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
-        </is>
-      </c>
+      <c r="G439" s="5" t="inlineStr"/>
+      <c r="H439" s="5" t="inlineStr"/>
       <c r="I439" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -32318,13 +32298,13 @@
       </c>
       <c r="J439" s="5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K439" s="5" t="inlineStr"/>
       <c r="L439" s="5" t="inlineStr">
         <is>
-          <t>KS; UoY</t>
+          <t>KS: UoY</t>
         </is>
       </c>
       <c r="M439" s="5" t="inlineStr">
@@ -32345,37 +32325,29 @@
       <c r="X439" s="5" t="inlineStr"/>
       <c r="Y439" s="5" t="inlineStr"/>
       <c r="Z439" s="5" t="inlineStr"/>
-      <c r="AA439" s="5" t="inlineStr">
-        <is>
-          <t>query over whether the same product is used nasally - nasal use is not described</t>
-        </is>
-      </c>
-      <c r="AB439" s="5" t="inlineStr">
-        <is>
-          <t>sauté; sute; ammari; saood; saffa</t>
-        </is>
-      </c>
+      <c r="AA439" s="5" t="inlineStr"/>
+      <c r="AB439" s="5" t="inlineStr"/>
       <c r="AC439" s="5" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000823</t>
+          <t>ADDICTO:0001012</t>
         </is>
       </c>
       <c r="B440" s="5" t="inlineStr">
         <is>
-          <t>toxic effect</t>
+          <t>toombak</t>
         </is>
       </c>
       <c r="C440" s="5" t="inlineStr">
         <is>
-          <t>The effect produced by a substance which contains toxins.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product, in which sun-dried, fermented, then ground and aged tobacco leaves are mixed with a solution of baking soda and water to create a moist form that can be rolled into a ball (called a saffa). </t>
         </is>
       </c>
       <c r="D440" s="5" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>smokeless tobacco-containing product</t>
         </is>
       </c>
       <c r="E440" s="5" t="inlineStr"/>
@@ -32384,20 +32356,30 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G440" s="5" t="inlineStr"/>
-      <c r="H440" s="5" t="inlineStr"/>
-      <c r="I440" s="5" t="n">
-        <v>1</v>
+      <c r="G440" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toombak may be premade in cottage industry or custom-made by vendor/individual, and used by holding a small portion (saffa) is the mouth and sucking slowly for 10 to 15 minutes.</t>
+        </is>
+      </c>
+      <c r="H440" s="5" t="inlineStr">
+        <is>
+          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
+        </is>
+      </c>
+      <c r="I440" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="J440" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>false</t>
         </is>
       </c>
       <c r="K440" s="5" t="inlineStr"/>
       <c r="L440" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M440" s="5" t="inlineStr">
@@ -32418,33 +32400,37 @@
       <c r="X440" s="5" t="inlineStr"/>
       <c r="Y440" s="5" t="inlineStr"/>
       <c r="Z440" s="5" t="inlineStr"/>
-      <c r="AA440" s="5" t="inlineStr"/>
-      <c r="AB440" s="5" t="inlineStr"/>
-      <c r="AC440" s="5" t="inlineStr">
-        <is>
-          <t>UMLS CUI:C0600688</t>
-        </is>
-      </c>
+      <c r="AA440" s="5" t="inlineStr">
+        <is>
+          <t>query over whether the same product is used nasally - nasal use is not described</t>
+        </is>
+      </c>
+      <c r="AB440" s="5" t="inlineStr">
+        <is>
+          <t>sauté; sute; ammari; saood; saffa</t>
+        </is>
+      </c>
+      <c r="AC440" s="5" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000908</t>
+          <t>ADDICTO:0000823</t>
         </is>
       </c>
       <c r="B441" s="5" t="inlineStr">
         <is>
-          <t>toxic exposure from a product</t>
+          <t>toxic effect</t>
         </is>
       </c>
       <c r="C441" s="5" t="inlineStr">
         <is>
-          <t>The state of being exposed to the toxic effects of a product.</t>
+          <t>The effect produced by a substance which contains toxins.</t>
         </is>
       </c>
       <c r="D441" s="5" t="inlineStr">
         <is>
-          <t>exposure</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E441" s="5" t="inlineStr"/>
@@ -32489,103 +32475,101 @@
       <c r="Z441" s="5" t="inlineStr"/>
       <c r="AA441" s="5" t="inlineStr"/>
       <c r="AB441" s="5" t="inlineStr"/>
-      <c r="AC441" s="5" t="inlineStr"/>
+      <c r="AC441" s="5" t="inlineStr">
+        <is>
+          <t>UMLS CUI:C0600688</t>
+        </is>
+      </c>
     </row>
     <row r="442">
-      <c r="A442" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000824</t>
-        </is>
-      </c>
-      <c r="B442" s="3" t="inlineStr">
-        <is>
-          <t>toxicant</t>
-        </is>
-      </c>
-      <c r="C442" s="3" t="inlineStr">
-        <is>
-          <t>A substance that has a disposition to cause harm to an organism that is in contact with it.</t>
-        </is>
-      </c>
-      <c r="D442" s="3" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="E442" s="3" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F442" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G442" s="3" t="inlineStr"/>
-      <c r="H442" s="3" t="inlineStr"/>
-      <c r="I442" s="3" t="n">
+      <c r="A442" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000908</t>
+        </is>
+      </c>
+      <c r="B442" s="5" t="inlineStr">
+        <is>
+          <t>toxic exposure from a product</t>
+        </is>
+      </c>
+      <c r="C442" s="5" t="inlineStr">
+        <is>
+          <t>The state of being exposed to the toxic effects of a product.</t>
+        </is>
+      </c>
+      <c r="D442" s="5" t="inlineStr">
+        <is>
+          <t>exposure</t>
+        </is>
+      </c>
+      <c r="E442" s="5" t="inlineStr"/>
+      <c r="F442" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G442" s="5" t="inlineStr"/>
+      <c r="H442" s="5" t="inlineStr"/>
+      <c r="I442" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J442" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K442" s="3" t="inlineStr">
-        <is>
-          <t>Because the extent and nature of the harm and the degree of exposure required is not specified.</t>
-        </is>
-      </c>
-      <c r="L442" s="3" t="inlineStr">
-        <is>
-          <t>KS; RW</t>
-        </is>
-      </c>
-      <c r="M442" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N442" s="3" t="inlineStr"/>
-      <c r="O442" s="3" t="inlineStr"/>
-      <c r="P442" s="3" t="inlineStr"/>
-      <c r="Q442" s="3" t="inlineStr"/>
-      <c r="R442" s="3" t="inlineStr"/>
-      <c r="S442" s="3" t="inlineStr"/>
-      <c r="T442" s="3" t="inlineStr"/>
-      <c r="U442" s="3" t="inlineStr"/>
-      <c r="V442" s="3" t="inlineStr"/>
-      <c r="W442" s="3" t="inlineStr"/>
-      <c r="X442" s="3" t="inlineStr"/>
-      <c r="Y442" s="3" t="inlineStr"/>
-      <c r="Z442" s="3" t="inlineStr"/>
-      <c r="AA442" s="3" t="inlineStr"/>
-      <c r="AB442" s="3" t="inlineStr"/>
-      <c r="AC442" s="3" t="inlineStr"/>
+      <c r="J442" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K442" s="5" t="inlineStr"/>
+      <c r="L442" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M442" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N442" s="5" t="inlineStr"/>
+      <c r="O442" s="5" t="inlineStr"/>
+      <c r="P442" s="5" t="inlineStr"/>
+      <c r="Q442" s="5" t="inlineStr"/>
+      <c r="R442" s="5" t="inlineStr"/>
+      <c r="S442" s="5" t="inlineStr"/>
+      <c r="T442" s="5" t="inlineStr"/>
+      <c r="U442" s="5" t="inlineStr"/>
+      <c r="V442" s="5" t="inlineStr"/>
+      <c r="W442" s="5" t="inlineStr"/>
+      <c r="X442" s="5" t="inlineStr"/>
+      <c r="Y442" s="5" t="inlineStr"/>
+      <c r="Z442" s="5" t="inlineStr"/>
+      <c r="AA442" s="5" t="inlineStr"/>
+      <c r="AB442" s="5" t="inlineStr"/>
+      <c r="AC442" s="5" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000867</t>
+          <t>ADDICTO:0000824</t>
         </is>
       </c>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>toxicity of a substance</t>
+          <t>toxicant</t>
         </is>
       </c>
       <c r="C443" s="3" t="inlineStr">
         <is>
-          <t>A disposition of a substance to cause harm to an organism that is exposed to it.</t>
+          <t>A substance that has a disposition to cause harm to an organism that is in contact with it.</t>
         </is>
       </c>
       <c r="D443" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>substance</t>
         </is>
       </c>
       <c r="E443" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="F443" s="3" t="inlineStr">
@@ -32593,11 +32577,7 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G443" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The substance can be a chemical such as nicotine or ethanol, or a product such as tobacco. </t>
-        </is>
-      </c>
+      <c r="G443" s="3" t="inlineStr"/>
       <c r="H443" s="3" t="inlineStr"/>
       <c r="I443" s="3" t="n">
         <v>1</v>
@@ -32607,7 +32587,7 @@
       </c>
       <c r="K443" s="3" t="inlineStr">
         <is>
-          <t>Because it depends on the amount and formulation of the substance, the nature of the exposure and duration of exposure, the organism and what is considered to be harmful.</t>
+          <t>Because the extent and nature of the harm and the degree of exposure required is not specified.</t>
         </is>
       </c>
       <c r="L443" s="3" t="inlineStr">
@@ -32622,11 +32602,7 @@
       </c>
       <c r="N443" s="3" t="inlineStr"/>
       <c r="O443" s="3" t="inlineStr"/>
-      <c r="P443" s="3" t="inlineStr">
-        <is>
-          <t>A tendency of a substance to be harmful to organisms exposed to it.</t>
-        </is>
-      </c>
+      <c r="P443" s="3" t="inlineStr"/>
       <c r="Q443" s="3" t="inlineStr"/>
       <c r="R443" s="3" t="inlineStr"/>
       <c r="S443" s="3" t="inlineStr"/>
@@ -32642,323 +32618,319 @@
       <c r="AC443" s="3" t="inlineStr"/>
     </row>
     <row r="444">
-      <c r="A444" s="5" t="inlineStr">
+      <c r="A444" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000867</t>
+        </is>
+      </c>
+      <c r="B444" s="3" t="inlineStr">
+        <is>
+          <t>toxicity of a substance</t>
+        </is>
+      </c>
+      <c r="C444" s="3" t="inlineStr">
+        <is>
+          <t>A disposition of a substance to cause harm to an organism that is exposed to it.</t>
+        </is>
+      </c>
+      <c r="D444" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E444" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="F444" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G444" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The substance can be a chemical such as nicotine or ethanol, or a product such as tobacco. </t>
+        </is>
+      </c>
+      <c r="H444" s="3" t="inlineStr"/>
+      <c r="I444" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J444" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K444" s="3" t="inlineStr">
+        <is>
+          <t>Because it depends on the amount and formulation of the substance, the nature of the exposure and duration of exposure, the organism and what is considered to be harmful.</t>
+        </is>
+      </c>
+      <c r="L444" s="3" t="inlineStr">
+        <is>
+          <t>KS; RW</t>
+        </is>
+      </c>
+      <c r="M444" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="N444" s="3" t="inlineStr"/>
+      <c r="O444" s="3" t="inlineStr"/>
+      <c r="P444" s="3" t="inlineStr">
+        <is>
+          <t>A tendency of a substance to be harmful to organisms exposed to it.</t>
+        </is>
+      </c>
+      <c r="Q444" s="3" t="inlineStr"/>
+      <c r="R444" s="3" t="inlineStr"/>
+      <c r="S444" s="3" t="inlineStr"/>
+      <c r="T444" s="3" t="inlineStr"/>
+      <c r="U444" s="3" t="inlineStr"/>
+      <c r="V444" s="3" t="inlineStr"/>
+      <c r="W444" s="3" t="inlineStr"/>
+      <c r="X444" s="3" t="inlineStr"/>
+      <c r="Y444" s="3" t="inlineStr"/>
+      <c r="Z444" s="3" t="inlineStr"/>
+      <c r="AA444" s="3" t="inlineStr"/>
+      <c r="AB444" s="3" t="inlineStr"/>
+      <c r="AC444" s="3" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000793</t>
         </is>
       </c>
-      <c r="B444" s="5" t="inlineStr">
+      <c r="B445" s="5" t="inlineStr">
         <is>
           <t>toxin</t>
         </is>
       </c>
-      <c r="C444" s="5" t="inlineStr">
+      <c r="C445" s="5" t="inlineStr">
         <is>
           <t>A substance that is produced by a living organsism and is toxic, noxious or poisonous</t>
         </is>
       </c>
-      <c r="D444" s="5" t="inlineStr">
+      <c r="D445" s="5" t="inlineStr">
         <is>
           <t>substance</t>
         </is>
       </c>
-      <c r="E444" s="5" t="inlineStr"/>
-      <c r="F444" s="5" t="inlineStr"/>
-      <c r="G444" s="5" t="inlineStr"/>
-      <c r="H444" s="5" t="inlineStr"/>
-      <c r="I444" s="5" t="n">
+      <c r="E445" s="5" t="inlineStr"/>
+      <c r="F445" s="5" t="inlineStr"/>
+      <c r="G445" s="5" t="inlineStr"/>
+      <c r="H445" s="5" t="inlineStr"/>
+      <c r="I445" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J444" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K444" s="5" t="inlineStr"/>
-      <c r="L444" s="5" t="inlineStr">
+      <c r="J445" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K445" s="5" t="inlineStr"/>
+      <c r="L445" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M444" s="5" t="inlineStr">
+      <c r="M445" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N444" s="5" t="inlineStr"/>
-      <c r="O444" s="5" t="inlineStr"/>
-      <c r="P444" s="5" t="inlineStr"/>
-      <c r="Q444" s="5" t="inlineStr"/>
-      <c r="R444" s="5" t="inlineStr">
+      <c r="N445" s="5" t="inlineStr"/>
+      <c r="O445" s="5" t="inlineStr"/>
+      <c r="P445" s="5" t="inlineStr"/>
+      <c r="Q445" s="5" t="inlineStr"/>
+      <c r="R445" s="5" t="inlineStr">
         <is>
           <t>UMLS Metathesaurus Browser (nih.gov)</t>
         </is>
       </c>
-      <c r="S444" s="5" t="inlineStr"/>
-      <c r="T444" s="5" t="inlineStr"/>
-      <c r="U444" s="5" t="inlineStr"/>
-      <c r="V444" s="5" t="inlineStr"/>
-      <c r="W444" s="5" t="inlineStr"/>
-      <c r="X444" s="5" t="inlineStr"/>
-      <c r="Y444" s="5" t="inlineStr"/>
-      <c r="Z444" s="5" t="inlineStr"/>
-      <c r="AA444" s="5" t="inlineStr"/>
-      <c r="AB444" s="5" t="inlineStr"/>
-      <c r="AC444" s="5" t="inlineStr">
+      <c r="S445" s="5" t="inlineStr"/>
+      <c r="T445" s="5" t="inlineStr"/>
+      <c r="U445" s="5" t="inlineStr"/>
+      <c r="V445" s="5" t="inlineStr"/>
+      <c r="W445" s="5" t="inlineStr"/>
+      <c r="X445" s="5" t="inlineStr"/>
+      <c r="Y445" s="5" t="inlineStr"/>
+      <c r="Z445" s="5" t="inlineStr"/>
+      <c r="AA445" s="5" t="inlineStr"/>
+      <c r="AB445" s="5" t="inlineStr"/>
+      <c r="AC445" s="5" t="inlineStr">
         <is>
           <t>UMLS CUI:C4522020</t>
         </is>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
+    <row r="446">
+      <c r="A446" t="inlineStr">
         <is>
           <t>CHEBI:35473</t>
         </is>
       </c>
-      <c r="B445" t="inlineStr">
+      <c r="B446" t="inlineStr">
         <is>
           <t xml:space="preserve">tranquilizing drug </t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
+      <c r="C446" t="inlineStr">
         <is>
           <t>A traditional grouping of drugs said to have a soothing or calming effect on mood, thought or behaviour.</t>
         </is>
       </c>
-      <c r="D445" t="inlineStr">
+      <c r="D446" t="inlineStr">
         <is>
           <t>central nervous system depressant</t>
         </is>
       </c>
-      <c r="E445" t="inlineStr">
+      <c r="E446" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr"/>
-      <c r="H445" t="inlineStr"/>
-      <c r="I445" t="n">
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="n">
         <v>1</v>
       </c>
-      <c r="J445" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M445" t="inlineStr">
+      <c r="M446" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N445" t="inlineStr"/>
-      <c r="O445" t="inlineStr"/>
-      <c r="P445" t="inlineStr"/>
-      <c r="Q445" t="inlineStr"/>
-      <c r="R445" t="inlineStr"/>
-      <c r="S445" t="inlineStr">
+      <c r="N446" t="inlineStr"/>
+      <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr"/>
+      <c r="R446" t="inlineStr"/>
+      <c r="S446" t="inlineStr">
         <is>
           <t xml:space="preserve">psychoactive drug </t>
         </is>
       </c>
-      <c r="T445" t="inlineStr"/>
-      <c r="U445" t="inlineStr"/>
-      <c r="V445" t="inlineStr"/>
-      <c r="W445" t="inlineStr"/>
-      <c r="X445" t="inlineStr"/>
-      <c r="Y445" t="inlineStr"/>
-      <c r="Z445" t="inlineStr"/>
-      <c r="AA445" t="inlineStr"/>
-      <c r="AB445" t="inlineStr">
+      <c r="T446" t="inlineStr"/>
+      <c r="U446" t="inlineStr"/>
+      <c r="V446" t="inlineStr"/>
+      <c r="W446" t="inlineStr"/>
+      <c r="X446" t="inlineStr"/>
+      <c r="Y446" t="inlineStr"/>
+      <c r="Z446" t="inlineStr"/>
+      <c r="AA446" t="inlineStr"/>
+      <c r="AB446" t="inlineStr">
         <is>
           <t>sedative drug</t>
         </is>
       </c>
-      <c r="AC445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="4" t="inlineStr">
+      <c r="AC446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001206</t>
         </is>
       </c>
-      <c r="B446" s="4" t="inlineStr">
+      <c r="B447" s="4" t="inlineStr">
         <is>
           <t>transdermal nicotine-containing product</t>
         </is>
       </c>
-      <c r="C446" s="4" t="inlineStr">
+      <c r="C447" s="4" t="inlineStr">
         <is>
           <t>A nicotine-containing product that is manufactured to be attached to the skin so that nicotine can be absorbed through the skin.</t>
         </is>
       </c>
-      <c r="D446" s="4" t="inlineStr">
+      <c r="D447" s="4" t="inlineStr">
         <is>
           <t>nicotine-containing product</t>
         </is>
       </c>
-      <c r="E446" s="4" t="inlineStr">
+      <c r="E447" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F446" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G446" s="4" t="inlineStr"/>
-      <c r="H446" s="4" t="inlineStr"/>
-      <c r="I446" s="4" t="inlineStr">
+      <c r="F447" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G447" s="4" t="inlineStr"/>
+      <c r="H447" s="4" t="inlineStr"/>
+      <c r="I447" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J446" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K446" s="4" t="inlineStr"/>
-      <c r="L446" s="4" t="inlineStr">
+      <c r="J447" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K447" s="4" t="inlineStr"/>
+      <c r="L447" s="4" t="inlineStr">
         <is>
           <t>RW; SC; JH</t>
         </is>
       </c>
-      <c r="M446" s="4" t="inlineStr">
+      <c r="M447" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N446" s="4" t="inlineStr"/>
-      <c r="O446" s="4" t="inlineStr"/>
-      <c r="P446" s="4" t="inlineStr"/>
-      <c r="Q446" s="4" t="inlineStr"/>
-      <c r="R446" s="4" t="inlineStr"/>
-      <c r="S446" s="4" t="inlineStr"/>
-      <c r="T446" s="4" t="inlineStr"/>
-      <c r="U446" s="4" t="inlineStr"/>
-      <c r="V446" s="4" t="inlineStr"/>
-      <c r="W446" s="4" t="inlineStr"/>
-      <c r="X446" s="4" t="inlineStr"/>
-      <c r="Y446" s="4" t="inlineStr"/>
-      <c r="Z446" s="4" t="inlineStr">
+      <c r="N447" s="4" t="inlineStr"/>
+      <c r="O447" s="4" t="inlineStr"/>
+      <c r="P447" s="4" t="inlineStr"/>
+      <c r="Q447" s="4" t="inlineStr"/>
+      <c r="R447" s="4" t="inlineStr"/>
+      <c r="S447" s="4" t="inlineStr"/>
+      <c r="T447" s="4" t="inlineStr"/>
+      <c r="U447" s="4" t="inlineStr"/>
+      <c r="V447" s="4" t="inlineStr"/>
+      <c r="W447" s="4" t="inlineStr"/>
+      <c r="X447" s="4" t="inlineStr"/>
+      <c r="Y447" s="4" t="inlineStr"/>
+      <c r="Z447" s="4" t="inlineStr">
         <is>
           <t>nicotine</t>
         </is>
       </c>
-      <c r="AA446" s="4" t="inlineStr"/>
-      <c r="AB446" s="4" t="inlineStr"/>
-      <c r="AC446" s="4" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001013</t>
-        </is>
-      </c>
-      <c r="B447" s="5" t="inlineStr">
-        <is>
-          <t>tuibur</t>
-        </is>
-      </c>
-      <c r="C447" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which tobacco smoke is passed through water and the resulting tobacco water is sold in glass bottles. </t>
-        </is>
-      </c>
-      <c r="D447" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E447" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F447" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G447" s="5" t="inlineStr">
-        <is>
-          <t>Tuibur is premade in cottage industry, and the product is either sipped from a bottle or through cotton soaked with tobacco water. It is retained in the mouth or gargled for 5 to 10 minutes before it is spit out.</t>
-        </is>
-      </c>
-      <c r="H447" s="5" t="inlineStr">
-        <is>
-          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
-        </is>
-      </c>
-      <c r="I447" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J447" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K447" s="5" t="inlineStr"/>
-      <c r="L447" s="5" t="inlineStr">
-        <is>
-          <t>KS: UoY</t>
-        </is>
-      </c>
-      <c r="M447" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N447" s="5" t="inlineStr"/>
-      <c r="O447" s="5" t="inlineStr"/>
-      <c r="P447" s="5" t="inlineStr"/>
-      <c r="Q447" s="5" t="inlineStr"/>
-      <c r="R447" s="5" t="inlineStr"/>
-      <c r="S447" s="5" t="inlineStr"/>
-      <c r="T447" s="5" t="inlineStr"/>
-      <c r="U447" s="5" t="inlineStr"/>
-      <c r="V447" s="5" t="inlineStr"/>
-      <c r="W447" s="5" t="inlineStr"/>
-      <c r="X447" s="5" t="inlineStr"/>
-      <c r="Y447" s="5" t="inlineStr"/>
-      <c r="Z447" s="5" t="inlineStr"/>
-      <c r="AA447" s="5" t="inlineStr"/>
-      <c r="AB447" s="5" t="inlineStr">
-        <is>
-          <t>tuiber; tobacco water; hidakphu</t>
-        </is>
-      </c>
-      <c r="AC447" s="5" t="inlineStr"/>
+      <c r="AA447" s="4" t="inlineStr"/>
+      <c r="AB447" s="4" t="inlineStr"/>
+      <c r="AC447" s="4" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001014</t>
+          <t>ADDICTO:0001013</t>
         </is>
       </c>
       <c r="B448" s="5" t="inlineStr">
         <is>
-          <t>twist</t>
+          <t>tuibur</t>
         </is>
       </c>
       <c r="C448" s="5" t="inlineStr">
         <is>
-          <t>A smokeless tobacco-containing product that is designed for oral use, in which air- or fire-cured burley tobacco leaf is treated with a tar-like tobacco leaf extract and sometimes sweeteners and other flavourings, then twisted into rope-like strands that are dried and braided.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which tobacco smoke is passed through water and the resulting tobacco water is sold in glass bottles. </t>
         </is>
       </c>
       <c r="D448" s="5" t="inlineStr">
@@ -32978,7 +32950,7 @@
       </c>
       <c r="G448" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Twist is handmade by commercial manufacturers, and users typically cut off a piece, place it in the mouth, and chew. </t>
+          <t>Tuibur is premade in cottage industry, and the product is either sipped from a bottle or through cotton soaked with tobacco water. It is retained in the mouth or gargled for 5 to 10 minutes before it is spit out.</t>
         </is>
       </c>
       <c r="H448" s="5" t="inlineStr">
@@ -32999,7 +32971,7 @@
       <c r="K448" s="5" t="inlineStr"/>
       <c r="L448" s="5" t="inlineStr">
         <is>
-          <t>KS; UoY</t>
+          <t>KS: UoY</t>
         </is>
       </c>
       <c r="M448" s="5" t="inlineStr">
@@ -33023,32 +32995,52 @@
       <c r="AA448" s="5" t="inlineStr"/>
       <c r="AB448" s="5" t="inlineStr">
         <is>
-          <t>twist chewing tobacco; chew; chaw; roll</t>
+          <t>tuiber; tobacco water; hidakphu</t>
         </is>
       </c>
       <c r="AC448" s="5" t="inlineStr"/>
     </row>
     <row r="449">
-      <c r="A449" s="5" t="inlineStr"/>
+      <c r="A449" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001014</t>
+        </is>
+      </c>
       <c r="B449" s="5" t="inlineStr">
         <is>
-          <t>ugoro</t>
-        </is>
-      </c>
-      <c r="C449" s="5" t="inlineStr"/>
+          <t>twist</t>
+        </is>
+      </c>
+      <c r="C449" s="5" t="inlineStr">
+        <is>
+          <t>A smokeless tobacco-containing product that is designed for oral use, in which air- or fire-cured burley tobacco leaf is treated with a tar-like tobacco leaf extract and sometimes sweeteners and other flavourings, then twisted into rope-like strands that are dried and braided.</t>
+        </is>
+      </c>
       <c r="D449" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E449" s="5" t="inlineStr"/>
+      <c r="E449" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="F449" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G449" s="5" t="inlineStr"/>
-      <c r="H449" s="5" t="inlineStr"/>
+      <c r="G449" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Twist is handmade by commercial manufacturers, and users typically cut off a piece, place it in the mouth, and chew. </t>
+        </is>
+      </c>
+      <c r="H449" s="5" t="inlineStr">
+        <is>
+          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
+        </is>
+      </c>
       <c r="I449" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -33062,7 +33054,7 @@
       <c r="K449" s="5" t="inlineStr"/>
       <c r="L449" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M449" s="5" t="inlineStr">
@@ -33084,549 +33076,539 @@
       <c r="Y449" s="5" t="inlineStr"/>
       <c r="Z449" s="5" t="inlineStr"/>
       <c r="AA449" s="5" t="inlineStr"/>
-      <c r="AB449" s="5" t="inlineStr"/>
+      <c r="AB449" s="5" t="inlineStr">
+        <is>
+          <t>twist chewing tobacco; chew; chaw; roll</t>
+        </is>
+      </c>
       <c r="AC449" s="5" t="inlineStr"/>
     </row>
     <row r="450">
-      <c r="A450" s="4" t="inlineStr">
+      <c r="A450" s="5" t="inlineStr"/>
+      <c r="B450" s="5" t="inlineStr">
+        <is>
+          <t>ugoro</t>
+        </is>
+      </c>
+      <c r="C450" s="5" t="inlineStr"/>
+      <c r="D450" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E450" s="5" t="inlineStr"/>
+      <c r="F450" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G450" s="5" t="inlineStr"/>
+      <c r="H450" s="5" t="inlineStr"/>
+      <c r="I450" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J450" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K450" s="5" t="inlineStr"/>
+      <c r="L450" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M450" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N450" s="5" t="inlineStr"/>
+      <c r="O450" s="5" t="inlineStr"/>
+      <c r="P450" s="5" t="inlineStr"/>
+      <c r="Q450" s="5" t="inlineStr"/>
+      <c r="R450" s="5" t="inlineStr"/>
+      <c r="S450" s="5" t="inlineStr"/>
+      <c r="T450" s="5" t="inlineStr"/>
+      <c r="U450" s="5" t="inlineStr"/>
+      <c r="V450" s="5" t="inlineStr"/>
+      <c r="W450" s="5" t="inlineStr"/>
+      <c r="X450" s="5" t="inlineStr"/>
+      <c r="Y450" s="5" t="inlineStr"/>
+      <c r="Z450" s="5" t="inlineStr"/>
+      <c r="AA450" s="5" t="inlineStr"/>
+      <c r="AB450" s="5" t="inlineStr"/>
+      <c r="AC450" s="5" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000266</t>
         </is>
       </c>
-      <c r="B450" s="4" t="inlineStr">
+      <c r="B451" s="4" t="inlineStr">
         <is>
           <t>unflavoured e-liquid</t>
         </is>
       </c>
-      <c r="C450" s="4" t="inlineStr">
+      <c r="C451" s="4" t="inlineStr">
         <is>
           <t>An e-liquid that does not contain any e-liquid flavouring.</t>
         </is>
       </c>
-      <c r="D450" s="4" t="inlineStr">
+      <c r="D451" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">e-liquid </t>
         </is>
       </c>
-      <c r="E450" s="4" t="inlineStr">
+      <c r="E451" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F450" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G450" s="4" t="inlineStr"/>
-      <c r="H450" s="4" t="inlineStr"/>
-      <c r="I450" s="4" t="n">
+      <c r="F451" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G451" s="4" t="inlineStr"/>
+      <c r="H451" s="4" t="inlineStr"/>
+      <c r="I451" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J450" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K450" s="4" t="inlineStr"/>
-      <c r="L450" s="4" t="inlineStr">
+      <c r="J451" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K451" s="4" t="inlineStr"/>
+      <c r="L451" s="4" t="inlineStr">
         <is>
           <t>SC; KS; RW</t>
         </is>
       </c>
-      <c r="M450" s="4" t="inlineStr">
+      <c r="M451" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N450" s="4" t="inlineStr"/>
-      <c r="O450" s="4" t="inlineStr"/>
-      <c r="P450" s="4" t="inlineStr"/>
-      <c r="Q450" s="4" t="inlineStr"/>
-      <c r="R450" s="4" t="inlineStr"/>
-      <c r="S450" s="4" t="inlineStr"/>
-      <c r="T450" s="4" t="inlineStr"/>
-      <c r="U450" s="4" t="inlineStr"/>
-      <c r="V450" s="4" t="inlineStr"/>
-      <c r="W450" s="4" t="inlineStr"/>
-      <c r="X450" s="4" t="inlineStr"/>
-      <c r="Y450" s="4" t="inlineStr"/>
-      <c r="Z450" s="4" t="inlineStr"/>
-      <c r="AA450" s="4" t="inlineStr"/>
-      <c r="AB450" s="4" t="inlineStr"/>
-      <c r="AC450" s="4" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="5" t="inlineStr">
+      <c r="N451" s="4" t="inlineStr"/>
+      <c r="O451" s="4" t="inlineStr"/>
+      <c r="P451" s="4" t="inlineStr"/>
+      <c r="Q451" s="4" t="inlineStr"/>
+      <c r="R451" s="4" t="inlineStr"/>
+      <c r="S451" s="4" t="inlineStr"/>
+      <c r="T451" s="4" t="inlineStr"/>
+      <c r="U451" s="4" t="inlineStr"/>
+      <c r="V451" s="4" t="inlineStr"/>
+      <c r="W451" s="4" t="inlineStr"/>
+      <c r="X451" s="4" t="inlineStr"/>
+      <c r="Y451" s="4" t="inlineStr"/>
+      <c r="Z451" s="4" t="inlineStr"/>
+      <c r="AA451" s="4" t="inlineStr"/>
+      <c r="AB451" s="4" t="inlineStr"/>
+      <c r="AC451" s="4" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000315</t>
         </is>
       </c>
-      <c r="B451" s="5" t="inlineStr">
+      <c r="B452" s="5" t="inlineStr">
         <is>
           <t>vape pen</t>
         </is>
       </c>
-      <c r="C451" s="5" t="inlineStr">
+      <c r="C452" s="5" t="inlineStr">
         <is>
           <t>An e-cigarette that is pen shaped.</t>
         </is>
       </c>
-      <c r="D451" s="5" t="inlineStr">
+      <c r="D452" s="5" t="inlineStr">
         <is>
           <t>e-cigarette</t>
         </is>
       </c>
-      <c r="E451" s="5" t="inlineStr">
+      <c r="E452" s="5" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F451" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G451" s="5" t="inlineStr"/>
-      <c r="H451" s="5" t="inlineStr"/>
-      <c r="I451" s="5" t="n">
+      <c r="F452" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G452" s="5" t="inlineStr"/>
+      <c r="H452" s="5" t="inlineStr"/>
+      <c r="I452" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J451" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K451" s="5" t="inlineStr"/>
-      <c r="L451" s="5" t="inlineStr">
+      <c r="J452" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K452" s="5" t="inlineStr"/>
+      <c r="L452" s="5" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M451" s="5" t="inlineStr">
+      <c r="M452" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N451" s="5" t="inlineStr"/>
-      <c r="O451" s="5" t="inlineStr"/>
-      <c r="P451" s="5" t="inlineStr"/>
-      <c r="Q451" s="5" t="inlineStr"/>
-      <c r="R451" s="5" t="inlineStr"/>
-      <c r="S451" s="5" t="inlineStr"/>
-      <c r="T451" s="5" t="inlineStr"/>
-      <c r="U451" s="5" t="inlineStr"/>
-      <c r="V451" s="5" t="inlineStr"/>
-      <c r="W451" s="5" t="inlineStr"/>
-      <c r="X451" s="5" t="inlineStr"/>
-      <c r="Y451" s="5" t="inlineStr"/>
-      <c r="Z451" s="5" t="inlineStr"/>
-      <c r="AA451" s="5" t="inlineStr"/>
-      <c r="AB451" s="5" t="inlineStr">
+      <c r="N452" s="5" t="inlineStr"/>
+      <c r="O452" s="5" t="inlineStr"/>
+      <c r="P452" s="5" t="inlineStr"/>
+      <c r="Q452" s="5" t="inlineStr"/>
+      <c r="R452" s="5" t="inlineStr"/>
+      <c r="S452" s="5" t="inlineStr"/>
+      <c r="T452" s="5" t="inlineStr"/>
+      <c r="U452" s="5" t="inlineStr"/>
+      <c r="V452" s="5" t="inlineStr"/>
+      <c r="W452" s="5" t="inlineStr"/>
+      <c r="X452" s="5" t="inlineStr"/>
+      <c r="Y452" s="5" t="inlineStr"/>
+      <c r="Z452" s="5" t="inlineStr"/>
+      <c r="AA452" s="5" t="inlineStr"/>
+      <c r="AB452" s="5" t="inlineStr">
         <is>
           <t>pen-like e-cigarette</t>
         </is>
       </c>
-      <c r="AC451" s="5" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="4" t="inlineStr">
+      <c r="AC452" s="5" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000316</t>
         </is>
       </c>
-      <c r="B452" s="4" t="inlineStr">
+      <c r="B453" s="4" t="inlineStr">
         <is>
           <t>vaping device</t>
         </is>
       </c>
-      <c r="C452" s="4" t="inlineStr">
+      <c r="C453" s="4" t="inlineStr">
         <is>
           <t>A product that produces a vapour for inhalation by a person.</t>
         </is>
       </c>
-      <c r="D452" s="4" t="inlineStr">
+      <c r="D453" s="4" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="E452" s="4" t="inlineStr">
+      <c r="E453" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F452" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G452" s="4" t="inlineStr">
+      <c r="F453" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G453" s="4" t="inlineStr">
         <is>
           <t>This class includes any device that produces vapour or aerosol for inhalation for any purpose. There are many different ways in which the vapour is created and many different substances that are inhaled. It is essential when using this term make clear what type of vaporiser is being referred to and what substance or substances are being inhaled.</t>
         </is>
       </c>
-      <c r="H452" s="4" t="inlineStr"/>
-      <c r="I452" s="4" t="n">
+      <c r="H453" s="4" t="inlineStr"/>
+      <c r="I453" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J452" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K452" s="4" t="inlineStr"/>
-      <c r="L452" s="4" t="inlineStr">
+      <c r="J453" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K453" s="4" t="inlineStr"/>
+      <c r="L453" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW, CN</t>
         </is>
       </c>
-      <c r="M452" s="4" t="inlineStr">
+      <c r="M453" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N452" s="4" t="inlineStr">
+      <c r="N453" s="4" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="O452" s="4" t="inlineStr"/>
-      <c r="P452" s="4" t="inlineStr"/>
-      <c r="Q452" s="4" t="inlineStr"/>
-      <c r="R452" s="4" t="inlineStr">
+      <c r="O453" s="4" t="inlineStr"/>
+      <c r="P453" s="4" t="inlineStr"/>
+      <c r="Q453" s="4" t="inlineStr"/>
+      <c r="R453" s="4" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Vaporizer_(inhalation_device)</t>
         </is>
       </c>
-      <c r="S452" s="4" t="inlineStr"/>
-      <c r="T452" s="4" t="inlineStr"/>
-      <c r="U452" s="4" t="inlineStr">
+      <c r="S453" s="4" t="inlineStr"/>
+      <c r="T453" s="4" t="inlineStr"/>
+      <c r="U453" s="4" t="inlineStr">
         <is>
           <t>vaping device part</t>
         </is>
       </c>
-      <c r="V452" s="4" t="inlineStr"/>
-      <c r="W452" s="4" t="inlineStr"/>
-      <c r="X452" s="4" t="inlineStr"/>
-      <c r="Y452" s="4" t="inlineStr"/>
-      <c r="Z452" s="4" t="inlineStr"/>
-      <c r="AA452" s="4" t="inlineStr"/>
-      <c r="AB452" s="4" t="inlineStr">
+      <c r="V453" s="4" t="inlineStr"/>
+      <c r="W453" s="4" t="inlineStr"/>
+      <c r="X453" s="4" t="inlineStr"/>
+      <c r="Y453" s="4" t="inlineStr"/>
+      <c r="Z453" s="4" t="inlineStr"/>
+      <c r="AA453" s="4" t="inlineStr"/>
+      <c r="AB453" s="4" t="inlineStr">
         <is>
           <t>vapouriser; vaporiser; vapourizer; vaporizer</t>
         </is>
       </c>
-      <c r="AC452" s="4" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="2" t="inlineStr">
+      <c r="AC453" s="4" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000317</t>
         </is>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>vaping device part</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>A product part that is a component of a vaping device.</t>
         </is>
       </c>
-      <c r="D453" s="2" t="inlineStr">
+      <c r="D454" s="2" t="inlineStr">
         <is>
           <t>product part</t>
         </is>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E454" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="inlineStr"/>
-      <c r="H453" s="2" t="inlineStr"/>
-      <c r="I453" s="2" t="n">
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="inlineStr"/>
+      <c r="H454" s="2" t="inlineStr"/>
+      <c r="I454" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="inlineStr"/>
-      <c r="L453" s="2" t="inlineStr">
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="inlineStr"/>
+      <c r="L454" s="2" t="inlineStr">
         <is>
           <t>SC;JH;RW; CN</t>
         </is>
       </c>
-      <c r="M453" s="2" t="inlineStr">
+      <c r="M454" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="N453" s="2" t="inlineStr">
+      <c r="N454" s="2" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="O453" s="2" t="inlineStr"/>
-      <c r="P453" s="2" t="inlineStr">
+      <c r="O454" s="2" t="inlineStr"/>
+      <c r="P454" s="2" t="inlineStr">
         <is>
           <t>A part of a vaping device.</t>
         </is>
       </c>
-      <c r="Q453" s="2" t="inlineStr">
+      <c r="Q454" s="2" t="inlineStr">
         <is>
           <t>(product and 'part of' some 'vaping device')</t>
         </is>
       </c>
-      <c r="R453" s="2" t="inlineStr"/>
-      <c r="S453" s="2" t="inlineStr"/>
-      <c r="T453" s="2" t="inlineStr"/>
-      <c r="U453" s="2" t="inlineStr"/>
-      <c r="V453" s="2" t="inlineStr"/>
-      <c r="W453" s="2" t="inlineStr"/>
-      <c r="X453" s="2" t="inlineStr"/>
-      <c r="Y453" s="2" t="inlineStr"/>
-      <c r="Z453" s="2" t="inlineStr"/>
-      <c r="AA453" s="2" t="inlineStr"/>
-      <c r="AB453" s="2" t="inlineStr"/>
-      <c r="AC453" s="2" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
+      <c r="R454" s="2" t="inlineStr"/>
+      <c r="S454" s="2" t="inlineStr"/>
+      <c r="T454" s="2" t="inlineStr"/>
+      <c r="U454" s="2" t="inlineStr"/>
+      <c r="V454" s="2" t="inlineStr"/>
+      <c r="W454" s="2" t="inlineStr"/>
+      <c r="X454" s="2" t="inlineStr"/>
+      <c r="Y454" s="2" t="inlineStr"/>
+      <c r="Z454" s="2" t="inlineStr"/>
+      <c r="AA454" s="2" t="inlineStr"/>
+      <c r="AB454" s="2" t="inlineStr"/>
+      <c r="AC454" s="2" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
         <is>
           <t>CHEBI:84500</t>
         </is>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>varenicline</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>An organic heterotetracyclic compound that acts as a partial agonist for nicotinic cholinergic receptors and is used (in the form of its tartate salt) as an aid to giving up smoking.</t>
         </is>
       </c>
-      <c r="D454" t="inlineStr">
+      <c r="D455" t="inlineStr">
         <is>
           <t>organic heterotetracyclic compound</t>
         </is>
       </c>
-      <c r="E454" t="inlineStr">
+      <c r="E455" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr"/>
-      <c r="I454" t="n">
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
+      <c r="I455" t="n">
         <v>1</v>
       </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M454" t="inlineStr">
+      <c r="M455" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N454" t="inlineStr"/>
-      <c r="O454" t="inlineStr"/>
-      <c r="P454" t="inlineStr"/>
-      <c r="Q454" t="inlineStr"/>
-      <c r="R454" t="inlineStr">
+      <c r="N455" t="inlineStr"/>
+      <c r="O455" t="inlineStr"/>
+      <c r="P455" t="inlineStr"/>
+      <c r="Q455" t="inlineStr"/>
+      <c r="R455" t="inlineStr">
         <is>
           <t>CHEBI:84500</t>
         </is>
       </c>
-      <c r="S454" t="inlineStr"/>
-      <c r="T454" t="inlineStr"/>
-      <c r="U454" t="inlineStr"/>
-      <c r="V454" t="inlineStr"/>
-      <c r="W454" t="inlineStr"/>
-      <c r="X454" t="inlineStr"/>
-      <c r="Y454" t="inlineStr"/>
-      <c r="Z454" t="inlineStr"/>
-      <c r="AA454" t="inlineStr">
+      <c r="S455" t="inlineStr"/>
+      <c r="T455" t="inlineStr"/>
+      <c r="U455" t="inlineStr"/>
+      <c r="V455" t="inlineStr"/>
+      <c r="W455" t="inlineStr"/>
+      <c r="X455" t="inlineStr"/>
+      <c r="Y455" t="inlineStr"/>
+      <c r="Z455" t="inlineStr"/>
+      <c r="AA455" t="inlineStr">
         <is>
           <t xml:space="preserve">NB: ChEBI has two parents for Varenicline </t>
         </is>
       </c>
-      <c r="AB454" t="inlineStr"/>
-      <c r="AC454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="5" t="inlineStr"/>
-      <c r="B455" s="5" t="inlineStr">
+      <c r="AB455" t="inlineStr"/>
+      <c r="AC455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="5" t="inlineStr"/>
+      <c r="B456" s="5" t="inlineStr">
         <is>
           <t>watery tobacco</t>
         </is>
       </c>
-      <c r="C455" s="5" t="inlineStr"/>
-      <c r="D455" s="5" t="inlineStr">
+      <c r="C456" s="5" t="inlineStr"/>
+      <c r="D456" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E455" s="5" t="inlineStr"/>
-      <c r="F455" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G455" s="5" t="inlineStr"/>
-      <c r="H455" s="5" t="inlineStr">
+      <c r="E456" s="5" t="inlineStr"/>
+      <c r="F456" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G456" s="5" t="inlineStr"/>
+      <c r="H456" s="5" t="inlineStr">
         <is>
           <t>https://www.indianjcancer.com/article.asp?issn=0019-509X;year=2014;volume=51;issue=5;spage=3;epage=7;aulast=Sein
 https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I455" s="5" t="inlineStr">
+      <c r="I456" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J455" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K455" s="5" t="inlineStr"/>
-      <c r="L455" s="5" t="inlineStr">
+      <c r="J456" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K456" s="5" t="inlineStr"/>
+      <c r="L456" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M455" s="5" t="inlineStr">
+      <c r="M456" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N455" s="5" t="inlineStr"/>
-      <c r="O455" s="5" t="inlineStr"/>
-      <c r="P455" s="5" t="inlineStr"/>
-      <c r="Q455" s="5" t="inlineStr"/>
-      <c r="R455" s="5" t="inlineStr"/>
-      <c r="S455" s="5" t="inlineStr"/>
-      <c r="T455" s="5" t="inlineStr"/>
-      <c r="U455" s="5" t="inlineStr"/>
-      <c r="V455" s="5" t="inlineStr"/>
-      <c r="W455" s="5" t="inlineStr"/>
-      <c r="X455" s="5" t="inlineStr"/>
-      <c r="Y455" s="5" t="inlineStr"/>
-      <c r="Z455" s="5" t="inlineStr"/>
-      <c r="AA455" s="5" t="inlineStr"/>
-      <c r="AB455" s="5" t="inlineStr"/>
-      <c r="AC455" s="5" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000745</t>
-        </is>
-      </c>
-      <c r="B456" s="3" t="inlineStr">
-        <is>
-          <t>weekly cost of e-cigarette use</t>
-        </is>
-      </c>
-      <c r="C456" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item which is about the amount of money spent per week on e-cigarettes. </t>
-        </is>
-      </c>
-      <c r="D456" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E456" s="3" t="inlineStr"/>
-      <c r="F456" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G456" s="3" t="inlineStr">
-        <is>
-          <t>Cost relates to currency and period of time, both must be defined.</t>
-        </is>
-      </c>
-      <c r="H456" s="3" t="inlineStr"/>
-      <c r="I456" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J456" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K456" s="3" t="inlineStr"/>
-      <c r="L456" s="3" t="inlineStr">
-        <is>
-          <t>SC;KS; JH; RW</t>
-        </is>
-      </c>
-      <c r="M456" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N456" s="3" t="inlineStr"/>
-      <c r="O456" s="3" t="inlineStr"/>
-      <c r="P456" s="3" t="inlineStr"/>
-      <c r="Q456" s="3" t="inlineStr"/>
-      <c r="R456" s="3" t="inlineStr"/>
-      <c r="S456" s="3" t="inlineStr"/>
-      <c r="T456" s="3" t="inlineStr"/>
-      <c r="U456" s="3" t="inlineStr"/>
-      <c r="V456" s="3" t="inlineStr"/>
-      <c r="W456" s="3" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
-      <c r="X456" s="3" t="inlineStr"/>
-      <c r="Y456" s="3" t="inlineStr"/>
-      <c r="Z456" s="3" t="inlineStr"/>
-      <c r="AA456" s="3" t="inlineStr"/>
-      <c r="AB456" s="3" t="inlineStr"/>
-      <c r="AC456" s="3" t="inlineStr"/>
+      <c r="N456" s="5" t="inlineStr"/>
+      <c r="O456" s="5" t="inlineStr"/>
+      <c r="P456" s="5" t="inlineStr"/>
+      <c r="Q456" s="5" t="inlineStr"/>
+      <c r="R456" s="5" t="inlineStr"/>
+      <c r="S456" s="5" t="inlineStr"/>
+      <c r="T456" s="5" t="inlineStr"/>
+      <c r="U456" s="5" t="inlineStr"/>
+      <c r="V456" s="5" t="inlineStr"/>
+      <c r="W456" s="5" t="inlineStr"/>
+      <c r="X456" s="5" t="inlineStr"/>
+      <c r="Y456" s="5" t="inlineStr"/>
+      <c r="Z456" s="5" t="inlineStr"/>
+      <c r="AA456" s="5" t="inlineStr"/>
+      <c r="AB456" s="5" t="inlineStr"/>
+      <c r="AC456" s="5" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000751</t>
+          <t>ADDICTO:0000745</t>
         </is>
       </c>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>weekly financial cost of cigarette smoking</t>
+          <t>weekly cost of e-cigarette use</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the amount of money a person who smokes cigarettes spends on cigarettes.</t>
+          <t xml:space="preserve">A data item which is about the amount of money spent per week on e-cigarettes. </t>
         </is>
       </c>
       <c r="D457" s="3" t="inlineStr">
@@ -33634,11 +33616,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E457" s="3" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E457" s="3" t="inlineStr"/>
       <c r="F457" s="3" t="inlineStr">
         <is>
           <t>Product</t>
@@ -33646,7 +33624,7 @@
       </c>
       <c r="G457" s="3" t="inlineStr">
         <is>
-          <t>This includes own-roll cigarettes but not cigars.</t>
+          <t>Cost relates to currency and period of time, both must be defined.</t>
         </is>
       </c>
       <c r="H457" s="3" t="inlineStr"/>
@@ -33661,7 +33639,7 @@
       <c r="K457" s="3" t="inlineStr"/>
       <c r="L457" s="3" t="inlineStr">
         <is>
-          <t>KS; JH; RW</t>
+          <t>SC;KS; JH; RW</t>
         </is>
       </c>
       <c r="M457" s="3" t="inlineStr">
@@ -33678,7 +33656,11 @@
       <c r="T457" s="3" t="inlineStr"/>
       <c r="U457" s="3" t="inlineStr"/>
       <c r="V457" s="3" t="inlineStr"/>
-      <c r="W457" s="3" t="inlineStr"/>
+      <c r="W457" s="3" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="X457" s="3" t="inlineStr"/>
       <c r="Y457" s="3" t="inlineStr"/>
       <c r="Z457" s="3" t="inlineStr"/>
@@ -33687,240 +33669,313 @@
       <c r="AC457" s="3" t="inlineStr"/>
     </row>
     <row r="458">
-      <c r="A458" s="5" t="inlineStr">
+      <c r="A458" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000751</t>
+        </is>
+      </c>
+      <c r="B458" s="3" t="inlineStr">
+        <is>
+          <t>weekly financial cost of cigarette smoking</t>
+        </is>
+      </c>
+      <c r="C458" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the amount of money a person who smokes cigarettes spends on cigarettes.</t>
+        </is>
+      </c>
+      <c r="D458" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E458" s="3" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F458" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G458" s="3" t="inlineStr">
+        <is>
+          <t>This includes own-roll cigarettes but not cigars.</t>
+        </is>
+      </c>
+      <c r="H458" s="3" t="inlineStr"/>
+      <c r="I458" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J458" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K458" s="3" t="inlineStr"/>
+      <c r="L458" s="3" t="inlineStr">
+        <is>
+          <t>KS; JH; RW</t>
+        </is>
+      </c>
+      <c r="M458" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="N458" s="3" t="inlineStr"/>
+      <c r="O458" s="3" t="inlineStr"/>
+      <c r="P458" s="3" t="inlineStr"/>
+      <c r="Q458" s="3" t="inlineStr"/>
+      <c r="R458" s="3" t="inlineStr"/>
+      <c r="S458" s="3" t="inlineStr"/>
+      <c r="T458" s="3" t="inlineStr"/>
+      <c r="U458" s="3" t="inlineStr"/>
+      <c r="V458" s="3" t="inlineStr"/>
+      <c r="W458" s="3" t="inlineStr"/>
+      <c r="X458" s="3" t="inlineStr"/>
+      <c r="Y458" s="3" t="inlineStr"/>
+      <c r="Z458" s="3" t="inlineStr"/>
+      <c r="AA458" s="3" t="inlineStr"/>
+      <c r="AB458" s="3" t="inlineStr"/>
+      <c r="AC458" s="3" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001020</t>
         </is>
       </c>
-      <c r="B458" s="5" t="inlineStr">
+      <c r="B459" s="5" t="inlineStr">
         <is>
           <t>white shammah</t>
         </is>
       </c>
-      <c r="C458" s="5" t="inlineStr">
+      <c r="C459" s="5" t="inlineStr">
         <is>
           <t>A smokeless tobacco containing product that is designed for oral use, in which tobacco, slaked lime, ash, black pepper, oil, flavourings, bombosa (sodium carbonate) are mixed to form a dry product.</t>
         </is>
       </c>
-      <c r="D458" s="5" t="inlineStr">
+      <c r="D459" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E458" s="5" t="inlineStr">
+      <c r="E459" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F458" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G458" s="5" t="inlineStr">
+      <c r="F459" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G459" s="5" t="inlineStr">
         <is>
           <t>It is custom made by vendor or individual and is consumed by sucking or holding between the gum and lower lip or cheek.  In Algeria, users may wrap shammah in paper before putting it in the mouth. Orally chewed or held in the mouth</t>
         </is>
       </c>
-      <c r="H458" s="5" t="inlineStr">
+      <c r="H459" s="5" t="inlineStr">
         <is>
           <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I458" s="5" t="inlineStr">
+      <c r="I459" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J458" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K458" s="5" t="inlineStr"/>
-      <c r="L458" s="5" t="inlineStr">
+      <c r="J459" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K459" s="5" t="inlineStr"/>
+      <c r="L459" s="5" t="inlineStr">
         <is>
           <t>KS: UoY</t>
         </is>
       </c>
-      <c r="M458" s="5" t="inlineStr">
+      <c r="M459" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N458" s="5" t="inlineStr"/>
-      <c r="O458" s="5" t="inlineStr"/>
-      <c r="P458" s="5" t="inlineStr"/>
-      <c r="Q458" s="5" t="inlineStr"/>
-      <c r="R458" s="5" t="inlineStr"/>
-      <c r="S458" s="5" t="inlineStr"/>
-      <c r="T458" s="5" t="inlineStr"/>
-      <c r="U458" s="5" t="inlineStr"/>
-      <c r="V458" s="5" t="inlineStr"/>
-      <c r="W458" s="5" t="inlineStr"/>
-      <c r="X458" s="5" t="inlineStr"/>
-      <c r="Y458" s="5" t="inlineStr"/>
-      <c r="Z458" s="5" t="inlineStr"/>
-      <c r="AA458" s="5" t="inlineStr"/>
-      <c r="AB458" s="5" t="inlineStr">
+      <c r="N459" s="5" t="inlineStr"/>
+      <c r="O459" s="5" t="inlineStr"/>
+      <c r="P459" s="5" t="inlineStr"/>
+      <c r="Q459" s="5" t="inlineStr"/>
+      <c r="R459" s="5" t="inlineStr"/>
+      <c r="S459" s="5" t="inlineStr"/>
+      <c r="T459" s="5" t="inlineStr"/>
+      <c r="U459" s="5" t="inlineStr"/>
+      <c r="V459" s="5" t="inlineStr"/>
+      <c r="W459" s="5" t="inlineStr"/>
+      <c r="X459" s="5" t="inlineStr"/>
+      <c r="Y459" s="5" t="inlineStr"/>
+      <c r="Z459" s="5" t="inlineStr"/>
+      <c r="AA459" s="5" t="inlineStr"/>
+      <c r="AB459" s="5" t="inlineStr">
         <is>
           <t>el-shamma; bajeli; haradi; sharaci, al-shammah (Saudi Arabia); chemma (Algeria; shamma;  alqat; yemeni snuff</t>
         </is>
       </c>
-      <c r="AC458" s="5" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
+      <c r="AC459" s="5" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
         <is>
           <t>PO:0000003</t>
         </is>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B460" t="inlineStr">
         <is>
           <t>whole plant</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C460" t="inlineStr">
         <is>
           <t>A plant structure which is a whole organism.</t>
         </is>
       </c>
-      <c r="D459" t="inlineStr">
+      <c r="D460" t="inlineStr">
         <is>
           <t>organism</t>
         </is>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E460" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr"/>
-      <c r="I459" t="n">
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr"/>
+      <c r="I460" t="n">
         <v>1</v>
       </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr">
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
         <is>
           <t>SC/JH; RW</t>
         </is>
       </c>
-      <c r="M459" t="inlineStr">
+      <c r="M460" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N459" t="inlineStr"/>
-      <c r="O459" t="inlineStr"/>
-      <c r="P459" t="inlineStr"/>
-      <c r="Q459" t="inlineStr"/>
-      <c r="R459" t="inlineStr"/>
-      <c r="S459" t="inlineStr"/>
-      <c r="T459" t="inlineStr"/>
-      <c r="U459" t="inlineStr"/>
-      <c r="V459" t="inlineStr"/>
-      <c r="W459" t="inlineStr"/>
-      <c r="X459" t="inlineStr"/>
-      <c r="Y459" t="inlineStr"/>
-      <c r="Z459" t="inlineStr"/>
-      <c r="AA459" t="inlineStr"/>
-      <c r="AB459" t="inlineStr"/>
-      <c r="AC459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="3" t="inlineStr">
+      <c r="N460" t="inlineStr"/>
+      <c r="O460" t="inlineStr"/>
+      <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="inlineStr"/>
+      <c r="R460" t="inlineStr"/>
+      <c r="S460" t="inlineStr"/>
+      <c r="T460" t="inlineStr"/>
+      <c r="U460" t="inlineStr"/>
+      <c r="V460" t="inlineStr"/>
+      <c r="W460" t="inlineStr"/>
+      <c r="X460" t="inlineStr"/>
+      <c r="Y460" t="inlineStr"/>
+      <c r="Z460" t="inlineStr"/>
+      <c r="AA460" t="inlineStr"/>
+      <c r="AB460" t="inlineStr"/>
+      <c r="AC460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001015</t>
         </is>
       </c>
-      <c r="B460" s="3" t="inlineStr">
+      <c r="B461" s="3" t="inlineStr">
         <is>
           <t>zarda</t>
         </is>
       </c>
-      <c r="C460" s="3" t="inlineStr">
+      <c r="C461" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which boiled and dried tobacco leaves are mixed with lime, spices and vegetable dyes (sometimes areca nut and/or silver flecks) to make a flaky product. </t>
         </is>
       </c>
-      <c r="D460" s="3" t="inlineStr">
+      <c r="D461" s="3" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E460" s="3" t="inlineStr">
+      <c r="E461" s="3" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F460" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G460" s="3" t="inlineStr">
+      <c r="F461" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G461" s="3" t="inlineStr">
         <is>
           <t>An oral smokeless tobacco-containing poduct, in which boiled and dried tobacco leaves are mixed with lime, spices and vegetable dyes (sometimes areca nut and/or silver flecks) to make a flaky product. Zarda is commercially manufactured, and it may be chewed by itself, or with chopped areca nuts and spices, or added as an ingredient in betel quid.</t>
         </is>
       </c>
-      <c r="H460" s="3" t="inlineStr">
+      <c r="H461" s="3" t="inlineStr">
         <is>
           <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#zarda
 https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I460" s="3" t="inlineStr">
+      <c r="I461" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J460" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K460" s="3" t="inlineStr"/>
-      <c r="L460" s="3" t="inlineStr">
+      <c r="J461" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K461" s="3" t="inlineStr"/>
+      <c r="L461" s="3" t="inlineStr">
         <is>
           <t>KS; UoY; RW</t>
         </is>
       </c>
-      <c r="M460" s="3" t="inlineStr">
+      <c r="M461" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N460" s="3" t="inlineStr"/>
-      <c r="O460" s="3" t="inlineStr"/>
-      <c r="P460" s="3" t="inlineStr"/>
-      <c r="Q460" s="3" t="inlineStr"/>
-      <c r="R460" s="3" t="inlineStr"/>
-      <c r="S460" s="3" t="inlineStr"/>
-      <c r="T460" s="3" t="inlineStr"/>
-      <c r="U460" s="3" t="inlineStr"/>
-      <c r="V460" s="3" t="inlineStr"/>
-      <c r="W460" s="3" t="inlineStr"/>
-      <c r="X460" s="3" t="inlineStr"/>
-      <c r="Y460" s="3" t="inlineStr"/>
-      <c r="Z460" s="3" t="inlineStr"/>
-      <c r="AA460" s="3" t="inlineStr"/>
-      <c r="AB460" s="3" t="inlineStr">
+      <c r="N461" s="3" t="inlineStr"/>
+      <c r="O461" s="3" t="inlineStr"/>
+      <c r="P461" s="3" t="inlineStr"/>
+      <c r="Q461" s="3" t="inlineStr"/>
+      <c r="R461" s="3" t="inlineStr"/>
+      <c r="S461" s="3" t="inlineStr"/>
+      <c r="T461" s="3" t="inlineStr"/>
+      <c r="U461" s="3" t="inlineStr"/>
+      <c r="V461" s="3" t="inlineStr"/>
+      <c r="W461" s="3" t="inlineStr"/>
+      <c r="X461" s="3" t="inlineStr"/>
+      <c r="Y461" s="3" t="inlineStr"/>
+      <c r="Z461" s="3" t="inlineStr"/>
+      <c r="AA461" s="3" t="inlineStr"/>
+      <c r="AB461" s="3" t="inlineStr">
         <is>
           <t>dokta; vizapatta</t>
         </is>
       </c>
-      <c r="AC460" s="3" t="inlineStr"/>
+      <c r="AC461" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC461"/>
+  <dimension ref="A1:AC462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29108,8 +29108,12 @@
       <c r="F393" s="5" t="inlineStr"/>
       <c r="G393" s="5" t="inlineStr"/>
       <c r="H393" s="5" t="inlineStr"/>
-      <c r="I393" s="5" t="inlineStr"/>
-      <c r="J393" s="5" t="inlineStr"/>
+      <c r="I393" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="K393" s="5" t="inlineStr"/>
       <c r="L393" s="5" t="inlineStr">
         <is>
@@ -30856,8 +30860,12 @@
       <c r="F419" s="5" t="inlineStr"/>
       <c r="G419" s="5" t="inlineStr"/>
       <c r="H419" s="5" t="inlineStr"/>
-      <c r="I419" s="5" t="inlineStr"/>
-      <c r="J419" s="5" t="inlineStr"/>
+      <c r="I419" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="K419" s="5" t="inlineStr"/>
       <c r="L419" s="5" t="inlineStr">
         <is>
@@ -30887,380 +30895,356 @@
       <c r="AC419" s="5" t="inlineStr"/>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
+      <c r="A420" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001250</t>
+        </is>
+      </c>
+      <c r="B420" s="5" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C420" s="5" t="inlineStr">
+        <is>
+          <t>Lorem ipsum</t>
+        </is>
+      </c>
+      <c r="D420" s="5" t="inlineStr">
+        <is>
+          <t>product standard</t>
+        </is>
+      </c>
+      <c r="E420" s="5" t="inlineStr"/>
+      <c r="F420" s="5" t="inlineStr"/>
+      <c r="G420" s="5" t="inlineStr"/>
+      <c r="H420" s="5" t="inlineStr"/>
+      <c r="I420" s="5" t="inlineStr"/>
+      <c r="J420" s="5" t="inlineStr"/>
+      <c r="K420" s="5" t="inlineStr"/>
+      <c r="L420" s="5" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="M420" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N420" s="5" t="inlineStr"/>
+      <c r="O420" s="5" t="inlineStr"/>
+      <c r="P420" s="5" t="inlineStr"/>
+      <c r="Q420" s="5" t="inlineStr"/>
+      <c r="R420" s="5" t="inlineStr"/>
+      <c r="S420" s="5" t="inlineStr"/>
+      <c r="T420" s="5" t="inlineStr"/>
+      <c r="U420" s="5" t="inlineStr"/>
+      <c r="V420" s="5" t="inlineStr"/>
+      <c r="W420" s="5" t="inlineStr"/>
+      <c r="X420" s="5" t="inlineStr"/>
+      <c r="Y420" s="5" t="inlineStr"/>
+      <c r="Z420" s="5" t="inlineStr"/>
+      <c r="AA420" s="5" t="inlineStr"/>
+      <c r="AB420" s="5" t="inlineStr"/>
+      <c r="AC420" s="5" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
         <is>
           <t>CHEBI:66964</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr">
+      <c r="B421" t="inlineStr">
         <is>
           <t>tetrahydrocannabinol</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
+      <c r="C421" t="inlineStr">
         <is>
           <t xml:space="preserve">A diterpenoid that is 6a,7,8,10a-tetrahydro-6H-benzo[c]chromene substituted at position 1 by a hydroxy group, positions 6, 6 and 9 by methyl groups and at position 3 by a pentyl group. </t>
         </is>
       </c>
-      <c r="D420" t="inlineStr">
+      <c r="D421" t="inlineStr">
         <is>
           <t>cannabinoid</t>
         </is>
       </c>
-      <c r="E420" t="inlineStr">
+      <c r="E421" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G420" t="inlineStr">
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
         <is>
           <t>ChEBI definition does not highlight use for recreational purposes. Sold illicitly. Users seek out for its psychoactive properties. CHEBI: The principal psychoactive constituent of the cannabis plant, it is used for treatment of anorexia associated with AIDS as well as nausea and vomiting associated with cancer chemotherapy.</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr"/>
-      <c r="I420" t="n">
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="n">
         <v>1</v>
       </c>
-      <c r="J420" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M420" t="inlineStr">
+      <c r="M421" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N420" t="inlineStr"/>
-      <c r="O420" t="inlineStr"/>
-      <c r="P420" t="inlineStr"/>
-      <c r="Q420" t="inlineStr"/>
-      <c r="R420" t="inlineStr">
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr">
         <is>
           <t>CHEBI:66964</t>
         </is>
       </c>
-      <c r="S420" t="inlineStr"/>
-      <c r="T420" t="inlineStr"/>
-      <c r="U420" t="inlineStr"/>
-      <c r="V420" t="inlineStr"/>
-      <c r="W420" t="inlineStr"/>
-      <c r="X420" t="inlineStr"/>
-      <c r="Y420" t="inlineStr"/>
-      <c r="Z420" t="inlineStr"/>
-      <c r="AA420" t="inlineStr"/>
-      <c r="AB420" t="inlineStr">
+      <c r="S421" t="inlineStr"/>
+      <c r="T421" t="inlineStr"/>
+      <c r="U421" t="inlineStr"/>
+      <c r="V421" t="inlineStr"/>
+      <c r="W421" t="inlineStr"/>
+      <c r="X421" t="inlineStr"/>
+      <c r="Y421" t="inlineStr"/>
+      <c r="Z421" t="inlineStr"/>
+      <c r="AA421" t="inlineStr"/>
+      <c r="AB421" t="inlineStr">
         <is>
           <t>THC</t>
         </is>
       </c>
-      <c r="AC420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="5" t="inlineStr"/>
-      <c r="B421" s="5" t="inlineStr">
+      <c r="AC421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="5" t="inlineStr"/>
+      <c r="B422" s="5" t="inlineStr">
         <is>
           <t>thinso</t>
         </is>
       </c>
-      <c r="C421" s="5" t="inlineStr"/>
-      <c r="D421" s="5" t="inlineStr">
+      <c r="C422" s="5" t="inlineStr"/>
+      <c r="D422" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E421" s="5" t="inlineStr"/>
-      <c r="F421" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G421" s="5" t="inlineStr"/>
-      <c r="H421" s="5" t="inlineStr"/>
-      <c r="I421" s="5" t="inlineStr">
+      <c r="E422" s="5" t="inlineStr"/>
+      <c r="F422" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G422" s="5" t="inlineStr"/>
+      <c r="H422" s="5" t="inlineStr"/>
+      <c r="I422" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J421" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K421" s="5" t="inlineStr"/>
-      <c r="L421" s="5" t="inlineStr">
+      <c r="J422" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K422" s="5" t="inlineStr"/>
+      <c r="L422" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M421" s="5" t="inlineStr">
+      <c r="M422" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N421" s="5" t="inlineStr"/>
-      <c r="O421" s="5" t="inlineStr"/>
-      <c r="P421" s="5" t="inlineStr"/>
-      <c r="Q421" s="5" t="inlineStr"/>
-      <c r="R421" s="5" t="inlineStr"/>
-      <c r="S421" s="5" t="inlineStr"/>
-      <c r="T421" s="5" t="inlineStr"/>
-      <c r="U421" s="5" t="inlineStr"/>
-      <c r="V421" s="5" t="inlineStr"/>
-      <c r="W421" s="5" t="inlineStr"/>
-      <c r="X421" s="5" t="inlineStr"/>
-      <c r="Y421" s="5" t="inlineStr"/>
-      <c r="Z421" s="5" t="inlineStr"/>
-      <c r="AA421" s="5" t="inlineStr"/>
-      <c r="AB421" s="5" t="inlineStr"/>
-      <c r="AC421" s="5" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="4" t="inlineStr">
+      <c r="N422" s="5" t="inlineStr"/>
+      <c r="O422" s="5" t="inlineStr"/>
+      <c r="P422" s="5" t="inlineStr"/>
+      <c r="Q422" s="5" t="inlineStr"/>
+      <c r="R422" s="5" t="inlineStr"/>
+      <c r="S422" s="5" t="inlineStr"/>
+      <c r="T422" s="5" t="inlineStr"/>
+      <c r="U422" s="5" t="inlineStr"/>
+      <c r="V422" s="5" t="inlineStr"/>
+      <c r="W422" s="5" t="inlineStr"/>
+      <c r="X422" s="5" t="inlineStr"/>
+      <c r="Y422" s="5" t="inlineStr"/>
+      <c r="Z422" s="5" t="inlineStr"/>
+      <c r="AA422" s="5" t="inlineStr"/>
+      <c r="AB422" s="5" t="inlineStr"/>
+      <c r="AC422" s="5" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000303</t>
         </is>
       </c>
-      <c r="B422" s="4" t="inlineStr">
+      <c r="B423" s="4" t="inlineStr">
         <is>
           <t>tobacco</t>
         </is>
       </c>
-      <c r="C422" s="4" t="inlineStr">
+      <c r="C423" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A commodity that is formed from parts of the tobacco plant. </t>
         </is>
       </c>
-      <c r="D422" s="4" t="inlineStr">
+      <c r="D423" s="4" t="inlineStr">
         <is>
           <t>commodity</t>
         </is>
       </c>
-      <c r="E422" s="4" t="inlineStr">
+      <c r="E423" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F422" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G422" s="4" t="inlineStr"/>
-      <c r="H422" s="4" t="inlineStr"/>
-      <c r="I422" s="4" t="n">
+      <c r="F423" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G423" s="4" t="inlineStr"/>
+      <c r="H423" s="4" t="inlineStr"/>
+      <c r="I423" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J422" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K422" s="4" t="inlineStr"/>
-      <c r="L422" s="4" t="inlineStr">
+      <c r="J423" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K423" s="4" t="inlineStr"/>
+      <c r="L423" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M422" s="4" t="inlineStr">
+      <c r="M423" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N422" s="4" t="inlineStr"/>
-      <c r="O422" s="4" t="inlineStr"/>
-      <c r="P422" s="4" t="inlineStr"/>
-      <c r="Q422" s="4" t="inlineStr"/>
-      <c r="R422" s="4" t="inlineStr"/>
-      <c r="S422" s="4" t="inlineStr"/>
-      <c r="T422" s="4" t="inlineStr">
+      <c r="N423" s="4" t="inlineStr"/>
+      <c r="O423" s="4" t="inlineStr"/>
+      <c r="P423" s="4" t="inlineStr"/>
+      <c r="Q423" s="4" t="inlineStr"/>
+      <c r="R423" s="4" t="inlineStr"/>
+      <c r="S423" s="4" t="inlineStr"/>
+      <c r="T423" s="4" t="inlineStr">
         <is>
           <t>tobacco plant</t>
         </is>
       </c>
-      <c r="U422" s="4" t="inlineStr"/>
-      <c r="V422" s="4" t="inlineStr"/>
-      <c r="W422" s="4" t="inlineStr"/>
-      <c r="X422" s="4" t="inlineStr"/>
-      <c r="Y422" s="4" t="inlineStr"/>
-      <c r="Z422" s="4" t="inlineStr"/>
-      <c r="AA422" s="4" t="inlineStr"/>
-      <c r="AB422" s="4" t="inlineStr"/>
-      <c r="AC422" s="4" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="3" t="inlineStr">
+      <c r="U423" s="4" t="inlineStr"/>
+      <c r="V423" s="4" t="inlineStr"/>
+      <c r="W423" s="4" t="inlineStr"/>
+      <c r="X423" s="4" t="inlineStr"/>
+      <c r="Y423" s="4" t="inlineStr"/>
+      <c r="Z423" s="4" t="inlineStr"/>
+      <c r="AA423" s="4" t="inlineStr"/>
+      <c r="AB423" s="4" t="inlineStr"/>
+      <c r="AC423" s="4" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000306</t>
         </is>
       </c>
-      <c r="B423" s="3" t="inlineStr">
+      <c r="B424" s="3" t="inlineStr">
         <is>
           <t>tobacco advertising</t>
         </is>
       </c>
-      <c r="C423" s="3" t="inlineStr">
+      <c r="C424" s="3" t="inlineStr">
         <is>
           <t>Advertising of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D423" s="3" t="inlineStr">
+      <c r="D424" s="3" t="inlineStr">
         <is>
           <t>advertising</t>
         </is>
       </c>
-      <c r="E423" s="3" t="inlineStr">
+      <c r="E424" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F423" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G423" s="3" t="inlineStr"/>
-      <c r="H423" s="3" t="inlineStr"/>
-      <c r="I423" s="3" t="n">
+      <c r="F424" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G424" s="3" t="inlineStr"/>
+      <c r="H424" s="3" t="inlineStr"/>
+      <c r="I424" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J423" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K423" s="3" t="inlineStr"/>
-      <c r="L423" s="3" t="inlineStr">
+      <c r="J424" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K424" s="3" t="inlineStr"/>
+      <c r="L424" s="3" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M423" s="3" t="inlineStr">
+      <c r="M424" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N423" s="3" t="inlineStr"/>
-      <c r="O423" s="3" t="inlineStr"/>
-      <c r="P423" s="3" t="inlineStr"/>
-      <c r="Q423" s="3" t="inlineStr"/>
-      <c r="R423" s="3" t="inlineStr"/>
-      <c r="S423" s="3" t="inlineStr"/>
-      <c r="T423" s="3" t="inlineStr"/>
-      <c r="U423" s="3" t="inlineStr"/>
-      <c r="V423" s="3" t="inlineStr"/>
-      <c r="W423" s="3" t="inlineStr"/>
-      <c r="X423" s="3" t="inlineStr"/>
-      <c r="Y423" s="3" t="inlineStr"/>
-      <c r="Z423" s="3" t="inlineStr"/>
-      <c r="AA423" s="3" t="inlineStr"/>
-      <c r="AB423" s="3" t="inlineStr"/>
-      <c r="AC423" s="3" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001008</t>
-        </is>
-      </c>
-      <c r="B424" s="5" t="inlineStr">
-        <is>
-          <t>tobacco chewing gum</t>
-        </is>
-      </c>
-      <c r="C424" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, which is composed of finely ground tobacco , chewing gum base and xylitol. </t>
-        </is>
-      </c>
-      <c r="D424" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E424" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F424" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G424" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> It is commercially manufactured and used as a chewing gum. </t>
-        </is>
-      </c>
-      <c r="H424" s="5" t="inlineStr">
-        <is>
-          <t>https://publications.iarc.fr/Book-And-Report-Series/Iarc-Monographs-On-The-Identification-Of-Carcinogenic-Hazards-To-Humans/Smokeless-Tobacco-And-Some-Tobacco-specific-Em-N-Em--Nitrosamines-2007</t>
-        </is>
-      </c>
-      <c r="I424" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J424" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K424" s="5" t="inlineStr"/>
-      <c r="L424" s="5" t="inlineStr">
-        <is>
-          <t>KS; UoY; RW</t>
-        </is>
-      </c>
-      <c r="M424" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N424" s="5" t="inlineStr"/>
-      <c r="O424" s="5" t="inlineStr"/>
-      <c r="P424" s="5" t="inlineStr"/>
-      <c r="Q424" s="5" t="inlineStr"/>
-      <c r="R424" s="5" t="inlineStr"/>
-      <c r="S424" s="5" t="inlineStr"/>
-      <c r="T424" s="5" t="inlineStr"/>
-      <c r="U424" s="5" t="inlineStr"/>
-      <c r="V424" s="5" t="inlineStr"/>
-      <c r="W424" s="5" t="inlineStr"/>
-      <c r="X424" s="5" t="inlineStr"/>
-      <c r="Y424" s="5" t="inlineStr"/>
-      <c r="Z424" s="5" t="inlineStr"/>
-      <c r="AA424" s="5" t="inlineStr"/>
-      <c r="AB424" s="5" t="inlineStr"/>
-      <c r="AC424" s="5" t="inlineStr"/>
+      <c r="N424" s="3" t="inlineStr"/>
+      <c r="O424" s="3" t="inlineStr"/>
+      <c r="P424" s="3" t="inlineStr"/>
+      <c r="Q424" s="3" t="inlineStr"/>
+      <c r="R424" s="3" t="inlineStr"/>
+      <c r="S424" s="3" t="inlineStr"/>
+      <c r="T424" s="3" t="inlineStr"/>
+      <c r="U424" s="3" t="inlineStr"/>
+      <c r="V424" s="3" t="inlineStr"/>
+      <c r="W424" s="3" t="inlineStr"/>
+      <c r="X424" s="3" t="inlineStr"/>
+      <c r="Y424" s="3" t="inlineStr"/>
+      <c r="Z424" s="3" t="inlineStr"/>
+      <c r="AA424" s="3" t="inlineStr"/>
+      <c r="AB424" s="3" t="inlineStr"/>
+      <c r="AC424" s="3" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001009</t>
+          <t>ADDICTO:0001008</t>
         </is>
       </c>
       <c r="B425" s="5" t="inlineStr">
         <is>
-          <t>tobacco coated toothpick</t>
+          <t>tobacco chewing gum</t>
         </is>
       </c>
       <c r="C425" s="5" t="inlineStr">
         <is>
-          <t>A smokeless tobacco-containing product that is designed for oral use,  which is composed of nicotine with flavours like strawberry, peppermint, spearmint, coffee, cinnamon etc and is placed in the mouth like a toothpick.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, which is composed of finely ground tobacco , chewing gum base and xylitol. </t>
         </is>
       </c>
       <c r="D425" s="5" t="inlineStr">
@@ -31280,12 +31264,14 @@
       </c>
       <c r="G425" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- It is commercially prepared and is sucked or sometimes chewed to increase the speed of nicotine release.
-</t>
-        </is>
-      </c>
-      <c r="H425" s="5" t="inlineStr"/>
+          <t xml:space="preserve"> It is commercially manufactured and used as a chewing gum. </t>
+        </is>
+      </c>
+      <c r="H425" s="5" t="inlineStr">
+        <is>
+          <t>https://publications.iarc.fr/Book-And-Report-Series/Iarc-Monographs-On-The-Identification-Of-Carcinogenic-Hazards-To-Humans/Smokeless-Tobacco-And-Some-Tobacco-specific-Em-N-Em--Nitrosamines-2007</t>
+        </is>
+      </c>
       <c r="I425" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -31325,21 +31311,47 @@
       <c r="AC425" s="5" t="inlineStr"/>
     </row>
     <row r="426">
-      <c r="A426" s="5" t="inlineStr"/>
+      <c r="A426" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001009</t>
+        </is>
+      </c>
       <c r="B426" s="5" t="inlineStr">
         <is>
-          <t>tobacco constituent</t>
-        </is>
-      </c>
-      <c r="C426" s="5" t="inlineStr"/>
-      <c r="D426" s="5" t="inlineStr"/>
-      <c r="E426" s="5" t="inlineStr"/>
-      <c r="F426" s="5" t="inlineStr"/>
-      <c r="G426" s="5" t="inlineStr"/>
+          <t>tobacco coated toothpick</t>
+        </is>
+      </c>
+      <c r="C426" s="5" t="inlineStr">
+        <is>
+          <t>A smokeless tobacco-containing product that is designed for oral use,  which is composed of nicotine with flavours like strawberry, peppermint, spearmint, coffee, cinnamon etc and is placed in the mouth like a toothpick.</t>
+        </is>
+      </c>
+      <c r="D426" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E426" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F426" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G426" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ It is commercially prepared and is sucked or sometimes chewed to increase the speed of nicotine release.
+</t>
+        </is>
+      </c>
       <c r="H426" s="5" t="inlineStr"/>
       <c r="I426" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J426" s="5" t="inlineStr">
@@ -31348,7 +31360,11 @@
         </is>
       </c>
       <c r="K426" s="5" t="inlineStr"/>
-      <c r="L426" s="5" t="inlineStr"/>
+      <c r="L426" s="5" t="inlineStr">
+        <is>
+          <t>KS; UoY; RW</t>
+        </is>
+      </c>
       <c r="M426" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -31372,42 +31388,21 @@
       <c r="AC426" s="5" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000922</t>
-        </is>
-      </c>
+      <c r="A427" s="5" t="inlineStr"/>
       <c r="B427" s="5" t="inlineStr">
         <is>
-          <t>tobacco leaf product</t>
-        </is>
-      </c>
-      <c r="C427" s="5" t="inlineStr">
-        <is>
-          <t>A tobacco-containing product that consists of chopped unprocessed tobacco leaves.</t>
-        </is>
-      </c>
-      <c r="D427" s="5" t="inlineStr">
-        <is>
-          <t>tobacco-containing product</t>
-        </is>
-      </c>
+          <t>tobacco constituent</t>
+        </is>
+      </c>
+      <c r="C427" s="5" t="inlineStr"/>
+      <c r="D427" s="5" t="inlineStr"/>
       <c r="E427" s="5" t="inlineStr"/>
-      <c r="F427" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="F427" s="5" t="inlineStr"/>
       <c r="G427" s="5" t="inlineStr"/>
-      <c r="H427" s="5" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
+      <c r="H427" s="5" t="inlineStr"/>
       <c r="I427" s="5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J427" s="5" t="inlineStr">
@@ -31416,11 +31411,7 @@
         </is>
       </c>
       <c r="K427" s="5" t="inlineStr"/>
-      <c r="L427" s="5" t="inlineStr">
-        <is>
-          <t>JH; KS; RW</t>
-        </is>
-      </c>
+      <c r="L427" s="5" t="inlineStr"/>
       <c r="M427" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -31446,42 +31437,35 @@
     <row r="428">
       <c r="A428" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001010</t>
+          <t>ADDICTO:0000922</t>
         </is>
       </c>
       <c r="B428" s="5" t="inlineStr">
         <is>
-          <t>tobacco lozenges</t>
+          <t>tobacco leaf product</t>
         </is>
       </c>
       <c r="C428" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use, that in which ground tobacco is mixed with various flavouring agents like cinnamon, fruit and mint to form a sugar-free tablet. </t>
+          <t>A tobacco-containing product that consists of chopped unprocessed tobacco leaves.</t>
         </is>
       </c>
       <c r="D428" s="5" t="inlineStr">
         <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E428" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+          <t>tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E428" s="5" t="inlineStr"/>
       <c r="F428" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G428" s="5" t="inlineStr">
-        <is>
-          <t>It is commercially packaged and is consumed by placing in the mouth and allowing to dissolve over the course of 20 to 30 mins.</t>
-        </is>
-      </c>
+      <c r="G428" s="5" t="inlineStr"/>
       <c r="H428" s="5" t="inlineStr">
         <is>
-          <t>verywellmind.com/the-pros-and-cons-of-nicotine-lozenges-2825034</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="I428" s="5" t="inlineStr">
@@ -31497,7 +31481,7 @@
       <c r="K428" s="5" t="inlineStr"/>
       <c r="L428" s="5" t="inlineStr">
         <is>
-          <t>KS: UoY</t>
+          <t>JH; KS; RW</t>
         </is>
       </c>
       <c r="M428" s="5" t="inlineStr">
@@ -31523,250 +31507,260 @@
       <c r="AC428" s="5" t="inlineStr"/>
     </row>
     <row r="429">
-      <c r="A429" s="3" t="inlineStr">
+      <c r="A429" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001010</t>
+        </is>
+      </c>
+      <c r="B429" s="5" t="inlineStr">
+        <is>
+          <t>tobacco lozenges</t>
+        </is>
+      </c>
+      <c r="C429" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use, that in which ground tobacco is mixed with various flavouring agents like cinnamon, fruit and mint to form a sugar-free tablet. </t>
+        </is>
+      </c>
+      <c r="D429" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E429" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F429" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G429" s="5" t="inlineStr">
+        <is>
+          <t>It is commercially packaged and is consumed by placing in the mouth and allowing to dissolve over the course of 20 to 30 mins.</t>
+        </is>
+      </c>
+      <c r="H429" s="5" t="inlineStr">
+        <is>
+          <t>verywellmind.com/the-pros-and-cons-of-nicotine-lozenges-2825034</t>
+        </is>
+      </c>
+      <c r="I429" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J429" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K429" s="5" t="inlineStr"/>
+      <c r="L429" s="5" t="inlineStr">
+        <is>
+          <t>KS: UoY</t>
+        </is>
+      </c>
+      <c r="M429" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N429" s="5" t="inlineStr"/>
+      <c r="O429" s="5" t="inlineStr"/>
+      <c r="P429" s="5" t="inlineStr"/>
+      <c r="Q429" s="5" t="inlineStr"/>
+      <c r="R429" s="5" t="inlineStr"/>
+      <c r="S429" s="5" t="inlineStr"/>
+      <c r="T429" s="5" t="inlineStr"/>
+      <c r="U429" s="5" t="inlineStr"/>
+      <c r="V429" s="5" t="inlineStr"/>
+      <c r="W429" s="5" t="inlineStr"/>
+      <c r="X429" s="5" t="inlineStr"/>
+      <c r="Y429" s="5" t="inlineStr"/>
+      <c r="Z429" s="5" t="inlineStr"/>
+      <c r="AA429" s="5" t="inlineStr"/>
+      <c r="AB429" s="5" t="inlineStr"/>
+      <c r="AC429" s="5" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001246</t>
         </is>
       </c>
-      <c r="B429" s="3" t="inlineStr">
+      <c r="B430" s="3" t="inlineStr">
         <is>
           <t>tobacco marketing</t>
         </is>
       </c>
-      <c r="C429" s="3" t="inlineStr">
+      <c r="C430" s="3" t="inlineStr">
         <is>
           <t>Marketing of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D429" s="3" t="inlineStr">
+      <c r="D430" s="3" t="inlineStr">
         <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E429" s="3" t="inlineStr">
+      <c r="E430" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F429" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G429" s="3" t="inlineStr"/>
-      <c r="H429" s="3" t="inlineStr"/>
-      <c r="I429" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J429" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K429" s="3" t="inlineStr"/>
-      <c r="L429" s="3" t="inlineStr">
+      <c r="F430" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G430" s="3" t="inlineStr"/>
+      <c r="H430" s="3" t="inlineStr"/>
+      <c r="I430" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J430" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K430" s="3" t="inlineStr"/>
+      <c r="L430" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="M429" s="3" t="inlineStr">
+      <c r="M430" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N429" s="3" t="inlineStr"/>
-      <c r="O429" s="3" t="inlineStr"/>
-      <c r="P429" s="3" t="inlineStr"/>
-      <c r="Q429" s="3" t="inlineStr"/>
-      <c r="R429" s="3" t="inlineStr"/>
-      <c r="S429" s="3" t="inlineStr"/>
-      <c r="T429" s="3" t="inlineStr"/>
-      <c r="U429" s="3" t="inlineStr"/>
-      <c r="V429" s="3" t="inlineStr"/>
-      <c r="W429" s="3" t="inlineStr"/>
-      <c r="X429" s="3" t="inlineStr"/>
-      <c r="Y429" s="3" t="inlineStr"/>
-      <c r="Z429" s="3" t="inlineStr"/>
-      <c r="AA429" s="3" t="inlineStr"/>
-      <c r="AB429" s="3" t="inlineStr"/>
-      <c r="AC429" s="3" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="4" t="inlineStr">
+      <c r="N430" s="3" t="inlineStr"/>
+      <c r="O430" s="3" t="inlineStr"/>
+      <c r="P430" s="3" t="inlineStr"/>
+      <c r="Q430" s="3" t="inlineStr"/>
+      <c r="R430" s="3" t="inlineStr"/>
+      <c r="S430" s="3" t="inlineStr"/>
+      <c r="T430" s="3" t="inlineStr"/>
+      <c r="U430" s="3" t="inlineStr"/>
+      <c r="V430" s="3" t="inlineStr"/>
+      <c r="W430" s="3" t="inlineStr"/>
+      <c r="X430" s="3" t="inlineStr"/>
+      <c r="Y430" s="3" t="inlineStr"/>
+      <c r="Z430" s="3" t="inlineStr"/>
+      <c r="AA430" s="3" t="inlineStr"/>
+      <c r="AB430" s="3" t="inlineStr"/>
+      <c r="AC430" s="3" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000305</t>
         </is>
       </c>
-      <c r="B430" s="4" t="inlineStr">
+      <c r="B431" s="4" t="inlineStr">
         <is>
           <t>tobacco plant</t>
         </is>
       </c>
-      <c r="C430" s="4" t="inlineStr">
+      <c r="C431" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A plant of the species that belongs to the Nicotiana genus of herbaceous plants. </t>
         </is>
       </c>
-      <c r="D430" s="4" t="inlineStr">
+      <c r="D431" s="4" t="inlineStr">
         <is>
           <t>whole plant</t>
         </is>
       </c>
-      <c r="E430" s="4" t="inlineStr">
+      <c r="E431" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F430" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G430" s="4" t="inlineStr">
+      <c r="F431" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G431" s="4" t="inlineStr">
         <is>
           <t>Nicotiana species include many varieties. These are commonly referred to as tobacco plants, and are cultivated as ornamental garden plants. N. tabacum is grown worldwide for production tobacco-containing products.</t>
         </is>
       </c>
-      <c r="H430" s="4" t="inlineStr"/>
-      <c r="I430" s="4" t="n">
+      <c r="H431" s="4" t="inlineStr"/>
+      <c r="I431" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J430" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K430" s="4" t="inlineStr"/>
-      <c r="L430" s="4" t="inlineStr">
+      <c r="J431" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K431" s="4" t="inlineStr"/>
+      <c r="L431" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M430" s="4" t="inlineStr">
+      <c r="M431" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N430" s="4" t="inlineStr"/>
-      <c r="O430" s="4" t="inlineStr"/>
-      <c r="P430" s="4" t="inlineStr"/>
-      <c r="Q430" s="4" t="inlineStr"/>
-      <c r="R430" s="4" t="inlineStr"/>
-      <c r="S430" s="4" t="inlineStr"/>
-      <c r="T430" s="4" t="inlineStr"/>
-      <c r="U430" s="4" t="inlineStr"/>
-      <c r="V430" s="4" t="inlineStr"/>
-      <c r="W430" s="4" t="inlineStr"/>
-      <c r="X430" s="4" t="inlineStr"/>
-      <c r="Y430" s="4" t="inlineStr"/>
-      <c r="Z430" s="4" t="inlineStr"/>
-      <c r="AA430" s="4" t="inlineStr">
+      <c r="N431" s="4" t="inlineStr"/>
+      <c r="O431" s="4" t="inlineStr"/>
+      <c r="P431" s="4" t="inlineStr"/>
+      <c r="Q431" s="4" t="inlineStr"/>
+      <c r="R431" s="4" t="inlineStr"/>
+      <c r="S431" s="4" t="inlineStr"/>
+      <c r="T431" s="4" t="inlineStr"/>
+      <c r="U431" s="4" t="inlineStr"/>
+      <c r="V431" s="4" t="inlineStr"/>
+      <c r="W431" s="4" t="inlineStr"/>
+      <c r="X431" s="4" t="inlineStr"/>
+      <c r="Y431" s="4" t="inlineStr"/>
+      <c r="Z431" s="4" t="inlineStr"/>
+      <c r="AA431" s="4" t="inlineStr">
         <is>
           <t>Although there are definitions of tobacco plant in other ontologies, these were not quite suitable for the purposes of AddictO.</t>
         </is>
       </c>
-      <c r="AB430" s="4" t="inlineStr">
+      <c r="AB431" s="4" t="inlineStr">
         <is>
           <t>Nicotiana</t>
         </is>
       </c>
-      <c r="AC430" s="4" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000309</t>
-        </is>
-      </c>
-      <c r="B431" s="5" t="inlineStr">
-        <is>
-          <t>tobacco product packaging</t>
-        </is>
-      </c>
-      <c r="C431" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The packaging that is specifically used for tobacco-containing products. </t>
-        </is>
-      </c>
-      <c r="D431" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">packaging </t>
-        </is>
-      </c>
-      <c r="E431" s="5" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
-      <c r="F431" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G431" s="5" t="inlineStr"/>
-      <c r="H431" s="5" t="inlineStr"/>
-      <c r="I431" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J431" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K431" s="5" t="inlineStr"/>
-      <c r="L431" s="5" t="inlineStr">
-        <is>
-          <t>SC;JH</t>
-        </is>
-      </c>
-      <c r="M431" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N431" s="5" t="inlineStr"/>
-      <c r="O431" s="5" t="inlineStr"/>
-      <c r="P431" s="5" t="inlineStr"/>
-      <c r="Q431" s="5" t="inlineStr"/>
-      <c r="R431" s="5" t="inlineStr"/>
-      <c r="S431" s="5" t="inlineStr"/>
-      <c r="T431" s="5" t="inlineStr"/>
-      <c r="U431" s="5" t="inlineStr"/>
-      <c r="V431" s="5" t="inlineStr"/>
-      <c r="W431" s="5" t="inlineStr"/>
-      <c r="X431" s="5" t="inlineStr"/>
-      <c r="Y431" s="5" t="inlineStr"/>
-      <c r="Z431" s="5" t="inlineStr"/>
-      <c r="AA431" s="5" t="inlineStr"/>
-      <c r="AB431" s="5" t="inlineStr"/>
-      <c r="AC431" s="5" t="inlineStr"/>
+      <c r="AC431" s="4" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000310</t>
+          <t>ADDICTO:0000309</t>
         </is>
       </c>
       <c r="B432" s="5" t="inlineStr">
         <is>
-          <t>tobacco product price</t>
+          <t>tobacco product packaging</t>
         </is>
       </c>
       <c r="C432" s="5" t="inlineStr">
         <is>
-          <t>The designated price of a unit of a tobacco product.</t>
+          <t xml:space="preserve">The packaging that is specifically used for tobacco-containing products. </t>
         </is>
       </c>
       <c r="D432" s="5" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t xml:space="preserve">packaging </t>
         </is>
       </c>
       <c r="E432" s="5" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Independent continuant</t>
         </is>
       </c>
       <c r="F432" s="5" t="inlineStr">
@@ -31813,477 +31807,481 @@
       <c r="AC432" s="5" t="inlineStr"/>
     </row>
     <row r="433">
-      <c r="A433" s="4" t="inlineStr">
+      <c r="A433" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000310</t>
+        </is>
+      </c>
+      <c r="B433" s="5" t="inlineStr">
+        <is>
+          <t>tobacco product price</t>
+        </is>
+      </c>
+      <c r="C433" s="5" t="inlineStr">
+        <is>
+          <t>The designated price of a unit of a tobacco product.</t>
+        </is>
+      </c>
+      <c r="D433" s="5" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="E433" s="5" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="F433" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G433" s="5" t="inlineStr"/>
+      <c r="H433" s="5" t="inlineStr"/>
+      <c r="I433" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J433" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K433" s="5" t="inlineStr"/>
+      <c r="L433" s="5" t="inlineStr">
+        <is>
+          <t>SC;JH</t>
+        </is>
+      </c>
+      <c r="M433" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N433" s="5" t="inlineStr"/>
+      <c r="O433" s="5" t="inlineStr"/>
+      <c r="P433" s="5" t="inlineStr"/>
+      <c r="Q433" s="5" t="inlineStr"/>
+      <c r="R433" s="5" t="inlineStr"/>
+      <c r="S433" s="5" t="inlineStr"/>
+      <c r="T433" s="5" t="inlineStr"/>
+      <c r="U433" s="5" t="inlineStr"/>
+      <c r="V433" s="5" t="inlineStr"/>
+      <c r="W433" s="5" t="inlineStr"/>
+      <c r="X433" s="5" t="inlineStr"/>
+      <c r="Y433" s="5" t="inlineStr"/>
+      <c r="Z433" s="5" t="inlineStr"/>
+      <c r="AA433" s="5" t="inlineStr"/>
+      <c r="AB433" s="5" t="inlineStr"/>
+      <c r="AC433" s="5" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000314</t>
         </is>
       </c>
-      <c r="B433" s="4" t="inlineStr">
+      <c r="B434" s="4" t="inlineStr">
         <is>
           <t>tobacco smoke</t>
         </is>
       </c>
-      <c r="C433" s="4" t="inlineStr">
+      <c r="C434" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Smoke that is produced through the burning of tobacco. </t>
         </is>
       </c>
-      <c r="D433" s="4" t="inlineStr">
+      <c r="D434" s="4" t="inlineStr">
         <is>
           <t>smoke</t>
         </is>
       </c>
-      <c r="E433" s="4" t="inlineStr">
+      <c r="E434" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F433" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G433" s="4" t="inlineStr"/>
-      <c r="H433" s="4" t="inlineStr"/>
-      <c r="I433" s="4" t="n">
+      <c r="F434" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G434" s="4" t="inlineStr"/>
+      <c r="H434" s="4" t="inlineStr"/>
+      <c r="I434" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J433" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K433" s="4" t="inlineStr"/>
-      <c r="L433" s="4" t="inlineStr">
+      <c r="J434" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K434" s="4" t="inlineStr"/>
+      <c r="L434" s="4" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M433" s="4" t="inlineStr">
+      <c r="M434" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N433" s="4" t="inlineStr"/>
-      <c r="O433" s="4" t="inlineStr"/>
-      <c r="P433" s="4" t="inlineStr"/>
-      <c r="Q433" s="4" t="inlineStr"/>
-      <c r="R433" s="4" t="inlineStr"/>
-      <c r="S433" s="4" t="inlineStr"/>
-      <c r="T433" s="4" t="inlineStr"/>
-      <c r="U433" s="4" t="inlineStr">
+      <c r="N434" s="4" t="inlineStr"/>
+      <c r="O434" s="4" t="inlineStr"/>
+      <c r="P434" s="4" t="inlineStr"/>
+      <c r="Q434" s="4" t="inlineStr"/>
+      <c r="R434" s="4" t="inlineStr"/>
+      <c r="S434" s="4" t="inlineStr"/>
+      <c r="T434" s="4" t="inlineStr"/>
+      <c r="U434" s="4" t="inlineStr">
         <is>
           <t>tobacco-specific nitrosamine</t>
         </is>
       </c>
-      <c r="V433" s="4" t="inlineStr"/>
-      <c r="W433" s="4" t="inlineStr"/>
-      <c r="X433" s="4" t="inlineStr"/>
-      <c r="Y433" s="4" t="inlineStr"/>
-      <c r="Z433" s="4" t="inlineStr"/>
-      <c r="AA433" s="4" t="inlineStr"/>
-      <c r="AB433" s="4" t="inlineStr"/>
-      <c r="AC433" s="4" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="5" t="inlineStr">
+      <c r="V434" s="4" t="inlineStr"/>
+      <c r="W434" s="4" t="inlineStr"/>
+      <c r="X434" s="4" t="inlineStr"/>
+      <c r="Y434" s="4" t="inlineStr"/>
+      <c r="Z434" s="4" t="inlineStr"/>
+      <c r="AA434" s="4" t="inlineStr"/>
+      <c r="AB434" s="4" t="inlineStr"/>
+      <c r="AC434" s="4" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001011</t>
         </is>
       </c>
-      <c r="B434" s="5" t="inlineStr">
+      <c r="B435" s="5" t="inlineStr">
         <is>
           <t>tobacco tablets</t>
         </is>
       </c>
-      <c r="C434" s="5" t="inlineStr">
+      <c r="C435" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco containing product that is designed for oral use,  in which ground tobacco, humectants, preservatives and flavours are compressed to form tablets. </t>
         </is>
       </c>
-      <c r="D434" s="5" t="inlineStr">
+      <c r="D435" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E434" s="5" t="inlineStr">
+      <c r="E435" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F434" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G434" s="5" t="inlineStr">
+      <c r="F435" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G435" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> It is commercially prepared and is consumed by sucking, holding or dissolving in the mouth.</t>
         </is>
       </c>
-      <c r="H434" s="5" t="inlineStr">
+      <c r="H435" s="5" t="inlineStr">
         <is>
           <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#dissovable</t>
         </is>
       </c>
-      <c r="I434" s="5" t="inlineStr">
+      <c r="I435" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J434" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K434" s="5" t="inlineStr"/>
-      <c r="L434" s="5" t="inlineStr">
+      <c r="J435" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K435" s="5" t="inlineStr"/>
+      <c r="L435" s="5" t="inlineStr">
         <is>
           <t>KS; UoY</t>
         </is>
       </c>
-      <c r="M434" s="5" t="inlineStr">
+      <c r="M435" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N434" s="5" t="inlineStr"/>
-      <c r="O434" s="5" t="inlineStr"/>
-      <c r="P434" s="5" t="inlineStr"/>
-      <c r="Q434" s="5" t="inlineStr"/>
-      <c r="R434" s="5" t="inlineStr"/>
-      <c r="S434" s="5" t="inlineStr"/>
-      <c r="T434" s="5" t="inlineStr"/>
-      <c r="U434" s="5" t="inlineStr"/>
-      <c r="V434" s="5" t="inlineStr"/>
-      <c r="W434" s="5" t="inlineStr"/>
-      <c r="X434" s="5" t="inlineStr"/>
-      <c r="Y434" s="5" t="inlineStr"/>
-      <c r="Z434" s="5" t="inlineStr"/>
-      <c r="AA434" s="5" t="inlineStr"/>
-      <c r="AB434" s="5" t="inlineStr">
+      <c r="N435" s="5" t="inlineStr"/>
+      <c r="O435" s="5" t="inlineStr"/>
+      <c r="P435" s="5" t="inlineStr"/>
+      <c r="Q435" s="5" t="inlineStr"/>
+      <c r="R435" s="5" t="inlineStr"/>
+      <c r="S435" s="5" t="inlineStr"/>
+      <c r="T435" s="5" t="inlineStr"/>
+      <c r="U435" s="5" t="inlineStr"/>
+      <c r="V435" s="5" t="inlineStr"/>
+      <c r="W435" s="5" t="inlineStr"/>
+      <c r="X435" s="5" t="inlineStr"/>
+      <c r="Y435" s="5" t="inlineStr"/>
+      <c r="Z435" s="5" t="inlineStr"/>
+      <c r="AA435" s="5" t="inlineStr"/>
+      <c r="AB435" s="5" t="inlineStr">
         <is>
           <t>cigalet; ariva</t>
         </is>
       </c>
-      <c r="AC434" s="5" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="4" t="inlineStr">
+      <c r="AC435" s="5" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000311</t>
         </is>
       </c>
-      <c r="B435" s="4" t="inlineStr">
+      <c r="B436" s="4" t="inlineStr">
         <is>
           <t>tobacco-containing product</t>
         </is>
       </c>
-      <c r="C435" s="4" t="inlineStr">
+      <c r="C436" s="4" t="inlineStr">
         <is>
           <t>A product that is made of tobacco or has tobacco as a part and is used by people to ingest some tobacco constituent.</t>
         </is>
       </c>
-      <c r="D435" s="4" t="inlineStr">
+      <c r="D436" s="4" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="E435" s="4" t="inlineStr">
+      <c r="E436" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F435" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G435" s="4" t="inlineStr">
+      <c r="F436" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G436" s="4" t="inlineStr">
         <is>
           <t>This class includes products that contain or consist of parts of the tobacco plant that have been subject to some form of processing. This class does not contain products that only contain nicotine. These are dealt with separately as 'nicotine-containing products'.</t>
         </is>
       </c>
-      <c r="H435" s="4" t="inlineStr"/>
-      <c r="I435" s="4" t="n">
+      <c r="H436" s="4" t="inlineStr"/>
+      <c r="I436" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J435" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K435" s="4" t="inlineStr"/>
-      <c r="L435" s="4" t="inlineStr">
+      <c r="J436" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K436" s="4" t="inlineStr"/>
+      <c r="L436" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW</t>
         </is>
       </c>
-      <c r="M435" s="4" t="inlineStr">
+      <c r="M436" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N435" s="4" t="inlineStr"/>
-      <c r="O435" s="4" t="inlineStr"/>
-      <c r="P435" s="4" t="inlineStr"/>
-      <c r="Q435" s="4" t="inlineStr"/>
-      <c r="R435" s="4" t="inlineStr"/>
-      <c r="S435" s="4" t="inlineStr"/>
-      <c r="T435" s="4" t="inlineStr"/>
-      <c r="U435" s="4" t="inlineStr">
+      <c r="N436" s="4" t="inlineStr"/>
+      <c r="O436" s="4" t="inlineStr"/>
+      <c r="P436" s="4" t="inlineStr"/>
+      <c r="Q436" s="4" t="inlineStr"/>
+      <c r="R436" s="4" t="inlineStr"/>
+      <c r="S436" s="4" t="inlineStr"/>
+      <c r="T436" s="4" t="inlineStr"/>
+      <c r="U436" s="4" t="inlineStr">
         <is>
           <t>tobacco</t>
         </is>
       </c>
-      <c r="V435" s="4" t="inlineStr"/>
-      <c r="W435" s="4" t="inlineStr"/>
-      <c r="X435" s="4" t="inlineStr"/>
-      <c r="Y435" s="4" t="inlineStr"/>
-      <c r="Z435" s="4" t="inlineStr"/>
-      <c r="AA435" s="4" t="inlineStr"/>
-      <c r="AB435" s="4" t="inlineStr">
+      <c r="V436" s="4" t="inlineStr"/>
+      <c r="W436" s="4" t="inlineStr"/>
+      <c r="X436" s="4" t="inlineStr"/>
+      <c r="Y436" s="4" t="inlineStr"/>
+      <c r="Z436" s="4" t="inlineStr"/>
+      <c r="AA436" s="4" t="inlineStr"/>
+      <c r="AB436" s="4" t="inlineStr">
         <is>
           <t>tobacco; tobacco product</t>
         </is>
       </c>
-      <c r="AC435" s="4" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="2" t="inlineStr">
+      <c r="AC436" s="4" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000538</t>
         </is>
       </c>
-      <c r="B436" s="2" t="inlineStr">
+      <c r="B437" s="2" t="inlineStr">
         <is>
           <t>tobacco-containing product part</t>
         </is>
       </c>
-      <c r="C436" s="2" t="inlineStr">
+      <c r="C437" s="2" t="inlineStr">
         <is>
           <t>A product part that is a component of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D436" s="2" t="inlineStr">
+      <c r="D437" s="2" t="inlineStr">
         <is>
           <t>product part</t>
         </is>
       </c>
-      <c r="E436" s="2" t="inlineStr">
+      <c r="E437" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F436" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G436" s="2" t="inlineStr"/>
-      <c r="H436" s="2" t="inlineStr"/>
-      <c r="I436" s="2" t="inlineStr">
+      <c r="F437" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G437" s="2" t="inlineStr"/>
+      <c r="H437" s="2" t="inlineStr"/>
+      <c r="I437" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J436" s="2" t="inlineStr">
+      <c r="J437" s="2" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="K436" s="2" t="inlineStr"/>
-      <c r="L436" s="2" t="inlineStr">
+      <c r="K437" s="2" t="inlineStr"/>
+      <c r="L437" s="2" t="inlineStr">
         <is>
           <t>SC; RW; JH; KS; CN</t>
         </is>
       </c>
-      <c r="M436" s="2" t="inlineStr">
+      <c r="M437" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="N436" s="2" t="inlineStr"/>
-      <c r="O436" s="2" t="inlineStr">
+      <c r="N437" s="2" t="inlineStr"/>
+      <c r="O437" s="2" t="inlineStr">
         <is>
           <t>Used 'component' instead of 'proper part'</t>
         </is>
       </c>
-      <c r="P436" s="2" t="inlineStr"/>
-      <c r="Q436" s="2" t="inlineStr"/>
-      <c r="R436" s="2" t="inlineStr"/>
-      <c r="S436" s="2" t="inlineStr"/>
-      <c r="T436" s="2" t="inlineStr"/>
-      <c r="U436" s="2" t="inlineStr"/>
-      <c r="V436" s="2" t="inlineStr"/>
-      <c r="W436" s="2" t="inlineStr"/>
-      <c r="X436" s="2" t="inlineStr"/>
-      <c r="Y436" s="2" t="inlineStr"/>
-      <c r="Z436" s="2" t="inlineStr"/>
-      <c r="AA436" s="2" t="inlineStr"/>
-      <c r="AB436" s="2" t="inlineStr"/>
-      <c r="AC436" s="2" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="4" t="inlineStr">
+      <c r="P437" s="2" t="inlineStr"/>
+      <c r="Q437" s="2" t="inlineStr"/>
+      <c r="R437" s="2" t="inlineStr"/>
+      <c r="S437" s="2" t="inlineStr"/>
+      <c r="T437" s="2" t="inlineStr"/>
+      <c r="U437" s="2" t="inlineStr"/>
+      <c r="V437" s="2" t="inlineStr"/>
+      <c r="W437" s="2" t="inlineStr"/>
+      <c r="X437" s="2" t="inlineStr"/>
+      <c r="Y437" s="2" t="inlineStr"/>
+      <c r="Z437" s="2" t="inlineStr"/>
+      <c r="AA437" s="2" t="inlineStr"/>
+      <c r="AB437" s="2" t="inlineStr"/>
+      <c r="AC437" s="2" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000312</t>
         </is>
       </c>
-      <c r="B437" s="4" t="inlineStr">
+      <c r="B438" s="4" t="inlineStr">
         <is>
           <t>tobacco-flavoured e-liquid</t>
         </is>
       </c>
-      <c r="C437" s="4" t="inlineStr">
+      <c r="C438" s="4" t="inlineStr">
         <is>
           <t>A flavoured e-liquid in which the e-liquid flavouring is designed to have a tobacco flavour.</t>
         </is>
       </c>
-      <c r="D437" s="4" t="inlineStr">
+      <c r="D438" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">flavoured e-liquid </t>
         </is>
       </c>
-      <c r="E437" s="4" t="inlineStr">
+      <c r="E438" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F437" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G437" s="4" t="inlineStr"/>
-      <c r="H437" s="4" t="inlineStr"/>
-      <c r="I437" s="4" t="n">
+      <c r="F438" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G438" s="4" t="inlineStr"/>
+      <c r="H438" s="4" t="inlineStr"/>
+      <c r="I438" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J437" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K437" s="4" t="inlineStr"/>
-      <c r="L437" s="4" t="inlineStr">
+      <c r="J438" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K438" s="4" t="inlineStr"/>
+      <c r="L438" s="4" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M437" s="4" t="inlineStr">
+      <c r="M438" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N437" s="4" t="inlineStr"/>
-      <c r="O437" s="4" t="inlineStr"/>
-      <c r="P437" s="4" t="inlineStr"/>
-      <c r="Q437" s="4" t="inlineStr"/>
-      <c r="R437" s="4" t="inlineStr"/>
-      <c r="S437" s="4" t="inlineStr"/>
-      <c r="T437" s="4" t="inlineStr"/>
-      <c r="U437" s="4" t="inlineStr"/>
-      <c r="V437" s="4" t="inlineStr"/>
-      <c r="W437" s="4" t="inlineStr"/>
-      <c r="X437" s="4" t="inlineStr"/>
-      <c r="Y437" s="4" t="inlineStr"/>
-      <c r="Z437" s="4" t="inlineStr"/>
-      <c r="AA437" s="4" t="inlineStr"/>
-      <c r="AB437" s="4" t="inlineStr"/>
-      <c r="AC437" s="4" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="5" t="inlineStr">
+      <c r="N438" s="4" t="inlineStr"/>
+      <c r="O438" s="4" t="inlineStr"/>
+      <c r="P438" s="4" t="inlineStr"/>
+      <c r="Q438" s="4" t="inlineStr"/>
+      <c r="R438" s="4" t="inlineStr"/>
+      <c r="S438" s="4" t="inlineStr"/>
+      <c r="T438" s="4" t="inlineStr"/>
+      <c r="U438" s="4" t="inlineStr"/>
+      <c r="V438" s="4" t="inlineStr"/>
+      <c r="W438" s="4" t="inlineStr"/>
+      <c r="X438" s="4" t="inlineStr"/>
+      <c r="Y438" s="4" t="inlineStr"/>
+      <c r="Z438" s="4" t="inlineStr"/>
+      <c r="AA438" s="4" t="inlineStr"/>
+      <c r="AB438" s="4" t="inlineStr"/>
+      <c r="AC438" s="4" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000313</t>
         </is>
       </c>
-      <c r="B438" s="5" t="inlineStr">
+      <c r="B439" s="5" t="inlineStr">
         <is>
           <t>tobacco-specific nitrosamine</t>
         </is>
       </c>
-      <c r="C438" s="5" t="inlineStr">
+      <c r="C439" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">A nitrosamine which derives from tobacco products and tobacco smoke. </t>
         </is>
       </c>
-      <c r="D438" s="5" t="inlineStr">
+      <c r="D439" s="5" t="inlineStr">
         <is>
           <t>nitrosamine</t>
         </is>
       </c>
-      <c r="E438" s="5" t="inlineStr">
+      <c r="E439" s="5" t="inlineStr">
         <is>
           <t>Independent continuant</t>
         </is>
       </c>
-      <c r="F438" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G438" s="5" t="inlineStr"/>
-      <c r="H438" s="5" t="inlineStr"/>
-      <c r="I438" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J438" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K438" s="5" t="inlineStr"/>
-      <c r="L438" s="5" t="inlineStr">
-        <is>
-          <t>SC;JH</t>
-        </is>
-      </c>
-      <c r="M438" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N438" s="5" t="inlineStr"/>
-      <c r="O438" s="5" t="inlineStr"/>
-      <c r="P438" s="5" t="inlineStr"/>
-      <c r="Q438" s="5" t="inlineStr"/>
-      <c r="R438" s="5" t="inlineStr"/>
-      <c r="S438" s="5" t="inlineStr">
-        <is>
-          <t>carcinogenic agent</t>
-        </is>
-      </c>
-      <c r="T438" s="5" t="inlineStr"/>
-      <c r="U438" s="5" t="inlineStr"/>
-      <c r="V438" s="5" t="inlineStr"/>
-      <c r="W438" s="5" t="inlineStr"/>
-      <c r="X438" s="5" t="inlineStr"/>
-      <c r="Y438" s="5" t="inlineStr"/>
-      <c r="Z438" s="5" t="inlineStr"/>
-      <c r="AA438" s="5" t="inlineStr"/>
-      <c r="AB438" s="5" t="inlineStr">
-        <is>
-          <t>TSNA</t>
-        </is>
-      </c>
-      <c r="AC438" s="5" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="5" t="inlineStr"/>
-      <c r="B439" s="5" t="inlineStr">
-        <is>
-          <t>tombol with khat</t>
-        </is>
-      </c>
-      <c r="C439" s="5" t="inlineStr"/>
-      <c r="D439" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E439" s="5" t="inlineStr"/>
       <c r="F439" s="5" t="inlineStr">
         <is>
           <t>Product</t>
@@ -32291,10 +32289,8 @@
       </c>
       <c r="G439" s="5" t="inlineStr"/>
       <c r="H439" s="5" t="inlineStr"/>
-      <c r="I439" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="I439" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="J439" s="5" t="inlineStr">
         <is>
@@ -32304,7 +32300,7 @@
       <c r="K439" s="5" t="inlineStr"/>
       <c r="L439" s="5" t="inlineStr">
         <is>
-          <t>KS: UoY</t>
+          <t>SC;JH</t>
         </is>
       </c>
       <c r="M439" s="5" t="inlineStr">
@@ -32317,7 +32313,11 @@
       <c r="P439" s="5" t="inlineStr"/>
       <c r="Q439" s="5" t="inlineStr"/>
       <c r="R439" s="5" t="inlineStr"/>
-      <c r="S439" s="5" t="inlineStr"/>
+      <c r="S439" s="5" t="inlineStr">
+        <is>
+          <t>carcinogenic agent</t>
+        </is>
+      </c>
       <c r="T439" s="5" t="inlineStr"/>
       <c r="U439" s="5" t="inlineStr"/>
       <c r="V439" s="5" t="inlineStr"/>
@@ -32326,25 +32326,21 @@
       <c r="Y439" s="5" t="inlineStr"/>
       <c r="Z439" s="5" t="inlineStr"/>
       <c r="AA439" s="5" t="inlineStr"/>
-      <c r="AB439" s="5" t="inlineStr"/>
+      <c r="AB439" s="5" t="inlineStr">
+        <is>
+          <t>TSNA</t>
+        </is>
+      </c>
       <c r="AC439" s="5" t="inlineStr"/>
     </row>
     <row r="440">
-      <c r="A440" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001012</t>
-        </is>
-      </c>
+      <c r="A440" s="5" t="inlineStr"/>
       <c r="B440" s="5" t="inlineStr">
         <is>
-          <t>toombak</t>
-        </is>
-      </c>
-      <c r="C440" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product, in which sun-dried, fermented, then ground and aged tobacco leaves are mixed with a solution of baking soda and water to create a moist form that can be rolled into a ball (called a saffa). </t>
-        </is>
-      </c>
+          <t>tombol with khat</t>
+        </is>
+      </c>
+      <c r="C440" s="5" t="inlineStr"/>
       <c r="D440" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
@@ -32356,16 +32352,8 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G440" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Toombak may be premade in cottage industry or custom-made by vendor/individual, and used by holding a small portion (saffa) is the mouth and sucking slowly for 10 to 15 minutes.</t>
-        </is>
-      </c>
-      <c r="H440" s="5" t="inlineStr">
-        <is>
-          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
-        </is>
-      </c>
+      <c r="G440" s="5" t="inlineStr"/>
+      <c r="H440" s="5" t="inlineStr"/>
       <c r="I440" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -32373,13 +32361,13 @@
       </c>
       <c r="J440" s="5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K440" s="5" t="inlineStr"/>
       <c r="L440" s="5" t="inlineStr">
         <is>
-          <t>KS; UoY</t>
+          <t>KS: UoY</t>
         </is>
       </c>
       <c r="M440" s="5" t="inlineStr">
@@ -32400,37 +32388,29 @@
       <c r="X440" s="5" t="inlineStr"/>
       <c r="Y440" s="5" t="inlineStr"/>
       <c r="Z440" s="5" t="inlineStr"/>
-      <c r="AA440" s="5" t="inlineStr">
-        <is>
-          <t>query over whether the same product is used nasally - nasal use is not described</t>
-        </is>
-      </c>
-      <c r="AB440" s="5" t="inlineStr">
-        <is>
-          <t>sauté; sute; ammari; saood; saffa</t>
-        </is>
-      </c>
+      <c r="AA440" s="5" t="inlineStr"/>
+      <c r="AB440" s="5" t="inlineStr"/>
       <c r="AC440" s="5" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000823</t>
+          <t>ADDICTO:0001012</t>
         </is>
       </c>
       <c r="B441" s="5" t="inlineStr">
         <is>
-          <t>toxic effect</t>
+          <t>toombak</t>
         </is>
       </c>
       <c r="C441" s="5" t="inlineStr">
         <is>
-          <t>The effect produced by a substance which contains toxins.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product, in which sun-dried, fermented, then ground and aged tobacco leaves are mixed with a solution of baking soda and water to create a moist form that can be rolled into a ball (called a saffa). </t>
         </is>
       </c>
       <c r="D441" s="5" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>smokeless tobacco-containing product</t>
         </is>
       </c>
       <c r="E441" s="5" t="inlineStr"/>
@@ -32439,20 +32419,30 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G441" s="5" t="inlineStr"/>
-      <c r="H441" s="5" t="inlineStr"/>
-      <c r="I441" s="5" t="n">
-        <v>1</v>
+      <c r="G441" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toombak may be premade in cottage industry or custom-made by vendor/individual, and used by holding a small portion (saffa) is the mouth and sucking slowly for 10 to 15 minutes.</t>
+        </is>
+      </c>
+      <c r="H441" s="5" t="inlineStr">
+        <is>
+          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
+        </is>
+      </c>
+      <c r="I441" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="J441" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>false</t>
         </is>
       </c>
       <c r="K441" s="5" t="inlineStr"/>
       <c r="L441" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M441" s="5" t="inlineStr">
@@ -32473,33 +32463,37 @@
       <c r="X441" s="5" t="inlineStr"/>
       <c r="Y441" s="5" t="inlineStr"/>
       <c r="Z441" s="5" t="inlineStr"/>
-      <c r="AA441" s="5" t="inlineStr"/>
-      <c r="AB441" s="5" t="inlineStr"/>
-      <c r="AC441" s="5" t="inlineStr">
-        <is>
-          <t>UMLS CUI:C0600688</t>
-        </is>
-      </c>
+      <c r="AA441" s="5" t="inlineStr">
+        <is>
+          <t>query over whether the same product is used nasally - nasal use is not described</t>
+        </is>
+      </c>
+      <c r="AB441" s="5" t="inlineStr">
+        <is>
+          <t>sauté; sute; ammari; saood; saffa</t>
+        </is>
+      </c>
+      <c r="AC441" s="5" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0000908</t>
+          <t>ADDICTO:0000823</t>
         </is>
       </c>
       <c r="B442" s="5" t="inlineStr">
         <is>
-          <t>toxic exposure from a product</t>
+          <t>toxic effect</t>
         </is>
       </c>
       <c r="C442" s="5" t="inlineStr">
         <is>
-          <t>The state of being exposed to the toxic effects of a product.</t>
+          <t>The effect produced by a substance which contains toxins.</t>
         </is>
       </c>
       <c r="D442" s="5" t="inlineStr">
         <is>
-          <t>exposure</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="E442" s="5" t="inlineStr"/>
@@ -32544,103 +32538,101 @@
       <c r="Z442" s="5" t="inlineStr"/>
       <c r="AA442" s="5" t="inlineStr"/>
       <c r="AB442" s="5" t="inlineStr"/>
-      <c r="AC442" s="5" t="inlineStr"/>
+      <c r="AC442" s="5" t="inlineStr">
+        <is>
+          <t>UMLS CUI:C0600688</t>
+        </is>
+      </c>
     </row>
     <row r="443">
-      <c r="A443" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000824</t>
-        </is>
-      </c>
-      <c r="B443" s="3" t="inlineStr">
-        <is>
-          <t>toxicant</t>
-        </is>
-      </c>
-      <c r="C443" s="3" t="inlineStr">
-        <is>
-          <t>A substance that has a disposition to cause harm to an organism that is in contact with it.</t>
-        </is>
-      </c>
-      <c r="D443" s="3" t="inlineStr">
-        <is>
-          <t>substance</t>
-        </is>
-      </c>
-      <c r="E443" s="3" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F443" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G443" s="3" t="inlineStr"/>
-      <c r="H443" s="3" t="inlineStr"/>
-      <c r="I443" s="3" t="n">
+      <c r="A443" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000908</t>
+        </is>
+      </c>
+      <c r="B443" s="5" t="inlineStr">
+        <is>
+          <t>toxic exposure from a product</t>
+        </is>
+      </c>
+      <c r="C443" s="5" t="inlineStr">
+        <is>
+          <t>The state of being exposed to the toxic effects of a product.</t>
+        </is>
+      </c>
+      <c r="D443" s="5" t="inlineStr">
+        <is>
+          <t>exposure</t>
+        </is>
+      </c>
+      <c r="E443" s="5" t="inlineStr"/>
+      <c r="F443" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G443" s="5" t="inlineStr"/>
+      <c r="H443" s="5" t="inlineStr"/>
+      <c r="I443" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J443" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K443" s="3" t="inlineStr">
-        <is>
-          <t>Because the extent and nature of the harm and the degree of exposure required is not specified.</t>
-        </is>
-      </c>
-      <c r="L443" s="3" t="inlineStr">
-        <is>
-          <t>KS; RW</t>
-        </is>
-      </c>
-      <c r="M443" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N443" s="3" t="inlineStr"/>
-      <c r="O443" s="3" t="inlineStr"/>
-      <c r="P443" s="3" t="inlineStr"/>
-      <c r="Q443" s="3" t="inlineStr"/>
-      <c r="R443" s="3" t="inlineStr"/>
-      <c r="S443" s="3" t="inlineStr"/>
-      <c r="T443" s="3" t="inlineStr"/>
-      <c r="U443" s="3" t="inlineStr"/>
-      <c r="V443" s="3" t="inlineStr"/>
-      <c r="W443" s="3" t="inlineStr"/>
-      <c r="X443" s="3" t="inlineStr"/>
-      <c r="Y443" s="3" t="inlineStr"/>
-      <c r="Z443" s="3" t="inlineStr"/>
-      <c r="AA443" s="3" t="inlineStr"/>
-      <c r="AB443" s="3" t="inlineStr"/>
-      <c r="AC443" s="3" t="inlineStr"/>
+      <c r="J443" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K443" s="5" t="inlineStr"/>
+      <c r="L443" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M443" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N443" s="5" t="inlineStr"/>
+      <c r="O443" s="5" t="inlineStr"/>
+      <c r="P443" s="5" t="inlineStr"/>
+      <c r="Q443" s="5" t="inlineStr"/>
+      <c r="R443" s="5" t="inlineStr"/>
+      <c r="S443" s="5" t="inlineStr"/>
+      <c r="T443" s="5" t="inlineStr"/>
+      <c r="U443" s="5" t="inlineStr"/>
+      <c r="V443" s="5" t="inlineStr"/>
+      <c r="W443" s="5" t="inlineStr"/>
+      <c r="X443" s="5" t="inlineStr"/>
+      <c r="Y443" s="5" t="inlineStr"/>
+      <c r="Z443" s="5" t="inlineStr"/>
+      <c r="AA443" s="5" t="inlineStr"/>
+      <c r="AB443" s="5" t="inlineStr"/>
+      <c r="AC443" s="5" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000867</t>
+          <t>ADDICTO:0000824</t>
         </is>
       </c>
       <c r="B444" s="3" t="inlineStr">
         <is>
-          <t>toxicity of a substance</t>
+          <t>toxicant</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr">
         <is>
-          <t>A disposition of a substance to cause harm to an organism that is exposed to it.</t>
+          <t>A substance that has a disposition to cause harm to an organism that is in contact with it.</t>
         </is>
       </c>
       <c r="D444" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>substance</t>
         </is>
       </c>
       <c r="E444" s="3" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="F444" s="3" t="inlineStr">
@@ -32648,11 +32640,7 @@
           <t>Product</t>
         </is>
       </c>
-      <c r="G444" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The substance can be a chemical such as nicotine or ethanol, or a product such as tobacco. </t>
-        </is>
-      </c>
+      <c r="G444" s="3" t="inlineStr"/>
       <c r="H444" s="3" t="inlineStr"/>
       <c r="I444" s="3" t="n">
         <v>1</v>
@@ -32662,7 +32650,7 @@
       </c>
       <c r="K444" s="3" t="inlineStr">
         <is>
-          <t>Because it depends on the amount and formulation of the substance, the nature of the exposure and duration of exposure, the organism and what is considered to be harmful.</t>
+          <t>Because the extent and nature of the harm and the degree of exposure required is not specified.</t>
         </is>
       </c>
       <c r="L444" s="3" t="inlineStr">
@@ -32677,11 +32665,7 @@
       </c>
       <c r="N444" s="3" t="inlineStr"/>
       <c r="O444" s="3" t="inlineStr"/>
-      <c r="P444" s="3" t="inlineStr">
-        <is>
-          <t>A tendency of a substance to be harmful to organisms exposed to it.</t>
-        </is>
-      </c>
+      <c r="P444" s="3" t="inlineStr"/>
       <c r="Q444" s="3" t="inlineStr"/>
       <c r="R444" s="3" t="inlineStr"/>
       <c r="S444" s="3" t="inlineStr"/>
@@ -32697,323 +32681,319 @@
       <c r="AC444" s="3" t="inlineStr"/>
     </row>
     <row r="445">
-      <c r="A445" s="5" t="inlineStr">
+      <c r="A445" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000867</t>
+        </is>
+      </c>
+      <c r="B445" s="3" t="inlineStr">
+        <is>
+          <t>toxicity of a substance</t>
+        </is>
+      </c>
+      <c r="C445" s="3" t="inlineStr">
+        <is>
+          <t>A disposition of a substance to cause harm to an organism that is exposed to it.</t>
+        </is>
+      </c>
+      <c r="D445" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E445" s="3" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="F445" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G445" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The substance can be a chemical such as nicotine or ethanol, or a product such as tobacco. </t>
+        </is>
+      </c>
+      <c r="H445" s="3" t="inlineStr"/>
+      <c r="I445" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J445" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K445" s="3" t="inlineStr">
+        <is>
+          <t>Because it depends on the amount and formulation of the substance, the nature of the exposure and duration of exposure, the organism and what is considered to be harmful.</t>
+        </is>
+      </c>
+      <c r="L445" s="3" t="inlineStr">
+        <is>
+          <t>KS; RW</t>
+        </is>
+      </c>
+      <c r="M445" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="N445" s="3" t="inlineStr"/>
+      <c r="O445" s="3" t="inlineStr"/>
+      <c r="P445" s="3" t="inlineStr">
+        <is>
+          <t>A tendency of a substance to be harmful to organisms exposed to it.</t>
+        </is>
+      </c>
+      <c r="Q445" s="3" t="inlineStr"/>
+      <c r="R445" s="3" t="inlineStr"/>
+      <c r="S445" s="3" t="inlineStr"/>
+      <c r="T445" s="3" t="inlineStr"/>
+      <c r="U445" s="3" t="inlineStr"/>
+      <c r="V445" s="3" t="inlineStr"/>
+      <c r="W445" s="3" t="inlineStr"/>
+      <c r="X445" s="3" t="inlineStr"/>
+      <c r="Y445" s="3" t="inlineStr"/>
+      <c r="Z445" s="3" t="inlineStr"/>
+      <c r="AA445" s="3" t="inlineStr"/>
+      <c r="AB445" s="3" t="inlineStr"/>
+      <c r="AC445" s="3" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000793</t>
         </is>
       </c>
-      <c r="B445" s="5" t="inlineStr">
+      <c r="B446" s="5" t="inlineStr">
         <is>
           <t>toxin</t>
         </is>
       </c>
-      <c r="C445" s="5" t="inlineStr">
+      <c r="C446" s="5" t="inlineStr">
         <is>
           <t>A substance that is produced by a living organsism and is toxic, noxious or poisonous</t>
         </is>
       </c>
-      <c r="D445" s="5" t="inlineStr">
+      <c r="D446" s="5" t="inlineStr">
         <is>
           <t>substance</t>
         </is>
       </c>
-      <c r="E445" s="5" t="inlineStr"/>
-      <c r="F445" s="5" t="inlineStr"/>
-      <c r="G445" s="5" t="inlineStr"/>
-      <c r="H445" s="5" t="inlineStr"/>
-      <c r="I445" s="5" t="n">
+      <c r="E446" s="5" t="inlineStr"/>
+      <c r="F446" s="5" t="inlineStr"/>
+      <c r="G446" s="5" t="inlineStr"/>
+      <c r="H446" s="5" t="inlineStr"/>
+      <c r="I446" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J445" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K445" s="5" t="inlineStr"/>
-      <c r="L445" s="5" t="inlineStr">
+      <c r="J446" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K446" s="5" t="inlineStr"/>
+      <c r="L446" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M445" s="5" t="inlineStr">
+      <c r="M446" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N445" s="5" t="inlineStr"/>
-      <c r="O445" s="5" t="inlineStr"/>
-      <c r="P445" s="5" t="inlineStr"/>
-      <c r="Q445" s="5" t="inlineStr"/>
-      <c r="R445" s="5" t="inlineStr">
+      <c r="N446" s="5" t="inlineStr"/>
+      <c r="O446" s="5" t="inlineStr"/>
+      <c r="P446" s="5" t="inlineStr"/>
+      <c r="Q446" s="5" t="inlineStr"/>
+      <c r="R446" s="5" t="inlineStr">
         <is>
           <t>UMLS Metathesaurus Browser (nih.gov)</t>
         </is>
       </c>
-      <c r="S445" s="5" t="inlineStr"/>
-      <c r="T445" s="5" t="inlineStr"/>
-      <c r="U445" s="5" t="inlineStr"/>
-      <c r="V445" s="5" t="inlineStr"/>
-      <c r="W445" s="5" t="inlineStr"/>
-      <c r="X445" s="5" t="inlineStr"/>
-      <c r="Y445" s="5" t="inlineStr"/>
-      <c r="Z445" s="5" t="inlineStr"/>
-      <c r="AA445" s="5" t="inlineStr"/>
-      <c r="AB445" s="5" t="inlineStr"/>
-      <c r="AC445" s="5" t="inlineStr">
+      <c r="S446" s="5" t="inlineStr"/>
+      <c r="T446" s="5" t="inlineStr"/>
+      <c r="U446" s="5" t="inlineStr"/>
+      <c r="V446" s="5" t="inlineStr"/>
+      <c r="W446" s="5" t="inlineStr"/>
+      <c r="X446" s="5" t="inlineStr"/>
+      <c r="Y446" s="5" t="inlineStr"/>
+      <c r="Z446" s="5" t="inlineStr"/>
+      <c r="AA446" s="5" t="inlineStr"/>
+      <c r="AB446" s="5" t="inlineStr"/>
+      <c r="AC446" s="5" t="inlineStr">
         <is>
           <t>UMLS CUI:C4522020</t>
         </is>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
+    <row r="447">
+      <c r="A447" t="inlineStr">
         <is>
           <t>CHEBI:35473</t>
         </is>
       </c>
-      <c r="B446" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t xml:space="preserve">tranquilizing drug </t>
         </is>
       </c>
-      <c r="C446" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>A traditional grouping of drugs said to have a soothing or calming effect on mood, thought or behaviour.</t>
         </is>
       </c>
-      <c r="D446" t="inlineStr">
+      <c r="D447" t="inlineStr">
         <is>
           <t>central nervous system depressant</t>
         </is>
       </c>
-      <c r="E446" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G446" t="inlineStr"/>
-      <c r="H446" t="inlineStr"/>
-      <c r="I446" t="n">
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="n">
         <v>1</v>
       </c>
-      <c r="J446" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M446" t="inlineStr">
+      <c r="M447" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N446" t="inlineStr"/>
-      <c r="O446" t="inlineStr"/>
-      <c r="P446" t="inlineStr"/>
-      <c r="Q446" t="inlineStr"/>
-      <c r="R446" t="inlineStr"/>
-      <c r="S446" t="inlineStr">
+      <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr"/>
+      <c r="R447" t="inlineStr"/>
+      <c r="S447" t="inlineStr">
         <is>
           <t xml:space="preserve">psychoactive drug </t>
         </is>
       </c>
-      <c r="T446" t="inlineStr"/>
-      <c r="U446" t="inlineStr"/>
-      <c r="V446" t="inlineStr"/>
-      <c r="W446" t="inlineStr"/>
-      <c r="X446" t="inlineStr"/>
-      <c r="Y446" t="inlineStr"/>
-      <c r="Z446" t="inlineStr"/>
-      <c r="AA446" t="inlineStr"/>
-      <c r="AB446" t="inlineStr">
+      <c r="T447" t="inlineStr"/>
+      <c r="U447" t="inlineStr"/>
+      <c r="V447" t="inlineStr"/>
+      <c r="W447" t="inlineStr"/>
+      <c r="X447" t="inlineStr"/>
+      <c r="Y447" t="inlineStr"/>
+      <c r="Z447" t="inlineStr"/>
+      <c r="AA447" t="inlineStr"/>
+      <c r="AB447" t="inlineStr">
         <is>
           <t>sedative drug</t>
         </is>
       </c>
-      <c r="AC446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="4" t="inlineStr">
+      <c r="AC447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001206</t>
         </is>
       </c>
-      <c r="B447" s="4" t="inlineStr">
+      <c r="B448" s="4" t="inlineStr">
         <is>
           <t>transdermal nicotine-containing product</t>
         </is>
       </c>
-      <c r="C447" s="4" t="inlineStr">
+      <c r="C448" s="4" t="inlineStr">
         <is>
           <t>A nicotine-containing product that is manufactured to be attached to the skin so that nicotine can be absorbed through the skin.</t>
         </is>
       </c>
-      <c r="D447" s="4" t="inlineStr">
+      <c r="D448" s="4" t="inlineStr">
         <is>
           <t>nicotine-containing product</t>
         </is>
       </c>
-      <c r="E447" s="4" t="inlineStr">
+      <c r="E448" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F447" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G447" s="4" t="inlineStr"/>
-      <c r="H447" s="4" t="inlineStr"/>
-      <c r="I447" s="4" t="inlineStr">
+      <c r="F448" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G448" s="4" t="inlineStr"/>
+      <c r="H448" s="4" t="inlineStr"/>
+      <c r="I448" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J447" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K447" s="4" t="inlineStr"/>
-      <c r="L447" s="4" t="inlineStr">
+      <c r="J448" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K448" s="4" t="inlineStr"/>
+      <c r="L448" s="4" t="inlineStr">
         <is>
           <t>RW; SC; JH</t>
         </is>
       </c>
-      <c r="M447" s="4" t="inlineStr">
+      <c r="M448" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N447" s="4" t="inlineStr"/>
-      <c r="O447" s="4" t="inlineStr"/>
-      <c r="P447" s="4" t="inlineStr"/>
-      <c r="Q447" s="4" t="inlineStr"/>
-      <c r="R447" s="4" t="inlineStr"/>
-      <c r="S447" s="4" t="inlineStr"/>
-      <c r="T447" s="4" t="inlineStr"/>
-      <c r="U447" s="4" t="inlineStr"/>
-      <c r="V447" s="4" t="inlineStr"/>
-      <c r="W447" s="4" t="inlineStr"/>
-      <c r="X447" s="4" t="inlineStr"/>
-      <c r="Y447" s="4" t="inlineStr"/>
-      <c r="Z447" s="4" t="inlineStr">
+      <c r="N448" s="4" t="inlineStr"/>
+      <c r="O448" s="4" t="inlineStr"/>
+      <c r="P448" s="4" t="inlineStr"/>
+      <c r="Q448" s="4" t="inlineStr"/>
+      <c r="R448" s="4" t="inlineStr"/>
+      <c r="S448" s="4" t="inlineStr"/>
+      <c r="T448" s="4" t="inlineStr"/>
+      <c r="U448" s="4" t="inlineStr"/>
+      <c r="V448" s="4" t="inlineStr"/>
+      <c r="W448" s="4" t="inlineStr"/>
+      <c r="X448" s="4" t="inlineStr"/>
+      <c r="Y448" s="4" t="inlineStr"/>
+      <c r="Z448" s="4" t="inlineStr">
         <is>
           <t>nicotine</t>
         </is>
       </c>
-      <c r="AA447" s="4" t="inlineStr"/>
-      <c r="AB447" s="4" t="inlineStr"/>
-      <c r="AC447" s="4" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="5" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001013</t>
-        </is>
-      </c>
-      <c r="B448" s="5" t="inlineStr">
-        <is>
-          <t>tuibur</t>
-        </is>
-      </c>
-      <c r="C448" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which tobacco smoke is passed through water and the resulting tobacco water is sold in glass bottles. </t>
-        </is>
-      </c>
-      <c r="D448" s="5" t="inlineStr">
-        <is>
-          <t>smokeless tobacco-containing product</t>
-        </is>
-      </c>
-      <c r="E448" s="5" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F448" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G448" s="5" t="inlineStr">
-        <is>
-          <t>Tuibur is premade in cottage industry, and the product is either sipped from a bottle or through cotton soaked with tobacco water. It is retained in the mouth or gargled for 5 to 10 minutes before it is spit out.</t>
-        </is>
-      </c>
-      <c r="H448" s="5" t="inlineStr">
-        <is>
-          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
-        </is>
-      </c>
-      <c r="I448" s="5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="J448" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K448" s="5" t="inlineStr"/>
-      <c r="L448" s="5" t="inlineStr">
-        <is>
-          <t>KS: UoY</t>
-        </is>
-      </c>
-      <c r="M448" s="5" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="N448" s="5" t="inlineStr"/>
-      <c r="O448" s="5" t="inlineStr"/>
-      <c r="P448" s="5" t="inlineStr"/>
-      <c r="Q448" s="5" t="inlineStr"/>
-      <c r="R448" s="5" t="inlineStr"/>
-      <c r="S448" s="5" t="inlineStr"/>
-      <c r="T448" s="5" t="inlineStr"/>
-      <c r="U448" s="5" t="inlineStr"/>
-      <c r="V448" s="5" t="inlineStr"/>
-      <c r="W448" s="5" t="inlineStr"/>
-      <c r="X448" s="5" t="inlineStr"/>
-      <c r="Y448" s="5" t="inlineStr"/>
-      <c r="Z448" s="5" t="inlineStr"/>
-      <c r="AA448" s="5" t="inlineStr"/>
-      <c r="AB448" s="5" t="inlineStr">
-        <is>
-          <t>tuiber; tobacco water; hidakphu</t>
-        </is>
-      </c>
-      <c r="AC448" s="5" t="inlineStr"/>
+      <c r="AA448" s="4" t="inlineStr"/>
+      <c r="AB448" s="4" t="inlineStr"/>
+      <c r="AC448" s="4" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="5" t="inlineStr">
         <is>
-          <t>ADDICTO:0001014</t>
+          <t>ADDICTO:0001013</t>
         </is>
       </c>
       <c r="B449" s="5" t="inlineStr">
         <is>
-          <t>twist</t>
+          <t>tuibur</t>
         </is>
       </c>
       <c r="C449" s="5" t="inlineStr">
         <is>
-          <t>A smokeless tobacco-containing product that is designed for oral use, in which air- or fire-cured burley tobacco leaf is treated with a tar-like tobacco leaf extract and sometimes sweeteners and other flavourings, then twisted into rope-like strands that are dried and braided.</t>
+          <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which tobacco smoke is passed through water and the resulting tobacco water is sold in glass bottles. </t>
         </is>
       </c>
       <c r="D449" s="5" t="inlineStr">
@@ -33033,7 +33013,7 @@
       </c>
       <c r="G449" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Twist is handmade by commercial manufacturers, and users typically cut off a piece, place it in the mouth, and chew. </t>
+          <t>Tuibur is premade in cottage industry, and the product is either sipped from a bottle or through cotton soaked with tobacco water. It is retained in the mouth or gargled for 5 to 10 minutes before it is spit out.</t>
         </is>
       </c>
       <c r="H449" s="5" t="inlineStr">
@@ -33054,7 +33034,7 @@
       <c r="K449" s="5" t="inlineStr"/>
       <c r="L449" s="5" t="inlineStr">
         <is>
-          <t>KS; UoY</t>
+          <t>KS: UoY</t>
         </is>
       </c>
       <c r="M449" s="5" t="inlineStr">
@@ -33078,32 +33058,52 @@
       <c r="AA449" s="5" t="inlineStr"/>
       <c r="AB449" s="5" t="inlineStr">
         <is>
-          <t>twist chewing tobacco; chew; chaw; roll</t>
+          <t>tuiber; tobacco water; hidakphu</t>
         </is>
       </c>
       <c r="AC449" s="5" t="inlineStr"/>
     </row>
     <row r="450">
-      <c r="A450" s="5" t="inlineStr"/>
+      <c r="A450" s="5" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001014</t>
+        </is>
+      </c>
       <c r="B450" s="5" t="inlineStr">
         <is>
-          <t>ugoro</t>
-        </is>
-      </c>
-      <c r="C450" s="5" t="inlineStr"/>
+          <t>twist</t>
+        </is>
+      </c>
+      <c r="C450" s="5" t="inlineStr">
+        <is>
+          <t>A smokeless tobacco-containing product that is designed for oral use, in which air- or fire-cured burley tobacco leaf is treated with a tar-like tobacco leaf extract and sometimes sweeteners and other flavourings, then twisted into rope-like strands that are dried and braided.</t>
+        </is>
+      </c>
       <c r="D450" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E450" s="5" t="inlineStr"/>
+      <c r="E450" s="5" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="F450" s="5" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="G450" s="5" t="inlineStr"/>
-      <c r="H450" s="5" t="inlineStr"/>
+      <c r="G450" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Twist is handmade by commercial manufacturers, and users typically cut off a piece, place it in the mouth, and chew. </t>
+        </is>
+      </c>
+      <c r="H450" s="5" t="inlineStr">
+        <is>
+          <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
+        </is>
+      </c>
       <c r="I450" s="5" t="inlineStr">
         <is>
           <t>true</t>
@@ -33117,7 +33117,7 @@
       <c r="K450" s="5" t="inlineStr"/>
       <c r="L450" s="5" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>KS; UoY</t>
         </is>
       </c>
       <c r="M450" s="5" t="inlineStr">
@@ -33139,549 +33139,539 @@
       <c r="Y450" s="5" t="inlineStr"/>
       <c r="Z450" s="5" t="inlineStr"/>
       <c r="AA450" s="5" t="inlineStr"/>
-      <c r="AB450" s="5" t="inlineStr"/>
+      <c r="AB450" s="5" t="inlineStr">
+        <is>
+          <t>twist chewing tobacco; chew; chaw; roll</t>
+        </is>
+      </c>
       <c r="AC450" s="5" t="inlineStr"/>
     </row>
     <row r="451">
-      <c r="A451" s="4" t="inlineStr">
+      <c r="A451" s="5" t="inlineStr"/>
+      <c r="B451" s="5" t="inlineStr">
+        <is>
+          <t>ugoro</t>
+        </is>
+      </c>
+      <c r="C451" s="5" t="inlineStr"/>
+      <c r="D451" s="5" t="inlineStr">
+        <is>
+          <t>smokeless tobacco-containing product</t>
+        </is>
+      </c>
+      <c r="E451" s="5" t="inlineStr"/>
+      <c r="F451" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G451" s="5" t="inlineStr"/>
+      <c r="H451" s="5" t="inlineStr"/>
+      <c r="I451" s="5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J451" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K451" s="5" t="inlineStr"/>
+      <c r="L451" s="5" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="M451" s="5" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="N451" s="5" t="inlineStr"/>
+      <c r="O451" s="5" t="inlineStr"/>
+      <c r="P451" s="5" t="inlineStr"/>
+      <c r="Q451" s="5" t="inlineStr"/>
+      <c r="R451" s="5" t="inlineStr"/>
+      <c r="S451" s="5" t="inlineStr"/>
+      <c r="T451" s="5" t="inlineStr"/>
+      <c r="U451" s="5" t="inlineStr"/>
+      <c r="V451" s="5" t="inlineStr"/>
+      <c r="W451" s="5" t="inlineStr"/>
+      <c r="X451" s="5" t="inlineStr"/>
+      <c r="Y451" s="5" t="inlineStr"/>
+      <c r="Z451" s="5" t="inlineStr"/>
+      <c r="AA451" s="5" t="inlineStr"/>
+      <c r="AB451" s="5" t="inlineStr"/>
+      <c r="AC451" s="5" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000266</t>
         </is>
       </c>
-      <c r="B451" s="4" t="inlineStr">
+      <c r="B452" s="4" t="inlineStr">
         <is>
           <t>unflavoured e-liquid</t>
         </is>
       </c>
-      <c r="C451" s="4" t="inlineStr">
+      <c r="C452" s="4" t="inlineStr">
         <is>
           <t>An e-liquid that does not contain any e-liquid flavouring.</t>
         </is>
       </c>
-      <c r="D451" s="4" t="inlineStr">
+      <c r="D452" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">e-liquid </t>
         </is>
       </c>
-      <c r="E451" s="4" t="inlineStr">
+      <c r="E452" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F451" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G451" s="4" t="inlineStr"/>
-      <c r="H451" s="4" t="inlineStr"/>
-      <c r="I451" s="4" t="n">
+      <c r="F452" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G452" s="4" t="inlineStr"/>
+      <c r="H452" s="4" t="inlineStr"/>
+      <c r="I452" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J451" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K451" s="4" t="inlineStr"/>
-      <c r="L451" s="4" t="inlineStr">
+      <c r="J452" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K452" s="4" t="inlineStr"/>
+      <c r="L452" s="4" t="inlineStr">
         <is>
           <t>SC; KS; RW</t>
         </is>
       </c>
-      <c r="M451" s="4" t="inlineStr">
+      <c r="M452" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N451" s="4" t="inlineStr"/>
-      <c r="O451" s="4" t="inlineStr"/>
-      <c r="P451" s="4" t="inlineStr"/>
-      <c r="Q451" s="4" t="inlineStr"/>
-      <c r="R451" s="4" t="inlineStr"/>
-      <c r="S451" s="4" t="inlineStr"/>
-      <c r="T451" s="4" t="inlineStr"/>
-      <c r="U451" s="4" t="inlineStr"/>
-      <c r="V451" s="4" t="inlineStr"/>
-      <c r="W451" s="4" t="inlineStr"/>
-      <c r="X451" s="4" t="inlineStr"/>
-      <c r="Y451" s="4" t="inlineStr"/>
-      <c r="Z451" s="4" t="inlineStr"/>
-      <c r="AA451" s="4" t="inlineStr"/>
-      <c r="AB451" s="4" t="inlineStr"/>
-      <c r="AC451" s="4" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="5" t="inlineStr">
+      <c r="N452" s="4" t="inlineStr"/>
+      <c r="O452" s="4" t="inlineStr"/>
+      <c r="P452" s="4" t="inlineStr"/>
+      <c r="Q452" s="4" t="inlineStr"/>
+      <c r="R452" s="4" t="inlineStr"/>
+      <c r="S452" s="4" t="inlineStr"/>
+      <c r="T452" s="4" t="inlineStr"/>
+      <c r="U452" s="4" t="inlineStr"/>
+      <c r="V452" s="4" t="inlineStr"/>
+      <c r="W452" s="4" t="inlineStr"/>
+      <c r="X452" s="4" t="inlineStr"/>
+      <c r="Y452" s="4" t="inlineStr"/>
+      <c r="Z452" s="4" t="inlineStr"/>
+      <c r="AA452" s="4" t="inlineStr"/>
+      <c r="AB452" s="4" t="inlineStr"/>
+      <c r="AC452" s="4" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0000315</t>
         </is>
       </c>
-      <c r="B452" s="5" t="inlineStr">
+      <c r="B453" s="5" t="inlineStr">
         <is>
           <t>vape pen</t>
         </is>
       </c>
-      <c r="C452" s="5" t="inlineStr">
+      <c r="C453" s="5" t="inlineStr">
         <is>
           <t>An e-cigarette that is pen shaped.</t>
         </is>
       </c>
-      <c r="D452" s="5" t="inlineStr">
+      <c r="D453" s="5" t="inlineStr">
         <is>
           <t>e-cigarette</t>
         </is>
       </c>
-      <c r="E452" s="5" t="inlineStr">
+      <c r="E453" s="5" t="inlineStr">
         <is>
           <t>Object</t>
         </is>
       </c>
-      <c r="F452" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G452" s="5" t="inlineStr"/>
-      <c r="H452" s="5" t="inlineStr"/>
-      <c r="I452" s="5" t="n">
+      <c r="F453" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G453" s="5" t="inlineStr"/>
+      <c r="H453" s="5" t="inlineStr"/>
+      <c r="I453" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J452" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K452" s="5" t="inlineStr"/>
-      <c r="L452" s="5" t="inlineStr">
+      <c r="J453" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K453" s="5" t="inlineStr"/>
+      <c r="L453" s="5" t="inlineStr">
         <is>
           <t>SC;JH</t>
         </is>
       </c>
-      <c r="M452" s="5" t="inlineStr">
+      <c r="M453" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N452" s="5" t="inlineStr"/>
-      <c r="O452" s="5" t="inlineStr"/>
-      <c r="P452" s="5" t="inlineStr"/>
-      <c r="Q452" s="5" t="inlineStr"/>
-      <c r="R452" s="5" t="inlineStr"/>
-      <c r="S452" s="5" t="inlineStr"/>
-      <c r="T452" s="5" t="inlineStr"/>
-      <c r="U452" s="5" t="inlineStr"/>
-      <c r="V452" s="5" t="inlineStr"/>
-      <c r="W452" s="5" t="inlineStr"/>
-      <c r="X452" s="5" t="inlineStr"/>
-      <c r="Y452" s="5" t="inlineStr"/>
-      <c r="Z452" s="5" t="inlineStr"/>
-      <c r="AA452" s="5" t="inlineStr"/>
-      <c r="AB452" s="5" t="inlineStr">
+      <c r="N453" s="5" t="inlineStr"/>
+      <c r="O453" s="5" t="inlineStr"/>
+      <c r="P453" s="5" t="inlineStr"/>
+      <c r="Q453" s="5" t="inlineStr"/>
+      <c r="R453" s="5" t="inlineStr"/>
+      <c r="S453" s="5" t="inlineStr"/>
+      <c r="T453" s="5" t="inlineStr"/>
+      <c r="U453" s="5" t="inlineStr"/>
+      <c r="V453" s="5" t="inlineStr"/>
+      <c r="W453" s="5" t="inlineStr"/>
+      <c r="X453" s="5" t="inlineStr"/>
+      <c r="Y453" s="5" t="inlineStr"/>
+      <c r="Z453" s="5" t="inlineStr"/>
+      <c r="AA453" s="5" t="inlineStr"/>
+      <c r="AB453" s="5" t="inlineStr">
         <is>
           <t>pen-like e-cigarette</t>
         </is>
       </c>
-      <c r="AC452" s="5" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="4" t="inlineStr">
+      <c r="AC453" s="5" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000316</t>
         </is>
       </c>
-      <c r="B453" s="4" t="inlineStr">
+      <c r="B454" s="4" t="inlineStr">
         <is>
           <t>vaping device</t>
         </is>
       </c>
-      <c r="C453" s="4" t="inlineStr">
+      <c r="C454" s="4" t="inlineStr">
         <is>
           <t>A product that produces a vapour for inhalation by a person.</t>
         </is>
       </c>
-      <c r="D453" s="4" t="inlineStr">
+      <c r="D454" s="4" t="inlineStr">
         <is>
           <t>product</t>
         </is>
       </c>
-      <c r="E453" s="4" t="inlineStr">
+      <c r="E454" s="4" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F453" s="4" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G453" s="4" t="inlineStr">
+      <c r="F454" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G454" s="4" t="inlineStr">
         <is>
           <t>This class includes any device that produces vapour or aerosol for inhalation for any purpose. There are many different ways in which the vapour is created and many different substances that are inhaled. It is essential when using this term make clear what type of vaporiser is being referred to and what substance or substances are being inhaled.</t>
         </is>
       </c>
-      <c r="H453" s="4" t="inlineStr"/>
-      <c r="I453" s="4" t="n">
+      <c r="H454" s="4" t="inlineStr"/>
+      <c r="I454" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J453" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K453" s="4" t="inlineStr"/>
-      <c r="L453" s="4" t="inlineStr">
+      <c r="J454" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K454" s="4" t="inlineStr"/>
+      <c r="L454" s="4" t="inlineStr">
         <is>
           <t>SC;JH;RW, CN</t>
         </is>
       </c>
-      <c r="M453" s="4" t="inlineStr">
+      <c r="M454" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="N453" s="4" t="inlineStr">
+      <c r="N454" s="4" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="O453" s="4" t="inlineStr"/>
-      <c r="P453" s="4" t="inlineStr"/>
-      <c r="Q453" s="4" t="inlineStr"/>
-      <c r="R453" s="4" t="inlineStr">
+      <c r="O454" s="4" t="inlineStr"/>
+      <c r="P454" s="4" t="inlineStr"/>
+      <c r="Q454" s="4" t="inlineStr"/>
+      <c r="R454" s="4" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Vaporizer_(inhalation_device)</t>
         </is>
       </c>
-      <c r="S453" s="4" t="inlineStr"/>
-      <c r="T453" s="4" t="inlineStr"/>
-      <c r="U453" s="4" t="inlineStr">
+      <c r="S454" s="4" t="inlineStr"/>
+      <c r="T454" s="4" t="inlineStr"/>
+      <c r="U454" s="4" t="inlineStr">
         <is>
           <t>vaping device part</t>
         </is>
       </c>
-      <c r="V453" s="4" t="inlineStr"/>
-      <c r="W453" s="4" t="inlineStr"/>
-      <c r="X453" s="4" t="inlineStr"/>
-      <c r="Y453" s="4" t="inlineStr"/>
-      <c r="Z453" s="4" t="inlineStr"/>
-      <c r="AA453" s="4" t="inlineStr"/>
-      <c r="AB453" s="4" t="inlineStr">
+      <c r="V454" s="4" t="inlineStr"/>
+      <c r="W454" s="4" t="inlineStr"/>
+      <c r="X454" s="4" t="inlineStr"/>
+      <c r="Y454" s="4" t="inlineStr"/>
+      <c r="Z454" s="4" t="inlineStr"/>
+      <c r="AA454" s="4" t="inlineStr"/>
+      <c r="AB454" s="4" t="inlineStr">
         <is>
           <t>vapouriser; vaporiser; vapourizer; vaporizer</t>
         </is>
       </c>
-      <c r="AC453" s="4" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="2" t="inlineStr">
+      <c r="AC454" s="4" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000317</t>
         </is>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>vaping device part</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>A product part that is a component of a vaping device.</t>
         </is>
       </c>
-      <c r="D454" s="2" t="inlineStr">
+      <c r="D455" s="2" t="inlineStr">
         <is>
           <t>product part</t>
         </is>
       </c>
-      <c r="E454" s="2" t="inlineStr">
+      <c r="E455" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="inlineStr"/>
-      <c r="H454" s="2" t="inlineStr"/>
-      <c r="I454" s="2" t="n">
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="inlineStr"/>
+      <c r="H455" s="2" t="inlineStr"/>
+      <c r="I455" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="inlineStr"/>
-      <c r="L454" s="2" t="inlineStr">
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="inlineStr"/>
+      <c r="L455" s="2" t="inlineStr">
         <is>
           <t>SC;JH;RW; CN</t>
         </is>
       </c>
-      <c r="M454" s="2" t="inlineStr">
+      <c r="M455" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="N454" s="2" t="inlineStr">
+      <c r="N455" s="2" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="O454" s="2" t="inlineStr"/>
-      <c r="P454" s="2" t="inlineStr">
+      <c r="O455" s="2" t="inlineStr"/>
+      <c r="P455" s="2" t="inlineStr">
         <is>
           <t>A part of a vaping device.</t>
         </is>
       </c>
-      <c r="Q454" s="2" t="inlineStr">
+      <c r="Q455" s="2" t="inlineStr">
         <is>
           <t>(product and 'part of' some 'vaping device')</t>
         </is>
       </c>
-      <c r="R454" s="2" t="inlineStr"/>
-      <c r="S454" s="2" t="inlineStr"/>
-      <c r="T454" s="2" t="inlineStr"/>
-      <c r="U454" s="2" t="inlineStr"/>
-      <c r="V454" s="2" t="inlineStr"/>
-      <c r="W454" s="2" t="inlineStr"/>
-      <c r="X454" s="2" t="inlineStr"/>
-      <c r="Y454" s="2" t="inlineStr"/>
-      <c r="Z454" s="2" t="inlineStr"/>
-      <c r="AA454" s="2" t="inlineStr"/>
-      <c r="AB454" s="2" t="inlineStr"/>
-      <c r="AC454" s="2" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
+      <c r="R455" s="2" t="inlineStr"/>
+      <c r="S455" s="2" t="inlineStr"/>
+      <c r="T455" s="2" t="inlineStr"/>
+      <c r="U455" s="2" t="inlineStr"/>
+      <c r="V455" s="2" t="inlineStr"/>
+      <c r="W455" s="2" t="inlineStr"/>
+      <c r="X455" s="2" t="inlineStr"/>
+      <c r="Y455" s="2" t="inlineStr"/>
+      <c r="Z455" s="2" t="inlineStr"/>
+      <c r="AA455" s="2" t="inlineStr"/>
+      <c r="AB455" s="2" t="inlineStr"/>
+      <c r="AC455" s="2" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
         <is>
           <t>CHEBI:84500</t>
         </is>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>varenicline</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>An organic heterotetracyclic compound that acts as a partial agonist for nicotinic cholinergic receptors and is used (in the form of its tartate salt) as an aid to giving up smoking.</t>
         </is>
       </c>
-      <c r="D455" t="inlineStr">
+      <c r="D456" t="inlineStr">
         <is>
           <t>organic heterotetracyclic compound</t>
         </is>
       </c>
-      <c r="E455" t="inlineStr">
+      <c r="E456" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G455" t="inlineStr"/>
-      <c r="H455" t="inlineStr"/>
-      <c r="I455" t="n">
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr"/>
+      <c r="H456" t="inlineStr"/>
+      <c r="I456" t="n">
         <v>1</v>
       </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr">
+      <c r="M456" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N455" t="inlineStr"/>
-      <c r="O455" t="inlineStr"/>
-      <c r="P455" t="inlineStr"/>
-      <c r="Q455" t="inlineStr"/>
-      <c r="R455" t="inlineStr">
+      <c r="N456" t="inlineStr"/>
+      <c r="O456" t="inlineStr"/>
+      <c r="P456" t="inlineStr"/>
+      <c r="Q456" t="inlineStr"/>
+      <c r="R456" t="inlineStr">
         <is>
           <t>CHEBI:84500</t>
         </is>
       </c>
-      <c r="S455" t="inlineStr"/>
-      <c r="T455" t="inlineStr"/>
-      <c r="U455" t="inlineStr"/>
-      <c r="V455" t="inlineStr"/>
-      <c r="W455" t="inlineStr"/>
-      <c r="X455" t="inlineStr"/>
-      <c r="Y455" t="inlineStr"/>
-      <c r="Z455" t="inlineStr"/>
-      <c r="AA455" t="inlineStr">
+      <c r="S456" t="inlineStr"/>
+      <c r="T456" t="inlineStr"/>
+      <c r="U456" t="inlineStr"/>
+      <c r="V456" t="inlineStr"/>
+      <c r="W456" t="inlineStr"/>
+      <c r="X456" t="inlineStr"/>
+      <c r="Y456" t="inlineStr"/>
+      <c r="Z456" t="inlineStr"/>
+      <c r="AA456" t="inlineStr">
         <is>
           <t xml:space="preserve">NB: ChEBI has two parents for Varenicline </t>
         </is>
       </c>
-      <c r="AB455" t="inlineStr"/>
-      <c r="AC455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="5" t="inlineStr"/>
-      <c r="B456" s="5" t="inlineStr">
+      <c r="AB456" t="inlineStr"/>
+      <c r="AC456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="5" t="inlineStr"/>
+      <c r="B457" s="5" t="inlineStr">
         <is>
           <t>watery tobacco</t>
         </is>
       </c>
-      <c r="C456" s="5" t="inlineStr"/>
-      <c r="D456" s="5" t="inlineStr">
+      <c r="C457" s="5" t="inlineStr"/>
+      <c r="D457" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E456" s="5" t="inlineStr"/>
-      <c r="F456" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G456" s="5" t="inlineStr"/>
-      <c r="H456" s="5" t="inlineStr">
+      <c r="E457" s="5" t="inlineStr"/>
+      <c r="F457" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G457" s="5" t="inlineStr"/>
+      <c r="H457" s="5" t="inlineStr">
         <is>
           <t>https://www.indianjcancer.com/article.asp?issn=0019-509X;year=2014;volume=51;issue=5;spage=3;epage=7;aulast=Sein
 https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I456" s="5" t="inlineStr">
+      <c r="I457" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J456" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K456" s="5" t="inlineStr"/>
-      <c r="L456" s="5" t="inlineStr">
+      <c r="J457" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K457" s="5" t="inlineStr"/>
+      <c r="L457" s="5" t="inlineStr">
         <is>
           <t>KS</t>
         </is>
       </c>
-      <c r="M456" s="5" t="inlineStr">
+      <c r="M457" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N456" s="5" t="inlineStr"/>
-      <c r="O456" s="5" t="inlineStr"/>
-      <c r="P456" s="5" t="inlineStr"/>
-      <c r="Q456" s="5" t="inlineStr"/>
-      <c r="R456" s="5" t="inlineStr"/>
-      <c r="S456" s="5" t="inlineStr"/>
-      <c r="T456" s="5" t="inlineStr"/>
-      <c r="U456" s="5" t="inlineStr"/>
-      <c r="V456" s="5" t="inlineStr"/>
-      <c r="W456" s="5" t="inlineStr"/>
-      <c r="X456" s="5" t="inlineStr"/>
-      <c r="Y456" s="5" t="inlineStr"/>
-      <c r="Z456" s="5" t="inlineStr"/>
-      <c r="AA456" s="5" t="inlineStr"/>
-      <c r="AB456" s="5" t="inlineStr"/>
-      <c r="AC456" s="5" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000745</t>
-        </is>
-      </c>
-      <c r="B457" s="3" t="inlineStr">
-        <is>
-          <t>weekly cost of e-cigarette use</t>
-        </is>
-      </c>
-      <c r="C457" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item which is about the amount of money spent per week on e-cigarettes. </t>
-        </is>
-      </c>
-      <c r="D457" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E457" s="3" t="inlineStr"/>
-      <c r="F457" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G457" s="3" t="inlineStr">
-        <is>
-          <t>Cost relates to currency and period of time, both must be defined.</t>
-        </is>
-      </c>
-      <c r="H457" s="3" t="inlineStr"/>
-      <c r="I457" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J457" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K457" s="3" t="inlineStr"/>
-      <c r="L457" s="3" t="inlineStr">
-        <is>
-          <t>SC;KS; JH; RW</t>
-        </is>
-      </c>
-      <c r="M457" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N457" s="3" t="inlineStr"/>
-      <c r="O457" s="3" t="inlineStr"/>
-      <c r="P457" s="3" t="inlineStr"/>
-      <c r="Q457" s="3" t="inlineStr"/>
-      <c r="R457" s="3" t="inlineStr"/>
-      <c r="S457" s="3" t="inlineStr"/>
-      <c r="T457" s="3" t="inlineStr"/>
-      <c r="U457" s="3" t="inlineStr"/>
-      <c r="V457" s="3" t="inlineStr"/>
-      <c r="W457" s="3" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
-      <c r="X457" s="3" t="inlineStr"/>
-      <c r="Y457" s="3" t="inlineStr"/>
-      <c r="Z457" s="3" t="inlineStr"/>
-      <c r="AA457" s="3" t="inlineStr"/>
-      <c r="AB457" s="3" t="inlineStr"/>
-      <c r="AC457" s="3" t="inlineStr"/>
+      <c r="N457" s="5" t="inlineStr"/>
+      <c r="O457" s="5" t="inlineStr"/>
+      <c r="P457" s="5" t="inlineStr"/>
+      <c r="Q457" s="5" t="inlineStr"/>
+      <c r="R457" s="5" t="inlineStr"/>
+      <c r="S457" s="5" t="inlineStr"/>
+      <c r="T457" s="5" t="inlineStr"/>
+      <c r="U457" s="5" t="inlineStr"/>
+      <c r="V457" s="5" t="inlineStr"/>
+      <c r="W457" s="5" t="inlineStr"/>
+      <c r="X457" s="5" t="inlineStr"/>
+      <c r="Y457" s="5" t="inlineStr"/>
+      <c r="Z457" s="5" t="inlineStr"/>
+      <c r="AA457" s="5" t="inlineStr"/>
+      <c r="AB457" s="5" t="inlineStr"/>
+      <c r="AC457" s="5" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000751</t>
+          <t>ADDICTO:0000745</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
         <is>
-          <t>weekly financial cost of cigarette smoking</t>
+          <t>weekly cost of e-cigarette use</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>A data item that is about the amount of money a person who smokes cigarettes spends on cigarettes.</t>
+          <t xml:space="preserve">A data item which is about the amount of money spent per week on e-cigarettes. </t>
         </is>
       </c>
       <c r="D458" s="3" t="inlineStr">
@@ -33689,11 +33679,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E458" s="3" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
+      <c r="E458" s="3" t="inlineStr"/>
       <c r="F458" s="3" t="inlineStr">
         <is>
           <t>Product</t>
@@ -33701,7 +33687,7 @@
       </c>
       <c r="G458" s="3" t="inlineStr">
         <is>
-          <t>This includes own-roll cigarettes but not cigars.</t>
+          <t>Cost relates to currency and period of time, both must be defined.</t>
         </is>
       </c>
       <c r="H458" s="3" t="inlineStr"/>
@@ -33716,7 +33702,7 @@
       <c r="K458" s="3" t="inlineStr"/>
       <c r="L458" s="3" t="inlineStr">
         <is>
-          <t>KS; JH; RW</t>
+          <t>SC;KS; JH; RW</t>
         </is>
       </c>
       <c r="M458" s="3" t="inlineStr">
@@ -33733,7 +33719,11 @@
       <c r="T458" s="3" t="inlineStr"/>
       <c r="U458" s="3" t="inlineStr"/>
       <c r="V458" s="3" t="inlineStr"/>
-      <c r="W458" s="3" t="inlineStr"/>
+      <c r="W458" s="3" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="X458" s="3" t="inlineStr"/>
       <c r="Y458" s="3" t="inlineStr"/>
       <c r="Z458" s="3" t="inlineStr"/>
@@ -33742,240 +33732,313 @@
       <c r="AC458" s="3" t="inlineStr"/>
     </row>
     <row r="459">
-      <c r="A459" s="5" t="inlineStr">
+      <c r="A459" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000751</t>
+        </is>
+      </c>
+      <c r="B459" s="3" t="inlineStr">
+        <is>
+          <t>weekly financial cost of cigarette smoking</t>
+        </is>
+      </c>
+      <c r="C459" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about the amount of money a person who smokes cigarettes spends on cigarettes.</t>
+        </is>
+      </c>
+      <c r="D459" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E459" s="3" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F459" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G459" s="3" t="inlineStr">
+        <is>
+          <t>This includes own-roll cigarettes but not cigars.</t>
+        </is>
+      </c>
+      <c r="H459" s="3" t="inlineStr"/>
+      <c r="I459" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J459" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K459" s="3" t="inlineStr"/>
+      <c r="L459" s="3" t="inlineStr">
+        <is>
+          <t>KS; JH; RW</t>
+        </is>
+      </c>
+      <c r="M459" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="N459" s="3" t="inlineStr"/>
+      <c r="O459" s="3" t="inlineStr"/>
+      <c r="P459" s="3" t="inlineStr"/>
+      <c r="Q459" s="3" t="inlineStr"/>
+      <c r="R459" s="3" t="inlineStr"/>
+      <c r="S459" s="3" t="inlineStr"/>
+      <c r="T459" s="3" t="inlineStr"/>
+      <c r="U459" s="3" t="inlineStr"/>
+      <c r="V459" s="3" t="inlineStr"/>
+      <c r="W459" s="3" t="inlineStr"/>
+      <c r="X459" s="3" t="inlineStr"/>
+      <c r="Y459" s="3" t="inlineStr"/>
+      <c r="Z459" s="3" t="inlineStr"/>
+      <c r="AA459" s="3" t="inlineStr"/>
+      <c r="AB459" s="3" t="inlineStr"/>
+      <c r="AC459" s="3" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="5" t="inlineStr">
         <is>
           <t>ADDICTO:0001020</t>
         </is>
       </c>
-      <c r="B459" s="5" t="inlineStr">
+      <c r="B460" s="5" t="inlineStr">
         <is>
           <t>white shammah</t>
         </is>
       </c>
-      <c r="C459" s="5" t="inlineStr">
+      <c r="C460" s="5" t="inlineStr">
         <is>
           <t>A smokeless tobacco containing product that is designed for oral use, in which tobacco, slaked lime, ash, black pepper, oil, flavourings, bombosa (sodium carbonate) are mixed to form a dry product.</t>
         </is>
       </c>
-      <c r="D459" s="5" t="inlineStr">
+      <c r="D460" s="5" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E459" s="5" t="inlineStr">
+      <c r="E460" s="5" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F459" s="5" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G459" s="5" t="inlineStr">
+      <c r="F460" s="5" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G460" s="5" t="inlineStr">
         <is>
           <t>It is custom made by vendor or individual and is consumed by sucking or holding between the gum and lower lip or cheek.  In Algeria, users may wrap shammah in paper before putting it in the mouth. Orally chewed or held in the mouth</t>
         </is>
       </c>
-      <c r="H459" s="5" t="inlineStr">
+      <c r="H460" s="5" t="inlineStr">
         <is>
           <t>https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I459" s="5" t="inlineStr">
+      <c r="I460" s="5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J459" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K459" s="5" t="inlineStr"/>
-      <c r="L459" s="5" t="inlineStr">
+      <c r="J460" s="5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K460" s="5" t="inlineStr"/>
+      <c r="L460" s="5" t="inlineStr">
         <is>
           <t>KS: UoY</t>
         </is>
       </c>
-      <c r="M459" s="5" t="inlineStr">
+      <c r="M460" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="N459" s="5" t="inlineStr"/>
-      <c r="O459" s="5" t="inlineStr"/>
-      <c r="P459" s="5" t="inlineStr"/>
-      <c r="Q459" s="5" t="inlineStr"/>
-      <c r="R459" s="5" t="inlineStr"/>
-      <c r="S459" s="5" t="inlineStr"/>
-      <c r="T459" s="5" t="inlineStr"/>
-      <c r="U459" s="5" t="inlineStr"/>
-      <c r="V459" s="5" t="inlineStr"/>
-      <c r="W459" s="5" t="inlineStr"/>
-      <c r="X459" s="5" t="inlineStr"/>
-      <c r="Y459" s="5" t="inlineStr"/>
-      <c r="Z459" s="5" t="inlineStr"/>
-      <c r="AA459" s="5" t="inlineStr"/>
-      <c r="AB459" s="5" t="inlineStr">
+      <c r="N460" s="5" t="inlineStr"/>
+      <c r="O460" s="5" t="inlineStr"/>
+      <c r="P460" s="5" t="inlineStr"/>
+      <c r="Q460" s="5" t="inlineStr"/>
+      <c r="R460" s="5" t="inlineStr"/>
+      <c r="S460" s="5" t="inlineStr"/>
+      <c r="T460" s="5" t="inlineStr"/>
+      <c r="U460" s="5" t="inlineStr"/>
+      <c r="V460" s="5" t="inlineStr"/>
+      <c r="W460" s="5" t="inlineStr"/>
+      <c r="X460" s="5" t="inlineStr"/>
+      <c r="Y460" s="5" t="inlineStr"/>
+      <c r="Z460" s="5" t="inlineStr"/>
+      <c r="AA460" s="5" t="inlineStr"/>
+      <c r="AB460" s="5" t="inlineStr">
         <is>
           <t>el-shamma; bajeli; haradi; sharaci, al-shammah (Saudi Arabia); chemma (Algeria; shamma;  alqat; yemeni snuff</t>
         </is>
       </c>
-      <c r="AC459" s="5" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
+      <c r="AC460" s="5" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
         <is>
           <t>PO:0000003</t>
         </is>
       </c>
-      <c r="B460" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>whole plant</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>A plant structure which is a whole organism.</t>
         </is>
       </c>
-      <c r="D460" t="inlineStr">
+      <c r="D461" t="inlineStr">
         <is>
           <t>organism</t>
         </is>
       </c>
-      <c r="E460" t="inlineStr">
+      <c r="E461" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr"/>
-      <c r="I460" t="n">
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="n">
         <v>1</v>
       </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr">
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
         <is>
           <t>SC/JH; RW</t>
         </is>
       </c>
-      <c r="M460" t="inlineStr">
+      <c r="M461" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="N460" t="inlineStr"/>
-      <c r="O460" t="inlineStr"/>
-      <c r="P460" t="inlineStr"/>
-      <c r="Q460" t="inlineStr"/>
-      <c r="R460" t="inlineStr"/>
-      <c r="S460" t="inlineStr"/>
-      <c r="T460" t="inlineStr"/>
-      <c r="U460" t="inlineStr"/>
-      <c r="V460" t="inlineStr"/>
-      <c r="W460" t="inlineStr"/>
-      <c r="X460" t="inlineStr"/>
-      <c r="Y460" t="inlineStr"/>
-      <c r="Z460" t="inlineStr"/>
-      <c r="AA460" t="inlineStr"/>
-      <c r="AB460" t="inlineStr"/>
-      <c r="AC460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="3" t="inlineStr">
+      <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr"/>
+      <c r="S461" t="inlineStr"/>
+      <c r="T461" t="inlineStr"/>
+      <c r="U461" t="inlineStr"/>
+      <c r="V461" t="inlineStr"/>
+      <c r="W461" t="inlineStr"/>
+      <c r="X461" t="inlineStr"/>
+      <c r="Y461" t="inlineStr"/>
+      <c r="Z461" t="inlineStr"/>
+      <c r="AA461" t="inlineStr"/>
+      <c r="AB461" t="inlineStr"/>
+      <c r="AC461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001015</t>
         </is>
       </c>
-      <c r="B461" s="3" t="inlineStr">
+      <c r="B462" s="3" t="inlineStr">
         <is>
           <t>zarda</t>
         </is>
       </c>
-      <c r="C461" s="3" t="inlineStr">
+      <c r="C462" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A smokeless tobacco-containing product that is designed for oral use, in which boiled and dried tobacco leaves are mixed with lime, spices and vegetable dyes (sometimes areca nut and/or silver flecks) to make a flaky product. </t>
         </is>
       </c>
-      <c r="D461" s="3" t="inlineStr">
+      <c r="D462" s="3" t="inlineStr">
         <is>
           <t>smokeless tobacco-containing product</t>
         </is>
       </c>
-      <c r="E461" s="3" t="inlineStr">
+      <c r="E462" s="3" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F461" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G461" s="3" t="inlineStr">
+      <c r="F462" s="3" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G462" s="3" t="inlineStr">
         <is>
           <t>An oral smokeless tobacco-containing poduct, in which boiled and dried tobacco leaves are mixed with lime, spices and vegetable dyes (sometimes areca nut and/or silver flecks) to make a flaky product. Zarda is commercially manufactured, and it may be chewed by itself, or with chopped areca nuts and spices, or added as an ingredient in betel quid.</t>
         </is>
       </c>
-      <c r="H461" s="3" t="inlineStr">
+      <c r="H462" s="3" t="inlineStr">
         <is>
           <t>https://untobaccocontrol.org/kh/smokeless-tobacco/paan-betel-quid-tobacco/#zarda
 https://cancercontrol.cancer.gov/sites/default/files/2020-06/smokelesstobaccoandpublichealth.pdf</t>
         </is>
       </c>
-      <c r="I461" s="3" t="inlineStr">
+      <c r="I462" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J461" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K461" s="3" t="inlineStr"/>
-      <c r="L461" s="3" t="inlineStr">
+      <c r="J462" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K462" s="3" t="inlineStr"/>
+      <c r="L462" s="3" t="inlineStr">
         <is>
           <t>KS; UoY; RW</t>
         </is>
       </c>
-      <c r="M461" s="3" t="inlineStr">
+      <c r="M462" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="N461" s="3" t="inlineStr"/>
-      <c r="O461" s="3" t="inlineStr"/>
-      <c r="P461" s="3" t="inlineStr"/>
-      <c r="Q461" s="3" t="inlineStr"/>
-      <c r="R461" s="3" t="inlineStr"/>
-      <c r="S461" s="3" t="inlineStr"/>
-      <c r="T461" s="3" t="inlineStr"/>
-      <c r="U461" s="3" t="inlineStr"/>
-      <c r="V461" s="3" t="inlineStr"/>
-      <c r="W461" s="3" t="inlineStr"/>
-      <c r="X461" s="3" t="inlineStr"/>
-      <c r="Y461" s="3" t="inlineStr"/>
-      <c r="Z461" s="3" t="inlineStr"/>
-      <c r="AA461" s="3" t="inlineStr"/>
-      <c r="AB461" s="3" t="inlineStr">
+      <c r="N462" s="3" t="inlineStr"/>
+      <c r="O462" s="3" t="inlineStr"/>
+      <c r="P462" s="3" t="inlineStr"/>
+      <c r="Q462" s="3" t="inlineStr"/>
+      <c r="R462" s="3" t="inlineStr"/>
+      <c r="S462" s="3" t="inlineStr"/>
+      <c r="T462" s="3" t="inlineStr"/>
+      <c r="U462" s="3" t="inlineStr"/>
+      <c r="V462" s="3" t="inlineStr"/>
+      <c r="W462" s="3" t="inlineStr"/>
+      <c r="X462" s="3" t="inlineStr"/>
+      <c r="Y462" s="3" t="inlineStr"/>
+      <c r="Z462" s="3" t="inlineStr"/>
+      <c r="AA462" s="3" t="inlineStr"/>
+      <c r="AB462" s="3" t="inlineStr">
         <is>
           <t>dokta; vizapatta</t>
         </is>
       </c>
-      <c r="AC461" s="3" t="inlineStr"/>
+      <c r="AC462" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -954,83 +954,83 @@
       <c r="AC7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000208</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>Clinical Research Support System</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>A chemical measurement device that measures the amount of some smoke constituent produced by puffing on a cigarette.</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>chemical measurement device</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr"/>
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="3" t="inlineStr"/>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N8" s="7" t="inlineStr"/>
+      <c r="O8" s="7" t="inlineStr"/>
+      <c r="P8" s="7" t="inlineStr">
         <is>
           <t>A device for measuring the chemicals ingested when puffing on a cigarette.</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr"/>
-      <c r="R8" s="3" t="inlineStr"/>
-      <c r="S8" s="3" t="inlineStr"/>
-      <c r="T8" s="3" t="inlineStr"/>
-      <c r="U8" s="3" t="inlineStr"/>
-      <c r="V8" s="3" t="inlineStr"/>
-      <c r="W8" s="3" t="inlineStr"/>
-      <c r="X8" s="3" t="inlineStr"/>
-      <c r="Y8" s="3" t="inlineStr"/>
-      <c r="Z8" s="3" t="inlineStr"/>
-      <c r="AA8" s="3" t="inlineStr"/>
-      <c r="AB8" s="3" t="inlineStr">
+      <c r="Q8" s="7" t="inlineStr"/>
+      <c r="R8" s="7" t="inlineStr"/>
+      <c r="S8" s="7" t="inlineStr"/>
+      <c r="T8" s="7" t="inlineStr"/>
+      <c r="U8" s="7" t="inlineStr"/>
+      <c r="V8" s="7" t="inlineStr"/>
+      <c r="W8" s="7" t="inlineStr"/>
+      <c r="X8" s="7" t="inlineStr"/>
+      <c r="Y8" s="7" t="inlineStr"/>
+      <c r="Z8" s="7" t="inlineStr"/>
+      <c r="AA8" s="7" t="inlineStr"/>
+      <c r="AB8" s="7" t="inlineStr">
         <is>
           <t>CReSS</t>
         </is>
       </c>
-      <c r="AC8" s="3" t="inlineStr"/>
+      <c r="AC8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -1684,75 +1684,75 @@
       <c r="AC17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001242</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>advertising</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>Marketing that consists of paid-for messaging.</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="7" t="inlineStr">
         <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="7" t="inlineStr"/>
+      <c r="L18" s="7" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="M18" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="inlineStr"/>
-      <c r="R18" s="3" t="inlineStr"/>
-      <c r="S18" s="3" t="inlineStr"/>
-      <c r="T18" s="3" t="inlineStr"/>
-      <c r="U18" s="3" t="inlineStr"/>
-      <c r="V18" s="3" t="inlineStr"/>
-      <c r="W18" s="3" t="inlineStr"/>
-      <c r="X18" s="3" t="inlineStr"/>
-      <c r="Y18" s="3" t="inlineStr"/>
-      <c r="Z18" s="3" t="inlineStr"/>
-      <c r="AA18" s="3" t="inlineStr"/>
-      <c r="AB18" s="3" t="inlineStr"/>
-      <c r="AC18" s="3" t="inlineStr"/>
+      <c r="M18" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N18" s="7" t="inlineStr"/>
+      <c r="O18" s="7" t="inlineStr"/>
+      <c r="P18" s="7" t="inlineStr"/>
+      <c r="Q18" s="7" t="inlineStr"/>
+      <c r="R18" s="7" t="inlineStr"/>
+      <c r="S18" s="7" t="inlineStr"/>
+      <c r="T18" s="7" t="inlineStr"/>
+      <c r="U18" s="7" t="inlineStr"/>
+      <c r="V18" s="7" t="inlineStr"/>
+      <c r="W18" s="7" t="inlineStr"/>
+      <c r="X18" s="7" t="inlineStr"/>
+      <c r="Y18" s="7" t="inlineStr"/>
+      <c r="Z18" s="7" t="inlineStr"/>
+      <c r="AA18" s="7" t="inlineStr"/>
+      <c r="AB18" s="7" t="inlineStr"/>
+      <c r="AC18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2042,71 +2042,71 @@
       <c r="AC22" s="7" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000735</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="7" t="inlineStr">
         <is>
           <t>alcohol beverage retailer</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>A retailer that sells alcohol beverages.</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" s="7" t="inlineStr">
         <is>
           <t>retailer</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr"/>
-      <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr">
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" s="7" t="inlineStr"/>
+      <c r="L23" s="7" t="inlineStr">
         <is>
           <t>KS; JH; RW</t>
         </is>
       </c>
-      <c r="M23" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="inlineStr"/>
-      <c r="P23" s="3" t="inlineStr"/>
-      <c r="Q23" s="3" t="inlineStr"/>
-      <c r="R23" s="3" t="inlineStr"/>
-      <c r="S23" s="3" t="inlineStr"/>
-      <c r="T23" s="3" t="inlineStr"/>
-      <c r="U23" s="3" t="inlineStr"/>
-      <c r="V23" s="3" t="inlineStr"/>
-      <c r="W23" s="3" t="inlineStr"/>
-      <c r="X23" s="3" t="inlineStr"/>
-      <c r="Y23" s="3" t="inlineStr"/>
-      <c r="Z23" s="3" t="inlineStr"/>
-      <c r="AA23" s="3" t="inlineStr"/>
-      <c r="AB23" s="3" t="inlineStr"/>
-      <c r="AC23" s="3" t="inlineStr"/>
+      <c r="M23" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N23" s="7" t="inlineStr"/>
+      <c r="O23" s="7" t="inlineStr"/>
+      <c r="P23" s="7" t="inlineStr"/>
+      <c r="Q23" s="7" t="inlineStr"/>
+      <c r="R23" s="7" t="inlineStr"/>
+      <c r="S23" s="7" t="inlineStr"/>
+      <c r="T23" s="7" t="inlineStr"/>
+      <c r="U23" s="7" t="inlineStr"/>
+      <c r="V23" s="7" t="inlineStr"/>
+      <c r="W23" s="7" t="inlineStr"/>
+      <c r="X23" s="7" t="inlineStr"/>
+      <c r="Y23" s="7" t="inlineStr"/>
+      <c r="Z23" s="7" t="inlineStr"/>
+      <c r="AA23" s="7" t="inlineStr"/>
+      <c r="AB23" s="7" t="inlineStr"/>
+      <c r="AC23" s="7" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15700,79 +15700,79 @@
       <c r="AC215" s="7" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="inlineStr">
+      <c r="A216" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000186</t>
         </is>
       </c>
-      <c r="B216" s="3" t="inlineStr">
+      <c r="B216" s="7" t="inlineStr">
         <is>
           <t>individual-level harm to health of product use</t>
         </is>
       </c>
-      <c r="C216" s="3" t="inlineStr">
+      <c r="C216" s="7" t="inlineStr">
         <is>
           <t>Individual-level harm of product use where the harm is to health.</t>
         </is>
       </c>
-      <c r="D216" s="3" t="inlineStr">
+      <c r="D216" s="7" t="inlineStr">
         <is>
           <t>individual-level harm of product use</t>
         </is>
       </c>
-      <c r="E216" s="3" t="inlineStr">
+      <c r="E216" s="7" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="F216" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G216" s="3" t="inlineStr"/>
-      <c r="H216" s="3" t="inlineStr"/>
-      <c r="I216" s="3" t="n">
+      <c r="F216" s="7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G216" s="7" t="inlineStr"/>
+      <c r="H216" s="7" t="inlineStr"/>
+      <c r="I216" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J216" s="3" t="n">
+      <c r="J216" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K216" s="3" t="inlineStr">
+      <c r="K216" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Because what constitutes harm needs to be operationalised. </t>
         </is>
       </c>
-      <c r="L216" s="3" t="inlineStr">
+      <c r="L216" s="7" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="M216" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N216" s="3" t="inlineStr"/>
-      <c r="O216" s="3" t="inlineStr"/>
-      <c r="P216" s="3" t="inlineStr">
+      <c r="M216" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N216" s="7" t="inlineStr"/>
+      <c r="O216" s="7" t="inlineStr"/>
+      <c r="P216" s="7" t="inlineStr">
         <is>
           <t>The harm to health caused to an individual from their use of a product.</t>
         </is>
       </c>
-      <c r="Q216" s="3" t="inlineStr"/>
-      <c r="R216" s="3" t="inlineStr"/>
-      <c r="S216" s="3" t="inlineStr"/>
-      <c r="T216" s="3" t="inlineStr"/>
-      <c r="U216" s="3" t="inlineStr"/>
-      <c r="V216" s="3" t="inlineStr"/>
-      <c r="W216" s="3" t="inlineStr"/>
-      <c r="X216" s="3" t="inlineStr"/>
-      <c r="Y216" s="3" t="inlineStr"/>
-      <c r="Z216" s="3" t="inlineStr"/>
-      <c r="AA216" s="3" t="inlineStr"/>
-      <c r="AB216" s="3" t="inlineStr"/>
-      <c r="AC216" s="3" t="inlineStr"/>
+      <c r="Q216" s="7" t="inlineStr"/>
+      <c r="R216" s="7" t="inlineStr"/>
+      <c r="S216" s="7" t="inlineStr"/>
+      <c r="T216" s="7" t="inlineStr"/>
+      <c r="U216" s="7" t="inlineStr"/>
+      <c r="V216" s="7" t="inlineStr"/>
+      <c r="W216" s="7" t="inlineStr"/>
+      <c r="X216" s="7" t="inlineStr"/>
+      <c r="Y216" s="7" t="inlineStr"/>
+      <c r="Z216" s="7" t="inlineStr"/>
+      <c r="AA216" s="7" t="inlineStr"/>
+      <c r="AB216" s="7" t="inlineStr"/>
+      <c r="AC216" s="7" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
@@ -30685,75 +30685,75 @@
       <c r="AC432" s="5" t="inlineStr"/>
     </row>
     <row r="433">
-      <c r="A433" s="3" t="inlineStr">
+      <c r="A433" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001246</t>
         </is>
       </c>
-      <c r="B433" s="3" t="inlineStr">
+      <c r="B433" s="7" t="inlineStr">
         <is>
           <t>tobacco marketing</t>
         </is>
       </c>
-      <c r="C433" s="3" t="inlineStr">
+      <c r="C433" s="7" t="inlineStr">
         <is>
           <t>Marketing of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D433" s="3" t="inlineStr">
+      <c r="D433" s="7" t="inlineStr">
         <is>
           <t>marketing</t>
         </is>
       </c>
-      <c r="E433" s="3" t="inlineStr">
+      <c r="E433" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F433" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G433" s="3" t="inlineStr"/>
-      <c r="H433" s="3" t="inlineStr"/>
-      <c r="I433" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J433" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K433" s="3" t="inlineStr"/>
-      <c r="L433" s="3" t="inlineStr">
+      <c r="F433" s="7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G433" s="7" t="inlineStr"/>
+      <c r="H433" s="7" t="inlineStr"/>
+      <c r="I433" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J433" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K433" s="7" t="inlineStr"/>
+      <c r="L433" s="7" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="M433" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N433" s="3" t="inlineStr"/>
-      <c r="O433" s="3" t="inlineStr"/>
-      <c r="P433" s="3" t="inlineStr"/>
-      <c r="Q433" s="3" t="inlineStr"/>
-      <c r="R433" s="3" t="inlineStr"/>
-      <c r="S433" s="3" t="inlineStr"/>
-      <c r="T433" s="3" t="inlineStr"/>
-      <c r="U433" s="3" t="inlineStr"/>
-      <c r="V433" s="3" t="inlineStr"/>
-      <c r="W433" s="3" t="inlineStr"/>
-      <c r="X433" s="3" t="inlineStr"/>
-      <c r="Y433" s="3" t="inlineStr"/>
-      <c r="Z433" s="3" t="inlineStr"/>
-      <c r="AA433" s="3" t="inlineStr"/>
-      <c r="AB433" s="3" t="inlineStr"/>
-      <c r="AC433" s="3" t="inlineStr"/>
+      <c r="M433" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N433" s="7" t="inlineStr"/>
+      <c r="O433" s="7" t="inlineStr"/>
+      <c r="P433" s="7" t="inlineStr"/>
+      <c r="Q433" s="7" t="inlineStr"/>
+      <c r="R433" s="7" t="inlineStr"/>
+      <c r="S433" s="7" t="inlineStr"/>
+      <c r="T433" s="7" t="inlineStr"/>
+      <c r="U433" s="7" t="inlineStr"/>
+      <c r="V433" s="7" t="inlineStr"/>
+      <c r="W433" s="7" t="inlineStr"/>
+      <c r="X433" s="7" t="inlineStr"/>
+      <c r="Y433" s="7" t="inlineStr"/>
+      <c r="Z433" s="7" t="inlineStr"/>
+      <c r="AA433" s="7" t="inlineStr"/>
+      <c r="AB433" s="7" t="inlineStr"/>
+      <c r="AC433" s="7" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="4" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -7096,75 +7096,75 @@
       <c r="AC94" s="4" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr">
+      <c r="A95" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0001243</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" s="7" t="inlineStr">
         <is>
           <t>cinema advertising</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
+      <c r="C95" s="7" t="inlineStr">
         <is>
           <t>Advertising that consists of video images shown in a cinema.</t>
         </is>
       </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="D95" s="7" t="inlineStr">
         <is>
           <t>advertising</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
+      <c r="E95" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F95" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G95" s="3" t="inlineStr"/>
-      <c r="H95" s="3" t="inlineStr"/>
-      <c r="I95" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J95" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K95" s="3" t="inlineStr"/>
-      <c r="L95" s="3" t="inlineStr">
+      <c r="F95" s="7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G95" s="7" t="inlineStr"/>
+      <c r="H95" s="7" t="inlineStr"/>
+      <c r="I95" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J95" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" s="7" t="inlineStr"/>
+      <c r="L95" s="7" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="M95" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N95" s="3" t="inlineStr"/>
-      <c r="O95" s="3" t="inlineStr"/>
-      <c r="P95" s="3" t="inlineStr"/>
-      <c r="Q95" s="3" t="inlineStr"/>
-      <c r="R95" s="3" t="inlineStr"/>
-      <c r="S95" s="3" t="inlineStr"/>
-      <c r="T95" s="3" t="inlineStr"/>
-      <c r="U95" s="3" t="inlineStr"/>
-      <c r="V95" s="3" t="inlineStr"/>
-      <c r="W95" s="3" t="inlineStr"/>
-      <c r="X95" s="3" t="inlineStr"/>
-      <c r="Y95" s="3" t="inlineStr"/>
-      <c r="Z95" s="3" t="inlineStr"/>
-      <c r="AA95" s="3" t="inlineStr"/>
-      <c r="AB95" s="3" t="inlineStr"/>
-      <c r="AC95" s="3" t="inlineStr"/>
+      <c r="M95" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N95" s="7" t="inlineStr"/>
+      <c r="O95" s="7" t="inlineStr"/>
+      <c r="P95" s="7" t="inlineStr"/>
+      <c r="Q95" s="7" t="inlineStr"/>
+      <c r="R95" s="7" t="inlineStr"/>
+      <c r="S95" s="7" t="inlineStr"/>
+      <c r="T95" s="7" t="inlineStr"/>
+      <c r="U95" s="7" t="inlineStr"/>
+      <c r="V95" s="7" t="inlineStr"/>
+      <c r="W95" s="7" t="inlineStr"/>
+      <c r="X95" s="7" t="inlineStr"/>
+      <c r="Y95" s="7" t="inlineStr"/>
+      <c r="Z95" s="7" t="inlineStr"/>
+      <c r="AA95" s="7" t="inlineStr"/>
+      <c r="AB95" s="7" t="inlineStr"/>
+      <c r="AC95" s="7" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
@@ -30262,73 +30262,73 @@
       <c r="AC426" s="4" t="inlineStr"/>
     </row>
     <row r="427">
-      <c r="A427" s="3" t="inlineStr">
+      <c r="A427" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000306</t>
         </is>
       </c>
-      <c r="B427" s="3" t="inlineStr">
+      <c r="B427" s="7" t="inlineStr">
         <is>
           <t>tobacco advertising</t>
         </is>
       </c>
-      <c r="C427" s="3" t="inlineStr">
+      <c r="C427" s="7" t="inlineStr">
         <is>
           <t>Advertising of a tobacco-containing product.</t>
         </is>
       </c>
-      <c r="D427" s="3" t="inlineStr">
+      <c r="D427" s="7" t="inlineStr">
         <is>
           <t>advertising</t>
         </is>
       </c>
-      <c r="E427" s="3" t="inlineStr">
+      <c r="E427" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F427" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G427" s="3" t="inlineStr"/>
-      <c r="H427" s="3" t="inlineStr"/>
-      <c r="I427" s="3" t="n">
+      <c r="F427" s="7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G427" s="7" t="inlineStr"/>
+      <c r="H427" s="7" t="inlineStr"/>
+      <c r="I427" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J427" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K427" s="3" t="inlineStr"/>
-      <c r="L427" s="3" t="inlineStr">
+      <c r="J427" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K427" s="7" t="inlineStr"/>
+      <c r="L427" s="7" t="inlineStr">
         <is>
           <t>SC;JH; RW</t>
         </is>
       </c>
-      <c r="M427" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N427" s="3" t="inlineStr"/>
-      <c r="O427" s="3" t="inlineStr"/>
-      <c r="P427" s="3" t="inlineStr"/>
-      <c r="Q427" s="3" t="inlineStr"/>
-      <c r="R427" s="3" t="inlineStr"/>
-      <c r="S427" s="3" t="inlineStr"/>
-      <c r="T427" s="3" t="inlineStr"/>
-      <c r="U427" s="3" t="inlineStr"/>
-      <c r="V427" s="3" t="inlineStr"/>
-      <c r="W427" s="3" t="inlineStr"/>
-      <c r="X427" s="3" t="inlineStr"/>
-      <c r="Y427" s="3" t="inlineStr"/>
-      <c r="Z427" s="3" t="inlineStr"/>
-      <c r="AA427" s="3" t="inlineStr"/>
-      <c r="AB427" s="3" t="inlineStr"/>
-      <c r="AC427" s="3" t="inlineStr"/>
+      <c r="M427" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N427" s="7" t="inlineStr"/>
+      <c r="O427" s="7" t="inlineStr"/>
+      <c r="P427" s="7" t="inlineStr"/>
+      <c r="Q427" s="7" t="inlineStr"/>
+      <c r="R427" s="7" t="inlineStr"/>
+      <c r="S427" s="7" t="inlineStr"/>
+      <c r="T427" s="7" t="inlineStr"/>
+      <c r="U427" s="7" t="inlineStr"/>
+      <c r="V427" s="7" t="inlineStr"/>
+      <c r="W427" s="7" t="inlineStr"/>
+      <c r="X427" s="7" t="inlineStr"/>
+      <c r="Y427" s="7" t="inlineStr"/>
+      <c r="Z427" s="7" t="inlineStr"/>
+      <c r="AA427" s="7" t="inlineStr"/>
+      <c r="AB427" s="7" t="inlineStr"/>
+      <c r="AC427" s="7" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="5" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -7167,73 +7167,73 @@
       <c r="AC95" s="7" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="inlineStr">
+      <c r="A96" s="7" t="inlineStr">
         <is>
           <t>ADDICTO:0000894</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" s="7" t="inlineStr">
         <is>
           <t>cinema tobacco advertising</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
+      <c r="C96" s="7" t="inlineStr">
         <is>
           <t>Cinema advertising of a tobacco product.</t>
         </is>
       </c>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="D96" s="7" t="inlineStr">
         <is>
           <t>cinema advertising</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
+      <c r="E96" s="7" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F96" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G96" s="3" t="inlineStr"/>
-      <c r="H96" s="3" t="inlineStr"/>
-      <c r="I96" s="3" t="n">
+      <c r="F96" s="7" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G96" s="7" t="inlineStr"/>
+      <c r="H96" s="7" t="inlineStr"/>
+      <c r="I96" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J96" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K96" s="3" t="inlineStr"/>
-      <c r="L96" s="3" t="inlineStr">
+      <c r="J96" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" s="7" t="inlineStr"/>
+      <c r="L96" s="7" t="inlineStr">
         <is>
           <t>KS; RW</t>
         </is>
       </c>
-      <c r="M96" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="N96" s="3" t="inlineStr"/>
-      <c r="O96" s="3" t="inlineStr"/>
-      <c r="P96" s="3" t="inlineStr"/>
-      <c r="Q96" s="3" t="inlineStr"/>
-      <c r="R96" s="3" t="inlineStr"/>
-      <c r="S96" s="3" t="inlineStr"/>
-      <c r="T96" s="3" t="inlineStr"/>
-      <c r="U96" s="3" t="inlineStr"/>
-      <c r="V96" s="3" t="inlineStr"/>
-      <c r="W96" s="3" t="inlineStr"/>
-      <c r="X96" s="3" t="inlineStr"/>
-      <c r="Y96" s="3" t="inlineStr"/>
-      <c r="Z96" s="3" t="inlineStr"/>
-      <c r="AA96" s="3" t="inlineStr"/>
-      <c r="AB96" s="3" t="inlineStr"/>
-      <c r="AC96" s="3" t="inlineStr"/>
+      <c r="M96" s="7" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="N96" s="7" t="inlineStr"/>
+      <c r="O96" s="7" t="inlineStr"/>
+      <c r="P96" s="7" t="inlineStr"/>
+      <c r="Q96" s="7" t="inlineStr"/>
+      <c r="R96" s="7" t="inlineStr"/>
+      <c r="S96" s="7" t="inlineStr"/>
+      <c r="T96" s="7" t="inlineStr"/>
+      <c r="U96" s="7" t="inlineStr"/>
+      <c r="V96" s="7" t="inlineStr"/>
+      <c r="W96" s="7" t="inlineStr"/>
+      <c r="X96" s="7" t="inlineStr"/>
+      <c r="Y96" s="7" t="inlineStr"/>
+      <c r="Z96" s="7" t="inlineStr"/>
+      <c r="AA96" s="7" t="inlineStr"/>
+      <c r="AB96" s="7" t="inlineStr"/>
+      <c r="AC96" s="7" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EC 1.1.1.* (oxidoreductase acting on donor CH-OH group, NAD( ) or NADP( ) acceptor) inhibitor</t>
+          <t>EC 1.1.1.* (oxidoreductase acting on donor CH-OH group, NAD(+) or NADP( ) acceptor) inhibitor</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EC 1.1.1.* (oxidoreductase acting on donor CH-OH group, NAD(+) or NADP( ) acceptor) inhibitor</t>
+          <t>EC 1.1.1.* (oxidoreductase acting on donor CH-OH group, NAD(+) or NADP(+) acceptor) inhibitor</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -2289,7 +2289,11 @@
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -2289,11 +2289,7 @@
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -16999,7 +16999,7 @@
       <c r="K230" s="4" t="inlineStr"/>
       <c r="L230" s="4" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW; JH; BG</t>
         </is>
       </c>
       <c r="M230" s="4" t="inlineStr">
@@ -17012,7 +17012,7 @@
       <c r="P230" s="4" t="inlineStr"/>
       <c r="Q230" s="4" t="inlineStr">
         <is>
-          <t>(commodity and 'has quality' some liquid)</t>
+          <t>( 'has quality' some liquid)</t>
         </is>
       </c>
       <c r="R230" s="4" t="inlineStr"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -17012,7 +17012,7 @@
       <c r="P230" s="4" t="inlineStr"/>
       <c r="Q230" s="4" t="inlineStr">
         <is>
-          <t>( 'has quality' some liquid)</t>
+          <t>( 'has quality' some entity)</t>
         </is>
       </c>
       <c r="R230" s="4" t="inlineStr"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -17012,7 +17012,7 @@
       <c r="P230" s="4" t="inlineStr"/>
       <c r="Q230" s="4" t="inlineStr">
         <is>
-          <t>( 'has quality' some entity)</t>
+          <t>(commodity that 'has quality' some 'liquid')</t>
         </is>
       </c>
       <c r="R230" s="4" t="inlineStr"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -7925,71 +7925,71 @@
       <c r="AA102" s="4" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
         <is>
           <t>PATO:0000033</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>concentration</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>A quality inhering in a substance by virtue of the amount of the bearer's there is mixed with another substance.</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr">
         <is>
           <t>molecular quality</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr"/>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="inlineStr"/>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>RW; BG</t>
+        </is>
+      </c>
+      <c r="M103" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="N103" s="2" t="inlineStr"/>
+      <c r="O103" s="2" t="inlineStr"/>
+      <c r="P103" s="2" t="inlineStr"/>
+      <c r="Q103" s="2" t="inlineStr"/>
+      <c r="R103" s="2" t="inlineStr"/>
+      <c r="S103" s="2" t="inlineStr"/>
+      <c r="T103" s="2" t="inlineStr"/>
+      <c r="U103" s="2" t="inlineStr"/>
+      <c r="V103" s="2" t="inlineStr"/>
+      <c r="W103" s="2" t="inlineStr"/>
+      <c r="X103" s="2" t="inlineStr"/>
+      <c r="Y103" s="2" t="inlineStr"/>
+      <c r="Z103" s="2" t="inlineStr"/>
+      <c r="AA103" s="2" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -7932,7 +7932,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>concentration</t>
+          <t>concentration of</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>molecular quality</t>
+          <t>PATO_0000070</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7968,7 +7968,7 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; BG</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PATO_0000070</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>molecular quality</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7968,7 +7968,7 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; BG</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>molecular quality</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7968,7 +7968,7 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; BG</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -3989,7 +3989,11 @@
           <t>A morphinane alkaloid that is 7,8-dihydromorphine 6-O-methyl ether in which positions 6 and 14 are joined by a -CH2CH2- bridge, one of the hydrogens of the N-methyl group is substituted by cyclopropyl, and a hydrogen at position 7 is substituted by a 2-hydroxy-3,3-dimethylbutan-2-yl group. [RW: 'Morphine alkaloid ...?]</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>morphinane alkaloid</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Independent continuant</t>
@@ -4015,7 +4019,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>SC;JH</t>
+          <t>SC;JH; BG</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -19279,7 +19283,11 @@
           <t xml:space="preserve">An organic heteropentacyclic compound that is naloxone substituted in which the allyl group attached to the nitrogen is replaced by a cyclopropylmethyl group. </t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>organic heteropentacyclic compound</t>
+        </is>
+      </c>
       <c r="E263" t="inlineStr">
         <is>
           <t>Object</t>
@@ -19309,7 +19317,7 @@
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
-          <t>SC;JH</t>
+          <t>SC;JH; BG</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
